--- a/zencart/docs/模块功能划分.xlsx
+++ b/zencart/docs/模块功能划分.xlsx
@@ -912,7 +912,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>template_default/templates/tpl_modules_all_static.php</a:t>
+            <a:t>templates/tpl_modules_all_static.php</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US"/>
         </a:p>
@@ -941,12 +941,16 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{751BFCC2-5F88-40AC-9F23-CCD8B0A8CF59}">
-      <dgm:prSet phldrT="[文本]" phldr="1"/>
+      <dgm:prSet phldrT="[文本]"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Hot Products</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US"/>
         </a:p>
       </dgm:t>
@@ -973,18 +977,22 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{FC54BD7F-EF92-4DC7-9795-CD1617172E7D}">
-      <dgm:prSet phldrT="[文本]" phldr="1"/>
+    <dgm:pt modelId="{FFD8F32D-B195-4ADE-8246-A236FF3BFD4A}">
+      <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>best_seller/all_static_index.php</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{D21EFF2D-A8A8-499F-A20B-49C531D0C0B0}" type="parTrans" cxnId="{1AE8C1FD-E6BF-45B3-BD66-7725DC366F18}">
+    <dgm:pt modelId="{CCE36AF9-53A7-421E-BF92-9119B4406297}" type="parTrans" cxnId="{6A286E15-AD11-4245-B4DC-737436A4B064}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -995,7 +1003,81 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{1423673A-1E41-439F-B7D8-1F0FA537B3DE}" type="sibTrans" cxnId="{1AE8C1FD-E6BF-45B3-BD66-7725DC366F18}">
+    <dgm:pt modelId="{2100A36A-806C-4393-96E7-3A7E3BE8BD94}" type="sibTrans" cxnId="{6A286E15-AD11-4245-B4DC-737436A4B064}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DD3ABD79-A677-4DE9-BA9B-427393871600}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>zencart.home_page_static_model</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{54D9C2C6-62F7-40AB-8ACC-BDFDED52623B}" type="parTrans" cxnId="{10FD33E2-9DE3-4053-BF86-86262DA1DD9F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{65616A6F-FDDA-4133-BB64-19C98DC9884F}" type="sibTrans" cxnId="{10FD33E2-9DE3-4053-BF86-86262DA1DD9F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{91CE8400-51B3-4747-9EEC-13C1A31BF42B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>New Products</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EE4E5FA6-FBA4-4C66-A49B-F430907132F4}" type="parTrans" cxnId="{9C5BE95D-512F-40E2-A637-995AED664305}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7E648C08-0799-4444-898C-778894FA2175}" type="sibTrans" cxnId="{9C5BE95D-512F-40E2-A637-995AED664305}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1017,6 +1099,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C244C81B-1CD7-462F-B0CF-37FC88E5CADF}" type="pres">
       <dgm:prSet presAssocID="{FCEA7913-F398-4F38-A645-76836DC5EE7B}" presName="root1" presStyleCnt="0"/>
@@ -1029,128 +1118,296 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FE9F4E18-3036-406F-B843-4B2BF1704AA4}" type="pres">
       <dgm:prSet presAssocID="{FCEA7913-F398-4F38-A645-76836DC5EE7B}" presName="level2hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{958C144E-3B45-4F84-801D-D6F5732ADC86}" type="pres">
-      <dgm:prSet presAssocID="{58557C75-5233-401F-BD00-DC0336A2F294}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{58557C75-5233-401F-BD00-DC0336A2F294}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C484EE70-2711-4FC5-9E26-988AA2AA25E7}" type="pres">
-      <dgm:prSet presAssocID="{58557C75-5233-401F-BD00-DC0336A2F294}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{58557C75-5233-401F-BD00-DC0336A2F294}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F5D7790E-D9AE-463B-BC03-42BBACD57203}" type="pres">
       <dgm:prSet presAssocID="{27FCD719-AE4A-434F-A22E-597D041240F7}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C57E4053-FFC8-4C45-8FCD-F6EB10AB0812}" type="pres">
-      <dgm:prSet presAssocID="{27FCD719-AE4A-434F-A22E-597D041240F7}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="2">
+      <dgm:prSet presAssocID="{27FCD719-AE4A-434F-A22E-597D041240F7}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="3">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{55047295-31D1-4B38-8435-DCD7CB2479DF}" type="pres">
       <dgm:prSet presAssocID="{27FCD719-AE4A-434F-A22E-597D041240F7}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{294A4AC0-AF02-463A-B38C-A49A4D84944C}" type="pres">
-      <dgm:prSet presAssocID="{811EA5B1-794B-48AD-B1A5-0022B7F49AB8}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{811EA5B1-794B-48AD-B1A5-0022B7F49AB8}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8FB5AA7F-D436-46F0-8856-A8EF88EDA6D0}" type="pres">
-      <dgm:prSet presAssocID="{811EA5B1-794B-48AD-B1A5-0022B7F49AB8}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{811EA5B1-794B-48AD-B1A5-0022B7F49AB8}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0643EA55-C2D0-4EA9-B84C-D481B9819BA2}" type="pres">
       <dgm:prSet presAssocID="{8BC9E1E8-2550-4829-A6A0-A74DAFAA251E}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8E9FC2C2-F581-4AC2-9B6F-CF9BD2775C76}" type="pres">
-      <dgm:prSet presAssocID="{8BC9E1E8-2550-4829-A6A0-A74DAFAA251E}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2">
+      <dgm:prSet presAssocID="{8BC9E1E8-2550-4829-A6A0-A74DAFAA251E}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="1">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{33B6A8CA-2F11-4132-A4A4-014FF1852B5D}" type="pres">
       <dgm:prSet presAssocID="{8BC9E1E8-2550-4829-A6A0-A74DAFAA251E}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{E40EBAF3-F951-49D3-A73C-5B3F647DB687}" type="pres">
-      <dgm:prSet presAssocID="{323CE81F-4F56-44B9-A9AE-ABED22C97886}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{929AC701-163B-4905-B6BE-8C49E0E9028F}" type="pres">
-      <dgm:prSet presAssocID="{323CE81F-4F56-44B9-A9AE-ABED22C97886}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{A6494B6A-B8B5-4925-82DC-958DE349DE6B}" type="pres">
-      <dgm:prSet presAssocID="{751BFCC2-5F88-40AC-9F23-CCD8B0A8CF59}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{F8A46D00-5D64-4195-9715-E450D40925F9}" type="pres">
-      <dgm:prSet presAssocID="{751BFCC2-5F88-40AC-9F23-CCD8B0A8CF59}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="2">
+    <dgm:pt modelId="{9CCEB3F3-5CD8-44BA-96B1-A54AA0DA8338}" type="pres">
+      <dgm:prSet presAssocID="{CCE36AF9-53A7-421E-BF92-9119B4406297}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4903D0E3-2EE0-4201-8888-62B4AC035CBD}" type="pres">
+      <dgm:prSet presAssocID="{CCE36AF9-53A7-421E-BF92-9119B4406297}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{62089379-175C-4385-B6B0-0EFADB73EB3E}" type="pres">
+      <dgm:prSet presAssocID="{FFD8F32D-B195-4ADE-8246-A236FF3BFD4A}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F5301CE4-7EC4-40C3-9B59-5BB3F63CBCC5}" type="pres">
+      <dgm:prSet presAssocID="{FFD8F32D-B195-4ADE-8246-A236FF3BFD4A}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="2">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{0B2CE6C8-4E67-49AB-BD2F-69FB7A29CB3C}" type="pres">
-      <dgm:prSet presAssocID="{751BFCC2-5F88-40AC-9F23-CCD8B0A8CF59}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{9C684ED7-0ED4-4D27-B7EF-4599525F4067}" type="pres">
-      <dgm:prSet presAssocID="{D21EFF2D-A8A8-499F-A20B-49C531D0C0B0}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{E7C5FD6A-27BA-427E-8B5D-93F7CE97C9A2}" type="pres">
-      <dgm:prSet presAssocID="{D21EFF2D-A8A8-499F-A20B-49C531D0C0B0}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{0938A8E9-8041-4B99-8D63-513C3048BC09}" type="pres">
-      <dgm:prSet presAssocID="{FC54BD7F-EF92-4DC7-9795-CD1617172E7D}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{77969A2B-5177-4368-9692-AA4C42B5EFF0}" type="pres">
-      <dgm:prSet presAssocID="{FC54BD7F-EF92-4DC7-9795-CD1617172E7D}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2">
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A5875D73-BE7B-4F61-9A28-03CF4D9D8E95}" type="pres">
+      <dgm:prSet presAssocID="{FFD8F32D-B195-4ADE-8246-A236FF3BFD4A}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6F0AE8D5-3E09-40F8-AC76-90A455BDC108}" type="pres">
+      <dgm:prSet presAssocID="{54D9C2C6-62F7-40AB-8ACC-BDFDED52623B}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B6DF3E50-52B1-4818-81B4-08773BDF5AEE}" type="pres">
+      <dgm:prSet presAssocID="{54D9C2C6-62F7-40AB-8ACC-BDFDED52623B}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8967B4AB-0FDC-4416-BAAB-7012CEEA8E0F}" type="pres">
+      <dgm:prSet presAssocID="{DD3ABD79-A677-4DE9-BA9B-427393871600}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B53EF1D3-3F99-4284-A7A8-D733C450C193}" type="pres">
+      <dgm:prSet presAssocID="{DD3ABD79-A677-4DE9-BA9B-427393871600}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="2">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{E94183EC-2021-4D15-BDAA-56A5D263C2CB}" type="pres">
-      <dgm:prSet presAssocID="{FC54BD7F-EF92-4DC7-9795-CD1617172E7D}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0C3FE72E-8642-463C-B0C6-9ABC97B14913}" type="pres">
+      <dgm:prSet presAssocID="{DD3ABD79-A677-4DE9-BA9B-427393871600}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C5607393-E8DC-4BBB-A077-8249A3AE9831}" type="pres">
+      <dgm:prSet presAssocID="{EE4E5FA6-FBA4-4C66-A49B-F430907132F4}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A33C12DD-C37A-400F-9C76-A8C3B082C081}" type="pres">
+      <dgm:prSet presAssocID="{EE4E5FA6-FBA4-4C66-A49B-F430907132F4}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C5B1887F-CA9D-4AB0-814F-94CB098F5946}" type="pres">
+      <dgm:prSet presAssocID="{91CE8400-51B3-4747-9EEC-13C1A31BF42B}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D547E350-B9B6-473D-9991-C1D5E848E325}" type="pres">
+      <dgm:prSet presAssocID="{91CE8400-51B3-4747-9EEC-13C1A31BF42B}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6DEDB4D7-3BA7-4C7D-A6E0-D3B7EE08D109}" type="pres">
+      <dgm:prSet presAssocID="{91CE8400-51B3-4747-9EEC-13C1A31BF42B}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E40EBAF3-F951-49D3-A73C-5B3F647DB687}" type="pres">
+      <dgm:prSet presAssocID="{323CE81F-4F56-44B9-A9AE-ABED22C97886}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{929AC701-163B-4905-B6BE-8C49E0E9028F}" type="pres">
+      <dgm:prSet presAssocID="{323CE81F-4F56-44B9-A9AE-ABED22C97886}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A6494B6A-B8B5-4925-82DC-958DE349DE6B}" type="pres">
+      <dgm:prSet presAssocID="{751BFCC2-5F88-40AC-9F23-CCD8B0A8CF59}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F8A46D00-5D64-4195-9715-E450D40925F9}" type="pres">
+      <dgm:prSet presAssocID="{751BFCC2-5F88-40AC-9F23-CCD8B0A8CF59}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0B2CE6C8-4E67-49AB-BD2F-69FB7A29CB3C}" type="pres">
+      <dgm:prSet presAssocID="{751BFCC2-5F88-40AC-9F23-CCD8B0A8CF59}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
     <dgm:cxn modelId="{E2901221-2B0D-4427-BD98-2591D0B6F9A7}" type="presOf" srcId="{27FCD719-AE4A-434F-A22E-597D041240F7}" destId="{C57E4053-FFC8-4C45-8FCD-F6EB10AB0812}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B8EF20EB-CEBC-404F-B0D6-635F5B7E88D9}" type="presOf" srcId="{323CE81F-4F56-44B9-A9AE-ABED22C97886}" destId="{929AC701-163B-4905-B6BE-8C49E0E9028F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6A286E15-AD11-4245-B4DC-737436A4B064}" srcId="{8BC9E1E8-2550-4829-A6A0-A74DAFAA251E}" destId="{FFD8F32D-B195-4ADE-8246-A236FF3BFD4A}" srcOrd="0" destOrd="0" parTransId="{CCE36AF9-53A7-421E-BF92-9119B4406297}" sibTransId="{2100A36A-806C-4393-96E7-3A7E3BE8BD94}"/>
+    <dgm:cxn modelId="{1F780039-45F9-4A8B-A1A9-B2269A1F64D5}" type="presOf" srcId="{54D9C2C6-62F7-40AB-8ACC-BDFDED52623B}" destId="{B6DF3E50-52B1-4818-81B4-08773BDF5AEE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{227B2BE3-5BA4-456D-BCC3-399F0336EE4D}" type="presOf" srcId="{FCEA7913-F398-4F38-A645-76836DC5EE7B}" destId="{1ACCD27C-BFD2-4CBD-9DBE-48B89CBD7F86}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{3295FCB0-EA8E-4A4A-AD98-6470BB19AE3C}" type="presOf" srcId="{811EA5B1-794B-48AD-B1A5-0022B7F49AB8}" destId="{294A4AC0-AF02-463A-B38C-A49A4D84944C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5BF02A64-9A1C-4185-8184-F2A79D9021C6}" type="presOf" srcId="{91CE8400-51B3-4747-9EEC-13C1A31BF42B}" destId="{D547E350-B9B6-473D-9991-C1D5E848E325}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9B6CAC8C-8F37-4602-915A-918DAFB11E95}" type="presOf" srcId="{EE4E5FA6-FBA4-4C66-A49B-F430907132F4}" destId="{A33C12DD-C37A-400F-9C76-A8C3B082C081}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{D923228E-9483-459B-9187-E685715ED51D}" srcId="{FCEA7913-F398-4F38-A645-76836DC5EE7B}" destId="{27FCD719-AE4A-434F-A22E-597D041240F7}" srcOrd="0" destOrd="0" parTransId="{58557C75-5233-401F-BD00-DC0336A2F294}" sibTransId="{F26171B9-D1DE-4EF4-AC29-2EE0E5C03EEB}"/>
-    <dgm:cxn modelId="{1AE8C1FD-E6BF-45B3-BD66-7725DC366F18}" srcId="{751BFCC2-5F88-40AC-9F23-CCD8B0A8CF59}" destId="{FC54BD7F-EF92-4DC7-9795-CD1617172E7D}" srcOrd="0" destOrd="0" parTransId="{D21EFF2D-A8A8-499F-A20B-49C531D0C0B0}" sibTransId="{1423673A-1E41-439F-B7D8-1F0FA537B3DE}"/>
+    <dgm:cxn modelId="{1FD5837B-FC1B-4B00-B8EF-6945D0E6899A}" type="presOf" srcId="{CCE36AF9-53A7-421E-BF92-9119B4406297}" destId="{9CCEB3F3-5CD8-44BA-96B1-A54AA0DA8338}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{07F670B5-900A-4F9B-B666-842CE55DA0E2}" srcId="{D27EC068-8650-4610-8C89-22038FD782C9}" destId="{FCEA7913-F398-4F38-A645-76836DC5EE7B}" srcOrd="0" destOrd="0" parTransId="{F7CAB5F7-8AE2-45AB-AC5E-1F273B5D6976}" sibTransId="{006B62B4-A60E-4107-8C86-E0B9368A3B43}"/>
     <dgm:cxn modelId="{E1E17635-602F-4269-81D2-798D45CBAEB7}" type="presOf" srcId="{D27EC068-8650-4610-8C89-22038FD782C9}" destId="{7AFEE6D3-FF6C-4176-B152-A1B1569498A2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{618D681E-F760-4435-8874-489CC1099E89}" srcId="{27FCD719-AE4A-434F-A22E-597D041240F7}" destId="{8BC9E1E8-2550-4829-A6A0-A74DAFAA251E}" srcOrd="0" destOrd="0" parTransId="{811EA5B1-794B-48AD-B1A5-0022B7F49AB8}" sibTransId="{D8C0ADBE-5B92-4458-A483-8570254A5E1B}"/>
-    <dgm:cxn modelId="{1E5AF896-673E-45A4-82C1-481CCCAEE462}" type="presOf" srcId="{D21EFF2D-A8A8-499F-A20B-49C531D0C0B0}" destId="{E7C5FD6A-27BA-427E-8B5D-93F7CE97C9A2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{188B63E2-7FEB-4E2E-8AA3-302183E1EAF0}" type="presOf" srcId="{DD3ABD79-A677-4DE9-BA9B-427393871600}" destId="{B53EF1D3-3F99-4284-A7A8-D733C450C193}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F3851462-E05A-450C-9D52-3466E8B79417}" type="presOf" srcId="{EE4E5FA6-FBA4-4C66-A49B-F430907132F4}" destId="{C5607393-E8DC-4BBB-A077-8249A3AE9831}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{6ADA461F-D4EE-49A4-895B-1CB2B5051D7B}" type="presOf" srcId="{8BC9E1E8-2550-4829-A6A0-A74DAFAA251E}" destId="{8E9FC2C2-F581-4AC2-9B6F-CF9BD2775C76}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{6AAE6EDB-B09B-403E-8232-32DBEC1E330C}" type="presOf" srcId="{323CE81F-4F56-44B9-A9AE-ABED22C97886}" destId="{E40EBAF3-F951-49D3-A73C-5B3F647DB687}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{3C9109DB-0924-41B2-A494-4F0F8603CC87}" type="presOf" srcId="{58557C75-5233-401F-BD00-DC0336A2F294}" destId="{958C144E-3B45-4F84-801D-D6F5732ADC86}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9C5BE95D-512F-40E2-A637-995AED664305}" srcId="{FCEA7913-F398-4F38-A645-76836DC5EE7B}" destId="{91CE8400-51B3-4747-9EEC-13C1A31BF42B}" srcOrd="1" destOrd="0" parTransId="{EE4E5FA6-FBA4-4C66-A49B-F430907132F4}" sibTransId="{7E648C08-0799-4444-898C-778894FA2175}"/>
+    <dgm:cxn modelId="{10FD33E2-9DE3-4053-BF86-86262DA1DD9F}" srcId="{FFD8F32D-B195-4ADE-8246-A236FF3BFD4A}" destId="{DD3ABD79-A677-4DE9-BA9B-427393871600}" srcOrd="0" destOrd="0" parTransId="{54D9C2C6-62F7-40AB-8ACC-BDFDED52623B}" sibTransId="{65616A6F-FDDA-4133-BB64-19C98DC9884F}"/>
     <dgm:cxn modelId="{A1497637-1038-4DEB-B93B-C55B4CAD91B6}" type="presOf" srcId="{751BFCC2-5F88-40AC-9F23-CCD8B0A8CF59}" destId="{F8A46D00-5D64-4195-9715-E450D40925F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1DAE9DC2-B045-4C6B-9023-3851781E4DEF}" type="presOf" srcId="{CCE36AF9-53A7-421E-BF92-9119B4406297}" destId="{4903D0E3-2EE0-4201-8888-62B4AC035CBD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{270EFBF1-404C-4CEE-AA7C-27D95DBEFD13}" type="presOf" srcId="{FFD8F32D-B195-4ADE-8246-A236FF3BFD4A}" destId="{F5301CE4-7EC4-40C3-9B59-5BB3F63CBCC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{5892EA4E-79F4-444E-BD23-318B044316FF}" type="presOf" srcId="{58557C75-5233-401F-BD00-DC0336A2F294}" destId="{C484EE70-2711-4FC5-9E26-988AA2AA25E7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{F312AC69-66F5-4FDF-A67C-0DA3A8CF0ECD}" type="presOf" srcId="{FC54BD7F-EF92-4DC7-9795-CD1617172E7D}" destId="{77969A2B-5177-4368-9692-AA4C42B5EFF0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{7C58372B-5A04-48C5-BBE9-7E99D3C525A1}" type="presOf" srcId="{D21EFF2D-A8A8-499F-A20B-49C531D0C0B0}" destId="{9C684ED7-0ED4-4D27-B7EF-4599525F4067}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{391FB25A-8994-4128-9B87-FEE5E09A6965}" srcId="{FCEA7913-F398-4F38-A645-76836DC5EE7B}" destId="{751BFCC2-5F88-40AC-9F23-CCD8B0A8CF59}" srcOrd="1" destOrd="0" parTransId="{323CE81F-4F56-44B9-A9AE-ABED22C97886}" sibTransId="{1C5EC286-1C94-404A-ACED-3EAE229EDD80}"/>
+    <dgm:cxn modelId="{391FB25A-8994-4128-9B87-FEE5E09A6965}" srcId="{FCEA7913-F398-4F38-A645-76836DC5EE7B}" destId="{751BFCC2-5F88-40AC-9F23-CCD8B0A8CF59}" srcOrd="2" destOrd="0" parTransId="{323CE81F-4F56-44B9-A9AE-ABED22C97886}" sibTransId="{1C5EC286-1C94-404A-ACED-3EAE229EDD80}"/>
     <dgm:cxn modelId="{92965B9F-3A41-4AB9-B234-D98C95112C10}" type="presOf" srcId="{811EA5B1-794B-48AD-B1A5-0022B7F49AB8}" destId="{8FB5AA7F-D436-46F0-8856-A8EF88EDA6D0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{59B1411F-A7C8-4587-B5EB-7B082D3046CC}" type="presOf" srcId="{54D9C2C6-62F7-40AB-8ACC-BDFDED52623B}" destId="{6F0AE8D5-3E09-40F8-AC76-90A455BDC108}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{FA571AF2-AAEC-4F46-9E2F-C77C2A009BC1}" type="presParOf" srcId="{7AFEE6D3-FF6C-4176-B152-A1B1569498A2}" destId="{C244C81B-1CD7-462F-B0CF-37FC88E5CADF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{BA78E092-6752-4EB5-8B61-5F97B7C0A676}" type="presParOf" srcId="{C244C81B-1CD7-462F-B0CF-37FC88E5CADF}" destId="{1ACCD27C-BFD2-4CBD-9DBE-48B89CBD7F86}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{725EC647-8F0D-422C-916C-D8E12244F8D5}" type="presParOf" srcId="{C244C81B-1CD7-462F-B0CF-37FC88E5CADF}" destId="{FE9F4E18-3036-406F-B843-4B2BF1704AA4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -1164,16 +1421,26 @@
     <dgm:cxn modelId="{1029A273-1691-45F2-94E1-C9E1495F386D}" type="presParOf" srcId="{55047295-31D1-4B38-8435-DCD7CB2479DF}" destId="{0643EA55-C2D0-4EA9-B84C-D481B9819BA2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{F576CF71-E447-459F-8B8B-94E1AC4716DF}" type="presParOf" srcId="{0643EA55-C2D0-4EA9-B84C-D481B9819BA2}" destId="{8E9FC2C2-F581-4AC2-9B6F-CF9BD2775C76}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{2292FEEB-5D54-40FA-B560-E99E74000BE2}" type="presParOf" srcId="{0643EA55-C2D0-4EA9-B84C-D481B9819BA2}" destId="{33B6A8CA-2F11-4132-A4A4-014FF1852B5D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{3BA89973-C7AD-4534-B969-FD294261DBC9}" type="presParOf" srcId="{FE9F4E18-3036-406F-B843-4B2BF1704AA4}" destId="{E40EBAF3-F951-49D3-A73C-5B3F647DB687}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{68855F56-0949-4CCC-9A44-05C0969C919B}" type="presParOf" srcId="{33B6A8CA-2F11-4132-A4A4-014FF1852B5D}" destId="{9CCEB3F3-5CD8-44BA-96B1-A54AA0DA8338}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1D2B4ED1-4FE1-40B4-9D93-79DD9A0E9D62}" type="presParOf" srcId="{9CCEB3F3-5CD8-44BA-96B1-A54AA0DA8338}" destId="{4903D0E3-2EE0-4201-8888-62B4AC035CBD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D90776A3-0F8C-4956-A850-85894CDAD24D}" type="presParOf" srcId="{33B6A8CA-2F11-4132-A4A4-014FF1852B5D}" destId="{62089379-175C-4385-B6B0-0EFADB73EB3E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{34A28DE7-2D18-4131-851D-A55BCDBC5AA1}" type="presParOf" srcId="{62089379-175C-4385-B6B0-0EFADB73EB3E}" destId="{F5301CE4-7EC4-40C3-9B59-5BB3F63CBCC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6D38F37E-9EBF-41F4-B8F9-1BFADA827633}" type="presParOf" srcId="{62089379-175C-4385-B6B0-0EFADB73EB3E}" destId="{A5875D73-BE7B-4F61-9A28-03CF4D9D8E95}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C738B7E8-7216-44B9-A66F-F2575645D3A6}" type="presParOf" srcId="{A5875D73-BE7B-4F61-9A28-03CF4D9D8E95}" destId="{6F0AE8D5-3E09-40F8-AC76-90A455BDC108}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{538D2C28-A410-4351-ABD3-5C4A31A22B2C}" type="presParOf" srcId="{6F0AE8D5-3E09-40F8-AC76-90A455BDC108}" destId="{B6DF3E50-52B1-4818-81B4-08773BDF5AEE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{888F50EF-4B05-459E-91CA-A354E01A7396}" type="presParOf" srcId="{A5875D73-BE7B-4F61-9A28-03CF4D9D8E95}" destId="{8967B4AB-0FDC-4416-BAAB-7012CEEA8E0F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{275BC290-F150-4540-9066-FE3A50A38EEF}" type="presParOf" srcId="{8967B4AB-0FDC-4416-BAAB-7012CEEA8E0F}" destId="{B53EF1D3-3F99-4284-A7A8-D733C450C193}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DBF24CDC-7566-4120-A35A-E92E6575C880}" type="presParOf" srcId="{8967B4AB-0FDC-4416-BAAB-7012CEEA8E0F}" destId="{0C3FE72E-8642-463C-B0C6-9ABC97B14913}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FDD43F4F-8DEC-474F-9341-B79E74C965A7}" type="presParOf" srcId="{FE9F4E18-3036-406F-B843-4B2BF1704AA4}" destId="{C5607393-E8DC-4BBB-A077-8249A3AE9831}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{03C9EE4F-CE05-46DD-8347-17CE5BDA521B}" type="presParOf" srcId="{C5607393-E8DC-4BBB-A077-8249A3AE9831}" destId="{A33C12DD-C37A-400F-9C76-A8C3B082C081}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{001DB4DA-C7F6-4DF7-B529-E2A57AD0F94E}" type="presParOf" srcId="{FE9F4E18-3036-406F-B843-4B2BF1704AA4}" destId="{C5B1887F-CA9D-4AB0-814F-94CB098F5946}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3C22D67A-F6B8-4C60-A8C7-F9C3DCC0177C}" type="presParOf" srcId="{C5B1887F-CA9D-4AB0-814F-94CB098F5946}" destId="{D547E350-B9B6-473D-9991-C1D5E848E325}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ED74B8E5-8273-4E29-86D4-012CB083B722}" type="presParOf" srcId="{C5B1887F-CA9D-4AB0-814F-94CB098F5946}" destId="{6DEDB4D7-3BA7-4C7D-A6E0-D3B7EE08D109}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3BA89973-C7AD-4534-B969-FD294261DBC9}" type="presParOf" srcId="{FE9F4E18-3036-406F-B843-4B2BF1704AA4}" destId="{E40EBAF3-F951-49D3-A73C-5B3F647DB687}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{15DA1BCB-FE7B-479C-B710-4CC2DA13C2B2}" type="presParOf" srcId="{E40EBAF3-F951-49D3-A73C-5B3F647DB687}" destId="{929AC701-163B-4905-B6BE-8C49E0E9028F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{5B200FDB-9637-411A-9D9D-2C7DAEE3B41D}" type="presParOf" srcId="{FE9F4E18-3036-406F-B843-4B2BF1704AA4}" destId="{A6494B6A-B8B5-4925-82DC-958DE349DE6B}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5B200FDB-9637-411A-9D9D-2C7DAEE3B41D}" type="presParOf" srcId="{FE9F4E18-3036-406F-B843-4B2BF1704AA4}" destId="{A6494B6A-B8B5-4925-82DC-958DE349DE6B}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{80541C3F-FDFC-43DE-8FAC-49BBA6B0EFB7}" type="presParOf" srcId="{A6494B6A-B8B5-4925-82DC-958DE349DE6B}" destId="{F8A46D00-5D64-4195-9715-E450D40925F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{1426BD82-AF87-49FD-9173-A8F3B4FD683C}" type="presParOf" srcId="{A6494B6A-B8B5-4925-82DC-958DE349DE6B}" destId="{0B2CE6C8-4E67-49AB-BD2F-69FB7A29CB3C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{7E89AEF1-CFC5-4ED4-BC23-2FCBB67C78EA}" type="presParOf" srcId="{0B2CE6C8-4E67-49AB-BD2F-69FB7A29CB3C}" destId="{9C684ED7-0ED4-4D27-B7EF-4599525F4067}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0CAA9348-AFDF-4E1D-9FDF-EE337533DFDD}" type="presParOf" srcId="{9C684ED7-0ED4-4D27-B7EF-4599525F4067}" destId="{E7C5FD6A-27BA-427E-8B5D-93F7CE97C9A2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{68732DDE-D5CB-4946-8403-489FEB82C4DE}" type="presParOf" srcId="{0B2CE6C8-4E67-49AB-BD2F-69FB7A29CB3C}" destId="{0938A8E9-8041-4B99-8D63-513C3048BC09}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{230CA43B-3F0E-40BF-822A-7E3D7962C71D}" type="presParOf" srcId="{0938A8E9-8041-4B99-8D63-513C3048BC09}" destId="{77969A2B-5177-4368-9692-AA4C42B5EFF0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{701952C9-49DB-477B-B42A-E9CFC006854A}" type="presParOf" srcId="{0938A8E9-8041-4B99-8D63-513C3048BC09}" destId="{E94183EC-2021-4D15-BDAA-56A5D263C2CB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
   </dgm:cxnLst>
   <dgm:bg/>
   <dgm:whole/>
@@ -1200,8 +1467,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1365" y="3850160"/>
-          <a:ext cx="4135136" cy="2067568"/>
+          <a:off x="1110" y="1488220"/>
+          <a:ext cx="2295765" cy="1147882"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1250,12 +1517,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1267,14 +1534,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1300" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
             <a:t>首页</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="61922" y="3910717"/>
-        <a:ext cx="4014022" cy="1946454"/>
+        <a:off x="34730" y="1521840"/>
+        <a:ext cx="2228525" cy="1080642"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{958C144E-3B45-4F84-801D-D6F5732ADC86}">
@@ -1283,9 +1550,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="19457599">
-          <a:off x="3945042" y="4270468"/>
-          <a:ext cx="2036974" cy="38100"/>
+        <a:xfrm rot="18289469">
+          <a:off x="1951999" y="1377080"/>
+          <a:ext cx="1608060" cy="50097"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1296,10 +1563,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="19050"/>
+                <a:pt x="0" y="25048"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2036974" y="19050"/>
+                <a:pt x="1608060" y="25048"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1337,7 +1604,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1348,12 +1615,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4912605" y="4238594"/>
-        <a:ext cx="101848" cy="101848"/>
+        <a:off x="2715827" y="1361927"/>
+        <a:ext cx="80403" cy="80403"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C57E4053-FFC8-4C45-8FCD-F6EB10AB0812}">
@@ -1363,8 +1630,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5790556" y="2661308"/>
-          <a:ext cx="4135136" cy="2067568"/>
+          <a:off x="3215182" y="168154"/>
+          <a:ext cx="2295765" cy="1147882"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1413,12 +1680,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1430,15 +1697,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1300" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
             <a:t>Best Sellers</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1300" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5851113" y="2721865"/>
-        <a:ext cx="4014022" cy="1946454"/>
+        <a:off x="3248802" y="201774"/>
+        <a:ext cx="2228525" cy="1080642"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{294A4AC0-AF02-463A-B38C-A49A4D84944C}">
@@ -1448,8 +1715,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9925693" y="3676042"/>
-          <a:ext cx="1654054" cy="38100"/>
+          <a:off x="5510948" y="717047"/>
+          <a:ext cx="918306" cy="50097"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1460,10 +1727,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="19050"/>
+                <a:pt x="0" y="25048"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1654054" y="19050"/>
+                <a:pt x="918306" y="25048"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1516,8 +1783,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10711369" y="3653741"/>
-        <a:ext cx="82702" cy="82702"/>
+        <a:off x="5947143" y="719138"/>
+        <a:ext cx="45915" cy="45915"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8E9FC2C2-F581-4AC2-9B6F-CF9BD2775C76}">
@@ -1527,8 +1794,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11579747" y="2661308"/>
-          <a:ext cx="4135136" cy="2067568"/>
+          <a:off x="6429254" y="168154"/>
+          <a:ext cx="2295765" cy="1147882"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1577,12 +1844,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1594,26 +1861,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1300" kern="1200"/>
-            <a:t>template_default/templates/tpl_modules_all_static.php</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>templates/tpl_modules_all_static.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1300" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11640304" y="2721865"/>
-        <a:ext cx="4014022" cy="1946454"/>
+        <a:off x="6462874" y="201774"/>
+        <a:ext cx="2228525" cy="1080642"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E40EBAF3-F951-49D3-A73C-5B3F647DB687}">
+    <dsp:sp modelId="{9CCEB3F3-5CD8-44BA-96B1-A54AA0DA8338}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="2142401">
-          <a:off x="3945042" y="5459320"/>
-          <a:ext cx="2036974" cy="38100"/>
+        <a:xfrm>
+          <a:off x="8725020" y="717047"/>
+          <a:ext cx="918306" cy="50097"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1624,10 +1891,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="19050"/>
+                <a:pt x="0" y="25048"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2036974" y="19050"/>
+                <a:pt x="918306" y="25048"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1636,7 +1903,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -1665,7 +1932,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1676,23 +1943,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4912605" y="5427446"/>
-        <a:ext cx="101848" cy="101848"/>
+        <a:off x="9161215" y="719138"/>
+        <a:ext cx="45915" cy="45915"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{F8A46D00-5D64-4195-9715-E450D40925F9}">
+    <dsp:sp modelId="{F5301CE4-7EC4-40C3-9B59-5BB3F63CBCC5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5790556" y="5039012"/>
-          <a:ext cx="4135136" cy="2067568"/>
+          <a:off x="9643326" y="168154"/>
+          <a:ext cx="2295765" cy="1147882"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1741,12 +2008,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1757,23 +2024,27 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1300" kern="1200"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>best_seller/all_static_index.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5851113" y="5099569"/>
-        <a:ext cx="4014022" cy="1946454"/>
+        <a:off x="9676946" y="201774"/>
+        <a:ext cx="2228525" cy="1080642"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{9C684ED7-0ED4-4D27-B7EF-4599525F4067}">
+    <dsp:sp modelId="{6F0AE8D5-3E09-40F8-AC76-90A455BDC108}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9925693" y="6053745"/>
-          <a:ext cx="1654054" cy="38100"/>
+          <a:off x="11939092" y="717047"/>
+          <a:ext cx="918306" cy="50097"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1784,10 +2055,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="19050"/>
+                <a:pt x="0" y="25048"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1654054" y="19050"/>
+                <a:pt x="918306" y="25048"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1840,19 +2111,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10711369" y="6031444"/>
-        <a:ext cx="82702" cy="82702"/>
+        <a:off x="12375287" y="719138"/>
+        <a:ext cx="45915" cy="45915"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{77969A2B-5177-4368-9692-AA4C42B5EFF0}">
+    <dsp:sp modelId="{B53EF1D3-3F99-4284-A7A8-D733C450C193}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11579747" y="5039012"/>
-          <a:ext cx="4135136" cy="2067568"/>
+          <a:off x="12857398" y="168154"/>
+          <a:ext cx="2295765" cy="1147882"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1901,12 +2172,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1917,12 +2188,344 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1300" kern="1200"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>zencart.home_page_static_model</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11640304" y="5099569"/>
-        <a:ext cx="4014022" cy="1946454"/>
+        <a:off x="12891018" y="201774"/>
+        <a:ext cx="2228525" cy="1080642"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C5607393-E8DC-4BBB-A077-8249A3AE9831}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2296876" y="2037112"/>
+          <a:ext cx="918306" cy="50097"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="25048"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="918306" y="25048"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2733071" y="2039203"/>
+        <a:ext cx="45915" cy="45915"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D547E350-B9B6-473D-9991-C1D5E848E325}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3215182" y="1488220"/>
+          <a:ext cx="2295765" cy="1147882"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>New Products</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3248802" y="1521840"/>
+        <a:ext cx="2228525" cy="1080642"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E40EBAF3-F951-49D3-A73C-5B3F647DB687}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="3310531">
+          <a:off x="1951999" y="2697145"/>
+          <a:ext cx="1608060" cy="50097"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="25048"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1608060" y="25048"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2715827" y="2681992"/>
+        <a:ext cx="80403" cy="80403"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F8A46D00-5D64-4195-9715-E450D40925F9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3215182" y="2808285"/>
+          <a:ext cx="2295765" cy="1147882"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>Hot Products</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3248802" y="2841905"/>
+        <a:ext cx="2228525" cy="1080642"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -3288,15 +3891,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3607,8 +4210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/zencart/docs/模块功能划分.xlsx
+++ b/zencart/docs/模块功能划分.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="详情页" sheetId="2" r:id="rId2"/>
+    <sheet name="SEO" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -816,6 +816,753 @@
 </dgm:colorsDef>
 </file>
 
+<file path=xl/diagrams/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
 <file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
@@ -1313,10 +2060,24 @@
     <dgm:pt modelId="{C5607393-E8DC-4BBB-A077-8249A3AE9831}" type="pres">
       <dgm:prSet presAssocID="{EE4E5FA6-FBA4-4C66-A49B-F430907132F4}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A33C12DD-C37A-400F-9C76-A8C3B082C081}" type="pres">
       <dgm:prSet presAssocID="{EE4E5FA6-FBA4-4C66-A49B-F430907132F4}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C5B1887F-CA9D-4AB0-814F-94CB098F5946}" type="pres">
       <dgm:prSet presAssocID="{91CE8400-51B3-4747-9EEC-13C1A31BF42B}" presName="root2" presStyleCnt="0"/>
@@ -1329,6 +2090,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6DEDB4D7-3BA7-4C7D-A6E0-D3B7EE08D109}" type="pres">
       <dgm:prSet presAssocID="{91CE8400-51B3-4747-9EEC-13C1A31BF42B}" presName="level3hierChild" presStyleCnt="0"/>
@@ -1387,8 +2155,8 @@
     <dgm:cxn modelId="{1F780039-45F9-4A8B-A1A9-B2269A1F64D5}" type="presOf" srcId="{54D9C2C6-62F7-40AB-8ACC-BDFDED52623B}" destId="{B6DF3E50-52B1-4818-81B4-08773BDF5AEE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{227B2BE3-5BA4-456D-BCC3-399F0336EE4D}" type="presOf" srcId="{FCEA7913-F398-4F38-A645-76836DC5EE7B}" destId="{1ACCD27C-BFD2-4CBD-9DBE-48B89CBD7F86}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{3295FCB0-EA8E-4A4A-AD98-6470BB19AE3C}" type="presOf" srcId="{811EA5B1-794B-48AD-B1A5-0022B7F49AB8}" destId="{294A4AC0-AF02-463A-B38C-A49A4D84944C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9B6CAC8C-8F37-4602-915A-918DAFB11E95}" type="presOf" srcId="{EE4E5FA6-FBA4-4C66-A49B-F430907132F4}" destId="{A33C12DD-C37A-400F-9C76-A8C3B082C081}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{5BF02A64-9A1C-4185-8184-F2A79D9021C6}" type="presOf" srcId="{91CE8400-51B3-4747-9EEC-13C1A31BF42B}" destId="{D547E350-B9B6-473D-9991-C1D5E848E325}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{9B6CAC8C-8F37-4602-915A-918DAFB11E95}" type="presOf" srcId="{EE4E5FA6-FBA4-4C66-A49B-F430907132F4}" destId="{A33C12DD-C37A-400F-9C76-A8C3B082C081}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{D923228E-9483-459B-9187-E685715ED51D}" srcId="{FCEA7913-F398-4F38-A645-76836DC5EE7B}" destId="{27FCD719-AE4A-434F-A22E-597D041240F7}" srcOrd="0" destOrd="0" parTransId="{58557C75-5233-401F-BD00-DC0336A2F294}" sibTransId="{F26171B9-D1DE-4EF4-AC29-2EE0E5C03EEB}"/>
     <dgm:cxn modelId="{1FD5837B-FC1B-4B00-B8EF-6945D0E6899A}" type="presOf" srcId="{CCE36AF9-53A7-421E-BF92-9119B4406297}" destId="{9CCEB3F3-5CD8-44BA-96B1-A54AA0DA8338}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{07F670B5-900A-4F9B-B666-842CE55DA0E2}" srcId="{D27EC068-8650-4610-8C89-22038FD782C9}" destId="{FCEA7913-F398-4F38-A645-76836DC5EE7B}" srcOrd="0" destOrd="0" parTransId="{F7CAB5F7-8AE2-45AB-AC5E-1F273B5D6976}" sibTransId="{006B62B4-A60E-4107-8C86-E0B9368A3B43}"/>
@@ -1452,6 +2220,670 @@
 </dgm:dataModel>
 </file>
 
+<file path=xl/diagrams/data2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{31CD7878-84F1-4825-B934-E86F76D7D560}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>详情页</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{48CDDD27-CA42-4A8F-85F1-58706086F444}" type="parTrans" cxnId="{6FE2B9FB-C5B1-4C7A-A8BF-B605591F5217}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{660A0425-314A-43B6-9E38-458E0CA60A18}" type="sibTrans" cxnId="{6FE2B9FB-C5B1-4C7A-A8BF-B605591F5217}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>标题</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" type="parTrans" cxnId="{599AABAA-2C30-4D51-BA17-D7E9AB45CB50}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{69857E7C-5030-4D39-BE1C-81C2B1166F47}" type="sibTrans" cxnId="{599AABAA-2C30-4D51-BA17-D7E9AB45CB50}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>评论数量</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" type="parTrans" cxnId="{A1B4723D-D0C8-4F24-999D-70605730D176}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E62026F1-A73E-410F-B5B4-49EE7FB9B15A}" type="sibTrans" cxnId="{A1B4723D-D0C8-4F24-999D-70605730D176}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>图片</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" type="parTrans" cxnId="{4F448A1C-5B1F-4336-AC30-3AC052731F76}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0D9ECB33-BFA2-4C1C-A0AE-F1927F22831E}" type="sibTrans" cxnId="{4F448A1C-5B1F-4336-AC30-3AC052731F76}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>价格</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" type="parTrans" cxnId="{B4313D12-AA2D-4796-95E0-3D76BEA04572}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D4B0F6EC-70A0-451B-8D13-ACBF5C5EE10E}" type="sibTrans" cxnId="{B4313D12-AA2D-4796-95E0-3D76BEA04572}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>描述</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" type="parTrans" cxnId="{A58F26D1-A0FE-41EC-8250-BE82F7D9A850}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2341C01B-050C-4692-87AA-FBAB4A11079B}" type="sibTrans" cxnId="{A58F26D1-A0FE-41EC-8250-BE82F7D9A850}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>属性</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{569D4530-2880-4B71-B432-ED7F88BC411D}" type="parTrans" cxnId="{CD267788-94CE-451C-9F50-B5F53159AD3F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D184293E-3DF9-4312-830C-7C26789016D5}" type="sibTrans" cxnId="{CD267788-94CE-451C-9F50-B5F53159AD3F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>配件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" type="parTrans" cxnId="{ACF6001F-CF99-4F37-B0B2-7BF5A4A78693}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CC793FB2-49FD-477C-8EC3-3400F305DF28}" type="sibTrans" cxnId="{ACF6001F-CF99-4F37-B0B2-7BF5A4A78693}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>推荐</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" type="parTrans" cxnId="{A00F107A-6569-4868-8CE1-B7DF8A419271}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F3D6601C-5E3B-483E-9A2D-4F05F66683BB}" type="sibTrans" cxnId="{A00F107A-6569-4868-8CE1-B7DF8A419271}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{099476A6-4E27-4FAA-9398-2AE46D180721}" type="pres">
+      <dgm:prSet presAssocID="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" presName="diagram" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" type="pres">
+      <dgm:prSet presAssocID="{31CD7878-84F1-4825-B934-E86F76D7D560}" presName="root1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AC3929EA-AEDC-45D8-B9CA-70262C585A0A}" type="pres">
+      <dgm:prSet presAssocID="{31CD7878-84F1-4825-B934-E86F76D7D560}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" type="pres">
+      <dgm:prSet presAssocID="{31CD7878-84F1-4825-B934-E86F76D7D560}" presName="level2hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}" type="pres">
+      <dgm:prSet presAssocID="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{493F0A8D-C152-42A2-B413-C05E0C689C00}" type="pres">
+      <dgm:prSet presAssocID="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C654AC46-6EBF-4415-B923-570FBF4BB307}" type="pres">
+      <dgm:prSet presAssocID="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}" type="pres">
+      <dgm:prSet presAssocID="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5EF65C10-0F4C-4867-ABC8-8BA7400B4D33}" type="pres">
+      <dgm:prSet presAssocID="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{64C582D8-3DA4-421C-A7BF-790B8C968B20}" type="pres">
+      <dgm:prSet presAssocID="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9E3B480F-B3A6-4EEB-BEA2-2D6272A4AFB0}" type="pres">
+      <dgm:prSet presAssocID="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{27D6C21B-AE9F-48C5-97F5-BF46240BD3EB}" type="pres">
+      <dgm:prSet presAssocID="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E26D29FE-8E13-4CE5-9714-9C2576CB7903}" type="pres">
+      <dgm:prSet presAssocID="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B91DD737-B85E-44DA-AEBF-7C30D3FA28F4}" type="pres">
+      <dgm:prSet presAssocID="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" type="pres">
+      <dgm:prSet presAssocID="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D227BC4F-3E9D-4433-87E2-4FCB465AB942}" type="pres">
+      <dgm:prSet presAssocID="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" type="pres">
+      <dgm:prSet presAssocID="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}" type="pres">
+      <dgm:prSet presAssocID="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5142D8E6-9CE4-46F6-AC41-6F5BDF9B0433}" type="pres">
+      <dgm:prSet presAssocID="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{28F496D2-4019-4178-92C0-A9F924F314B7}" type="pres">
+      <dgm:prSet presAssocID="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D1296DF1-78D9-4238-A067-6069827E6644}" type="pres">
+      <dgm:prSet presAssocID="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3AAC51B9-98D5-4DEB-B9D8-DC6DE83552C6}" type="pres">
+      <dgm:prSet presAssocID="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}" type="pres">
+      <dgm:prSet presAssocID="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" type="pres">
+      <dgm:prSet presAssocID="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" type="pres">
+      <dgm:prSet presAssocID="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B8F02BE7-8743-45EE-BB4C-0D916BB1864F}" type="pres">
+      <dgm:prSet presAssocID="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7A1E64AB-131B-4387-A37B-C2771C1AD578}" type="pres">
+      <dgm:prSet presAssocID="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}" type="pres">
+      <dgm:prSet presAssocID="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{74D281D5-0D3F-414D-AEE2-F96FDE0FEFCA}" type="pres">
+      <dgm:prSet presAssocID="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" type="pres">
+      <dgm:prSet presAssocID="{569D4530-2880-4B71-B432-ED7F88BC411D}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9C3216F4-3DBA-4E6B-9827-A0F23AE4644D}" type="pres">
+      <dgm:prSet presAssocID="{569D4530-2880-4B71-B432-ED7F88BC411D}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1A18BFAB-D772-4018-A212-B31BD5C83345}" type="pres">
+      <dgm:prSet presAssocID="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}" type="pres">
+      <dgm:prSet presAssocID="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="5" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C728889B-5E42-4DF1-8429-ECF9097C6143}" type="pres">
+      <dgm:prSet presAssocID="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" type="pres">
+      <dgm:prSet presAssocID="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="6" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{27E95C9E-DFB1-42E7-88F2-FAC674D0BA38}" type="pres">
+      <dgm:prSet presAssocID="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="6" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AE0D776E-7941-4133-8BC4-3D07C04622EF}" type="pres">
+      <dgm:prSet presAssocID="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}" type="pres">
+      <dgm:prSet presAssocID="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="6" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{33CB54D5-ED26-4C84-8F2A-23D2B925C515}" type="pres">
+      <dgm:prSet presAssocID="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" type="pres">
+      <dgm:prSet presAssocID="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="7" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{33B2E686-47BD-45CE-946E-82276B7C9666}" type="pres">
+      <dgm:prSet presAssocID="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="7" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{66620AF1-75E2-4810-8877-D6F600792F6C}" type="pres">
+      <dgm:prSet presAssocID="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}" type="pres">
+      <dgm:prSet presAssocID="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="7" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{55C1BC25-2BE8-4644-975C-FA17EB2A8B99}" type="pres">
+      <dgm:prSet presAssocID="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{C97A2AF4-6412-42A7-88D3-3CF2C08BB16F}" type="presOf" srcId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" destId="{33B2E686-47BD-45CE-946E-82276B7C9666}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A1B4723D-D0C8-4F24-999D-70605730D176}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" srcOrd="1" destOrd="0" parTransId="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" sibTransId="{E62026F1-A73E-410F-B5B4-49EE7FB9B15A}"/>
+    <dgm:cxn modelId="{46D955C0-FDD0-4F65-9A7C-0DBC85CB1FF3}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0F6D280E-934E-49E2-8B13-BD4FF69B880D}" type="presOf" srcId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" destId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B4313D12-AA2D-4796-95E0-3D76BEA04572}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" srcOrd="3" destOrd="0" parTransId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" sibTransId="{D4B0F6EC-70A0-451B-8D13-ACBF5C5EE10E}"/>
+    <dgm:cxn modelId="{764D0C7C-03F3-43A4-A459-661B4BA0D500}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{D227BC4F-3E9D-4433-87E2-4FCB465AB942}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CAF44A32-6E1F-417C-9766-62B0DDC36C06}" type="presOf" srcId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" destId="{27E95C9E-DFB1-42E7-88F2-FAC674D0BA38}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CD267788-94CE-451C-9F50-B5F53159AD3F}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" srcOrd="5" destOrd="0" parTransId="{569D4530-2880-4B71-B432-ED7F88BC411D}" sibTransId="{D184293E-3DF9-4312-830C-7C26789016D5}"/>
+    <dgm:cxn modelId="{ACF6001F-CF99-4F37-B0B2-7BF5A4A78693}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" srcOrd="6" destOrd="0" parTransId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" sibTransId="{CC793FB2-49FD-477C-8EC3-3400F305DF28}"/>
+    <dgm:cxn modelId="{BA256EFC-C7C2-4586-A7E8-AFF656ADB148}" type="presOf" srcId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" destId="{D1296DF1-78D9-4238-A067-6069827E6644}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9772425B-5259-41F7-BCE3-9C15A449C07C}" type="presOf" srcId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" destId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A00F107A-6569-4868-8CE1-B7DF8A419271}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" srcOrd="7" destOrd="0" parTransId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" sibTransId="{F3D6601C-5E3B-483E-9A2D-4F05F66683BB}"/>
+    <dgm:cxn modelId="{0E47A5E0-764E-46C8-802E-961F4F388902}" type="presOf" srcId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" destId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D95655CC-9891-462F-9EC4-46A0CA6E7B0A}" type="presOf" srcId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" destId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{88563BBC-2096-4E97-B568-6C4973130BF3}" type="presOf" srcId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" destId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BC379DEB-700E-40DA-981B-0961DA271015}" type="presOf" srcId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" destId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4F448A1C-5B1F-4336-AC30-3AC052731F76}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" srcOrd="2" destOrd="0" parTransId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" sibTransId="{0D9ECB33-BFA2-4C1C-A0AE-F1927F22831E}"/>
+    <dgm:cxn modelId="{7BDDD235-9EFB-470A-992C-444ECE118C84}" type="presOf" srcId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" destId="{28F496D2-4019-4178-92C0-A9F924F314B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F5CB3F6E-E390-44B1-A0AE-8AA2A0BFBD26}" type="presOf" srcId="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" destId="{E26D29FE-8E13-4CE5-9714-9C2576CB7903}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1666F441-7C89-4597-8A94-D119F0D60AE3}" type="presOf" srcId="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" destId="{64C582D8-3DA4-421C-A7BF-790B8C968B20}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A440A9C0-FFCA-4447-8E8C-C90DD8F175B7}" type="presOf" srcId="{569D4530-2880-4B71-B432-ED7F88BC411D}" destId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4852B326-CE08-4397-880E-F59F9E79D1DC}" type="presOf" srcId="{569D4530-2880-4B71-B432-ED7F88BC411D}" destId="{9C3216F4-3DBA-4E6B-9827-A0F23AE4644D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CEB17849-D01E-468A-A8AC-4B9BE1A2130A}" type="presOf" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{AC3929EA-AEDC-45D8-B9CA-70262C585A0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{971B1D42-AA2A-49E2-BDA9-C111A31016E7}" type="presOf" srcId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" destId="{B8F02BE7-8743-45EE-BB4C-0D916BB1864F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{114138D0-C81A-4AFB-9C8C-CB017F030301}" type="presOf" srcId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" destId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A58F26D1-A0FE-41EC-8250-BE82F7D9A850}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" srcOrd="4" destOrd="0" parTransId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" sibTransId="{2341C01B-050C-4692-87AA-FBAB4A11079B}"/>
+    <dgm:cxn modelId="{13BCB9EE-A0C6-4E15-9262-A271A88D08EA}" type="presOf" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E492B71F-DEFD-45B1-B2C2-C248A042E52F}" type="presOf" srcId="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" destId="{099476A6-4E27-4FAA-9398-2AE46D180721}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D42689F1-2387-4AAF-B01B-A5249A2EB979}" type="presOf" srcId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" destId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7805392A-4E17-4429-B6DF-3AD03CE55706}" type="presOf" srcId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" destId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6FE2B9FB-C5B1-4C7A-A8BF-B605591F5217}" srcId="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" destId="{31CD7878-84F1-4825-B934-E86F76D7D560}" srcOrd="0" destOrd="0" parTransId="{48CDDD27-CA42-4A8F-85F1-58706086F444}" sibTransId="{660A0425-314A-43B6-9E38-458E0CA60A18}"/>
+    <dgm:cxn modelId="{192D774D-417F-4BB8-98B7-EC27FA5DFE39}" type="presOf" srcId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" destId="{493F0A8D-C152-42A2-B413-C05E0C689C00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7DF9BD4E-62DF-4346-98B6-D1BA9A37B299}" type="presOf" srcId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" destId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F07DBD63-28A5-4E72-B82D-44D5CAA68938}" type="presOf" srcId="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" destId="{9E3B480F-B3A6-4EEB-BEA2-2D6272A4AFB0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{599AABAA-2C30-4D51-BA17-D7E9AB45CB50}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" srcOrd="0" destOrd="0" parTransId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" sibTransId="{69857E7C-5030-4D39-BE1C-81C2B1166F47}"/>
+    <dgm:cxn modelId="{E5CEFDC8-E389-4BDF-BE61-891E5470B840}" type="presParOf" srcId="{099476A6-4E27-4FAA-9398-2AE46D180721}" destId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B4FD49CA-A96F-479A-8757-AF277CFC90B3}" type="presParOf" srcId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" destId="{AC3929EA-AEDC-45D8-B9CA-70262C585A0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B11F3C13-2260-4469-BB3F-BEE2236CF8DF}" type="presParOf" srcId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" destId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{85561E02-E04D-4204-9B94-4D09D097ECEE}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E1B8BAC0-A54A-40C9-A00E-DDCB9E8F8143}" type="presParOf" srcId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}" destId="{493F0A8D-C152-42A2-B413-C05E0C689C00}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{93CAF996-950D-4E35-A818-98752F56F0EC}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{C654AC46-6EBF-4415-B923-570FBF4BB307}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F6FBF0B2-B968-427F-9784-B851124348F7}" type="presParOf" srcId="{C654AC46-6EBF-4415-B923-570FBF4BB307}" destId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E14C2B10-D4BB-430C-B242-60A82919F1CF}" type="presParOf" srcId="{C654AC46-6EBF-4415-B923-570FBF4BB307}" destId="{5EF65C10-0F4C-4867-ABC8-8BA7400B4D33}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{805470BD-27A6-4325-BFF2-47E4823B9BC6}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{64C582D8-3DA4-421C-A7BF-790B8C968B20}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BCE75050-AEA7-47FB-8A8A-1500174AA09B}" type="presParOf" srcId="{64C582D8-3DA4-421C-A7BF-790B8C968B20}" destId="{9E3B480F-B3A6-4EEB-BEA2-2D6272A4AFB0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{73D160FB-2C78-4E7D-A082-554CF4D59BD6}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{27D6C21B-AE9F-48C5-97F5-BF46240BD3EB}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C47CE03F-F911-423B-BFBD-CC1AE71D56B1}" type="presParOf" srcId="{27D6C21B-AE9F-48C5-97F5-BF46240BD3EB}" destId="{E26D29FE-8E13-4CE5-9714-9C2576CB7903}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5001A8A0-6CD0-48E1-924C-A0D208DDE423}" type="presParOf" srcId="{27D6C21B-AE9F-48C5-97F5-BF46240BD3EB}" destId="{B91DD737-B85E-44DA-AEBF-7C30D3FA28F4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6605617B-C0D8-4E9F-A22F-452110DC8229}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{11068D85-39AA-45AA-ACD5-63344EA7AF48}" type="presParOf" srcId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" destId="{D227BC4F-3E9D-4433-87E2-4FCB465AB942}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{59BF17BA-8166-41F0-AE5F-88E3ABC03709}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0B035392-FDFC-45AF-B680-4C8E3254DB9D}" type="presParOf" srcId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" destId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8F67B4EE-FDCB-4911-BCC9-34D22EF2A3CA}" type="presParOf" srcId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" destId="{5142D8E6-9CE4-46F6-AC41-6F5BDF9B0433}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{AF008AFF-4D09-4935-BDCA-4D35FF8ED820}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{28F496D2-4019-4178-92C0-A9F924F314B7}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6BDE91C1-3464-4889-9AFA-B2CDAA0222C4}" type="presParOf" srcId="{28F496D2-4019-4178-92C0-A9F924F314B7}" destId="{D1296DF1-78D9-4238-A067-6069827E6644}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{40E48CE5-5F34-4354-B713-3134D8535C27}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{3AAC51B9-98D5-4DEB-B9D8-DC6DE83552C6}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6107E3A6-6C7A-46CC-A8BC-9FD353890BF7}" type="presParOf" srcId="{3AAC51B9-98D5-4DEB-B9D8-DC6DE83552C6}" destId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C61B88BA-A89B-4ED1-B175-04F67DE41FFF}" type="presParOf" srcId="{3AAC51B9-98D5-4DEB-B9D8-DC6DE83552C6}" destId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F5B1231C-F7FC-4F1E-AF42-85C6B137DF35}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{423D81A3-B454-46A6-86B4-EC4EA8FE758A}" type="presParOf" srcId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" destId="{B8F02BE7-8743-45EE-BB4C-0D916BB1864F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0372151D-FD7F-4782-9F6D-D12F50FA65DA}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{7A1E64AB-131B-4387-A37B-C2771C1AD578}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{45887AF0-E1EF-446C-9BA2-AE070B988D66}" type="presParOf" srcId="{7A1E64AB-131B-4387-A37B-C2771C1AD578}" destId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{AF08E568-349B-4B59-AC91-57A27A8F4226}" type="presParOf" srcId="{7A1E64AB-131B-4387-A37B-C2771C1AD578}" destId="{74D281D5-0D3F-414D-AEE2-F96FDE0FEFCA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{43D58672-8F95-46F0-92A9-8C22A8B77E29}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{096BC7F7-F352-4E02-AF35-414B1B970E13}" type="presParOf" srcId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" destId="{9C3216F4-3DBA-4E6B-9827-A0F23AE4644D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E6CF5AE9-EDA7-4CDF-B6A8-881B924713FD}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{1A18BFAB-D772-4018-A212-B31BD5C83345}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{AD92B346-6D9C-475B-94BF-58ED0B76FBB0}" type="presParOf" srcId="{1A18BFAB-D772-4018-A212-B31BD5C83345}" destId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6C182D77-3E7B-4F0F-A9DA-FEB4281DD225}" type="presParOf" srcId="{1A18BFAB-D772-4018-A212-B31BD5C83345}" destId="{C728889B-5E42-4DF1-8429-ECF9097C6143}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4296E852-7540-4D0D-A22A-071C57CD97D0}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B07FFC7C-FEB6-4CEE-84E9-CDB5CF84EE63}" type="presParOf" srcId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" destId="{27E95C9E-DFB1-42E7-88F2-FAC674D0BA38}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A50E4E91-2B27-4F3F-A09B-81CDD1B7431F}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{AE0D776E-7941-4133-8BC4-3D07C04622EF}" srcOrd="13" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8D84E88C-30E5-4D65-ACBF-12206A715A94}" type="presParOf" srcId="{AE0D776E-7941-4133-8BC4-3D07C04622EF}" destId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{104F0226-ECB7-4026-A001-211BD5E312E8}" type="presParOf" srcId="{AE0D776E-7941-4133-8BC4-3D07C04622EF}" destId="{33CB54D5-ED26-4C84-8F2A-23D2B925C515}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{702B9B95-33BB-480F-A2B4-EE313A14724D}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" srcOrd="14" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2DC7CFBC-1C82-4DE2-8B43-89785CBCE6DB}" type="presParOf" srcId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" destId="{33B2E686-47BD-45CE-946E-82276B7C9666}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{296E43F0-0001-4321-96B2-1BDD470C53D0}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{66620AF1-75E2-4810-8877-D6F600792F6C}" srcOrd="15" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7F8509E0-3E11-4151-A3C3-834851D34AF4}" type="presParOf" srcId="{66620AF1-75E2-4810-8877-D6F600792F6C}" destId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B2CE36C1-F611-45C6-AAF1-7D8AA164F112}" type="presParOf" srcId="{66620AF1-75E2-4810-8877-D6F600792F6C}" destId="{55C1BC25-2BE8-4644-975C-FA17EB2A8B99}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
 <file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dsp:spTree>
@@ -2532,7 +3964,1674 @@
 </dsp:drawing>
 </file>
 
+<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{AC3929EA-AEDC-45D8-B9CA-70262C585A0A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1558676" y="1220074"/>
+          <a:ext cx="606102" cy="303051"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>详情页</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1567552" y="1228950"/>
+        <a:ext cx="588350" cy="285299"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="16874489">
+          <a:off x="1664179" y="751766"/>
+          <a:ext cx="1243641" cy="19885"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9942"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1243641" y="9942"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2254908" y="730618"/>
+        <a:ext cx="62182" cy="62182"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2407220" y="293"/>
+          <a:ext cx="606102" cy="303051"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>标题</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2416096" y="9169"/>
+        <a:ext cx="588350" cy="285299"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{64C582D8-3DA4-421C-A7BF-790B8C968B20}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="17132988">
+          <a:off x="1833812" y="926021"/>
+          <a:ext cx="904374" cy="19885"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9942"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="904374" y="9942"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2263390" y="913354"/>
+        <a:ext cx="45218" cy="45218"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E26D29FE-8E13-4CE5-9714-9C2576CB7903}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2407220" y="348801"/>
+          <a:ext cx="606102" cy="303051"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>评论数量</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2416096" y="357677"/>
+        <a:ext cx="588350" cy="285299"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="17692822">
+          <a:off x="1997877" y="1100275"/>
+          <a:ext cx="576245" cy="19885"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9942"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="576245" y="9942"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2271593" y="1095812"/>
+        <a:ext cx="28812" cy="28812"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2407220" y="697310"/>
+          <a:ext cx="606102" cy="303051"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>图片</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2416096" y="706186"/>
+        <a:ext cx="588350" cy="285299"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{28F496D2-4019-4178-92C0-A9F924F314B7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="2136716" y="1274530"/>
+          <a:ext cx="298567" cy="19885"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9942"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="298567" y="9942"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2278535" y="1277008"/>
+        <a:ext cx="14928" cy="14928"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2407220" y="1045819"/>
+          <a:ext cx="606102" cy="303051"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>价格</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2416096" y="1054695"/>
+        <a:ext cx="588350" cy="285299"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{145DAD85-EA95-4FDF-9834-24E8C158645C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="2136716" y="1448784"/>
+          <a:ext cx="298567" cy="19885"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9942"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="298567" y="9942"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2278535" y="1451263"/>
+        <a:ext cx="14928" cy="14928"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2407220" y="1394328"/>
+          <a:ext cx="606102" cy="303051"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>描述</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2416096" y="1403204"/>
+        <a:ext cx="588350" cy="285299"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{28F1DC58-4C80-42A9-951A-A48CC763381A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="3907178">
+          <a:off x="1997877" y="1623039"/>
+          <a:ext cx="576245" cy="19885"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9942"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="576245" y="9942"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2271593" y="1618575"/>
+        <a:ext cx="28812" cy="28812"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2407220" y="1742837"/>
+          <a:ext cx="606102" cy="303051"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>属性</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2416096" y="1751713"/>
+        <a:ext cx="588350" cy="285299"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4467012">
+          <a:off x="1833812" y="1797293"/>
+          <a:ext cx="904374" cy="19885"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9942"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="904374" y="9942"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2263390" y="1784626"/>
+        <a:ext cx="45218" cy="45218"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2407220" y="2091346"/>
+          <a:ext cx="606102" cy="303051"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>配件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2416096" y="2100222"/>
+        <a:ext cx="588350" cy="285299"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4725511">
+          <a:off x="1664179" y="1971548"/>
+          <a:ext cx="1243641" cy="19885"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9942"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1243641" y="9942"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2254908" y="1950399"/>
+        <a:ext cx="62182" cy="62182"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2407220" y="2439855"/>
+          <a:ext cx="606102" cy="303051"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>推荐</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2416096" y="2448731"/>
+        <a:ext cx="588350" cy="285299"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
 <file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="211"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="311"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="21" destId="211" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="31" destId="311" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="diagram">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="l"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="r"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="des" ptType="node" refType="h"/>
+      <dgm:constr type="w" for="des" ptType="node" refType="h" refFor="des" refPtType="node" fact="2"/>
+      <dgm:constr type="sibSp" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level2hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level3hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sp" for="des" forName="root1" refType="w" refFor="des" refPtType="node" fact="0.4"/>
+      <dgm:constr type="sp" for="des" forName="root2" refType="sp" refFor="des" refForName="root1" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" op="equ" val="55"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" refType="primFontSz" refFor="des" refPtType="node" op="lte" fact="0.8"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node">
+        <dgm:layoutNode name="root1">
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="lCtrCh"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name7">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="rCtrCh"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="LevelOneTextNode" styleLbl="node0">
+            <dgm:varLst>
+              <dgm:chPref val="3"/>
+            </dgm:varLst>
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+              <dgm:adjLst>
+                <dgm:adj idx="1" val="0.1"/>
+              </dgm:adjLst>
+            </dgm:shape>
+            <dgm:presOf axis="self"/>
+            <dgm:constrLst>
+              <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="level2hierChild">
+            <dgm:choose name="Name8">
+              <dgm:if name="Name9" func="var" arg="dir" op="equ" val="norm">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="l"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:else name="Name10">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="r"/>
+                </dgm:alg>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="repeat" axis="ch">
+              <dgm:forEach name="Name11" axis="self" ptType="parTrans" cnt="1">
+                <dgm:layoutNode name="conn2-1">
+                  <dgm:choose name="Name12">
+                    <dgm:if name="Name13" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midR"/>
+                        <dgm:param type="endPts" val="midL"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name14">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midL"/>
+                        <dgm:param type="endPts" val="midR"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="w" val="1"/>
+                    <dgm:constr type="h" val="5"/>
+                    <dgm:constr type="connDist"/>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                    <dgm:constr type="userA" for="ch" refType="connDist"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="connTx">
+                    <dgm:alg type="tx">
+                      <dgm:param type="autoTxRot" val="grav"/>
+                    </dgm:alg>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="userA"/>
+                      <dgm:constr type="w" refType="userA" fact="0.05"/>
+                      <dgm:constr type="h" refType="userA" fact="0.05"/>
+                      <dgm:constr type="lMarg" val="1"/>
+                      <dgm:constr type="rMarg" val="1"/>
+                      <dgm:constr type="tMarg"/>
+                      <dgm:constr type="bMarg"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="h" val="NaN" fact="0.25" max="NaN"/>
+                      <dgm:rule type="w" val="NaN" fact="0.8" max="NaN"/>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:forEach name="Name15" axis="self" ptType="node">
+                <dgm:layoutNode name="root2">
+                  <dgm:choose name="Name16">
+                    <dgm:if name="Name17" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="lCtrCh"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name18">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="rCtrCh"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="LevelTwoTextNode">
+                    <dgm:varLst>
+                      <dgm:chPref val="3"/>
+                    </dgm:varLst>
+                    <dgm:alg type="tx"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                      <dgm:adjLst>
+                        <dgm:adj idx="1" val="0.1"/>
+                      </dgm:adjLst>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                  <dgm:layoutNode name="level3hierChild">
+                    <dgm:choose name="Name19">
+                      <dgm:if name="Name20" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="l"/>
+                        </dgm:alg>
+                      </dgm:if>
+                      <dgm:else name="Name21">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="r"/>
+                        </dgm:alg>
+                      </dgm:else>
+                    </dgm:choose>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst/>
+                    <dgm:ruleLst/>
+                    <dgm:forEach name="Name22" ref="repeat"/>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -3886,6 +6985,1040 @@
 </dgm:styleDef>
 </file>
 
+<file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3900,6 +8033,41 @@
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图示 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4210,8 +8378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4226,12 +8394,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/zencart/docs/模块功能划分.xlsx
+++ b/zencart/docs/模块功能划分.xlsx
@@ -2559,6 +2559,231 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="0"/>
+            <a:t>Customer Images</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1" i="0"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" type="parTrans" cxnId="{183B8392-E5FE-4D66-BFA0-711DC2F89DFF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{65B501C3-2A7E-419D-8CCB-FED00DD292D0}" type="sibTrans" cxnId="{183B8392-E5FE-4D66-BFA0-711DC2F89DFF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{68138C9E-656F-4ECF-9770-ED91439B2549}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="0"/>
+            <a:t>Customer Videos</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" type="parTrans" cxnId="{E73CD5E8-7FA6-4027-899A-FCBA604DD803}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{755B4C76-42A1-41DC-B5E3-F612FC79C5AF}" type="sibTrans" cxnId="{E73CD5E8-7FA6-4027-899A-FCBA604DD803}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>zencart.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>customers_images</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" type="parTrans" cxnId="{09AFC2D2-D25D-4826-BB1E-B74B84BAB87B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{222BD0EF-C488-41C0-B063-C91C237494CA}" type="sibTrans" cxnId="{09AFC2D2-D25D-4826-BB1E-B74B84BAB87B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>zencart.products_video_url</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" type="parTrans" cxnId="{803AA8EB-D49C-44A3-9D38-F663402CE54E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5EC8EE83-9951-4544-A6E5-0D874EC1E69F}" type="sibTrans" cxnId="{803AA8EB-D49C-44A3-9D38-F663402CE54E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0CE297AD-381C-4E1D-93C9-29394359AD51}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="0"/>
+            <a:t>Customer Reviews</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" type="parTrans" cxnId="{A4849C86-A61F-4DB2-BAEC-728EA6BBB55C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F45D05D9-65D0-4358-A6EB-605E64C4D8BB}" type="sibTrans" cxnId="{A4849C86-A61F-4DB2-BAEC-728EA6BBB55C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="0"/>
+            <a:t>Q &amp; A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" type="parTrans" cxnId="{A9B1677B-439D-4C35-9B58-62FFCC683CEC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5338813F-CDB8-4B17-B301-9A1E2C13158C}" type="sibTrans" cxnId="{A9B1677B-439D-4C35-9B58-62FFCC683CEC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
     <dgm:pt modelId="{099476A6-4E27-4FAA-9398-2AE46D180721}" type="pres">
       <dgm:prSet presAssocID="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" presName="diagram" presStyleCnt="0">
         <dgm:presLayoutVars>
@@ -2570,6 +2795,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" type="pres">
       <dgm:prSet presAssocID="{31CD7878-84F1-4825-B934-E86F76D7D560}" presName="root1" presStyleCnt="0"/>
@@ -2582,73 +2814,136 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" type="pres">
       <dgm:prSet presAssocID="{31CD7878-84F1-4825-B934-E86F76D7D560}" presName="level2hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}" type="pres">
-      <dgm:prSet presAssocID="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{493F0A8D-C152-42A2-B413-C05E0C689C00}" type="pres">
-      <dgm:prSet presAssocID="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C654AC46-6EBF-4415-B923-570FBF4BB307}" type="pres">
       <dgm:prSet presAssocID="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}" type="pres">
-      <dgm:prSet presAssocID="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="8">
+      <dgm:prSet presAssocID="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="12">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5EF65C10-0F4C-4867-ABC8-8BA7400B4D33}" type="pres">
       <dgm:prSet presAssocID="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{64C582D8-3DA4-421C-A7BF-790B8C968B20}" type="pres">
-      <dgm:prSet presAssocID="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9E3B480F-B3A6-4EEB-BEA2-2D6272A4AFB0}" type="pres">
-      <dgm:prSet presAssocID="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{27D6C21B-AE9F-48C5-97F5-BF46240BD3EB}" type="pres">
       <dgm:prSet presAssocID="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E26D29FE-8E13-4CE5-9714-9C2576CB7903}" type="pres">
-      <dgm:prSet presAssocID="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="8">
+      <dgm:prSet presAssocID="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="12">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B91DD737-B85E-44DA-AEBF-7C30D3FA28F4}" type="pres">
       <dgm:prSet presAssocID="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" type="pres">
-      <dgm:prSet presAssocID="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D227BC4F-3E9D-4433-87E2-4FCB465AB942}" type="pres">
-      <dgm:prSet presAssocID="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" type="pres">
       <dgm:prSet presAssocID="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}" type="pres">
-      <dgm:prSet presAssocID="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="8">
+      <dgm:prSet presAssocID="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="12">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2667,91 +2962,168 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{28F496D2-4019-4178-92C0-A9F924F314B7}" type="pres">
-      <dgm:prSet presAssocID="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D1296DF1-78D9-4238-A067-6069827E6644}" type="pres">
-      <dgm:prSet presAssocID="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3AAC51B9-98D5-4DEB-B9D8-DC6DE83552C6}" type="pres">
       <dgm:prSet presAssocID="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}" type="pres">
-      <dgm:prSet presAssocID="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="8">
+      <dgm:prSet presAssocID="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="12">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" type="pres">
       <dgm:prSet presAssocID="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" type="pres">
-      <dgm:prSet presAssocID="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B8F02BE7-8743-45EE-BB4C-0D916BB1864F}" type="pres">
-      <dgm:prSet presAssocID="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7A1E64AB-131B-4387-A37B-C2771C1AD578}" type="pres">
       <dgm:prSet presAssocID="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}" type="pres">
-      <dgm:prSet presAssocID="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="8">
+      <dgm:prSet presAssocID="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="12">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{74D281D5-0D3F-414D-AEE2-F96FDE0FEFCA}" type="pres">
       <dgm:prSet presAssocID="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" type="pres">
-      <dgm:prSet presAssocID="{569D4530-2880-4B71-B432-ED7F88BC411D}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{569D4530-2880-4B71-B432-ED7F88BC411D}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9C3216F4-3DBA-4E6B-9827-A0F23AE4644D}" type="pres">
-      <dgm:prSet presAssocID="{569D4530-2880-4B71-B432-ED7F88BC411D}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{569D4530-2880-4B71-B432-ED7F88BC411D}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1A18BFAB-D772-4018-A212-B31BD5C83345}" type="pres">
       <dgm:prSet presAssocID="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}" type="pres">
-      <dgm:prSet presAssocID="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="5" presStyleCnt="8">
+      <dgm:prSet presAssocID="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="5" presStyleCnt="12">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C728889B-5E42-4DF1-8429-ECF9097C6143}" type="pres">
       <dgm:prSet presAssocID="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" type="pres">
-      <dgm:prSet presAssocID="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="6" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="6" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{27E95C9E-DFB1-42E7-88F2-FAC674D0BA38}" type="pres">
-      <dgm:prSet presAssocID="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="6" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="6" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AE0D776E-7941-4133-8BC4-3D07C04622EF}" type="pres">
       <dgm:prSet presAssocID="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}" type="pres">
-      <dgm:prSet presAssocID="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="6" presStyleCnt="8">
+      <dgm:prSet presAssocID="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="6" presStyleCnt="12">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2770,66 +3142,297 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" type="pres">
-      <dgm:prSet presAssocID="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="7" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="7" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{33B2E686-47BD-45CE-946E-82276B7C9666}" type="pres">
-      <dgm:prSet presAssocID="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="7" presStyleCnt="8"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="7" presStyleCnt="12"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{66620AF1-75E2-4810-8877-D6F600792F6C}" type="pres">
       <dgm:prSet presAssocID="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}" type="pres">
-      <dgm:prSet presAssocID="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="7" presStyleCnt="8">
+      <dgm:prSet presAssocID="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="7" presStyleCnt="12">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{55C1BC25-2BE8-4644-975C-FA17EB2A8B99}" type="pres">
       <dgm:prSet presAssocID="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}" type="pres">
+      <dgm:prSet presAssocID="{70F5336D-058E-47B2-940D-645D2C4D30E5}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="8" presStyleCnt="12"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{07445E72-6E0D-4223-8951-2B3FE2B491A1}" type="pres">
+      <dgm:prSet presAssocID="{70F5336D-058E-47B2-940D-645D2C4D30E5}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="8" presStyleCnt="12"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5C170C3D-F360-45A1-84C3-CE2952BA2844}" type="pres">
+      <dgm:prSet presAssocID="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}" type="pres">
+      <dgm:prSet presAssocID="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="8" presStyleCnt="12">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6D161451-DDBD-473F-BDF1-FBA8BEC710EC}" type="pres">
+      <dgm:prSet presAssocID="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}" type="pres">
+      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{87E643AA-72A4-4612-B289-26E6E69BA69D}" type="pres">
+      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2914C49A-BF99-43F8-A7AF-3E460BFDEFC4}" type="pres">
+      <dgm:prSet presAssocID="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EF7CB15F-86FD-4372-B781-C31717015D39}" type="pres">
+      <dgm:prSet presAssocID="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{029B042F-64BC-4E74-B354-CDCEC463EB87}" type="pres">
+      <dgm:prSet presAssocID="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}" type="pres">
+      <dgm:prSet presAssocID="{046CB6E8-C903-492C-90F3-C9BC4362779A}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="9" presStyleCnt="12"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E445A682-3309-48F3-9735-EBB2F9E78523}" type="pres">
+      <dgm:prSet presAssocID="{046CB6E8-C903-492C-90F3-C9BC4362779A}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="9" presStyleCnt="12"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{59A57C51-D604-42D1-9A53-8F7EAFF5A973}" type="pres">
+      <dgm:prSet presAssocID="{68138C9E-656F-4ECF-9770-ED91439B2549}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}" type="pres">
+      <dgm:prSet presAssocID="{68138C9E-656F-4ECF-9770-ED91439B2549}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="9" presStyleCnt="12">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9CE14A5E-F8F1-41E3-A64F-D37E09FD71F2}" type="pres">
+      <dgm:prSet presAssocID="{68138C9E-656F-4ECF-9770-ED91439B2549}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}" type="pres">
+      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{67608300-5F86-4317-AB34-2391DC98945C}" type="pres">
+      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8C9D8643-4E5F-443A-94D3-497E61C7060A}" type="pres">
+      <dgm:prSet presAssocID="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{19273AAB-E414-41A1-9D60-19175C768B84}" type="pres">
+      <dgm:prSet presAssocID="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{105A7359-B2CB-453E-AF38-BF6796CDB310}" type="pres">
+      <dgm:prSet presAssocID="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}" type="pres">
+      <dgm:prSet presAssocID="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="10" presStyleCnt="12"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{515834A5-28FF-4C53-ACA2-A74E27687D59}" type="pres">
+      <dgm:prSet presAssocID="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="10" presStyleCnt="12"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B609B0A7-D877-4D89-B9EB-CFE205CA51AA}" type="pres">
+      <dgm:prSet presAssocID="{0CE297AD-381C-4E1D-93C9-29394359AD51}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}" type="pres">
+      <dgm:prSet presAssocID="{0CE297AD-381C-4E1D-93C9-29394359AD51}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="10" presStyleCnt="12">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F29AED0A-2465-400B-A760-6FF1E5FE6EAE}" type="pres">
+      <dgm:prSet presAssocID="{0CE297AD-381C-4E1D-93C9-29394359AD51}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D84339FB-047D-4649-8593-289A5B8D130D}" type="pres">
+      <dgm:prSet presAssocID="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="11" presStyleCnt="12"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F216577D-6FCB-4212-9BED-9C81EE0A6A09}" type="pres">
+      <dgm:prSet presAssocID="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="11" presStyleCnt="12"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8F841BAE-7D00-482B-BDAE-D1EBD1423513}" type="pres">
+      <dgm:prSet presAssocID="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{98556681-3D9F-4912-AC6C-8A99410E01D5}" type="pres">
+      <dgm:prSet presAssocID="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="11" presStyleCnt="12">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F0233915-F401-47AC-AF14-F02505CCE778}" type="pres">
+      <dgm:prSet presAssocID="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{F1E8F784-730D-4557-B920-BF4060688176}" type="presOf" srcId="{68138C9E-656F-4ECF-9770-ED91439B2549}" destId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CAF44A32-6E1F-417C-9766-62B0DDC36C06}" type="presOf" srcId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" destId="{27E95C9E-DFB1-42E7-88F2-FAC674D0BA38}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{181A4CB7-58BC-4410-8809-D108D15EFD91}" type="presOf" srcId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" destId="{515834A5-28FF-4C53-ACA2-A74E27687D59}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BC379DEB-700E-40DA-981B-0961DA271015}" type="presOf" srcId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" destId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{88563BBC-2096-4E97-B568-6C4973130BF3}" type="presOf" srcId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" destId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A1B4723D-D0C8-4F24-999D-70605730D176}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" srcOrd="1" destOrd="0" parTransId="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" sibTransId="{E62026F1-A73E-410F-B5B4-49EE7FB9B15A}"/>
+    <dgm:cxn modelId="{ECD525E0-071A-4D3F-91CD-E3A916775A0F}" type="presOf" srcId="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" destId="{98556681-3D9F-4912-AC6C-8A99410E01D5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{09AFC2D2-D25D-4826-BB1E-B74B84BAB87B}" srcId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" destId="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" srcOrd="0" destOrd="0" parTransId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" sibTransId="{222BD0EF-C488-41C0-B063-C91C237494CA}"/>
+    <dgm:cxn modelId="{514F4805-DBBC-4C62-8567-1E871BCD1543}" type="presOf" srcId="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" destId="{19273AAB-E414-41A1-9D60-19175C768B84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CEB17849-D01E-468A-A8AC-4B9BE1A2130A}" type="presOf" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{AC3929EA-AEDC-45D8-B9CA-70262C585A0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D95655CC-9891-462F-9EC4-46A0CA6E7B0A}" type="presOf" srcId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" destId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{31A1FD36-5B8F-4A53-9E3F-E50E7EF2E74F}" type="presOf" srcId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" destId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{971B1D42-AA2A-49E2-BDA9-C111A31016E7}" type="presOf" srcId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" destId="{B8F02BE7-8743-45EE-BB4C-0D916BB1864F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A58F26D1-A0FE-41EC-8250-BE82F7D9A850}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" srcOrd="4" destOrd="0" parTransId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" sibTransId="{2341C01B-050C-4692-87AA-FBAB4A11079B}"/>
+    <dgm:cxn modelId="{803AA8EB-D49C-44A3-9D38-F663402CE54E}" srcId="{68138C9E-656F-4ECF-9770-ED91439B2549}" destId="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" srcOrd="0" destOrd="0" parTransId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" sibTransId="{5EC8EE83-9951-4544-A6E5-0D874EC1E69F}"/>
+    <dgm:cxn modelId="{B9F624A4-67AA-4419-8286-DEC9FD13E7AE}" type="presOf" srcId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" destId="{F216577D-6FCB-4212-9BED-9C81EE0A6A09}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A7C8B10F-F14E-4AAF-849C-A3F80278F687}" type="presOf" srcId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" destId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0F6D280E-934E-49E2-8B13-BD4FF69B880D}" type="presOf" srcId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" destId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4852B326-CE08-4397-880E-F59F9E79D1DC}" type="presOf" srcId="{569D4530-2880-4B71-B432-ED7F88BC411D}" destId="{9C3216F4-3DBA-4E6B-9827-A0F23AE4644D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{183B8392-E5FE-4D66-BFA0-711DC2F89DFF}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" srcOrd="8" destOrd="0" parTransId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" sibTransId="{65B501C3-2A7E-419D-8CCB-FED00DD292D0}"/>
+    <dgm:cxn modelId="{114138D0-C81A-4AFB-9C8C-CB017F030301}" type="presOf" srcId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" destId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A440A9C0-FFCA-4447-8E8C-C90DD8F175B7}" type="presOf" srcId="{569D4530-2880-4B71-B432-ED7F88BC411D}" destId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{201D36AE-E9C2-48B3-BB12-9F674508D3D4}" type="presOf" srcId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" destId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7C6A378F-2479-4458-A171-0AB17FEEF4A9}" type="presOf" srcId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" destId="{07445E72-6E0D-4223-8951-2B3FE2B491A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B4D91084-CCF8-455B-AC10-541DB8809651}" type="presOf" srcId="{0CE297AD-381C-4E1D-93C9-29394359AD51}" destId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6FE2B9FB-C5B1-4C7A-A8BF-B605591F5217}" srcId="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" destId="{31CD7878-84F1-4825-B934-E86F76D7D560}" srcOrd="0" destOrd="0" parTransId="{48CDDD27-CA42-4A8F-85F1-58706086F444}" sibTransId="{660A0425-314A-43B6-9E38-458E0CA60A18}"/>
+    <dgm:cxn modelId="{46D955C0-FDD0-4F65-9A7C-0DBC85CB1FF3}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1666F441-7C89-4597-8A94-D119F0D60AE3}" type="presOf" srcId="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" destId="{64C582D8-3DA4-421C-A7BF-790B8C968B20}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{08F4A0F4-2ACD-4BEE-A393-FA744D550DC3}" type="presOf" srcId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" destId="{67608300-5F86-4317-AB34-2391DC98945C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E492B71F-DEFD-45B1-B2C2-C248A042E52F}" type="presOf" srcId="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" destId="{099476A6-4E27-4FAA-9398-2AE46D180721}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F07DBD63-28A5-4E72-B82D-44D5CAA68938}" type="presOf" srcId="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" destId="{9E3B480F-B3A6-4EEB-BEA2-2D6272A4AFB0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EF0FEB8A-9C3E-431E-884B-EB378E2C86C0}" type="presOf" srcId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" destId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7BDDD235-9EFB-470A-992C-444ECE118C84}" type="presOf" srcId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" destId="{28F496D2-4019-4178-92C0-A9F924F314B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D42689F1-2387-4AAF-B01B-A5249A2EB979}" type="presOf" srcId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" destId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{764D0C7C-03F3-43A4-A459-661B4BA0D500}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{D227BC4F-3E9D-4433-87E2-4FCB465AB942}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E73CD5E8-7FA6-4027-899A-FCBA604DD803}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{68138C9E-656F-4ECF-9770-ED91439B2549}" srcOrd="9" destOrd="0" parTransId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" sibTransId="{755B4C76-42A1-41DC-B5E3-F612FC79C5AF}"/>
+    <dgm:cxn modelId="{A9B1677B-439D-4C35-9B58-62FFCC683CEC}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" srcOrd="11" destOrd="0" parTransId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" sibTransId="{5338813F-CDB8-4B17-B301-9A1E2C13158C}"/>
+    <dgm:cxn modelId="{82917F59-2648-432B-A5B9-B912DAC749E3}" type="presOf" srcId="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" destId="{EF7CB15F-86FD-4372-B781-C31717015D39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ACF6001F-CF99-4F37-B0B2-7BF5A4A78693}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" srcOrd="6" destOrd="0" parTransId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" sibTransId="{CC793FB2-49FD-477C-8EC3-3400F305DF28}"/>
+    <dgm:cxn modelId="{A4849C86-A61F-4DB2-BAEC-728EA6BBB55C}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{0CE297AD-381C-4E1D-93C9-29394359AD51}" srcOrd="10" destOrd="0" parTransId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" sibTransId="{F45D05D9-65D0-4358-A6EB-605E64C4D8BB}"/>
+    <dgm:cxn modelId="{145C319D-EF66-42C0-89E9-07F7FF9692A7}" type="presOf" srcId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" destId="{E445A682-3309-48F3-9735-EBB2F9E78523}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A00F107A-6569-4868-8CE1-B7DF8A419271}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" srcOrd="7" destOrd="0" parTransId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" sibTransId="{F3D6601C-5E3B-483E-9A2D-4F05F66683BB}"/>
+    <dgm:cxn modelId="{CD267788-94CE-451C-9F50-B5F53159AD3F}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" srcOrd="5" destOrd="0" parTransId="{569D4530-2880-4B71-B432-ED7F88BC411D}" sibTransId="{D184293E-3DF9-4312-830C-7C26789016D5}"/>
+    <dgm:cxn modelId="{9772425B-5259-41F7-BCE3-9C15A449C07C}" type="presOf" srcId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" destId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7805392A-4E17-4429-B6DF-3AD03CE55706}" type="presOf" srcId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" destId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0E47A5E0-764E-46C8-802E-961F4F388902}" type="presOf" srcId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" destId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{C97A2AF4-6412-42A7-88D3-3CF2C08BB16F}" type="presOf" srcId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" destId="{33B2E686-47BD-45CE-946E-82276B7C9666}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A1B4723D-D0C8-4F24-999D-70605730D176}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" srcOrd="1" destOrd="0" parTransId="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" sibTransId="{E62026F1-A73E-410F-B5B4-49EE7FB9B15A}"/>
-    <dgm:cxn modelId="{46D955C0-FDD0-4F65-9A7C-0DBC85CB1FF3}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0F6D280E-934E-49E2-8B13-BD4FF69B880D}" type="presOf" srcId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" destId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B4313D12-AA2D-4796-95E0-3D76BEA04572}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" srcOrd="3" destOrd="0" parTransId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" sibTransId="{D4B0F6EC-70A0-451B-8D13-ACBF5C5EE10E}"/>
-    <dgm:cxn modelId="{764D0C7C-03F3-43A4-A459-661B4BA0D500}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{D227BC4F-3E9D-4433-87E2-4FCB465AB942}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{CAF44A32-6E1F-417C-9766-62B0DDC36C06}" type="presOf" srcId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" destId="{27E95C9E-DFB1-42E7-88F2-FAC674D0BA38}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{CD267788-94CE-451C-9F50-B5F53159AD3F}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" srcOrd="5" destOrd="0" parTransId="{569D4530-2880-4B71-B432-ED7F88BC411D}" sibTransId="{D184293E-3DF9-4312-830C-7C26789016D5}"/>
-    <dgm:cxn modelId="{ACF6001F-CF99-4F37-B0B2-7BF5A4A78693}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" srcOrd="6" destOrd="0" parTransId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" sibTransId="{CC793FB2-49FD-477C-8EC3-3400F305DF28}"/>
-    <dgm:cxn modelId="{BA256EFC-C7C2-4586-A7E8-AFF656ADB148}" type="presOf" srcId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" destId="{D1296DF1-78D9-4238-A067-6069827E6644}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{9772425B-5259-41F7-BCE3-9C15A449C07C}" type="presOf" srcId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" destId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A00F107A-6569-4868-8CE1-B7DF8A419271}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" srcOrd="7" destOrd="0" parTransId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" sibTransId="{F3D6601C-5E3B-483E-9A2D-4F05F66683BB}"/>
-    <dgm:cxn modelId="{0E47A5E0-764E-46C8-802E-961F4F388902}" type="presOf" srcId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" destId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{D95655CC-9891-462F-9EC4-46A0CA6E7B0A}" type="presOf" srcId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" destId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{88563BBC-2096-4E97-B568-6C4973130BF3}" type="presOf" srcId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" destId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{BC379DEB-700E-40DA-981B-0961DA271015}" type="presOf" srcId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" destId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{4F448A1C-5B1F-4336-AC30-3AC052731F76}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" srcOrd="2" destOrd="0" parTransId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" sibTransId="{0D9ECB33-BFA2-4C1C-A0AE-F1927F22831E}"/>
-    <dgm:cxn modelId="{7BDDD235-9EFB-470A-992C-444ECE118C84}" type="presOf" srcId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" destId="{28F496D2-4019-4178-92C0-A9F924F314B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{F5CB3F6E-E390-44B1-A0AE-8AA2A0BFBD26}" type="presOf" srcId="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" destId="{E26D29FE-8E13-4CE5-9714-9C2576CB7903}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{1666F441-7C89-4597-8A94-D119F0D60AE3}" type="presOf" srcId="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" destId="{64C582D8-3DA4-421C-A7BF-790B8C968B20}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A440A9C0-FFCA-4447-8E8C-C90DD8F175B7}" type="presOf" srcId="{569D4530-2880-4B71-B432-ED7F88BC411D}" destId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{4852B326-CE08-4397-880E-F59F9E79D1DC}" type="presOf" srcId="{569D4530-2880-4B71-B432-ED7F88BC411D}" destId="{9C3216F4-3DBA-4E6B-9827-A0F23AE4644D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{CEB17849-D01E-468A-A8AC-4B9BE1A2130A}" type="presOf" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{AC3929EA-AEDC-45D8-B9CA-70262C585A0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{971B1D42-AA2A-49E2-BDA9-C111A31016E7}" type="presOf" srcId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" destId="{B8F02BE7-8743-45EE-BB4C-0D916BB1864F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{114138D0-C81A-4AFB-9C8C-CB017F030301}" type="presOf" srcId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" destId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A58F26D1-A0FE-41EC-8250-BE82F7D9A850}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" srcOrd="4" destOrd="0" parTransId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" sibTransId="{2341C01B-050C-4692-87AA-FBAB4A11079B}"/>
-    <dgm:cxn modelId="{13BCB9EE-A0C6-4E15-9262-A271A88D08EA}" type="presOf" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{E492B71F-DEFD-45B1-B2C2-C248A042E52F}" type="presOf" srcId="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" destId="{099476A6-4E27-4FAA-9398-2AE46D180721}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{D42689F1-2387-4AAF-B01B-A5249A2EB979}" type="presOf" srcId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" destId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{7805392A-4E17-4429-B6DF-3AD03CE55706}" type="presOf" srcId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" destId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{6FE2B9FB-C5B1-4C7A-A8BF-B605591F5217}" srcId="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" destId="{31CD7878-84F1-4825-B934-E86F76D7D560}" srcOrd="0" destOrd="0" parTransId="{48CDDD27-CA42-4A8F-85F1-58706086F444}" sibTransId="{660A0425-314A-43B6-9E38-458E0CA60A18}"/>
     <dgm:cxn modelId="{192D774D-417F-4BB8-98B7-EC27FA5DFE39}" type="presOf" srcId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" destId="{493F0A8D-C152-42A2-B413-C05E0C689C00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{7DF9BD4E-62DF-4346-98B6-D1BA9A37B299}" type="presOf" srcId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" destId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{F07DBD63-28A5-4E72-B82D-44D5CAA68938}" type="presOf" srcId="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" destId="{9E3B480F-B3A6-4EEB-BEA2-2D6272A4AFB0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BA256EFC-C7C2-4586-A7E8-AFF656ADB148}" type="presOf" srcId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" destId="{D1296DF1-78D9-4238-A067-6069827E6644}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4F448A1C-5B1F-4336-AC30-3AC052731F76}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" srcOrd="2" destOrd="0" parTransId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" sibTransId="{0D9ECB33-BFA2-4C1C-A0AE-F1927F22831E}"/>
     <dgm:cxn modelId="{599AABAA-2C30-4D51-BA17-D7E9AB45CB50}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" srcOrd="0" destOrd="0" parTransId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" sibTransId="{69857E7C-5030-4D39-BE1C-81C2B1166F47}"/>
+    <dgm:cxn modelId="{DE18C9AE-F6CB-4511-8817-7352C2887128}" type="presOf" srcId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" destId="{D84339FB-047D-4649-8593-289A5B8D130D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9058878F-DEBF-468B-A31E-CA220283D6AC}" type="presOf" srcId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" destId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FC06F30F-AB26-44E8-B4D1-D3683620FB5C}" type="presOf" srcId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" destId="{87E643AA-72A4-4612-B289-26E6E69BA69D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BAB0C694-65D3-4A86-BE32-46A48304A02B}" type="presOf" srcId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" destId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B4313D12-AA2D-4796-95E0-3D76BEA04572}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" srcOrd="3" destOrd="0" parTransId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" sibTransId="{D4B0F6EC-70A0-451B-8D13-ACBF5C5EE10E}"/>
+    <dgm:cxn modelId="{F5CB3F6E-E390-44B1-A0AE-8AA2A0BFBD26}" type="presOf" srcId="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" destId="{E26D29FE-8E13-4CE5-9714-9C2576CB7903}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{13BCB9EE-A0C6-4E15-9262-A271A88D08EA}" type="presOf" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E5CEFDC8-E389-4BDF-BE61-891E5470B840}" type="presParOf" srcId="{099476A6-4E27-4FAA-9398-2AE46D180721}" destId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B4FD49CA-A96F-479A-8757-AF277CFC90B3}" type="presParOf" srcId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" destId="{AC3929EA-AEDC-45D8-B9CA-70262C585A0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B11F3C13-2260-4469-BB3F-BEE2236CF8DF}" type="presParOf" srcId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" destId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -2873,6 +3476,36 @@
     <dgm:cxn modelId="{296E43F0-0001-4321-96B2-1BDD470C53D0}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{66620AF1-75E2-4810-8877-D6F600792F6C}" srcOrd="15" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{7F8509E0-3E11-4151-A3C3-834851D34AF4}" type="presParOf" srcId="{66620AF1-75E2-4810-8877-D6F600792F6C}" destId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B2CE36C1-F611-45C6-AAF1-7D8AA164F112}" type="presParOf" srcId="{66620AF1-75E2-4810-8877-D6F600792F6C}" destId="{55C1BC25-2BE8-4644-975C-FA17EB2A8B99}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B3EB7064-C22F-4A50-865B-84A2ACC1048D}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}" srcOrd="16" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{755403BF-9577-49B1-9AE1-DB73A2A70FB3}" type="presParOf" srcId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}" destId="{07445E72-6E0D-4223-8951-2B3FE2B491A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{575F0B36-FA5E-4478-892C-D0147A0CA1EC}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{5C170C3D-F360-45A1-84C3-CE2952BA2844}" srcOrd="17" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{92C80872-6DFA-4CEA-8DE8-6FC5AEA80D14}" type="presParOf" srcId="{5C170C3D-F360-45A1-84C3-CE2952BA2844}" destId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{631A25B6-BFF2-4E44-927A-0511F0E497D4}" type="presParOf" srcId="{5C170C3D-F360-45A1-84C3-CE2952BA2844}" destId="{6D161451-DDBD-473F-BDF1-FBA8BEC710EC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{58CFC66C-8451-44F4-92F8-72210C1224CB}" type="presParOf" srcId="{6D161451-DDBD-473F-BDF1-FBA8BEC710EC}" destId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A781AD9D-C169-43BE-9E7F-8E7F436FD6C2}" type="presParOf" srcId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}" destId="{87E643AA-72A4-4612-B289-26E6E69BA69D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F48BEFB0-0BBF-4762-8BAB-89AA47D657F0}" type="presParOf" srcId="{6D161451-DDBD-473F-BDF1-FBA8BEC710EC}" destId="{2914C49A-BF99-43F8-A7AF-3E460BFDEFC4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E67AD716-F6AF-4377-900E-06D32482BDF1}" type="presParOf" srcId="{2914C49A-BF99-43F8-A7AF-3E460BFDEFC4}" destId="{EF7CB15F-86FD-4372-B781-C31717015D39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7BB4A9CB-5BE2-4909-B814-54B9C0F6F296}" type="presParOf" srcId="{2914C49A-BF99-43F8-A7AF-3E460BFDEFC4}" destId="{029B042F-64BC-4E74-B354-CDCEC463EB87}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{54150382-CF2C-499B-A475-8949EF338013}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}" srcOrd="18" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{029E1217-AEE3-46BB-85DE-37908DACFDA8}" type="presParOf" srcId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}" destId="{E445A682-3309-48F3-9735-EBB2F9E78523}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D26BB042-2AD8-44AF-9465-2675AFC1EA47}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{59A57C51-D604-42D1-9A53-8F7EAFF5A973}" srcOrd="19" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3909BAA7-1F0A-4100-8CC2-CCDDA9FC7893}" type="presParOf" srcId="{59A57C51-D604-42D1-9A53-8F7EAFF5A973}" destId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1C6A15BF-96DB-4AFD-BFC6-2C55BA63AD87}" type="presParOf" srcId="{59A57C51-D604-42D1-9A53-8F7EAFF5A973}" destId="{9CE14A5E-F8F1-41E3-A64F-D37E09FD71F2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DCAB5A08-F094-45C4-80FE-98E6457C8EFD}" type="presParOf" srcId="{9CE14A5E-F8F1-41E3-A64F-D37E09FD71F2}" destId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A034F85E-8CF0-45ED-A8B6-BC7E127C03AF}" type="presParOf" srcId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}" destId="{67608300-5F86-4317-AB34-2391DC98945C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{856CA037-432A-4FE8-9E90-95E2EE92BD4C}" type="presParOf" srcId="{9CE14A5E-F8F1-41E3-A64F-D37E09FD71F2}" destId="{8C9D8643-4E5F-443A-94D3-497E61C7060A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{64F3560F-B542-4647-B8C3-8DD9863A83B9}" type="presParOf" srcId="{8C9D8643-4E5F-443A-94D3-497E61C7060A}" destId="{19273AAB-E414-41A1-9D60-19175C768B84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4517AB7E-30DA-40D8-82EF-5879F61A2F1B}" type="presParOf" srcId="{8C9D8643-4E5F-443A-94D3-497E61C7060A}" destId="{105A7359-B2CB-453E-AF38-BF6796CDB310}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B186A53E-27F2-4155-AA0B-82BD03DD9646}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}" srcOrd="20" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2617F145-F442-4625-A868-3A3C9058E929}" type="presParOf" srcId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}" destId="{515834A5-28FF-4C53-ACA2-A74E27687D59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F7A0AC22-D27A-4CFF-89ED-E9B3036FFC71}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{B609B0A7-D877-4D89-B9EB-CFE205CA51AA}" srcOrd="21" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1FB8775F-8EDB-4CE6-B288-C2A31F6E1DE2}" type="presParOf" srcId="{B609B0A7-D877-4D89-B9EB-CFE205CA51AA}" destId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8CA55AA7-580D-4902-8268-2A59083244AA}" type="presParOf" srcId="{B609B0A7-D877-4D89-B9EB-CFE205CA51AA}" destId="{F29AED0A-2465-400B-A760-6FF1E5FE6EAE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6635B136-D098-44A2-A609-56FF7FB92A76}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{D84339FB-047D-4649-8593-289A5B8D130D}" srcOrd="22" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{360B3ADA-331B-4BFA-9C29-33D1C66A5090}" type="presParOf" srcId="{D84339FB-047D-4649-8593-289A5B8D130D}" destId="{F216577D-6FCB-4212-9BED-9C81EE0A6A09}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{558EAFDC-9260-472C-989C-D08F274B7FF9}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{8F841BAE-7D00-482B-BDAE-D1EBD1423513}" srcOrd="23" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C4E03DA0-2FDC-4677-AA41-E50F404789B6}" type="presParOf" srcId="{8F841BAE-7D00-482B-BDAE-D1EBD1423513}" destId="{98556681-3D9F-4912-AC6C-8A99410E01D5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{03E8EA64-B3D7-45E8-BC71-C95FDED123BA}" type="presParOf" srcId="{8F841BAE-7D00-482B-BDAE-D1EBD1423513}" destId="{F0233915-F401-47AC-AF14-F02505CCE778}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
   </dgm:cxnLst>
   <dgm:bg/>
   <dgm:whole/>
@@ -3979,8 +4612,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1558676" y="1220074"/>
-          <a:ext cx="606102" cy="303051"/>
+          <a:off x="4732869" y="5647309"/>
+          <a:ext cx="1785239" cy="892619"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4023,12 +4656,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4040,14 +4673,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
             <a:t>详情页</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1567552" y="1228950"/>
-        <a:ext cx="588350" cy="285299"/>
+        <a:off x="4759013" y="5673453"/>
+        <a:ext cx="1732951" cy="840331"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}">
@@ -4056,9 +4689,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="16874489">
-          <a:off x="1664179" y="751766"/>
-          <a:ext cx="1243641" cy="19885"/>
+        <a:xfrm rot="16632517">
+          <a:off x="4029756" y="3264116"/>
+          <a:ext cx="5690802" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4069,10 +4702,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9942"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1243641" y="9942"/>
+                <a:pt x="5690802" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4110,7 +4743,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4121,12 +4754,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2254908" y="730618"/>
-        <a:ext cx="62182" cy="62182"/>
+        <a:off x="6732887" y="3128438"/>
+        <a:ext cx="284540" cy="284540"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}">
@@ -4136,8 +4769,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2407220" y="293"/>
-          <a:ext cx="606102" cy="303051"/>
+          <a:off x="7232205" y="1487"/>
+          <a:ext cx="1785239" cy="892619"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4180,12 +4813,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4197,14 +4830,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
             <a:t>标题</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2416096" y="9169"/>
-        <a:ext cx="588350" cy="285299"/>
+        <a:off x="7258349" y="27631"/>
+        <a:ext cx="1732951" cy="840331"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{64C582D8-3DA4-421C-A7BF-790B8C968B20}">
@@ -4213,9 +4846,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17132988">
-          <a:off x="1833812" y="926021"/>
-          <a:ext cx="904374" cy="19885"/>
+        <a:xfrm rot="16727265">
+          <a:off x="4538068" y="3777373"/>
+          <a:ext cx="4674178" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4226,10 +4859,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9942"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="904374" y="9942"/>
+                <a:pt x="4674178" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4267,7 +4900,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4278,12 +4911,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2263390" y="913354"/>
-        <a:ext cx="45218" cy="45218"/>
+        <a:off x="6758303" y="3667110"/>
+        <a:ext cx="233708" cy="233708"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E26D29FE-8E13-4CE5-9714-9C2576CB7903}">
@@ -4293,8 +4926,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2407220" y="348801"/>
-          <a:ext cx="606102" cy="303051"/>
+          <a:off x="7232205" y="1028000"/>
+          <a:ext cx="1785239" cy="892619"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4337,12 +4970,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4354,14 +4987,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
             <a:t>评论数量</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2416096" y="357677"/>
-        <a:ext cx="588350" cy="285299"/>
+        <a:off x="7258349" y="1054144"/>
+        <a:ext cx="1732951" cy="840331"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}">
@@ -4370,9 +5003,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17692822">
-          <a:off x="1997877" y="1100275"/>
-          <a:ext cx="576245" cy="19885"/>
+        <a:xfrm rot="16874489">
+          <a:off x="5043620" y="4290629"/>
+          <a:ext cx="3663074" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4383,10 +5016,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9942"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="576245" y="9942"/>
+                <a:pt x="3663074" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4424,7 +5057,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4435,12 +5068,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2271593" y="1095812"/>
-        <a:ext cx="28812" cy="28812"/>
+        <a:off x="6783580" y="4205644"/>
+        <a:ext cx="183153" cy="183153"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}">
@@ -4450,8 +5083,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2407220" y="697310"/>
-          <a:ext cx="606102" cy="303051"/>
+          <a:off x="7232205" y="2054513"/>
+          <a:ext cx="1785239" cy="892619"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4494,12 +5127,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4511,14 +5144,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
             <a:t>图片</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2416096" y="706186"/>
-        <a:ext cx="588350" cy="285299"/>
+        <a:off x="7258349" y="2080657"/>
+        <a:ext cx="1732951" cy="840331"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{28F496D2-4019-4178-92C0-A9F924F314B7}">
@@ -4527,9 +5160,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="19457599">
-          <a:off x="2136716" y="1274530"/>
-          <a:ext cx="298567" cy="19885"/>
+        <a:xfrm rot="17132988">
+          <a:off x="5543266" y="4803885"/>
+          <a:ext cx="2663782" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4540,10 +5173,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9942"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="298567" y="9942"/>
+                <a:pt x="2663782" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4581,7 +5214,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4592,12 +5225,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2278535" y="1277008"/>
-        <a:ext cx="14928" cy="14928"/>
+        <a:off x="6808562" y="4743883"/>
+        <a:ext cx="133189" cy="133189"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}">
@@ -4607,8 +5240,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2407220" y="1045819"/>
-          <a:ext cx="606102" cy="303051"/>
+          <a:off x="7232205" y="3081026"/>
+          <a:ext cx="1785239" cy="892619"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4651,12 +5284,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4668,14 +5301,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
             <a:t>价格</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2416096" y="1054695"/>
-        <a:ext cx="588350" cy="285299"/>
+        <a:off x="7258349" y="3107170"/>
+        <a:ext cx="1732951" cy="840331"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{145DAD85-EA95-4FDF-9834-24E8C158645C}">
@@ -4684,9 +5317,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="2142401">
-          <a:off x="2136716" y="1448784"/>
-          <a:ext cx="298567" cy="19885"/>
+        <a:xfrm rot="17692822">
+          <a:off x="6026508" y="5317142"/>
+          <a:ext cx="1697298" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4697,10 +5330,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9942"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="298567" y="9942"/>
+                <a:pt x="1697298" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4738,7 +5371,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4749,12 +5382,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2278535" y="1451263"/>
-        <a:ext cx="14928" cy="14928"/>
+        <a:off x="6832725" y="5281301"/>
+        <a:ext cx="84864" cy="84864"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}">
@@ -4764,8 +5397,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2407220" y="1394328"/>
-          <a:ext cx="606102" cy="303051"/>
+          <a:off x="7232205" y="4107539"/>
+          <a:ext cx="1785239" cy="892619"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4808,12 +5441,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4825,14 +5458,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
             <a:t>描述</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2416096" y="1403204"/>
-        <a:ext cx="588350" cy="285299"/>
+        <a:off x="7258349" y="4133683"/>
+        <a:ext cx="1732951" cy="840331"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{28F1DC58-4C80-42A9-951A-A48CC763381A}">
@@ -4841,9 +5474,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="3907178">
-          <a:off x="1997877" y="1623039"/>
-          <a:ext cx="576245" cy="19885"/>
+        <a:xfrm rot="19457599">
+          <a:off x="6435451" y="5830398"/>
+          <a:ext cx="879411" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4854,10 +5487,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9942"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="576245" y="9942"/>
+                <a:pt x="879411" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4910,8 +5543,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2271593" y="1618575"/>
-        <a:ext cx="28812" cy="28812"/>
+        <a:off x="6853172" y="5815005"/>
+        <a:ext cx="43970" cy="43970"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}">
@@ -4921,8 +5554,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2407220" y="1742837"/>
-          <a:ext cx="606102" cy="303051"/>
+          <a:off x="7232205" y="5134052"/>
+          <a:ext cx="1785239" cy="892619"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4965,12 +5598,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4982,14 +5615,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
             <a:t>属性</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2416096" y="1751713"/>
-        <a:ext cx="588350" cy="285299"/>
+        <a:off x="7258349" y="5160196"/>
+        <a:ext cx="1732951" cy="840331"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}">
@@ -4998,9 +5631,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4467012">
-          <a:off x="1833812" y="1797293"/>
-          <a:ext cx="904374" cy="19885"/>
+        <a:xfrm rot="2142401">
+          <a:off x="6435451" y="6343655"/>
+          <a:ext cx="879411" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5011,10 +5644,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9942"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="904374" y="9942"/>
+                <a:pt x="879411" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5067,8 +5700,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2263390" y="1784626"/>
-        <a:ext cx="45218" cy="45218"/>
+        <a:off x="6853172" y="6328261"/>
+        <a:ext cx="43970" cy="43970"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}">
@@ -5078,8 +5711,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2407220" y="2091346"/>
-          <a:ext cx="606102" cy="303051"/>
+          <a:off x="7232205" y="6160565"/>
+          <a:ext cx="1785239" cy="892619"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5122,12 +5755,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5139,15 +5772,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
             <a:t>配件</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2416096" y="2100222"/>
-        <a:ext cx="588350" cy="285299"/>
+        <a:off x="7258349" y="6186709"/>
+        <a:ext cx="1732951" cy="840331"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}">
@@ -5156,9 +5789,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4725511">
-          <a:off x="1664179" y="1971548"/>
-          <a:ext cx="1243641" cy="19885"/>
+        <a:xfrm rot="3907178">
+          <a:off x="6026508" y="6856911"/>
+          <a:ext cx="1697298" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5169,10 +5802,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9942"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1243641" y="9942"/>
+                <a:pt x="1697298" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5210,7 +5843,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5221,12 +5854,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2254908" y="1950399"/>
-        <a:ext cx="62182" cy="62182"/>
+        <a:off x="6832725" y="6821071"/>
+        <a:ext cx="84864" cy="84864"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}">
@@ -5236,8 +5869,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2407220" y="2439855"/>
-          <a:ext cx="606102" cy="303051"/>
+          <a:off x="7232205" y="7187078"/>
+          <a:ext cx="1785239" cy="892619"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5280,12 +5913,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5297,14 +5930,965 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
             <a:t>推荐</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2416096" y="2448731"/>
-        <a:ext cx="588350" cy="285299"/>
+        <a:off x="7258349" y="7213222"/>
+        <a:ext cx="1732951" cy="840331"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4467012">
+          <a:off x="5543266" y="7370168"/>
+          <a:ext cx="2663782" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2663782" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6808562" y="7310165"/>
+        <a:ext cx="133189" cy="133189"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7232205" y="8213591"/>
+          <a:ext cx="1785239" cy="892619"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
+            <a:t>Customer Images</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7258349" y="8239735"/>
+        <a:ext cx="1732951" cy="840331"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9017445" y="8653309"/>
+          <a:ext cx="714095" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="714095" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9356641" y="8642049"/>
+        <a:ext cx="35704" cy="35704"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{EF7CB15F-86FD-4372-B781-C31717015D39}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9731541" y="8213591"/>
+          <a:ext cx="1785239" cy="892619"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" kern="1200"/>
+            <a:t>zencart.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>customers_images</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9757685" y="8239735"/>
+        <a:ext cx="1732951" cy="840331"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4725511">
+          <a:off x="5043620" y="7883424"/>
+          <a:ext cx="3663074" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="3663074" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6783580" y="7798439"/>
+        <a:ext cx="183153" cy="183153"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7232205" y="9240104"/>
+          <a:ext cx="1785239" cy="892619"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
+            <a:t>Customer Videos</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7258349" y="9266248"/>
+        <a:ext cx="1732951" cy="840331"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9017445" y="9679822"/>
+          <a:ext cx="714095" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="714095" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9356641" y="9668561"/>
+        <a:ext cx="35704" cy="35704"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{19273AAB-E414-41A1-9D60-19175C768B84}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9731541" y="9240104"/>
+          <a:ext cx="1785239" cy="892619"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>zencart.products_video_url</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9757685" y="9266248"/>
+        <a:ext cx="1732951" cy="840331"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4872735">
+          <a:off x="4538068" y="8396681"/>
+          <a:ext cx="4674178" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="4674178" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6758303" y="8286418"/>
+        <a:ext cx="233708" cy="233708"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7232205" y="10266617"/>
+          <a:ext cx="1785239" cy="892619"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
+            <a:t>Customer Reviews</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7258349" y="10292761"/>
+        <a:ext cx="1732951" cy="840331"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D84339FB-047D-4649-8593-289A5B8D130D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4967483">
+          <a:off x="4029756" y="8909937"/>
+          <a:ext cx="5690802" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="5690802" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6732887" y="8774259"/>
+        <a:ext cx="284540" cy="284540"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{98556681-3D9F-4912-AC6C-8A99410E01D5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7232205" y="11293130"/>
+          <a:ext cx="1785239" cy="892619"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
+            <a:t>Q &amp; A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7258349" y="11319274"/>
+        <a:ext cx="1732951" cy="840331"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -8059,15 +9643,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>95248</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8379,7 +9963,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8394,8 +9978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="S71" sqref="S71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/zencart/docs/模块功能划分.xlsx
+++ b/zencart/docs/模块功能划分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -2306,8 +2306,555 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}">
-      <dgm:prSet phldrT="[文本]"/>
+    <dgm:pt modelId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>图片</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" type="parTrans" cxnId="{4F448A1C-5B1F-4336-AC30-3AC052731F76}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0D9ECB33-BFA2-4C1C-A0AE-F1927F22831E}" type="sibTrans" cxnId="{4F448A1C-5B1F-4336-AC30-3AC052731F76}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>价格</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" type="parTrans" cxnId="{B4313D12-AA2D-4796-95E0-3D76BEA04572}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D4B0F6EC-70A0-451B-8D13-ACBF5C5EE10E}" type="sibTrans" cxnId="{B4313D12-AA2D-4796-95E0-3D76BEA04572}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>描述</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" type="parTrans" cxnId="{A58F26D1-A0FE-41EC-8250-BE82F7D9A850}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2341C01B-050C-4692-87AA-FBAB4A11079B}" type="sibTrans" cxnId="{A58F26D1-A0FE-41EC-8250-BE82F7D9A850}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>属性</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{569D4530-2880-4B71-B432-ED7F88BC411D}" type="parTrans" cxnId="{CD267788-94CE-451C-9F50-B5F53159AD3F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D184293E-3DF9-4312-830C-7C26789016D5}" type="sibTrans" cxnId="{CD267788-94CE-451C-9F50-B5F53159AD3F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="0"/>
+            <a:t>Accessories</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" type="parTrans" cxnId="{ACF6001F-CF99-4F37-B0B2-7BF5A4A78693}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CC793FB2-49FD-477C-8EC3-3400F305DF28}" type="sibTrans" cxnId="{ACF6001F-CF99-4F37-B0B2-7BF5A4A78693}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>推荐</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" type="parTrans" cxnId="{A00F107A-6569-4868-8CE1-B7DF8A419271}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F3D6601C-5E3B-483E-9A2D-4F05F66683BB}" type="sibTrans" cxnId="{A00F107A-6569-4868-8CE1-B7DF8A419271}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="0"/>
+            <a:t>Customer Images</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" type="parTrans" cxnId="{183B8392-E5FE-4D66-BFA0-711DC2F89DFF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{65B501C3-2A7E-419D-8CCB-FED00DD292D0}" type="sibTrans" cxnId="{183B8392-E5FE-4D66-BFA0-711DC2F89DFF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{68138C9E-656F-4ECF-9770-ED91439B2549}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="0"/>
+            <a:t>Customer Videos</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" type="parTrans" cxnId="{E73CD5E8-7FA6-4027-899A-FCBA604DD803}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{755B4C76-42A1-41DC-B5E3-F612FC79C5AF}" type="sibTrans" cxnId="{E73CD5E8-7FA6-4027-899A-FCBA604DD803}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>customers_images</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" type="parTrans" cxnId="{09AFC2D2-D25D-4826-BB1E-B74B84BAB87B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{222BD0EF-C488-41C0-B063-C91C237494CA}" type="sibTrans" cxnId="{09AFC2D2-D25D-4826-BB1E-B74B84BAB87B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>products_video_url</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" type="parTrans" cxnId="{803AA8EB-D49C-44A3-9D38-F663402CE54E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5EC8EE83-9951-4544-A6E5-0D874EC1E69F}" type="sibTrans" cxnId="{803AA8EB-D49C-44A3-9D38-F663402CE54E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0CE297AD-381C-4E1D-93C9-29394359AD51}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="0"/>
+            <a:t>Customer Reviews</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" type="parTrans" cxnId="{A4849C86-A61F-4DB2-BAEC-728EA6BBB55C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F45D05D9-65D0-4358-A6EB-605E64C4D8BB}" type="sibTrans" cxnId="{A4849C86-A61F-4DB2-BAEC-728EA6BBB55C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="0"/>
+            <a:t>Q &amp; A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" type="parTrans" cxnId="{A9B1677B-439D-4C35-9B58-62FFCC683CEC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5338813F-CDB8-4B17-B301-9A1E2C13158C}" type="sibTrans" cxnId="{A9B1677B-439D-4C35-9B58-62FFCC683CEC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>products_description.products_name</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3873C774-C9E3-4842-845E-3F0F0A27954C}" type="parTrans" cxnId="{A8F51EA3-D546-4480-A9DC-4A8865744C5A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D77E36F3-C88B-406F-8D67-7AB15A0509B0}" type="sibTrans" cxnId="{A8F51EA3-D546-4480-A9DC-4A8865744C5A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>product_to_products</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{675C5201-5BA2-47CE-800D-A6384009EC75}" type="parTrans" cxnId="{8799599A-5096-414A-8D49-C85637058AD4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CB16F46D-665A-479C-A8D9-C522A3ADA694}" type="sibTrans" cxnId="{8799599A-5096-414A-8D49-C85637058AD4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4E4C3743-8093-45F6-8A41-15462B04EAC8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>zencart.reviews</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{27481B52-DE79-4D07-90EC-53EA026B04E1}" type="parTrans" cxnId="{0300DB19-CEF2-4D35-A9F0-2ECCC38E5E32}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A246CAF9-69F6-4E46-A750-C2B40F0B8E92}" type="sibTrans" cxnId="{0300DB19-CEF2-4D35-A9F0-2ECCC38E5E32}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7D712709-A7D6-486B-957D-F3E0A466960F}">
+      <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2320,7 +2867,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" type="parTrans" cxnId="{A1B4723D-D0C8-4F24-999D-70605730D176}">
+    <dgm:pt modelId="{6685CE29-0B27-4599-8A61-2E450B77D4E6}" type="parTrans" cxnId="{C507D615-DC3E-4883-9DB8-089D14929E62}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2331,7 +2878,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{E62026F1-A73E-410F-B5B4-49EE7FB9B15A}" type="sibTrans" cxnId="{A1B4723D-D0C8-4F24-999D-70605730D176}">
+    <dgm:pt modelId="{0070C935-FB69-45CF-8C14-D759D14EB217}" type="sibTrans" cxnId="{C507D615-DC3E-4883-9DB8-089D14929E62}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2342,7 +2889,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}">
+    <dgm:pt modelId="{BA71DA5D-21B1-4B1D-A363-D8A62109F187}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2351,12 +2898,12 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>图片</a:t>
+            <a:t>有登陆</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" type="parTrans" cxnId="{4F448A1C-5B1F-4336-AC30-3AC052731F76}">
+    <dgm:pt modelId="{281C279B-179E-4D08-AE07-8C99B5657ACE}" type="parTrans" cxnId="{CF125C6D-E5C7-423A-B63D-429BE60D661E}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2367,7 +2914,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{0D9ECB33-BFA2-4C1C-A0AE-F1927F22831E}" type="sibTrans" cxnId="{4F448A1C-5B1F-4336-AC30-3AC052731F76}">
+    <dgm:pt modelId="{6E36CC7B-CB2E-4311-BD39-B2B8C6E2F25B}" type="sibTrans" cxnId="{CF125C6D-E5C7-423A-B63D-429BE60D661E}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2378,7 +2925,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}">
+    <dgm:pt modelId="{8F5577FA-BD2C-45E5-B09F-CC214ED7D117}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2387,12 +2934,12 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>价格</a:t>
+            <a:t>没有登陆</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" type="parTrans" cxnId="{B4313D12-AA2D-4796-95E0-3D76BEA04572}">
+    <dgm:pt modelId="{3C23E61D-C228-4D36-A913-A912602620F7}" type="parTrans" cxnId="{C5276DE2-D864-4310-83AB-4481E50F452F}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2403,7 +2950,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{D4B0F6EC-70A0-451B-8D13-ACBF5C5EE10E}" type="sibTrans" cxnId="{B4313D12-AA2D-4796-95E0-3D76BEA04572}">
+    <dgm:pt modelId="{95A91E17-67B3-4961-BE08-A86E3442BE77}" type="sibTrans" cxnId="{C5276DE2-D864-4310-83AB-4481E50F452F}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2414,7 +2961,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}">
+    <dgm:pt modelId="{8570D345-0017-4FB7-97D8-558D21E0D926}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2423,12 +2970,12 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>描述</a:t>
+            <a:t>原价</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" type="parTrans" cxnId="{A58F26D1-A0FE-41EC-8250-BE82F7D9A850}">
+    <dgm:pt modelId="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" type="parTrans" cxnId="{59192AD8-A27A-4ED2-B501-953907C56F77}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2439,7 +2986,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{2341C01B-050C-4692-87AA-FBAB4A11079B}" type="sibTrans" cxnId="{A58F26D1-A0FE-41EC-8250-BE82F7D9A850}">
+    <dgm:pt modelId="{C5B3A973-0831-4FD5-8516-41EED8ACB3DB}" type="sibTrans" cxnId="{59192AD8-A27A-4ED2-B501-953907C56F77}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2450,7 +2997,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}">
+    <dgm:pt modelId="{F5050CEC-E453-4096-A803-275398B27760}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2459,12 +3006,12 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>属性</a:t>
+            <a:t>特价</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{569D4530-2880-4B71-B432-ED7F88BC411D}" type="parTrans" cxnId="{CD267788-94CE-451C-9F50-B5F53159AD3F}">
+    <dgm:pt modelId="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" type="parTrans" cxnId="{766C6487-F348-4BB5-83C8-F88A3D520537}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2475,7 +3022,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{D184293E-3DF9-4312-830C-7C26789016D5}" type="sibTrans" cxnId="{CD267788-94CE-451C-9F50-B5F53159AD3F}">
+    <dgm:pt modelId="{DA408AEC-7E48-4F2D-858E-1E0EC7489AAE}" type="sibTrans" cxnId="{766C6487-F348-4BB5-83C8-F88A3D520537}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2486,7 +3033,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}">
+    <dgm:pt modelId="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2495,13 +3042,12 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>配件</a:t>
+            <a:t>海外仓</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" type="parTrans" cxnId="{ACF6001F-CF99-4F37-B0B2-7BF5A4A78693}">
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" type="parTrans" cxnId="{8A396820-53A3-44B8-BCBA-B109377E2C57}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2512,7 +3058,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{CC793FB2-49FD-477C-8EC3-3400F305DF28}" type="sibTrans" cxnId="{ACF6001F-CF99-4F37-B0B2-7BF5A4A78693}">
+    <dgm:pt modelId="{4B62E928-E321-4E2F-9BDA-46A285CDA4B4}" type="sibTrans" cxnId="{8A396820-53A3-44B8-BCBA-B109377E2C57}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2523,7 +3069,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}">
+    <dgm:pt modelId="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2532,126 +3078,20 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>推荐</a:t>
+            <a:t>全球价 </a:t>
           </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" type="parTrans" cxnId="{A00F107A-6569-4868-8CE1-B7DF8A419271}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{F3D6601C-5E3B-483E-9A2D-4F05F66683BB}" type="sibTrans" cxnId="{A00F107A-6569-4868-8CE1-B7DF8A419271}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1" i="0"/>
-            <a:t>Customer Images</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" b="1" i="0"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" type="parTrans" cxnId="{183B8392-E5FE-4D66-BFA0-711DC2F89DFF}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{65B501C3-2A7E-419D-8CCB-FED00DD292D0}" type="sibTrans" cxnId="{183B8392-E5FE-4D66-BFA0-711DC2F89DFF}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{68138C9E-656F-4ECF-9770-ED91439B2549}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1" i="0"/>
-            <a:t>Customer Videos</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" type="parTrans" cxnId="{E73CD5E8-7FA6-4027-899A-FCBA604DD803}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{755B4C76-42A1-41DC-B5E3-F612FC79C5AF}" type="sibTrans" cxnId="{E73CD5E8-7FA6-4027-899A-FCBA604DD803}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>zencart.</a:t>
+            <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US"/>
-            <a:t>customers_images</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>多区定价</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" type="parTrans" cxnId="{09AFC2D2-D25D-4826-BB1E-B74B84BAB87B}">
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" type="parTrans" cxnId="{0B60D818-6534-411C-AC63-29CCDFCDFEFB}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2662,118 +3102,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{222BD0EF-C488-41C0-B063-C91C237494CA}" type="sibTrans" cxnId="{09AFC2D2-D25D-4826-BB1E-B74B84BAB87B}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US"/>
-            <a:t>zencart.products_video_url</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" type="parTrans" cxnId="{803AA8EB-D49C-44A3-9D38-F663402CE54E}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{5EC8EE83-9951-4544-A6E5-0D874EC1E69F}" type="sibTrans" cxnId="{803AA8EB-D49C-44A3-9D38-F663402CE54E}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{0CE297AD-381C-4E1D-93C9-29394359AD51}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1" i="0"/>
-            <a:t>Customer Reviews</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" type="parTrans" cxnId="{A4849C86-A61F-4DB2-BAEC-728EA6BBB55C}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{F45D05D9-65D0-4358-A6EB-605E64C4D8BB}" type="sibTrans" cxnId="{A4849C86-A61F-4DB2-BAEC-728EA6BBB55C}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1" i="0"/>
-            <a:t>Q &amp; A</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" type="parTrans" cxnId="{A9B1677B-439D-4C35-9B58-62FFCC683CEC}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{5338813F-CDB8-4B17-B301-9A1E2C13158C}" type="sibTrans" cxnId="{A9B1677B-439D-4C35-9B58-62FFCC683CEC}">
+    <dgm:pt modelId="{87C669F3-4CE0-4177-BE29-7A7D430106F0}" type="sibTrans" cxnId="{0B60D818-6534-411C-AC63-29CCDFCDFEFB}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2806,6 +3135,13 @@
     <dgm:pt modelId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" type="pres">
       <dgm:prSet presAssocID="{31CD7878-84F1-4825-B934-E86F76D7D560}" presName="root1" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AC3929EA-AEDC-45D8-B9CA-70262C585A0A}" type="pres">
       <dgm:prSet presAssocID="{31CD7878-84F1-4825-B934-E86F76D7D560}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
@@ -2825,9 +3161,16 @@
     <dgm:pt modelId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" type="pres">
       <dgm:prSet presAssocID="{31CD7878-84F1-4825-B934-E86F76D7D560}" presName="level2hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}" type="pres">
-      <dgm:prSet presAssocID="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="12"/>
+      <dgm:prSet presAssocID="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2838,7 +3181,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{493F0A8D-C152-42A2-B413-C05E0C689C00}" type="pres">
-      <dgm:prSet presAssocID="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="12"/>
+      <dgm:prSet presAssocID="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2851,9 +3194,16 @@
     <dgm:pt modelId="{C654AC46-6EBF-4415-B923-570FBF4BB307}" type="pres">
       <dgm:prSet presAssocID="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}" type="pres">
-      <dgm:prSet presAssocID="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="12">
+      <dgm:prSet presAssocID="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2870,35 +3220,49 @@
     <dgm:pt modelId="{5EF65C10-0F4C-4867-ABC8-8BA7400B4D33}" type="pres">
       <dgm:prSet presAssocID="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{64C582D8-3DA4-421C-A7BF-790B8C968B20}" type="pres">
-      <dgm:prSet presAssocID="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="12"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{9E3B480F-B3A6-4EEB-BEA2-2D6272A4AFB0}" type="pres">
-      <dgm:prSet presAssocID="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="12"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{27D6C21B-AE9F-48C5-97F5-BF46240BD3EB}" type="pres">
-      <dgm:prSet presAssocID="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{E26D29FE-8E13-4CE5-9714-9C2576CB7903}" type="pres">
-      <dgm:prSet presAssocID="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="12">
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2753ED25-9652-4141-9D86-C075B64E5A0C}" type="pres">
+      <dgm:prSet presAssocID="{3873C774-C9E3-4842-845E-3F0F0A27954C}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1211BB58-91E1-4D17-8AEA-A049AA32E719}" type="pres">
+      <dgm:prSet presAssocID="{3873C774-C9E3-4842-845E-3F0F0A27954C}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{88012662-5F20-4DB7-9120-070E0744EB57}" type="pres">
+      <dgm:prSet presAssocID="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CC54B996-C92F-4E02-A4CC-BE8ED9E7597C}" type="pres">
+      <dgm:prSet presAssocID="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2912,12 +3276,19 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{B91DD737-B85E-44DA-AEBF-7C30D3FA28F4}" type="pres">
-      <dgm:prSet presAssocID="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
+    <dgm:pt modelId="{836CEEA0-70A5-4612-92CF-D9253186CE6C}" type="pres">
+      <dgm:prSet presAssocID="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" type="pres">
-      <dgm:prSet presAssocID="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="12"/>
+      <dgm:prSet presAssocID="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2928,7 +3299,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D227BC4F-3E9D-4433-87E2-4FCB465AB942}" type="pres">
-      <dgm:prSet presAssocID="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="12"/>
+      <dgm:prSet presAssocID="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2941,9 +3312,16 @@
     <dgm:pt modelId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" type="pres">
       <dgm:prSet presAssocID="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}" type="pres">
-      <dgm:prSet presAssocID="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="12">
+      <dgm:prSet presAssocID="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2960,9 +3338,16 @@
     <dgm:pt modelId="{5142D8E6-9CE4-46F6-AC41-6F5BDF9B0433}" type="pres">
       <dgm:prSet presAssocID="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{28F496D2-4019-4178-92C0-A9F924F314B7}" type="pres">
-      <dgm:prSet presAssocID="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="12"/>
+      <dgm:prSet presAssocID="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2973,7 +3358,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D1296DF1-78D9-4238-A067-6069827E6644}" type="pres">
-      <dgm:prSet presAssocID="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="12"/>
+      <dgm:prSet presAssocID="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2986,9 +3371,16 @@
     <dgm:pt modelId="{3AAC51B9-98D5-4DEB-B9D8-DC6DE83552C6}" type="pres">
       <dgm:prSet presAssocID="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}" type="pres">
-      <dgm:prSet presAssocID="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="12">
+      <dgm:prSet presAssocID="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3005,35 +3397,49 @@
     <dgm:pt modelId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" type="pres">
       <dgm:prSet presAssocID="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" type="pres">
-      <dgm:prSet presAssocID="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="12"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{B8F02BE7-8743-45EE-BB4C-0D916BB1864F}" type="pres">
-      <dgm:prSet presAssocID="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="12"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{7A1E64AB-131B-4387-A37B-C2771C1AD578}" type="pres">
-      <dgm:prSet presAssocID="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}" type="pres">
-      <dgm:prSet presAssocID="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="12">
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}" type="pres">
+      <dgm:prSet presAssocID="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1D2BB695-8C27-4347-A006-147A1DBEA74F}" type="pres">
+      <dgm:prSet presAssocID="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3A51BD8E-994F-431F-BDD3-6FF1C6D716AE}" type="pres">
+      <dgm:prSet presAssocID="{8570D345-0017-4FB7-97D8-558D21E0D926}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{74E3BD4A-40E6-475E-8288-DC90F802DB14}" type="pres">
+      <dgm:prSet presAssocID="{8570D345-0017-4FB7-97D8-558D21E0D926}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3047,38 +3453,52 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{74D281D5-0D3F-414D-AEE2-F96FDE0FEFCA}" type="pres">
-      <dgm:prSet presAssocID="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" type="pres">
-      <dgm:prSet presAssocID="{569D4530-2880-4B71-B432-ED7F88BC411D}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="12"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{9C3216F4-3DBA-4E6B-9827-A0F23AE4644D}" type="pres">
-      <dgm:prSet presAssocID="{569D4530-2880-4B71-B432-ED7F88BC411D}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="12"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{1A18BFAB-D772-4018-A212-B31BD5C83345}" type="pres">
-      <dgm:prSet presAssocID="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}" type="pres">
-      <dgm:prSet presAssocID="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="5" presStyleCnt="12">
+    <dgm:pt modelId="{1290D912-EA8C-4785-B3FF-113404BAF22F}" type="pres">
+      <dgm:prSet presAssocID="{8570D345-0017-4FB7-97D8-558D21E0D926}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{20753BF2-0D7F-4695-879C-908482DA5B47}" type="pres">
+      <dgm:prSet presAssocID="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6A91BBDB-6803-43A6-8683-4B6468961754}" type="pres">
+      <dgm:prSet presAssocID="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B337C8A1-1E7B-4803-8B04-7381D766F68B}" type="pres">
+      <dgm:prSet presAssocID="{F5050CEC-E453-4096-A803-275398B27760}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0ECFF24D-6683-4AFC-9B7F-CD0D77C6771A}" type="pres">
+      <dgm:prSet presAssocID="{F5050CEC-E453-4096-A803-275398B27760}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3092,38 +3512,52 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{C728889B-5E42-4DF1-8429-ECF9097C6143}" type="pres">
-      <dgm:prSet presAssocID="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" type="pres">
-      <dgm:prSet presAssocID="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="6" presStyleCnt="12"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{27E95C9E-DFB1-42E7-88F2-FAC674D0BA38}" type="pres">
-      <dgm:prSet presAssocID="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="6" presStyleCnt="12"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{AE0D776E-7941-4133-8BC4-3D07C04622EF}" type="pres">
-      <dgm:prSet presAssocID="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}" type="pres">
-      <dgm:prSet presAssocID="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="6" presStyleCnt="12">
+    <dgm:pt modelId="{DBA9E03C-DD52-4960-8A73-AE2B8DD6FD48}" type="pres">
+      <dgm:prSet presAssocID="{F5050CEC-E453-4096-A803-275398B27760}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}" type="pres">
+      <dgm:prSet presAssocID="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C4403317-3C9A-42B0-855F-11D6FBB268BB}" type="pres">
+      <dgm:prSet presAssocID="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0001C363-B998-4F8E-AE99-340585DA4938}" type="pres">
+      <dgm:prSet presAssocID="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0F5C5E05-724C-4615-9A27-0292B8BF7467}" type="pres">
+      <dgm:prSet presAssocID="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3137,38 +3571,52 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{33CB54D5-ED26-4C84-8F2A-23D2B925C515}" type="pres">
-      <dgm:prSet presAssocID="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" type="pres">
-      <dgm:prSet presAssocID="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="7" presStyleCnt="12"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{33B2E686-47BD-45CE-946E-82276B7C9666}" type="pres">
-      <dgm:prSet presAssocID="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="7" presStyleCnt="12"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{66620AF1-75E2-4810-8877-D6F600792F6C}" type="pres">
-      <dgm:prSet presAssocID="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}" type="pres">
-      <dgm:prSet presAssocID="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="7" presStyleCnt="12">
+    <dgm:pt modelId="{FD4B9F2F-0C95-4A79-899B-8D7C2DB82A1A}" type="pres">
+      <dgm:prSet presAssocID="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FA9E5C58-920C-4962-A474-015BE2EAD31D}" type="pres">
+      <dgm:prSet presAssocID="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CC9D094D-7F95-4C6E-A462-4B1926F24FF9}" type="pres">
+      <dgm:prSet presAssocID="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{75239506-F92C-498A-AA29-CD2824F2DC36}" type="pres">
+      <dgm:prSet presAssocID="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{84198158-0634-44E0-82FA-C5DACA6BFD04}" type="pres">
+      <dgm:prSet presAssocID="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3182,24 +3630,52 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{55C1BC25-2BE8-4644-975C-FA17EB2A8B99}" type="pres">
-      <dgm:prSet presAssocID="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}" type="pres">
-      <dgm:prSet presAssocID="{70F5336D-058E-47B2-940D-645D2C4D30E5}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="8" presStyleCnt="12"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{07445E72-6E0D-4223-8951-2B3FE2B491A1}" type="pres">
-      <dgm:prSet presAssocID="{70F5336D-058E-47B2-940D-645D2C4D30E5}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="8" presStyleCnt="12"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{5C170C3D-F360-45A1-84C3-CE2952BA2844}" type="pres">
-      <dgm:prSet presAssocID="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}" type="pres">
-      <dgm:prSet presAssocID="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="8" presStyleCnt="12">
+    <dgm:pt modelId="{65A6BD0B-546B-4F1D-A1A0-EE9E0BB35BDB}" type="pres">
+      <dgm:prSet presAssocID="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" type="pres">
+      <dgm:prSet presAssocID="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B8F02BE7-8743-45EE-BB4C-0D916BB1864F}" type="pres">
+      <dgm:prSet presAssocID="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7A1E64AB-131B-4387-A37B-C2771C1AD578}" type="pres">
+      <dgm:prSet presAssocID="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}" type="pres">
+      <dgm:prSet presAssocID="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3213,24 +3689,52 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{6D161451-DDBD-473F-BDF1-FBA8BEC710EC}" type="pres">
-      <dgm:prSet presAssocID="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}" type="pres">
-      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{87E643AA-72A4-4612-B289-26E6E69BA69D}" type="pres">
-      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{2914C49A-BF99-43F8-A7AF-3E460BFDEFC4}" type="pres">
-      <dgm:prSet presAssocID="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{EF7CB15F-86FD-4372-B781-C31717015D39}" type="pres">
-      <dgm:prSet presAssocID="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2">
+    <dgm:pt modelId="{74D281D5-0D3F-414D-AEE2-F96FDE0FEFCA}" type="pres">
+      <dgm:prSet presAssocID="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" type="pres">
+      <dgm:prSet presAssocID="{569D4530-2880-4B71-B432-ED7F88BC411D}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9C3216F4-3DBA-4E6B-9827-A0F23AE4644D}" type="pres">
+      <dgm:prSet presAssocID="{569D4530-2880-4B71-B432-ED7F88BC411D}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1A18BFAB-D772-4018-A212-B31BD5C83345}" type="pres">
+      <dgm:prSet presAssocID="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}" type="pres">
+      <dgm:prSet presAssocID="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3244,24 +3748,52 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{029B042F-64BC-4E74-B354-CDCEC463EB87}" type="pres">
-      <dgm:prSet presAssocID="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}" type="pres">
-      <dgm:prSet presAssocID="{046CB6E8-C903-492C-90F3-C9BC4362779A}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="9" presStyleCnt="12"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{E445A682-3309-48F3-9735-EBB2F9E78523}" type="pres">
-      <dgm:prSet presAssocID="{046CB6E8-C903-492C-90F3-C9BC4362779A}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="9" presStyleCnt="12"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{59A57C51-D604-42D1-9A53-8F7EAFF5A973}" type="pres">
-      <dgm:prSet presAssocID="{68138C9E-656F-4ECF-9770-ED91439B2549}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}" type="pres">
-      <dgm:prSet presAssocID="{68138C9E-656F-4ECF-9770-ED91439B2549}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="9" presStyleCnt="12">
+    <dgm:pt modelId="{C728889B-5E42-4DF1-8429-ECF9097C6143}" type="pres">
+      <dgm:prSet presAssocID="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" type="pres">
+      <dgm:prSet presAssocID="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{27E95C9E-DFB1-42E7-88F2-FAC674D0BA38}" type="pres">
+      <dgm:prSet presAssocID="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AE0D776E-7941-4133-8BC4-3D07C04622EF}" type="pres">
+      <dgm:prSet presAssocID="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}" type="pres">
+      <dgm:prSet presAssocID="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="5" presStyleCnt="11" custLinFactNeighborY="-1694">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3275,24 +3807,52 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{9CE14A5E-F8F1-41E3-A64F-D37E09FD71F2}" type="pres">
-      <dgm:prSet presAssocID="{68138C9E-656F-4ECF-9770-ED91439B2549}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}" type="pres">
-      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{67608300-5F86-4317-AB34-2391DC98945C}" type="pres">
-      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{8C9D8643-4E5F-443A-94D3-497E61C7060A}" type="pres">
-      <dgm:prSet presAssocID="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{19273AAB-E414-41A1-9D60-19175C768B84}" type="pres">
-      <dgm:prSet presAssocID="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2">
+    <dgm:pt modelId="{33CB54D5-ED26-4C84-8F2A-23D2B925C515}" type="pres">
+      <dgm:prSet presAssocID="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8C352C1C-738A-4A10-981D-E71F662088F5}" type="pres">
+      <dgm:prSet presAssocID="{675C5201-5BA2-47CE-800D-A6384009EC75}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F096C77D-217B-4E4F-BD39-338FE324D381}" type="pres">
+      <dgm:prSet presAssocID="{675C5201-5BA2-47CE-800D-A6384009EC75}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0AA5A8F8-DDEE-4D62-827E-6C999DD2E62E}" type="pres">
+      <dgm:prSet presAssocID="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DC66AB97-B3B7-454F-BADA-742E0A317634}" type="pres">
+      <dgm:prSet presAssocID="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3306,24 +3866,52 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{105A7359-B2CB-453E-AF38-BF6796CDB310}" type="pres">
-      <dgm:prSet presAssocID="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}" type="pres">
-      <dgm:prSet presAssocID="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="10" presStyleCnt="12"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{515834A5-28FF-4C53-ACA2-A74E27687D59}" type="pres">
-      <dgm:prSet presAssocID="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="10" presStyleCnt="12"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{B609B0A7-D877-4D89-B9EB-CFE205CA51AA}" type="pres">
-      <dgm:prSet presAssocID="{0CE297AD-381C-4E1D-93C9-29394359AD51}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}" type="pres">
-      <dgm:prSet presAssocID="{0CE297AD-381C-4E1D-93C9-29394359AD51}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="10" presStyleCnt="12">
+    <dgm:pt modelId="{8EE373D4-EC0B-4816-BC1A-94BC7381764F}" type="pres">
+      <dgm:prSet presAssocID="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" type="pres">
+      <dgm:prSet presAssocID="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="6" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{33B2E686-47BD-45CE-946E-82276B7C9666}" type="pres">
+      <dgm:prSet presAssocID="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="6" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{66620AF1-75E2-4810-8877-D6F600792F6C}" type="pres">
+      <dgm:prSet presAssocID="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}" type="pres">
+      <dgm:prSet presAssocID="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="6" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3337,24 +3925,52 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{F29AED0A-2465-400B-A760-6FF1E5FE6EAE}" type="pres">
-      <dgm:prSet presAssocID="{0CE297AD-381C-4E1D-93C9-29394359AD51}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{D84339FB-047D-4649-8593-289A5B8D130D}" type="pres">
-      <dgm:prSet presAssocID="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="11" presStyleCnt="12"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{F216577D-6FCB-4212-9BED-9C81EE0A6A09}" type="pres">
-      <dgm:prSet presAssocID="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="11" presStyleCnt="12"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{8F841BAE-7D00-482B-BDAE-D1EBD1423513}" type="pres">
-      <dgm:prSet presAssocID="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{98556681-3D9F-4912-AC6C-8A99410E01D5}" type="pres">
-      <dgm:prSet presAssocID="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="11" presStyleCnt="12">
+    <dgm:pt modelId="{55C1BC25-2BE8-4644-975C-FA17EB2A8B99}" type="pres">
+      <dgm:prSet presAssocID="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}" type="pres">
+      <dgm:prSet presAssocID="{70F5336D-058E-47B2-940D-645D2C4D30E5}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="7" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{07445E72-6E0D-4223-8951-2B3FE2B491A1}" type="pres">
+      <dgm:prSet presAssocID="{70F5336D-058E-47B2-940D-645D2C4D30E5}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="7" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5C170C3D-F360-45A1-84C3-CE2952BA2844}" type="pres">
+      <dgm:prSet presAssocID="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}" type="pres">
+      <dgm:prSet presAssocID="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="7" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3368,71 +3984,645 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{6D161451-DDBD-473F-BDF1-FBA8BEC710EC}" type="pres">
+      <dgm:prSet presAssocID="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}" type="pres">
+      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{87E643AA-72A4-4612-B289-26E6E69BA69D}" type="pres">
+      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2914C49A-BF99-43F8-A7AF-3E460BFDEFC4}" type="pres">
+      <dgm:prSet presAssocID="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EF7CB15F-86FD-4372-B781-C31717015D39}" type="pres">
+      <dgm:prSet presAssocID="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{029B042F-64BC-4E74-B354-CDCEC463EB87}" type="pres">
+      <dgm:prSet presAssocID="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}" type="pres">
+      <dgm:prSet presAssocID="{046CB6E8-C903-492C-90F3-C9BC4362779A}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="8" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E445A682-3309-48F3-9735-EBB2F9E78523}" type="pres">
+      <dgm:prSet presAssocID="{046CB6E8-C903-492C-90F3-C9BC4362779A}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="8" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{59A57C51-D604-42D1-9A53-8F7EAFF5A973}" type="pres">
+      <dgm:prSet presAssocID="{68138C9E-656F-4ECF-9770-ED91439B2549}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}" type="pres">
+      <dgm:prSet presAssocID="{68138C9E-656F-4ECF-9770-ED91439B2549}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="8" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9CE14A5E-F8F1-41E3-A64F-D37E09FD71F2}" type="pres">
+      <dgm:prSet presAssocID="{68138C9E-656F-4ECF-9770-ED91439B2549}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}" type="pres">
+      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{67608300-5F86-4317-AB34-2391DC98945C}" type="pres">
+      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8C9D8643-4E5F-443A-94D3-497E61C7060A}" type="pres">
+      <dgm:prSet presAssocID="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{19273AAB-E414-41A1-9D60-19175C768B84}" type="pres">
+      <dgm:prSet presAssocID="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{105A7359-B2CB-453E-AF38-BF6796CDB310}" type="pres">
+      <dgm:prSet presAssocID="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}" type="pres">
+      <dgm:prSet presAssocID="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="9" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{515834A5-28FF-4C53-ACA2-A74E27687D59}" type="pres">
+      <dgm:prSet presAssocID="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="9" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B609B0A7-D877-4D89-B9EB-CFE205CA51AA}" type="pres">
+      <dgm:prSet presAssocID="{0CE297AD-381C-4E1D-93C9-29394359AD51}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}" type="pres">
+      <dgm:prSet presAssocID="{0CE297AD-381C-4E1D-93C9-29394359AD51}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="9" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F29AED0A-2465-400B-A760-6FF1E5FE6EAE}" type="pres">
+      <dgm:prSet presAssocID="{0CE297AD-381C-4E1D-93C9-29394359AD51}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}" type="pres">
+      <dgm:prSet presAssocID="{27481B52-DE79-4D07-90EC-53EA026B04E1}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0B720156-C01C-492E-8E97-EFAE0AB93A9F}" type="pres">
+      <dgm:prSet presAssocID="{27481B52-DE79-4D07-90EC-53EA026B04E1}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6B07A65F-13CA-4E02-9C96-37697274EE1D}" type="pres">
+      <dgm:prSet presAssocID="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{74E3D885-0104-4156-8E63-BED57F56F2DB}" type="pres">
+      <dgm:prSet presAssocID="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DF631F37-EFB5-48B7-B036-6DBD51ECD549}" type="pres">
+      <dgm:prSet presAssocID="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{57B659E6-114D-4A2E-9EAD-DE383F33A3D6}" type="pres">
+      <dgm:prSet presAssocID="{6685CE29-0B27-4599-8A61-2E450B77D4E6}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3E16072F-A068-47C2-8804-97F6B4D9B98F}" type="pres">
+      <dgm:prSet presAssocID="{6685CE29-0B27-4599-8A61-2E450B77D4E6}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A557928E-A860-4880-893D-2C1228494051}" type="pres">
+      <dgm:prSet presAssocID="{7D712709-A7D6-486B-957D-F3E0A466960F}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{62AD5277-2022-4E96-9530-E41482C4F93E}" type="pres">
+      <dgm:prSet presAssocID="{7D712709-A7D6-486B-957D-F3E0A466960F}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{64AD5818-364C-490D-B9FD-7FA69AC04336}" type="pres">
+      <dgm:prSet presAssocID="{7D712709-A7D6-486B-957D-F3E0A466960F}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1B098D82-6EE2-46B9-99E2-4FD64D567D37}" type="pres">
+      <dgm:prSet presAssocID="{281C279B-179E-4D08-AE07-8C99B5657ACE}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5DEBC261-70C5-45EF-943D-72FBA2D29F89}" type="pres">
+      <dgm:prSet presAssocID="{281C279B-179E-4D08-AE07-8C99B5657ACE}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C4955409-BFFA-4189-AE5B-C35C40F2CFBB}" type="pres">
+      <dgm:prSet presAssocID="{BA71DA5D-21B1-4B1D-A363-D8A62109F187}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B0A59766-BFD1-4971-AA3E-083F56792E4A}" type="pres">
+      <dgm:prSet presAssocID="{BA71DA5D-21B1-4B1D-A363-D8A62109F187}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6532B1EA-0332-477D-A980-10324731DA23}" type="pres">
+      <dgm:prSet presAssocID="{BA71DA5D-21B1-4B1D-A363-D8A62109F187}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{344E9AF4-45E1-4810-9A46-556F99E367E5}" type="pres">
+      <dgm:prSet presAssocID="{3C23E61D-C228-4D36-A913-A912602620F7}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BDD69BDD-29E7-4FD7-B53D-0D4DE508ADE7}" type="pres">
+      <dgm:prSet presAssocID="{3C23E61D-C228-4D36-A913-A912602620F7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B30665DF-143D-45F2-ACE5-E154D9DBF1A7}" type="pres">
+      <dgm:prSet presAssocID="{8F5577FA-BD2C-45E5-B09F-CC214ED7D117}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8711A100-87C2-4EFE-BB48-418F353A2470}" type="pres">
+      <dgm:prSet presAssocID="{8F5577FA-BD2C-45E5-B09F-CC214ED7D117}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FBE2B87B-4C86-4CC4-BACD-47D20353C1DA}" type="pres">
+      <dgm:prSet presAssocID="{8F5577FA-BD2C-45E5-B09F-CC214ED7D117}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D84339FB-047D-4649-8593-289A5B8D130D}" type="pres">
+      <dgm:prSet presAssocID="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="10" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F216577D-6FCB-4212-9BED-9C81EE0A6A09}" type="pres">
+      <dgm:prSet presAssocID="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="10" presStyleCnt="11"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8F841BAE-7D00-482B-BDAE-D1EBD1423513}" type="pres">
+      <dgm:prSet presAssocID="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{98556681-3D9F-4912-AC6C-8A99410E01D5}" type="pres">
+      <dgm:prSet presAssocID="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="10" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
     <dgm:pt modelId="{F0233915-F401-47AC-AF14-F02505CCE778}" type="pres">
       <dgm:prSet presAssocID="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{BAB0C694-65D3-4A86-BE32-46A48304A02B}" type="presOf" srcId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" destId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{59001AAE-34FD-40E9-AE69-6DCE627E662C}" type="presOf" srcId="{675C5201-5BA2-47CE-800D-A6384009EC75}" destId="{8C352C1C-738A-4A10-981D-E71F662088F5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C97A2AF4-6412-42A7-88D3-3CF2C08BB16F}" type="presOf" srcId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" destId="{33B2E686-47BD-45CE-946E-82276B7C9666}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CF125C6D-E5C7-423A-B63D-429BE60D661E}" srcId="{7D712709-A7D6-486B-957D-F3E0A466960F}" destId="{BA71DA5D-21B1-4B1D-A363-D8A62109F187}" srcOrd="0" destOrd="0" parTransId="{281C279B-179E-4D08-AE07-8C99B5657ACE}" sibTransId="{6E36CC7B-CB2E-4311-BD39-B2B8C6E2F25B}"/>
+    <dgm:cxn modelId="{A7F87905-E1AA-4C71-883E-ADEA0FB9E64D}" type="presOf" srcId="{281C279B-179E-4D08-AE07-8C99B5657ACE}" destId="{1B098D82-6EE2-46B9-99E2-4FD64D567D37}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0B60D818-6534-411C-AC63-29CCDFCDFEFB}" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" srcOrd="3" destOrd="0" parTransId="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" sibTransId="{87C669F3-4CE0-4177-BE29-7A7D430106F0}"/>
+    <dgm:cxn modelId="{98E7F509-3CF8-427F-B56B-790E8675987A}" type="presOf" srcId="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" destId="{1D2BB695-8C27-4347-A006-147A1DBEA74F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E1680719-A6D2-4310-8CC7-B8F07CD814AD}" type="presOf" srcId="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" destId="{20753BF2-0D7F-4695-879C-908482DA5B47}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ECD525E0-071A-4D3F-91CD-E3A916775A0F}" type="presOf" srcId="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" destId="{98556681-3D9F-4912-AC6C-8A99410E01D5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{183B8392-E5FE-4D66-BFA0-711DC2F89DFF}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" srcOrd="7" destOrd="0" parTransId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" sibTransId="{65B501C3-2A7E-419D-8CCB-FED00DD292D0}"/>
+    <dgm:cxn modelId="{7DF9BD4E-62DF-4346-98B6-D1BA9A37B299}" type="presOf" srcId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" destId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{47BFAECF-6B04-4776-AC89-F70C702B5E4A}" type="presOf" srcId="{6685CE29-0B27-4599-8A61-2E450B77D4E6}" destId="{3E16072F-A068-47C2-8804-97F6B4D9B98F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{413D4DFA-823D-41EE-B222-18EE6B68199A}" type="presOf" srcId="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" destId="{CC54B996-C92F-4E02-A4CC-BE8ED9E7597C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4852B326-CE08-4397-880E-F59F9E79D1DC}" type="presOf" srcId="{569D4530-2880-4B71-B432-ED7F88BC411D}" destId="{9C3216F4-3DBA-4E6B-9827-A0F23AE4644D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{514F4805-DBBC-4C62-8567-1E871BCD1543}" type="presOf" srcId="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" destId="{19273AAB-E414-41A1-9D60-19175C768B84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E492B71F-DEFD-45B1-B2C2-C248A042E52F}" type="presOf" srcId="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" destId="{099476A6-4E27-4FAA-9398-2AE46D180721}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A4849C86-A61F-4DB2-BAEC-728EA6BBB55C}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{0CE297AD-381C-4E1D-93C9-29394359AD51}" srcOrd="9" destOrd="0" parTransId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" sibTransId="{F45D05D9-65D0-4358-A6EB-605E64C4D8BB}"/>
+    <dgm:cxn modelId="{82917F59-2648-432B-A5B9-B912DAC749E3}" type="presOf" srcId="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" destId="{EF7CB15F-86FD-4372-B781-C31717015D39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9E11CEF6-E5A4-42E1-B049-D5C631DB4ACE}" type="presOf" srcId="{3C23E61D-C228-4D36-A913-A912602620F7}" destId="{BDD69BDD-29E7-4FD7-B53D-0D4DE508ADE7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A58F26D1-A0FE-41EC-8250-BE82F7D9A850}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" srcOrd="3" destOrd="0" parTransId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" sibTransId="{2341C01B-050C-4692-87AA-FBAB4A11079B}"/>
+    <dgm:cxn modelId="{8A396820-53A3-44B8-BCBA-B109377E2C57}" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" srcOrd="2" destOrd="0" parTransId="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" sibTransId="{4B62E928-E321-4E2F-9BDA-46A285CDA4B4}"/>
+    <dgm:cxn modelId="{09AFC2D2-D25D-4826-BB1E-B74B84BAB87B}" srcId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" destId="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" srcOrd="0" destOrd="0" parTransId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" sibTransId="{222BD0EF-C488-41C0-B063-C91C237494CA}"/>
+    <dgm:cxn modelId="{971B1D42-AA2A-49E2-BDA9-C111A31016E7}" type="presOf" srcId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" destId="{B8F02BE7-8743-45EE-BB4C-0D916BB1864F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DE18C9AE-F6CB-4511-8817-7352C2887128}" type="presOf" srcId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" destId="{D84339FB-047D-4649-8593-289A5B8D130D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E79C1C19-E4ED-4E2A-9B77-98D5C754ED01}" type="presOf" srcId="{27481B52-DE79-4D07-90EC-53EA026B04E1}" destId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CAF44A32-6E1F-417C-9766-62B0DDC36C06}" type="presOf" srcId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" destId="{27E95C9E-DFB1-42E7-88F2-FAC674D0BA38}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{F1E8F784-730D-4557-B920-BF4060688176}" type="presOf" srcId="{68138C9E-656F-4ECF-9770-ED91439B2549}" destId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{CAF44A32-6E1F-417C-9766-62B0DDC36C06}" type="presOf" srcId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" destId="{27E95C9E-DFB1-42E7-88F2-FAC674D0BA38}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7883FB67-2A4A-4A00-9EE8-D7BFC0EFAD87}" type="presOf" srcId="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" destId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9058878F-DEBF-468B-A31E-CA220283D6AC}" type="presOf" srcId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" destId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{51CCEB5F-0195-49A4-9C05-8CBEE42A0ADC}" type="presOf" srcId="{7D712709-A7D6-486B-957D-F3E0A466960F}" destId="{62AD5277-2022-4E96-9530-E41482C4F93E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{114138D0-C81A-4AFB-9C8C-CB017F030301}" type="presOf" srcId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" destId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B4313D12-AA2D-4796-95E0-3D76BEA04572}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" srcOrd="2" destOrd="0" parTransId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" sibTransId="{D4B0F6EC-70A0-451B-8D13-ACBF5C5EE10E}"/>
+    <dgm:cxn modelId="{0F6D280E-934E-49E2-8B13-BD4FF69B880D}" type="presOf" srcId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" destId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{13BCB9EE-A0C6-4E15-9262-A271A88D08EA}" type="presOf" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5DFD60EE-C4DB-465F-AE60-B66F879DA43A}" type="presOf" srcId="{281C279B-179E-4D08-AE07-8C99B5657ACE}" destId="{5DEBC261-70C5-45EF-943D-72FBA2D29F89}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7BDDD235-9EFB-470A-992C-444ECE118C84}" type="presOf" srcId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" destId="{28F496D2-4019-4178-92C0-A9F924F314B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C3A042AA-1499-4E35-B911-37FB305502D7}" type="presOf" srcId="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" destId="{74E3D885-0104-4156-8E63-BED57F56F2DB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{67B2E9F6-F29F-4C4B-A774-8BEA2D4C7A8A}" type="presOf" srcId="{675C5201-5BA2-47CE-800D-A6384009EC75}" destId="{F096C77D-217B-4E4F-BD39-338FE324D381}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B4D91084-CCF8-455B-AC10-541DB8809651}" type="presOf" srcId="{0CE297AD-381C-4E1D-93C9-29394359AD51}" destId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{145C319D-EF66-42C0-89E9-07F7FF9692A7}" type="presOf" srcId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" destId="{E445A682-3309-48F3-9735-EBB2F9E78523}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A9B1677B-439D-4C35-9B58-62FFCC683CEC}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" srcOrd="10" destOrd="0" parTransId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" sibTransId="{5338813F-CDB8-4B17-B301-9A1E2C13158C}"/>
+    <dgm:cxn modelId="{D42689F1-2387-4AAF-B01B-A5249A2EB979}" type="presOf" srcId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" destId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{46D955C0-FDD0-4F65-9A7C-0DBC85CB1FF3}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7805392A-4E17-4429-B6DF-3AD03CE55706}" type="presOf" srcId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" destId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9772425B-5259-41F7-BCE3-9C15A449C07C}" type="presOf" srcId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" destId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C507D615-DC3E-4883-9DB8-089D14929E62}" srcId="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" destId="{7D712709-A7D6-486B-957D-F3E0A466960F}" srcOrd="0" destOrd="0" parTransId="{6685CE29-0B27-4599-8A61-2E450B77D4E6}" sibTransId="{0070C935-FB69-45CF-8C14-D759D14EB217}"/>
     <dgm:cxn modelId="{181A4CB7-58BC-4410-8809-D108D15EFD91}" type="presOf" srcId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" destId="{515834A5-28FF-4C53-ACA2-A74E27687D59}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8799599A-5096-414A-8D49-C85637058AD4}" srcId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" destId="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" srcOrd="0" destOrd="0" parTransId="{675C5201-5BA2-47CE-800D-A6384009EC75}" sibTransId="{CB16F46D-665A-479C-A8D9-C522A3ADA694}"/>
+    <dgm:cxn modelId="{E73CD5E8-7FA6-4027-899A-FCBA604DD803}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{68138C9E-656F-4ECF-9770-ED91439B2549}" srcOrd="8" destOrd="0" parTransId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" sibTransId="{755B4C76-42A1-41DC-B5E3-F612FC79C5AF}"/>
+    <dgm:cxn modelId="{4F448A1C-5B1F-4336-AC30-3AC052731F76}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" srcOrd="1" destOrd="0" parTransId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" sibTransId="{0D9ECB33-BFA2-4C1C-A0AE-F1927F22831E}"/>
+    <dgm:cxn modelId="{EF0FEB8A-9C3E-431E-884B-EB378E2C86C0}" type="presOf" srcId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" destId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{59192AD8-A27A-4ED2-B501-953907C56F77}" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{8570D345-0017-4FB7-97D8-558D21E0D926}" srcOrd="0" destOrd="0" parTransId="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" sibTransId="{C5B3A973-0831-4FD5-8516-41EED8ACB3DB}"/>
+    <dgm:cxn modelId="{7F6C4993-38D3-42CC-A893-A1CABC800B7D}" type="presOf" srcId="{27481B52-DE79-4D07-90EC-53EA026B04E1}" destId="{0B720156-C01C-492E-8E97-EFAE0AB93A9F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4ACE751F-6DC8-4304-88A3-7F15B9CDAABB}" type="presOf" srcId="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" destId="{FA9E5C58-920C-4962-A474-015BE2EAD31D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{766C6487-F348-4BB5-83C8-F88A3D520537}" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{F5050CEC-E453-4096-A803-275398B27760}" srcOrd="1" destOrd="0" parTransId="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" sibTransId="{DA408AEC-7E48-4F2D-858E-1E0EC7489AAE}"/>
+    <dgm:cxn modelId="{6287E5F0-6984-4682-895A-CFDFD17A9970}" type="presOf" srcId="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" destId="{CC9D094D-7F95-4C6E-A462-4B1926F24FF9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FC06F30F-AB26-44E8-B4D1-D3683620FB5C}" type="presOf" srcId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" destId="{87E643AA-72A4-4612-B289-26E6E69BA69D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{764D0C7C-03F3-43A4-A459-661B4BA0D500}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{D227BC4F-3E9D-4433-87E2-4FCB465AB942}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{268EDC3A-B892-4D1C-832F-FCFCB2F167F1}" type="presOf" srcId="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" destId="{0F5C5E05-724C-4615-9A27-0292B8BF7467}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{803AA8EB-D49C-44A3-9D38-F663402CE54E}" srcId="{68138C9E-656F-4ECF-9770-ED91439B2549}" destId="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" srcOrd="0" destOrd="0" parTransId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" sibTransId="{5EC8EE83-9951-4544-A6E5-0D874EC1E69F}"/>
+    <dgm:cxn modelId="{7C6A378F-2479-4458-A171-0AB17FEEF4A9}" type="presOf" srcId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" destId="{07445E72-6E0D-4223-8951-2B3FE2B491A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D95655CC-9891-462F-9EC4-46A0CA6E7B0A}" type="presOf" srcId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" destId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{201D36AE-E9C2-48B3-BB12-9F674508D3D4}" type="presOf" srcId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" destId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FE1926E7-D5F2-4E82-8AC9-2AD158FD8066}" type="presOf" srcId="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" destId="{6A91BBDB-6803-43A6-8683-4B6468961754}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BA256EFC-C7C2-4586-A7E8-AFF656ADB148}" type="presOf" srcId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" destId="{D1296DF1-78D9-4238-A067-6069827E6644}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A440A9C0-FFCA-4447-8E8C-C90DD8F175B7}" type="presOf" srcId="{569D4530-2880-4B71-B432-ED7F88BC411D}" destId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{369FD756-C69A-4521-94EB-7B5A5E30C9A5}" type="presOf" srcId="{6685CE29-0B27-4599-8A61-2E450B77D4E6}" destId="{57B659E6-114D-4A2E-9EAD-DE383F33A3D6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CD267788-94CE-451C-9F50-B5F53159AD3F}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" srcOrd="4" destOrd="0" parTransId="{569D4530-2880-4B71-B432-ED7F88BC411D}" sibTransId="{D184293E-3DF9-4312-830C-7C26789016D5}"/>
+    <dgm:cxn modelId="{599AABAA-2C30-4D51-BA17-D7E9AB45CB50}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" srcOrd="0" destOrd="0" parTransId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" sibTransId="{69857E7C-5030-4D39-BE1C-81C2B1166F47}"/>
     <dgm:cxn modelId="{BC379DEB-700E-40DA-981B-0961DA271015}" type="presOf" srcId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" destId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1AA1476F-B6E3-4303-8C06-AC72375FD938}" type="presOf" srcId="{8570D345-0017-4FB7-97D8-558D21E0D926}" destId="{74E3BD4A-40E6-475E-8288-DC90F802DB14}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ACF6001F-CF99-4F37-B0B2-7BF5A4A78693}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" srcOrd="5" destOrd="0" parTransId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" sibTransId="{CC793FB2-49FD-477C-8EC3-3400F305DF28}"/>
+    <dgm:cxn modelId="{6332CE73-A45C-4F97-BA7F-AD129A240B0B}" type="presOf" srcId="{8F5577FA-BD2C-45E5-B09F-CC214ED7D117}" destId="{8711A100-87C2-4EFE-BB48-418F353A2470}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A8F51EA3-D546-4480-A9DC-4A8865744C5A}" srcId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" destId="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" srcOrd="0" destOrd="0" parTransId="{3873C774-C9E3-4842-845E-3F0F0A27954C}" sibTransId="{D77E36F3-C88B-406F-8D67-7AB15A0509B0}"/>
+    <dgm:cxn modelId="{611C8462-0314-47AA-AC20-2F84B60AB6E0}" type="presOf" srcId="{3873C774-C9E3-4842-845E-3F0F0A27954C}" destId="{1211BB58-91E1-4D17-8AEA-A049AA32E719}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A00F107A-6569-4868-8CE1-B7DF8A419271}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" srcOrd="6" destOrd="0" parTransId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" sibTransId="{F3D6601C-5E3B-483E-9A2D-4F05F66683BB}"/>
+    <dgm:cxn modelId="{192D774D-417F-4BB8-98B7-EC27FA5DFE39}" type="presOf" srcId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" destId="{493F0A8D-C152-42A2-B413-C05E0C689C00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0300DB19-CEF2-4D35-A9F0-2ECCC38E5E32}" srcId="{0CE297AD-381C-4E1D-93C9-29394359AD51}" destId="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" srcOrd="0" destOrd="0" parTransId="{27481B52-DE79-4D07-90EC-53EA026B04E1}" sibTransId="{A246CAF9-69F6-4E46-A750-C2B40F0B8E92}"/>
     <dgm:cxn modelId="{88563BBC-2096-4E97-B568-6C4973130BF3}" type="presOf" srcId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" destId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A1B4723D-D0C8-4F24-999D-70605730D176}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" srcOrd="1" destOrd="0" parTransId="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" sibTransId="{E62026F1-A73E-410F-B5B4-49EE7FB9B15A}"/>
-    <dgm:cxn modelId="{ECD525E0-071A-4D3F-91CD-E3A916775A0F}" type="presOf" srcId="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" destId="{98556681-3D9F-4912-AC6C-8A99410E01D5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{09AFC2D2-D25D-4826-BB1E-B74B84BAB87B}" srcId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" destId="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" srcOrd="0" destOrd="0" parTransId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" sibTransId="{222BD0EF-C488-41C0-B063-C91C237494CA}"/>
-    <dgm:cxn modelId="{514F4805-DBBC-4C62-8567-1E871BCD1543}" type="presOf" srcId="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" destId="{19273AAB-E414-41A1-9D60-19175C768B84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6FE2B9FB-C5B1-4C7A-A8BF-B605591F5217}" srcId="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" destId="{31CD7878-84F1-4825-B934-E86F76D7D560}" srcOrd="0" destOrd="0" parTransId="{48CDDD27-CA42-4A8F-85F1-58706086F444}" sibTransId="{660A0425-314A-43B6-9E38-458E0CA60A18}"/>
+    <dgm:cxn modelId="{08F4A0F4-2ACD-4BEE-A393-FA744D550DC3}" type="presOf" srcId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" destId="{67608300-5F86-4317-AB34-2391DC98945C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A7C8B10F-F14E-4AAF-849C-A3F80278F687}" type="presOf" srcId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" destId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{070A9A71-C544-4A96-ABF0-E92978BE955A}" type="presOf" srcId="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" destId="{C4403317-3C9A-42B0-855F-11D6FBB268BB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B9F624A4-67AA-4419-8286-DEC9FD13E7AE}" type="presOf" srcId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" destId="{F216577D-6FCB-4212-9BED-9C81EE0A6A09}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{819996A4-8E78-4DA4-817F-39A1B1AE679E}" type="presOf" srcId="{3C23E61D-C228-4D36-A913-A912602620F7}" destId="{344E9AF4-45E1-4810-9A46-556F99E367E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B6ABE272-0FEA-47B5-AC0A-E0BF595BFC33}" type="presOf" srcId="{BA71DA5D-21B1-4B1D-A363-D8A62109F187}" destId="{B0A59766-BFD1-4971-AA3E-083F56792E4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C5276DE2-D864-4310-83AB-4481E50F452F}" srcId="{7D712709-A7D6-486B-957D-F3E0A466960F}" destId="{8F5577FA-BD2C-45E5-B09F-CC214ED7D117}" srcOrd="1" destOrd="0" parTransId="{3C23E61D-C228-4D36-A913-A912602620F7}" sibTransId="{95A91E17-67B3-4961-BE08-A86E3442BE77}"/>
+    <dgm:cxn modelId="{1A4F8ED8-31A1-43AA-8DB0-193A1907E2CF}" type="presOf" srcId="{F5050CEC-E453-4096-A803-275398B27760}" destId="{0ECFF24D-6683-4AFC-9B7F-CD0D77C6771A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ED172AF3-3662-4CA2-B193-A18E503E617E}" type="presOf" srcId="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" destId="{84198158-0634-44E0-82FA-C5DACA6BFD04}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ACA4C21D-474A-4E70-A4EF-DEBB05C0320B}" type="presOf" srcId="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" destId="{DC66AB97-B3B7-454F-BADA-742E0A317634}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{31A1FD36-5B8F-4A53-9E3F-E50E7EF2E74F}" type="presOf" srcId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" destId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{CEB17849-D01E-468A-A8AC-4B9BE1A2130A}" type="presOf" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{AC3929EA-AEDC-45D8-B9CA-70262C585A0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{D95655CC-9891-462F-9EC4-46A0CA6E7B0A}" type="presOf" srcId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" destId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{31A1FD36-5B8F-4A53-9E3F-E50E7EF2E74F}" type="presOf" srcId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" destId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{971B1D42-AA2A-49E2-BDA9-C111A31016E7}" type="presOf" srcId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" destId="{B8F02BE7-8743-45EE-BB4C-0D916BB1864F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A58F26D1-A0FE-41EC-8250-BE82F7D9A850}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" srcOrd="4" destOrd="0" parTransId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" sibTransId="{2341C01B-050C-4692-87AA-FBAB4A11079B}"/>
-    <dgm:cxn modelId="{803AA8EB-D49C-44A3-9D38-F663402CE54E}" srcId="{68138C9E-656F-4ECF-9770-ED91439B2549}" destId="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" srcOrd="0" destOrd="0" parTransId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" sibTransId="{5EC8EE83-9951-4544-A6E5-0D874EC1E69F}"/>
-    <dgm:cxn modelId="{B9F624A4-67AA-4419-8286-DEC9FD13E7AE}" type="presOf" srcId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" destId="{F216577D-6FCB-4212-9BED-9C81EE0A6A09}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A7C8B10F-F14E-4AAF-849C-A3F80278F687}" type="presOf" srcId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" destId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0F6D280E-934E-49E2-8B13-BD4FF69B880D}" type="presOf" srcId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" destId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{4852B326-CE08-4397-880E-F59F9E79D1DC}" type="presOf" srcId="{569D4530-2880-4B71-B432-ED7F88BC411D}" destId="{9C3216F4-3DBA-4E6B-9827-A0F23AE4644D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{183B8392-E5FE-4D66-BFA0-711DC2F89DFF}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" srcOrd="8" destOrd="0" parTransId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" sibTransId="{65B501C3-2A7E-419D-8CCB-FED00DD292D0}"/>
-    <dgm:cxn modelId="{114138D0-C81A-4AFB-9C8C-CB017F030301}" type="presOf" srcId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" destId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A440A9C0-FFCA-4447-8E8C-C90DD8F175B7}" type="presOf" srcId="{569D4530-2880-4B71-B432-ED7F88BC411D}" destId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{201D36AE-E9C2-48B3-BB12-9F674508D3D4}" type="presOf" srcId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" destId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{7C6A378F-2479-4458-A171-0AB17FEEF4A9}" type="presOf" srcId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" destId="{07445E72-6E0D-4223-8951-2B3FE2B491A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B4D91084-CCF8-455B-AC10-541DB8809651}" type="presOf" srcId="{0CE297AD-381C-4E1D-93C9-29394359AD51}" destId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{6FE2B9FB-C5B1-4C7A-A8BF-B605591F5217}" srcId="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" destId="{31CD7878-84F1-4825-B934-E86F76D7D560}" srcOrd="0" destOrd="0" parTransId="{48CDDD27-CA42-4A8F-85F1-58706086F444}" sibTransId="{660A0425-314A-43B6-9E38-458E0CA60A18}"/>
-    <dgm:cxn modelId="{46D955C0-FDD0-4F65-9A7C-0DBC85CB1FF3}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{1666F441-7C89-4597-8A94-D119F0D60AE3}" type="presOf" srcId="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" destId="{64C582D8-3DA4-421C-A7BF-790B8C968B20}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{08F4A0F4-2ACD-4BEE-A393-FA744D550DC3}" type="presOf" srcId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" destId="{67608300-5F86-4317-AB34-2391DC98945C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{E492B71F-DEFD-45B1-B2C2-C248A042E52F}" type="presOf" srcId="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" destId="{099476A6-4E27-4FAA-9398-2AE46D180721}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{F07DBD63-28A5-4E72-B82D-44D5CAA68938}" type="presOf" srcId="{AE887D53-E45B-4ED1-ACDB-B0789DB1FB6F}" destId="{9E3B480F-B3A6-4EEB-BEA2-2D6272A4AFB0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{EF0FEB8A-9C3E-431E-884B-EB378E2C86C0}" type="presOf" srcId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" destId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{7BDDD235-9EFB-470A-992C-444ECE118C84}" type="presOf" srcId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" destId="{28F496D2-4019-4178-92C0-A9F924F314B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{D42689F1-2387-4AAF-B01B-A5249A2EB979}" type="presOf" srcId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" destId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{764D0C7C-03F3-43A4-A459-661B4BA0D500}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{D227BC4F-3E9D-4433-87E2-4FCB465AB942}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{E73CD5E8-7FA6-4027-899A-FCBA604DD803}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{68138C9E-656F-4ECF-9770-ED91439B2549}" srcOrd="9" destOrd="0" parTransId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" sibTransId="{755B4C76-42A1-41DC-B5E3-F612FC79C5AF}"/>
-    <dgm:cxn modelId="{A9B1677B-439D-4C35-9B58-62FFCC683CEC}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" srcOrd="11" destOrd="0" parTransId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" sibTransId="{5338813F-CDB8-4B17-B301-9A1E2C13158C}"/>
-    <dgm:cxn modelId="{82917F59-2648-432B-A5B9-B912DAC749E3}" type="presOf" srcId="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" destId="{EF7CB15F-86FD-4372-B781-C31717015D39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{ACF6001F-CF99-4F37-B0B2-7BF5A4A78693}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" srcOrd="6" destOrd="0" parTransId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" sibTransId="{CC793FB2-49FD-477C-8EC3-3400F305DF28}"/>
-    <dgm:cxn modelId="{A4849C86-A61F-4DB2-BAEC-728EA6BBB55C}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{0CE297AD-381C-4E1D-93C9-29394359AD51}" srcOrd="10" destOrd="0" parTransId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" sibTransId="{F45D05D9-65D0-4358-A6EB-605E64C4D8BB}"/>
-    <dgm:cxn modelId="{145C319D-EF66-42C0-89E9-07F7FF9692A7}" type="presOf" srcId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" destId="{E445A682-3309-48F3-9735-EBB2F9E78523}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A00F107A-6569-4868-8CE1-B7DF8A419271}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" srcOrd="7" destOrd="0" parTransId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" sibTransId="{F3D6601C-5E3B-483E-9A2D-4F05F66683BB}"/>
-    <dgm:cxn modelId="{CD267788-94CE-451C-9F50-B5F53159AD3F}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" srcOrd="5" destOrd="0" parTransId="{569D4530-2880-4B71-B432-ED7F88BC411D}" sibTransId="{D184293E-3DF9-4312-830C-7C26789016D5}"/>
-    <dgm:cxn modelId="{9772425B-5259-41F7-BCE3-9C15A449C07C}" type="presOf" srcId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" destId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{7805392A-4E17-4429-B6DF-3AD03CE55706}" type="presOf" srcId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" destId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{92215F05-E1DD-48D2-AC0C-8F5704A71C87}" type="presOf" srcId="{3873C774-C9E3-4842-845E-3F0F0A27954C}" destId="{2753ED25-9652-4141-9D86-C075B64E5A0C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0EC45787-5BAB-4B50-8558-E810FE6B74D0}" type="presOf" srcId="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" destId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{0E47A5E0-764E-46C8-802E-961F4F388902}" type="presOf" srcId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" destId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{C97A2AF4-6412-42A7-88D3-3CF2C08BB16F}" type="presOf" srcId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" destId="{33B2E686-47BD-45CE-946E-82276B7C9666}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{192D774D-417F-4BB8-98B7-EC27FA5DFE39}" type="presOf" srcId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" destId="{493F0A8D-C152-42A2-B413-C05E0C689C00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{7DF9BD4E-62DF-4346-98B6-D1BA9A37B299}" type="presOf" srcId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" destId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{BA256EFC-C7C2-4586-A7E8-AFF656ADB148}" type="presOf" srcId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" destId="{D1296DF1-78D9-4238-A067-6069827E6644}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{4F448A1C-5B1F-4336-AC30-3AC052731F76}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" srcOrd="2" destOrd="0" parTransId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" sibTransId="{0D9ECB33-BFA2-4C1C-A0AE-F1927F22831E}"/>
-    <dgm:cxn modelId="{599AABAA-2C30-4D51-BA17-D7E9AB45CB50}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" srcOrd="0" destOrd="0" parTransId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" sibTransId="{69857E7C-5030-4D39-BE1C-81C2B1166F47}"/>
-    <dgm:cxn modelId="{DE18C9AE-F6CB-4511-8817-7352C2887128}" type="presOf" srcId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" destId="{D84339FB-047D-4649-8593-289A5B8D130D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{9058878F-DEBF-468B-A31E-CA220283D6AC}" type="presOf" srcId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" destId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{FC06F30F-AB26-44E8-B4D1-D3683620FB5C}" type="presOf" srcId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" destId="{87E643AA-72A4-4612-B289-26E6E69BA69D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{BAB0C694-65D3-4A86-BE32-46A48304A02B}" type="presOf" srcId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" destId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B4313D12-AA2D-4796-95E0-3D76BEA04572}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" srcOrd="3" destOrd="0" parTransId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" sibTransId="{D4B0F6EC-70A0-451B-8D13-ACBF5C5EE10E}"/>
-    <dgm:cxn modelId="{F5CB3F6E-E390-44B1-A0AE-8AA2A0BFBD26}" type="presOf" srcId="{F50CBB18-3402-48F9-A14F-6AF6F34EBC38}" destId="{E26D29FE-8E13-4CE5-9714-9C2576CB7903}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{13BCB9EE-A0C6-4E15-9262-A271A88D08EA}" type="presOf" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E5CEFDC8-E389-4BDF-BE61-891E5470B840}" type="presParOf" srcId="{099476A6-4E27-4FAA-9398-2AE46D180721}" destId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B4FD49CA-A96F-479A-8757-AF277CFC90B3}" type="presParOf" srcId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" destId="{AC3929EA-AEDC-45D8-B9CA-70262C585A0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B11F3C13-2260-4469-BB3F-BEE2236CF8DF}" type="presParOf" srcId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" destId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -3441,44 +4631,69 @@
     <dgm:cxn modelId="{93CAF996-950D-4E35-A818-98752F56F0EC}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{C654AC46-6EBF-4415-B923-570FBF4BB307}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{F6FBF0B2-B968-427F-9784-B851124348F7}" type="presParOf" srcId="{C654AC46-6EBF-4415-B923-570FBF4BB307}" destId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E14C2B10-D4BB-430C-B242-60A82919F1CF}" type="presParOf" srcId="{C654AC46-6EBF-4415-B923-570FBF4BB307}" destId="{5EF65C10-0F4C-4867-ABC8-8BA7400B4D33}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{805470BD-27A6-4325-BFF2-47E4823B9BC6}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{64C582D8-3DA4-421C-A7BF-790B8C968B20}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{BCE75050-AEA7-47FB-8A8A-1500174AA09B}" type="presParOf" srcId="{64C582D8-3DA4-421C-A7BF-790B8C968B20}" destId="{9E3B480F-B3A6-4EEB-BEA2-2D6272A4AFB0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{73D160FB-2C78-4E7D-A082-554CF4D59BD6}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{27D6C21B-AE9F-48C5-97F5-BF46240BD3EB}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{C47CE03F-F911-423B-BFBD-CC1AE71D56B1}" type="presParOf" srcId="{27D6C21B-AE9F-48C5-97F5-BF46240BD3EB}" destId="{E26D29FE-8E13-4CE5-9714-9C2576CB7903}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{5001A8A0-6CD0-48E1-924C-A0D208DDE423}" type="presParOf" srcId="{27D6C21B-AE9F-48C5-97F5-BF46240BD3EB}" destId="{B91DD737-B85E-44DA-AEBF-7C30D3FA28F4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{6605617B-C0D8-4E9F-A22F-452110DC8229}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{44FCDC11-B474-4C3B-8298-C875999AFF53}" type="presParOf" srcId="{5EF65C10-0F4C-4867-ABC8-8BA7400B4D33}" destId="{2753ED25-9652-4141-9D86-C075B64E5A0C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{02AF61C9-3320-4688-8098-67933748A184}" type="presParOf" srcId="{2753ED25-9652-4141-9D86-C075B64E5A0C}" destId="{1211BB58-91E1-4D17-8AEA-A049AA32E719}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{926CB505-23D7-469D-8F41-9F2796D32B10}" type="presParOf" srcId="{5EF65C10-0F4C-4867-ABC8-8BA7400B4D33}" destId="{88012662-5F20-4DB7-9120-070E0744EB57}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FE5A8023-FB25-4E4C-AC1E-4C0218976BFB}" type="presParOf" srcId="{88012662-5F20-4DB7-9120-070E0744EB57}" destId="{CC54B996-C92F-4E02-A4CC-BE8ED9E7597C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8F0435F0-5A43-47A6-8614-3F536F868932}" type="presParOf" srcId="{88012662-5F20-4DB7-9120-070E0744EB57}" destId="{836CEEA0-70A5-4612-92CF-D9253186CE6C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6605617B-C0D8-4E9F-A22F-452110DC8229}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{11068D85-39AA-45AA-ACD5-63344EA7AF48}" type="presParOf" srcId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" destId="{D227BC4F-3E9D-4433-87E2-4FCB465AB942}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{59BF17BA-8166-41F0-AE5F-88E3ABC03709}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{59BF17BA-8166-41F0-AE5F-88E3ABC03709}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{0B035392-FDFC-45AF-B680-4C8E3254DB9D}" type="presParOf" srcId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" destId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{8F67B4EE-FDCB-4911-BCC9-34D22EF2A3CA}" type="presParOf" srcId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" destId="{5142D8E6-9CE4-46F6-AC41-6F5BDF9B0433}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{AF008AFF-4D09-4935-BDCA-4D35FF8ED820}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{28F496D2-4019-4178-92C0-A9F924F314B7}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{AF008AFF-4D09-4935-BDCA-4D35FF8ED820}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{28F496D2-4019-4178-92C0-A9F924F314B7}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{6BDE91C1-3464-4889-9AFA-B2CDAA0222C4}" type="presParOf" srcId="{28F496D2-4019-4178-92C0-A9F924F314B7}" destId="{D1296DF1-78D9-4238-A067-6069827E6644}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{40E48CE5-5F34-4354-B713-3134D8535C27}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{3AAC51B9-98D5-4DEB-B9D8-DC6DE83552C6}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{40E48CE5-5F34-4354-B713-3134D8535C27}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{3AAC51B9-98D5-4DEB-B9D8-DC6DE83552C6}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{6107E3A6-6C7A-46CC-A8BC-9FD353890BF7}" type="presParOf" srcId="{3AAC51B9-98D5-4DEB-B9D8-DC6DE83552C6}" destId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{C61B88BA-A89B-4ED1-B175-04F67DE41FFF}" type="presParOf" srcId="{3AAC51B9-98D5-4DEB-B9D8-DC6DE83552C6}" destId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{F5B1231C-F7FC-4F1E-AF42-85C6B137DF35}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0DB55950-81BF-43DD-B9A2-08894CD7A879}" type="presParOf" srcId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" destId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C8BB4E8D-1454-415F-9412-D655E4DAB029}" type="presParOf" srcId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}" destId="{1D2BB695-8C27-4347-A006-147A1DBEA74F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E26F8E8D-FA94-4295-8568-EB0E51D23E46}" type="presParOf" srcId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" destId="{3A51BD8E-994F-431F-BDD3-6FF1C6D716AE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EF026B4F-BE3E-4D4E-B536-710140E0BAA1}" type="presParOf" srcId="{3A51BD8E-994F-431F-BDD3-6FF1C6D716AE}" destId="{74E3BD4A-40E6-475E-8288-DC90F802DB14}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F91F046D-012D-47E1-A388-DC84BC899D37}" type="presParOf" srcId="{3A51BD8E-994F-431F-BDD3-6FF1C6D716AE}" destId="{1290D912-EA8C-4785-B3FF-113404BAF22F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6AB79631-C49C-4F08-91ED-5E123B9EC894}" type="presParOf" srcId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" destId="{20753BF2-0D7F-4695-879C-908482DA5B47}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EAF4EE9A-4815-4530-80F0-633A7A028A24}" type="presParOf" srcId="{20753BF2-0D7F-4695-879C-908482DA5B47}" destId="{6A91BBDB-6803-43A6-8683-4B6468961754}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5D4618E9-85D0-4FFA-ACB2-DB72582243D5}" type="presParOf" srcId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" destId="{B337C8A1-1E7B-4803-8B04-7381D766F68B}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8D3BE598-70BF-4C36-9504-E3980A0F96D6}" type="presParOf" srcId="{B337C8A1-1E7B-4803-8B04-7381D766F68B}" destId="{0ECFF24D-6683-4AFC-9B7F-CD0D77C6771A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BBB70AD0-25F4-4711-96A7-46812031B128}" type="presParOf" srcId="{B337C8A1-1E7B-4803-8B04-7381D766F68B}" destId="{DBA9E03C-DD52-4960-8A73-AE2B8DD6FD48}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6235C272-0F1A-4660-92A4-42FEE5220D78}" type="presParOf" srcId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" destId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DA5AE1C5-948C-4B19-81D8-105500C10ADF}" type="presParOf" srcId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}" destId="{C4403317-3C9A-42B0-855F-11D6FBB268BB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F8D100DE-DB01-4AE7-B8AF-688FB42524C9}" type="presParOf" srcId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" destId="{0001C363-B998-4F8E-AE99-340585DA4938}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F4D8CAFA-AD5A-4574-AB68-B516BD440108}" type="presParOf" srcId="{0001C363-B998-4F8E-AE99-340585DA4938}" destId="{0F5C5E05-724C-4615-9A27-0292B8BF7467}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EC77E64F-C2CB-4C3B-9B0C-0F60B269CAC9}" type="presParOf" srcId="{0001C363-B998-4F8E-AE99-340585DA4938}" destId="{FD4B9F2F-0C95-4A79-899B-8D7C2DB82A1A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3626FE30-8C52-46DD-BE34-9A99998BBB5F}" type="presParOf" srcId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" destId="{FA9E5C58-920C-4962-A474-015BE2EAD31D}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C8E5FED1-943B-450B-9E86-26AE05A029FA}" type="presParOf" srcId="{FA9E5C58-920C-4962-A474-015BE2EAD31D}" destId="{CC9D094D-7F95-4C6E-A462-4B1926F24FF9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{033489A3-5600-4E5C-8F12-537C78051522}" type="presParOf" srcId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" destId="{75239506-F92C-498A-AA29-CD2824F2DC36}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0A6BAE51-0BDD-4AB7-89A7-195014E2C494}" type="presParOf" srcId="{75239506-F92C-498A-AA29-CD2824F2DC36}" destId="{84198158-0634-44E0-82FA-C5DACA6BFD04}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2B1CC0C6-0D0B-4DA7-88D3-B19BCAF32169}" type="presParOf" srcId="{75239506-F92C-498A-AA29-CD2824F2DC36}" destId="{65A6BD0B-546B-4F1D-A1A0-EE9E0BB35BDB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F5B1231C-F7FC-4F1E-AF42-85C6B137DF35}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{423D81A3-B454-46A6-86B4-EC4EA8FE758A}" type="presParOf" srcId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" destId="{B8F02BE7-8743-45EE-BB4C-0D916BB1864F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0372151D-FD7F-4782-9F6D-D12F50FA65DA}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{7A1E64AB-131B-4387-A37B-C2771C1AD578}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0372151D-FD7F-4782-9F6D-D12F50FA65DA}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{7A1E64AB-131B-4387-A37B-C2771C1AD578}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{45887AF0-E1EF-446C-9BA2-AE070B988D66}" type="presParOf" srcId="{7A1E64AB-131B-4387-A37B-C2771C1AD578}" destId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{AF08E568-349B-4B59-AC91-57A27A8F4226}" type="presParOf" srcId="{7A1E64AB-131B-4387-A37B-C2771C1AD578}" destId="{74D281D5-0D3F-414D-AEE2-F96FDE0FEFCA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{43D58672-8F95-46F0-92A9-8C22A8B77E29}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{43D58672-8F95-46F0-92A9-8C22A8B77E29}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{096BC7F7-F352-4E02-AF35-414B1B970E13}" type="presParOf" srcId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" destId="{9C3216F4-3DBA-4E6B-9827-A0F23AE4644D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{E6CF5AE9-EDA7-4CDF-B6A8-881B924713FD}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{1A18BFAB-D772-4018-A212-B31BD5C83345}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E6CF5AE9-EDA7-4CDF-B6A8-881B924713FD}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{1A18BFAB-D772-4018-A212-B31BD5C83345}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{AD92B346-6D9C-475B-94BF-58ED0B76FBB0}" type="presParOf" srcId="{1A18BFAB-D772-4018-A212-B31BD5C83345}" destId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{6C182D77-3E7B-4F0F-A9DA-FEB4281DD225}" type="presParOf" srcId="{1A18BFAB-D772-4018-A212-B31BD5C83345}" destId="{C728889B-5E42-4DF1-8429-ECF9097C6143}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{4296E852-7540-4D0D-A22A-071C57CD97D0}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4296E852-7540-4D0D-A22A-071C57CD97D0}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B07FFC7C-FEB6-4CEE-84E9-CDB5CF84EE63}" type="presParOf" srcId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" destId="{27E95C9E-DFB1-42E7-88F2-FAC674D0BA38}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A50E4E91-2B27-4F3F-A09B-81CDD1B7431F}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{AE0D776E-7941-4133-8BC4-3D07C04622EF}" srcOrd="13" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A50E4E91-2B27-4F3F-A09B-81CDD1B7431F}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{AE0D776E-7941-4133-8BC4-3D07C04622EF}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{8D84E88C-30E5-4D65-ACBF-12206A715A94}" type="presParOf" srcId="{AE0D776E-7941-4133-8BC4-3D07C04622EF}" destId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{104F0226-ECB7-4026-A001-211BD5E312E8}" type="presParOf" srcId="{AE0D776E-7941-4133-8BC4-3D07C04622EF}" destId="{33CB54D5-ED26-4C84-8F2A-23D2B925C515}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{702B9B95-33BB-480F-A2B4-EE313A14724D}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" srcOrd="14" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{967618F8-A388-4A82-A5B5-269B619C9BE6}" type="presParOf" srcId="{33CB54D5-ED26-4C84-8F2A-23D2B925C515}" destId="{8C352C1C-738A-4A10-981D-E71F662088F5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0F7CB634-DEFA-4E31-B71C-C48D514EF620}" type="presParOf" srcId="{8C352C1C-738A-4A10-981D-E71F662088F5}" destId="{F096C77D-217B-4E4F-BD39-338FE324D381}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{70426F5F-0582-4B45-9D54-5509D893AE55}" type="presParOf" srcId="{33CB54D5-ED26-4C84-8F2A-23D2B925C515}" destId="{0AA5A8F8-DDEE-4D62-827E-6C999DD2E62E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{84700DCD-C97B-4DEA-9491-AA1B210765BF}" type="presParOf" srcId="{0AA5A8F8-DDEE-4D62-827E-6C999DD2E62E}" destId="{DC66AB97-B3B7-454F-BADA-742E0A317634}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{77B63269-9F4B-4626-B026-7FFE5247B194}" type="presParOf" srcId="{0AA5A8F8-DDEE-4D62-827E-6C999DD2E62E}" destId="{8EE373D4-EC0B-4816-BC1A-94BC7381764F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{702B9B95-33BB-480F-A2B4-EE313A14724D}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{2DC7CFBC-1C82-4DE2-8B43-89785CBCE6DB}" type="presParOf" srcId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" destId="{33B2E686-47BD-45CE-946E-82276B7C9666}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{296E43F0-0001-4321-96B2-1BDD470C53D0}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{66620AF1-75E2-4810-8877-D6F600792F6C}" srcOrd="15" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{296E43F0-0001-4321-96B2-1BDD470C53D0}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{66620AF1-75E2-4810-8877-D6F600792F6C}" srcOrd="13" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{7F8509E0-3E11-4151-A3C3-834851D34AF4}" type="presParOf" srcId="{66620AF1-75E2-4810-8877-D6F600792F6C}" destId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B2CE36C1-F611-45C6-AAF1-7D8AA164F112}" type="presParOf" srcId="{66620AF1-75E2-4810-8877-D6F600792F6C}" destId="{55C1BC25-2BE8-4644-975C-FA17EB2A8B99}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B3EB7064-C22F-4A50-865B-84A2ACC1048D}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}" srcOrd="16" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B3EB7064-C22F-4A50-865B-84A2ACC1048D}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}" srcOrd="14" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{755403BF-9577-49B1-9AE1-DB73A2A70FB3}" type="presParOf" srcId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}" destId="{07445E72-6E0D-4223-8951-2B3FE2B491A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{575F0B36-FA5E-4478-892C-D0147A0CA1EC}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{5C170C3D-F360-45A1-84C3-CE2952BA2844}" srcOrd="17" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{575F0B36-FA5E-4478-892C-D0147A0CA1EC}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{5C170C3D-F360-45A1-84C3-CE2952BA2844}" srcOrd="15" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{92C80872-6DFA-4CEA-8DE8-6FC5AEA80D14}" type="presParOf" srcId="{5C170C3D-F360-45A1-84C3-CE2952BA2844}" destId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{631A25B6-BFF2-4E44-927A-0511F0E497D4}" type="presParOf" srcId="{5C170C3D-F360-45A1-84C3-CE2952BA2844}" destId="{6D161451-DDBD-473F-BDF1-FBA8BEC710EC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{58CFC66C-8451-44F4-92F8-72210C1224CB}" type="presParOf" srcId="{6D161451-DDBD-473F-BDF1-FBA8BEC710EC}" destId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -3486,9 +4701,9 @@
     <dgm:cxn modelId="{F48BEFB0-0BBF-4762-8BAB-89AA47D657F0}" type="presParOf" srcId="{6D161451-DDBD-473F-BDF1-FBA8BEC710EC}" destId="{2914C49A-BF99-43F8-A7AF-3E460BFDEFC4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E67AD716-F6AF-4377-900E-06D32482BDF1}" type="presParOf" srcId="{2914C49A-BF99-43F8-A7AF-3E460BFDEFC4}" destId="{EF7CB15F-86FD-4372-B781-C31717015D39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{7BB4A9CB-5BE2-4909-B814-54B9C0F6F296}" type="presParOf" srcId="{2914C49A-BF99-43F8-A7AF-3E460BFDEFC4}" destId="{029B042F-64BC-4E74-B354-CDCEC463EB87}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{54150382-CF2C-499B-A475-8949EF338013}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}" srcOrd="18" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{54150382-CF2C-499B-A475-8949EF338013}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}" srcOrd="16" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{029E1217-AEE3-46BB-85DE-37908DACFDA8}" type="presParOf" srcId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}" destId="{E445A682-3309-48F3-9735-EBB2F9E78523}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{D26BB042-2AD8-44AF-9465-2675AFC1EA47}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{59A57C51-D604-42D1-9A53-8F7EAFF5A973}" srcOrd="19" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D26BB042-2AD8-44AF-9465-2675AFC1EA47}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{59A57C51-D604-42D1-9A53-8F7EAFF5A973}" srcOrd="17" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{3909BAA7-1F0A-4100-8CC2-CCDDA9FC7893}" type="presParOf" srcId="{59A57C51-D604-42D1-9A53-8F7EAFF5A973}" destId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{1C6A15BF-96DB-4AFD-BFC6-2C55BA63AD87}" type="presParOf" srcId="{59A57C51-D604-42D1-9A53-8F7EAFF5A973}" destId="{9CE14A5E-F8F1-41E3-A64F-D37E09FD71F2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{DCAB5A08-F094-45C4-80FE-98E6457C8EFD}" type="presParOf" srcId="{9CE14A5E-F8F1-41E3-A64F-D37E09FD71F2}" destId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -3496,14 +4711,34 @@
     <dgm:cxn modelId="{856CA037-432A-4FE8-9E90-95E2EE92BD4C}" type="presParOf" srcId="{9CE14A5E-F8F1-41E3-A64F-D37E09FD71F2}" destId="{8C9D8643-4E5F-443A-94D3-497E61C7060A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{64F3560F-B542-4647-B8C3-8DD9863A83B9}" type="presParOf" srcId="{8C9D8643-4E5F-443A-94D3-497E61C7060A}" destId="{19273AAB-E414-41A1-9D60-19175C768B84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{4517AB7E-30DA-40D8-82EF-5879F61A2F1B}" type="presParOf" srcId="{8C9D8643-4E5F-443A-94D3-497E61C7060A}" destId="{105A7359-B2CB-453E-AF38-BF6796CDB310}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B186A53E-27F2-4155-AA0B-82BD03DD9646}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}" srcOrd="20" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B186A53E-27F2-4155-AA0B-82BD03DD9646}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}" srcOrd="18" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{2617F145-F442-4625-A868-3A3C9058E929}" type="presParOf" srcId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}" destId="{515834A5-28FF-4C53-ACA2-A74E27687D59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{F7A0AC22-D27A-4CFF-89ED-E9B3036FFC71}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{B609B0A7-D877-4D89-B9EB-CFE205CA51AA}" srcOrd="21" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F7A0AC22-D27A-4CFF-89ED-E9B3036FFC71}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{B609B0A7-D877-4D89-B9EB-CFE205CA51AA}" srcOrd="19" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{1FB8775F-8EDB-4CE6-B288-C2A31F6E1DE2}" type="presParOf" srcId="{B609B0A7-D877-4D89-B9EB-CFE205CA51AA}" destId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{8CA55AA7-580D-4902-8268-2A59083244AA}" type="presParOf" srcId="{B609B0A7-D877-4D89-B9EB-CFE205CA51AA}" destId="{F29AED0A-2465-400B-A760-6FF1E5FE6EAE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{6635B136-D098-44A2-A609-56FF7FB92A76}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{D84339FB-047D-4649-8593-289A5B8D130D}" srcOrd="22" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{918D175F-F896-45D4-875C-1E3A81418477}" type="presParOf" srcId="{F29AED0A-2465-400B-A760-6FF1E5FE6EAE}" destId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0EF30FF3-CF32-4176-ADF5-6CF8BEADC118}" type="presParOf" srcId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}" destId="{0B720156-C01C-492E-8E97-EFAE0AB93A9F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DB009AD8-FC38-46CC-98D2-FE7F6F5EC05B}" type="presParOf" srcId="{F29AED0A-2465-400B-A760-6FF1E5FE6EAE}" destId="{6B07A65F-13CA-4E02-9C96-37697274EE1D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C990D7B9-B58E-444D-A964-90165667E5B2}" type="presParOf" srcId="{6B07A65F-13CA-4E02-9C96-37697274EE1D}" destId="{74E3D885-0104-4156-8E63-BED57F56F2DB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2CEC8ABA-2949-4666-BED0-3E90B34EFFFE}" type="presParOf" srcId="{6B07A65F-13CA-4E02-9C96-37697274EE1D}" destId="{DF631F37-EFB5-48B7-B036-6DBD51ECD549}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0ECC90C0-F290-4B49-AD22-8A41D3242CF3}" type="presParOf" srcId="{DF631F37-EFB5-48B7-B036-6DBD51ECD549}" destId="{57B659E6-114D-4A2E-9EAD-DE383F33A3D6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{112BCD4E-CF1C-49C1-8A78-C7A0340D4083}" type="presParOf" srcId="{57B659E6-114D-4A2E-9EAD-DE383F33A3D6}" destId="{3E16072F-A068-47C2-8804-97F6B4D9B98F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{60A5A69F-7540-46E4-A354-32F6D8C8E5A8}" type="presParOf" srcId="{DF631F37-EFB5-48B7-B036-6DBD51ECD549}" destId="{A557928E-A860-4880-893D-2C1228494051}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{013D3182-9E4E-475A-8808-964666195862}" type="presParOf" srcId="{A557928E-A860-4880-893D-2C1228494051}" destId="{62AD5277-2022-4E96-9530-E41482C4F93E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C3CECCE4-C452-4FB2-89CC-BCA11AA01188}" type="presParOf" srcId="{A557928E-A860-4880-893D-2C1228494051}" destId="{64AD5818-364C-490D-B9FD-7FA69AC04336}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6947A36F-9188-433F-81FB-B173CA165DC3}" type="presParOf" srcId="{64AD5818-364C-490D-B9FD-7FA69AC04336}" destId="{1B098D82-6EE2-46B9-99E2-4FD64D567D37}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A80C4949-0562-4FE6-93C2-BF94E9BC35AB}" type="presParOf" srcId="{1B098D82-6EE2-46B9-99E2-4FD64D567D37}" destId="{5DEBC261-70C5-45EF-943D-72FBA2D29F89}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7CBE08A7-6EBB-457F-B8F1-32968F01614B}" type="presParOf" srcId="{64AD5818-364C-490D-B9FD-7FA69AC04336}" destId="{C4955409-BFFA-4189-AE5B-C35C40F2CFBB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{39D3BC0A-B95B-46F9-ABEE-4DCAF6928E99}" type="presParOf" srcId="{C4955409-BFFA-4189-AE5B-C35C40F2CFBB}" destId="{B0A59766-BFD1-4971-AA3E-083F56792E4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{54D3CC0C-4964-4C8F-B80F-59266761896D}" type="presParOf" srcId="{C4955409-BFFA-4189-AE5B-C35C40F2CFBB}" destId="{6532B1EA-0332-477D-A980-10324731DA23}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{275DFA56-F223-4AA3-B9E8-D6A3A1A5BD9A}" type="presParOf" srcId="{64AD5818-364C-490D-B9FD-7FA69AC04336}" destId="{344E9AF4-45E1-4810-9A46-556F99E367E5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{50AB2FF4-5BE3-4D66-B8D3-CF253CC97F0B}" type="presParOf" srcId="{344E9AF4-45E1-4810-9A46-556F99E367E5}" destId="{BDD69BDD-29E7-4FD7-B53D-0D4DE508ADE7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F7D417AD-2E13-41FA-A61A-222C9EE0A5B7}" type="presParOf" srcId="{64AD5818-364C-490D-B9FD-7FA69AC04336}" destId="{B30665DF-143D-45F2-ACE5-E154D9DBF1A7}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{87F01FA1-2371-4994-977F-C73888334E01}" type="presParOf" srcId="{B30665DF-143D-45F2-ACE5-E154D9DBF1A7}" destId="{8711A100-87C2-4EFE-BB48-418F353A2470}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D32A37BF-6D35-4633-B29F-0773343DB3A3}" type="presParOf" srcId="{B30665DF-143D-45F2-ACE5-E154D9DBF1A7}" destId="{FBE2B87B-4C86-4CC4-BACD-47D20353C1DA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6635B136-D098-44A2-A609-56FF7FB92A76}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{D84339FB-047D-4649-8593-289A5B8D130D}" srcOrd="20" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{360B3ADA-331B-4BFA-9C29-33D1C66A5090}" type="presParOf" srcId="{D84339FB-047D-4649-8593-289A5B8D130D}" destId="{F216577D-6FCB-4212-9BED-9C81EE0A6A09}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{558EAFDC-9260-472C-989C-D08F274B7FF9}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{8F841BAE-7D00-482B-BDAE-D1EBD1423513}" srcOrd="23" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{558EAFDC-9260-472C-989C-D08F274B7FF9}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{8F841BAE-7D00-482B-BDAE-D1EBD1423513}" srcOrd="21" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{C4E03DA0-2FDC-4677-AA41-E50F404789B6}" type="presParOf" srcId="{8F841BAE-7D00-482B-BDAE-D1EBD1423513}" destId="{98556681-3D9F-4912-AC6C-8A99410E01D5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{03E8EA64-B3D7-45E8-BC71-C95FDED123BA}" type="presParOf" srcId="{8F841BAE-7D00-482B-BDAE-D1EBD1423513}" destId="{F0233915-F401-47AC-AF14-F02505CCE778}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
   </dgm:cxnLst>
@@ -4612,8 +5847,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4732869" y="5647309"/>
-          <a:ext cx="1785239" cy="892619"/>
+          <a:off x="92315" y="9023777"/>
+          <a:ext cx="2852616" cy="1426308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4656,12 +5891,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4673,14 +5908,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
             <a:t>详情页</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4759013" y="5673453"/>
-        <a:ext cx="1732951" cy="840331"/>
+        <a:off x="134090" y="9065552"/>
+        <a:ext cx="2769066" cy="1342758"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}">
@@ -4690,8 +5925,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="16632517">
-          <a:off x="4029756" y="3264116"/>
-          <a:ext cx="5690802" cy="13183"/>
+          <a:off x="-1031181" y="5219639"/>
+          <a:ext cx="9093274" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4705,7 +5940,7 @@
                 <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="5690802" y="6591"/>
+                <a:pt x="9093274" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4743,7 +5978,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4754,12 +5989,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6732887" y="3128438"/>
-        <a:ext cx="284540" cy="284540"/>
+        <a:off x="3288123" y="4998899"/>
+        <a:ext cx="454663" cy="454663"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}">
@@ -4769,8 +6004,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7232205" y="1487"/>
-          <a:ext cx="1785239" cy="892619"/>
+          <a:off x="4085978" y="2377"/>
+          <a:ext cx="2852616" cy="1426308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4813,12 +6048,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4830,25 +6065,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
             <a:t>标题</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7258349" y="27631"/>
-        <a:ext cx="1732951" cy="840331"/>
+        <a:off x="4127753" y="44152"/>
+        <a:ext cx="2769066" cy="1342758"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{64C582D8-3DA4-421C-A7BF-790B8C968B20}">
+    <dsp:sp modelId="{2753ED25-9652-4141-9D86-C075B64E5A0C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="16727265">
-          <a:off x="4538068" y="3777373"/>
-          <a:ext cx="4674178" cy="13183"/>
+        <a:xfrm>
+          <a:off x="6938595" y="708939"/>
+          <a:ext cx="1141046" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4862,7 +6097,7 @@
                 <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="4674178" y="6591"/>
+                <a:pt x="1141046" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4871,7 +6106,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -4900,7 +6135,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4911,23 +6146,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6758303" y="3667110"/>
-        <a:ext cx="233708" cy="233708"/>
+        <a:off x="7480592" y="687005"/>
+        <a:ext cx="57052" cy="57052"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E26D29FE-8E13-4CE5-9714-9C2576CB7903}">
+    <dsp:sp modelId="{CC54B996-C92F-4E02-A4CC-BE8ED9E7597C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7232205" y="1028000"/>
-          <a:ext cx="1785239" cy="892619"/>
+          <a:off x="8079642" y="2377"/>
+          <a:ext cx="2852616" cy="1426308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4970,12 +6205,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4987,14 +6222,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
-            <a:t>评论数量</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" kern="1200"/>
+            <a:t>products_description.products_name</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7258349" y="1054144"/>
-        <a:ext cx="1732951" cy="840331"/>
+        <a:off x="8121417" y="44152"/>
+        <a:ext cx="2769066" cy="1342758"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}">
@@ -5003,9 +6238,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="16874489">
-          <a:off x="5043620" y="4290629"/>
-          <a:ext cx="3663074" cy="13183"/>
+        <a:xfrm rot="16727265">
+          <a:off x="-218955" y="6039766"/>
+          <a:ext cx="7468821" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5019,7 +6254,7 @@
                 <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3663074" y="6591"/>
+                <a:pt x="7468821" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5057,7 +6292,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5068,12 +6303,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6783580" y="4205644"/>
-        <a:ext cx="183153" cy="183153"/>
+        <a:off x="3328734" y="5859638"/>
+        <a:ext cx="373441" cy="373441"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}">
@@ -5083,8 +6318,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7232205" y="2054513"/>
-          <a:ext cx="1785239" cy="892619"/>
+          <a:off x="4085978" y="1642631"/>
+          <a:ext cx="2852616" cy="1426308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5127,12 +6362,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5144,14 +6379,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
             <a:t>图片</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7258349" y="2080657"/>
-        <a:ext cx="1732951" cy="840331"/>
+        <a:off x="4127753" y="1684406"/>
+        <a:ext cx="2769066" cy="1342758"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{28F496D2-4019-4178-92C0-A9F924F314B7}">
@@ -5160,9 +6395,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17132988">
-          <a:off x="5543266" y="4803885"/>
-          <a:ext cx="2663782" cy="13183"/>
+        <a:xfrm rot="16983315">
+          <a:off x="989792" y="7269957"/>
+          <a:ext cx="5051326" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5176,7 +6411,7 @@
                 <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2663782" y="6591"/>
+                <a:pt x="5051326" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5214,7 +6449,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5225,12 +6460,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6808562" y="4743883"/>
-        <a:ext cx="133189" cy="133189"/>
+        <a:off x="3389172" y="7150266"/>
+        <a:ext cx="252566" cy="252566"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}">
@@ -5240,8 +6475,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7232205" y="3081026"/>
-          <a:ext cx="1785239" cy="892619"/>
+          <a:off x="4085978" y="4103013"/>
+          <a:ext cx="2852616" cy="1426308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5284,12 +6519,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5301,25 +6536,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
             <a:t>价格</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7258349" y="3107170"/>
-        <a:ext cx="1732951" cy="840331"/>
+        <a:off x="4127753" y="4144788"/>
+        <a:ext cx="2769066" cy="1342758"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{145DAD85-EA95-4FDF-9834-24E8C158645C}">
+    <dsp:sp modelId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="17692822">
-          <a:off x="6026508" y="5317142"/>
-          <a:ext cx="1697298" cy="13183"/>
+          <a:off x="6153070" y="3579385"/>
+          <a:ext cx="2712096" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5333,7 +6568,7 @@
                 <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1697298" y="6591"/>
+                <a:pt x="2712096" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5342,7 +6577,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -5371,7 +6606,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5382,23 +6617,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6832725" y="5281301"/>
-        <a:ext cx="84864" cy="84864"/>
+        <a:off x="7441316" y="3518174"/>
+        <a:ext cx="135604" cy="135604"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}">
+    <dsp:sp modelId="{74E3BD4A-40E6-475E-8288-DC90F802DB14}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7232205" y="4107539"/>
-          <a:ext cx="1785239" cy="892619"/>
+          <a:off x="8079642" y="1642631"/>
+          <a:ext cx="2852616" cy="1426308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5441,12 +6676,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5458,25 +6693,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
-            <a:t>描述</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>原价</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7258349" y="4133683"/>
-        <a:ext cx="1732951" cy="840331"/>
+        <a:off x="8121417" y="1684406"/>
+        <a:ext cx="2769066" cy="1342758"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{28F1DC58-4C80-42A9-951A-A48CC763381A}">
+    <dsp:sp modelId="{20753BF2-0D7F-4695-879C-908482DA5B47}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="19457599">
-          <a:off x="6435451" y="5830398"/>
-          <a:ext cx="879411" cy="13183"/>
+          <a:off x="6806517" y="4399512"/>
+          <a:ext cx="1405203" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5490,7 +6725,7 @@
                 <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="879411" y="6591"/>
+                <a:pt x="1405203" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5499,7 +6734,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -5543,19 +6778,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6853172" y="5815005"/>
-        <a:ext cx="43970" cy="43970"/>
+        <a:off x="7473988" y="4370974"/>
+        <a:ext cx="70260" cy="70260"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}">
+    <dsp:sp modelId="{0ECFF24D-6683-4AFC-9B7F-CD0D77C6771A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7232205" y="5134052"/>
-          <a:ext cx="1785239" cy="892619"/>
+          <a:off x="8079642" y="3282886"/>
+          <a:ext cx="2852616" cy="1426308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5598,12 +6833,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5615,25 +6850,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
-            <a:t>属性</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>特价</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7258349" y="5160196"/>
-        <a:ext cx="1732951" cy="840331"/>
+        <a:off x="8121417" y="3324661"/>
+        <a:ext cx="2769066" cy="1342758"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}">
+    <dsp:sp modelId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="2142401">
-          <a:off x="6435451" y="6343655"/>
-          <a:ext cx="879411" cy="13183"/>
+          <a:off x="6806517" y="5219639"/>
+          <a:ext cx="1405203" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5647,7 +6882,7 @@
                 <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="879411" y="6591"/>
+                <a:pt x="1405203" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5656,7 +6891,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -5700,19 +6935,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6853172" y="6328261"/>
-        <a:ext cx="43970" cy="43970"/>
+        <a:off x="7473988" y="5191101"/>
+        <a:ext cx="70260" cy="70260"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}">
+    <dsp:sp modelId="{0F5C5E05-724C-4615-9A27-0292B8BF7467}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7232205" y="6160565"/>
-          <a:ext cx="1785239" cy="892619"/>
+          <a:off x="8079642" y="4923140"/>
+          <a:ext cx="2852616" cy="1426308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5755,12 +6990,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5772,26 +7007,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
-            <a:t>配件</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>海外仓</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7258349" y="6186709"/>
-        <a:ext cx="1732951" cy="840331"/>
+        <a:off x="8121417" y="4964915"/>
+        <a:ext cx="2769066" cy="1342758"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}">
+    <dsp:sp modelId="{FA9E5C58-920C-4962-A474-015BE2EAD31D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="3907178">
-          <a:off x="6026508" y="6856911"/>
-          <a:ext cx="1697298" cy="13183"/>
+          <a:off x="6153070" y="6039766"/>
+          <a:ext cx="2712096" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5805,7 +7039,7 @@
                 <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1697298" y="6591"/>
+                <a:pt x="2712096" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5814,7 +7048,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -5843,7 +7077,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5854,23 +7088,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6832725" y="6821071"/>
-        <a:ext cx="84864" cy="84864"/>
+        <a:off x="7441316" y="5978556"/>
+        <a:ext cx="135604" cy="135604"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}">
+    <dsp:sp modelId="{84198158-0634-44E0-82FA-C5DACA6BFD04}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7232205" y="7187078"/>
-          <a:ext cx="1785239" cy="892619"/>
+          <a:off x="8079642" y="6563395"/>
+          <a:ext cx="2852616" cy="1426308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5913,12 +7147,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5930,25 +7164,33 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
-            <a:t>推荐</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>全球价 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" kern="1200"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>多区定价</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7258349" y="7213222"/>
-        <a:ext cx="1732951" cy="840331"/>
+        <a:off x="8121417" y="6605170"/>
+        <a:ext cx="2769066" cy="1342758"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}">
+    <dsp:sp modelId="{145DAD85-EA95-4FDF-9834-24E8C158645C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4467012">
-          <a:off x="5543266" y="7370168"/>
-          <a:ext cx="2663782" cy="13183"/>
+        <a:xfrm rot="17350740">
+          <a:off x="1778811" y="8090085"/>
+          <a:ext cx="3473287" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5962,7 +7204,7 @@
                 <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2663782" y="6591"/>
+                <a:pt x="3473287" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6000,7 +7242,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6011,23 +7253,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6808562" y="7310165"/>
-        <a:ext cx="133189" cy="133189"/>
+        <a:off x="3428623" y="8009844"/>
+        <a:ext cx="173664" cy="173664"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}">
+    <dsp:sp modelId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7232205" y="8213591"/>
-          <a:ext cx="1785239" cy="892619"/>
+          <a:off x="4085978" y="5743268"/>
+          <a:ext cx="2852616" cy="1426308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6070,12 +7312,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6087,26 +7329,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
-            <a:t>Customer Images</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>描述</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7258349" y="8239735"/>
-        <a:ext cx="1732951" cy="840331"/>
+        <a:off x="4127753" y="5785043"/>
+        <a:ext cx="2769066" cy="1342758"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}">
+    <dsp:sp modelId="{28F1DC58-4C80-42A9-951A-A48CC763381A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="9017445" y="8653309"/>
-          <a:ext cx="714095" cy="13183"/>
+        <a:xfrm rot="18289469">
+          <a:off x="2516403" y="8910212"/>
+          <a:ext cx="1998104" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6120,7 +7361,7 @@
                 <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="714095" y="6591"/>
+                <a:pt x="1998104" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6129,7 +7370,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -6158,7 +7399,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6169,23 +7410,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9356641" y="8642049"/>
-        <a:ext cx="35704" cy="35704"/>
+        <a:off x="3465502" y="8866851"/>
+        <a:ext cx="99905" cy="99905"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{EF7CB15F-86FD-4372-B781-C31717015D39}">
+    <dsp:sp modelId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9731541" y="8213591"/>
-          <a:ext cx="1785239" cy="892619"/>
+          <a:off x="4085978" y="7383522"/>
+          <a:ext cx="2852616" cy="1426308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6228,12 +7469,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6245,30 +7486,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" kern="1200"/>
-            <a:t>zencart.</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>属性</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1200" kern="1200"/>
-            <a:t>customers_images</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9757685" y="8239735"/>
-        <a:ext cx="1732951" cy="840331"/>
+        <a:off x="4127753" y="7425297"/>
+        <a:ext cx="2769066" cy="1342758"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}">
+    <dsp:sp modelId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4725511">
-          <a:off x="5043620" y="7883424"/>
-          <a:ext cx="3663074" cy="13183"/>
+        <a:xfrm rot="21527217">
+          <a:off x="2944804" y="9718258"/>
+          <a:ext cx="1141302" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6282,7 +7518,7 @@
                 <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3663074" y="6591"/>
+                <a:pt x="1141302" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6320,7 +7556,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6331,23 +7567,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6783580" y="7798439"/>
-        <a:ext cx="183153" cy="183153"/>
+        <a:off x="3486922" y="9696318"/>
+        <a:ext cx="57065" cy="57065"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}">
+    <dsp:sp modelId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7232205" y="9240104"/>
-          <a:ext cx="1785239" cy="892619"/>
+          <a:off x="4085978" y="8999615"/>
+          <a:ext cx="2852616" cy="1426308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6390,12 +7626,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6407,25 +7643,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
-            <a:t>Customer Videos</a:t>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" kern="1200"/>
+            <a:t>Accessories</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7258349" y="9266248"/>
-        <a:ext cx="1732951" cy="840331"/>
+        <a:off x="4127753" y="9041390"/>
+        <a:ext cx="2769066" cy="1342758"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}">
+    <dsp:sp modelId="{8C352C1C-738A-4A10-981D-E71F662088F5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="9017445" y="9679822"/>
-          <a:ext cx="714095" cy="13183"/>
+        <a:xfrm rot="72783">
+          <a:off x="6938467" y="9718258"/>
+          <a:ext cx="1141302" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6439,7 +7676,7 @@
                 <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="714095" y="6591"/>
+                <a:pt x="1141302" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6492,19 +7729,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9356641" y="9668561"/>
-        <a:ext cx="35704" cy="35704"/>
+        <a:off x="7480586" y="9696318"/>
+        <a:ext cx="57065" cy="57065"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{19273AAB-E414-41A1-9D60-19175C768B84}">
+    <dsp:sp modelId="{DC66AB97-B3B7-454F-BADA-742E0A317634}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9731541" y="9240104"/>
-          <a:ext cx="1785239" cy="892619"/>
+          <a:off x="8079642" y="9023777"/>
+          <a:ext cx="2852616" cy="1426308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6547,12 +7784,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6564,26 +7801,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1200" kern="1200"/>
-            <a:t>zencart.products_video_url</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" kern="1200"/>
+            <a:t>product_to_products</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9757685" y="9266248"/>
-        <a:ext cx="1732951" cy="840331"/>
+        <a:off x="8121417" y="9065552"/>
+        <a:ext cx="2769066" cy="1342758"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}">
+    <dsp:sp modelId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4872735">
-          <a:off x="4538068" y="8396681"/>
-          <a:ext cx="4674178" cy="13183"/>
+        <a:xfrm rot="3310531">
+          <a:off x="2516403" y="10550466"/>
+          <a:ext cx="1998104" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6597,7 +7834,7 @@
                 <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="4674178" y="6591"/>
+                <a:pt x="1998104" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6635,7 +7872,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6646,23 +7883,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6758303" y="8286418"/>
-        <a:ext cx="233708" cy="233708"/>
+        <a:off x="3465502" y="10507106"/>
+        <a:ext cx="99905" cy="99905"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}">
+    <dsp:sp modelId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7232205" y="10266617"/>
-          <a:ext cx="1785239" cy="892619"/>
+          <a:off x="4085978" y="10664031"/>
+          <a:ext cx="2852616" cy="1426308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6705,12 +7942,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6722,26 +7959,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
-            <a:t>Customer Reviews</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>推荐</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7258349" y="10292761"/>
-        <a:ext cx="1732951" cy="840331"/>
+        <a:off x="4127753" y="10705806"/>
+        <a:ext cx="2769066" cy="1342758"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{D84339FB-047D-4649-8593-289A5B8D130D}">
+    <dsp:sp modelId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4967483">
-          <a:off x="4029756" y="8909937"/>
-          <a:ext cx="5690802" cy="13183"/>
+        <a:xfrm rot="4249260">
+          <a:off x="1778811" y="11370594"/>
+          <a:ext cx="3473287" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6755,7 +7991,7 @@
                 <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="5690802" y="6591"/>
+                <a:pt x="3473287" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6793,7 +8029,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6804,23 +8040,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6732887" y="8774259"/>
-        <a:ext cx="284540" cy="284540"/>
+        <a:off x="3428623" y="11290353"/>
+        <a:ext cx="173664" cy="173664"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{98556681-3D9F-4912-AC6C-8A99410E01D5}">
+    <dsp:sp modelId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7232205" y="11293130"/>
-          <a:ext cx="1785239" cy="892619"/>
+          <a:off x="4085978" y="12304286"/>
+          <a:ext cx="2852616" cy="1426308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6863,7 +8099,247 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" kern="1200"/>
+            <a:t>Customer Images</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4127753" y="12346061"/>
+        <a:ext cx="2769066" cy="1342758"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6938595" y="13010848"/>
+          <a:ext cx="1141046" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1141046" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7480592" y="12988914"/>
+        <a:ext cx="57052" cy="57052"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{EF7CB15F-86FD-4372-B781-C31717015D39}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8079642" y="12304286"/>
+          <a:ext cx="2852616" cy="1426308"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>customers_images</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8121417" y="12346061"/>
+        <a:ext cx="2769066" cy="1342758"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4616685">
+          <a:off x="989792" y="12190721"/>
+          <a:ext cx="5051326" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="5051326" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -6879,16 +8355,1193 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3389172" y="12071030"/>
+        <a:ext cx="252566" cy="252566"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4085978" y="13944541"/>
+          <a:ext cx="2852616" cy="1426308"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" kern="1200"/>
+            <a:t>Customer Videos</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4127753" y="13986316"/>
+        <a:ext cx="2769066" cy="1342758"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6938595" y="14651103"/>
+          <a:ext cx="1141046" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1141046" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7480592" y="14629169"/>
+        <a:ext cx="57052" cy="57052"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{19273AAB-E414-41A1-9D60-19175C768B84}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8079642" y="13944541"/>
+          <a:ext cx="2852616" cy="1426308"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>products_video_url</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8121417" y="13986316"/>
+        <a:ext cx="2769066" cy="1342758"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4872735">
+          <a:off x="-218955" y="13420912"/>
+          <a:ext cx="7468821" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="7468821" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3328734" y="13240783"/>
+        <a:ext cx="373441" cy="373441"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4085978" y="16404922"/>
+          <a:ext cx="2852616" cy="1426308"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" kern="1200"/>
+            <a:t>Customer Reviews</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4127753" y="16446697"/>
+        <a:ext cx="2769066" cy="1342758"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6938595" y="17111485"/>
+          <a:ext cx="1141046" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1141046" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7480592" y="17089550"/>
+        <a:ext cx="57052" cy="57052"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{74E3D885-0104-4156-8E63-BED57F56F2DB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8079642" y="16404922"/>
+          <a:ext cx="2852616" cy="1426308"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" kern="1200"/>
+            <a:t>zencart.reviews</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8121417" y="16446697"/>
+        <a:ext cx="2769066" cy="1342758"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{57B659E6-114D-4A2E-9EAD-DE383F33A3D6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="10932258" y="17111485"/>
+          <a:ext cx="1141046" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1141046" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="11474255" y="17089550"/>
+        <a:ext cx="57052" cy="57052"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{62AD5277-2022-4E96-9530-E41482C4F93E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="12073305" y="16404922"/>
+          <a:ext cx="2852616" cy="1426308"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>评论数量</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="12115080" y="16446697"/>
+        <a:ext cx="2769066" cy="1342758"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1B098D82-6EE2-46B9-99E2-4FD64D567D37}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="14793843" y="16701421"/>
+          <a:ext cx="1405203" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1405203" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="15461315" y="16672883"/>
+        <a:ext cx="70260" cy="70260"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B0A59766-BFD1-4971-AA3E-083F56792E4A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="16066968" y="15584795"/>
+          <a:ext cx="2852616" cy="1426308"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>有登陆</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="16108743" y="15626570"/>
+        <a:ext cx="2769066" cy="1342758"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{344E9AF4-45E1-4810-9A46-556F99E367E5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="14793843" y="17521548"/>
+          <a:ext cx="1405203" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1405203" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="15461315" y="17493010"/>
+        <a:ext cx="70260" cy="70260"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8711A100-87C2-4EFE-BB48-418F353A2470}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="16066968" y="17225050"/>
+          <a:ext cx="2852616" cy="1426308"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>没有登陆</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="16108743" y="17266825"/>
+        <a:ext cx="2769066" cy="1342758"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D84339FB-047D-4649-8593-289A5B8D130D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4967483">
+          <a:off x="-1031181" y="14241039"/>
+          <a:ext cx="9093274" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="9093274" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3288123" y="14020299"/>
+        <a:ext cx="454663" cy="454663"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{98556681-3D9F-4912-AC6C-8A99410E01D5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4085978" y="18045177"/>
+          <a:ext cx="2852616" cy="1426308"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" kern="1200"/>
             <a:t>Q &amp; A</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7258349" y="11319274"/>
-        <a:ext cx="1732951" cy="840331"/>
+        <a:off x="4127753" y="18086952"/>
+        <a:ext cx="2769066" cy="1342758"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -9643,15 +12296,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95248</xdr:colOff>
+      <xdr:colOff>95249</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9963,7 +12616,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9978,8 +12631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="S71" sqref="S71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V79" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9994,7 +12647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/zencart/docs/模块功能划分.xlsx
+++ b/zencart/docs/模块功能划分.xlsx
@@ -3113,6 +3113,43 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{B7DE4E17-4A8A-48E5-B6A2-F6B94A2EF4C0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>tpl_modules_main_product_image.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{559DD2B8-4F93-431D-A172-966C2015BF0C}" type="parTrans" cxnId="{BE7CEEEB-D628-4D3F-9E9E-D96ED39D2E9B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B0D85B6C-4765-4A6D-BB0E-89DEDE6CCB2A}" type="sibTrans" cxnId="{BE7CEEEB-D628-4D3F-9E9E-D96ED39D2E9B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
     <dgm:pt modelId="{099476A6-4E27-4FAA-9398-2AE46D180721}" type="pres">
       <dgm:prSet presAssocID="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" presName="diagram" presStyleCnt="0">
         <dgm:presLayoutVars>
@@ -3229,7 +3266,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2753ED25-9652-4141-9D86-C075B64E5A0C}" type="pres">
-      <dgm:prSet presAssocID="{3873C774-C9E3-4842-845E-3F0F0A27954C}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{3873C774-C9E3-4842-845E-3F0F0A27954C}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3240,7 +3277,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1211BB58-91E1-4D17-8AEA-A049AA32E719}" type="pres">
-      <dgm:prSet presAssocID="{3873C774-C9E3-4842-845E-3F0F0A27954C}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{3873C774-C9E3-4842-845E-3F0F0A27954C}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3262,7 +3299,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CC54B996-C92F-4E02-A4CC-BE8ED9E7597C}" type="pres">
-      <dgm:prSet presAssocID="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="9">
+      <dgm:prSet presAssocID="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="10">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3346,6 +3383,37 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{54EE237B-A561-477B-A047-5340603D15C1}" type="pres">
+      <dgm:prSet presAssocID="{559DD2B8-4F93-431D-A172-966C2015BF0C}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="10"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1D599482-94C5-4AC2-9979-DA0473588216}" type="pres">
+      <dgm:prSet presAssocID="{559DD2B8-4F93-431D-A172-966C2015BF0C}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="10"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D516F224-2148-4904-BBE0-D243CC6A6FDE}" type="pres">
+      <dgm:prSet presAssocID="{B7DE4E17-4A8A-48E5-B6A2-F6B94A2EF4C0}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B7A723E6-704C-42EB-B047-E088BD225749}" type="pres">
+      <dgm:prSet presAssocID="{B7DE4E17-4A8A-48E5-B6A2-F6B94A2EF4C0}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="10">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{619EE549-712A-4A93-AB10-BB75AF3A339B}" type="pres">
+      <dgm:prSet presAssocID="{B7DE4E17-4A8A-48E5-B6A2-F6B94A2EF4C0}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{28F496D2-4019-4178-92C0-A9F924F314B7}" type="pres">
       <dgm:prSet presAssocID="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="11"/>
       <dgm:spPr/>
@@ -3406,7 +3474,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}" type="pres">
-      <dgm:prSet presAssocID="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3417,7 +3485,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1D2BB695-8C27-4347-A006-147A1DBEA74F}" type="pres">
-      <dgm:prSet presAssocID="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3439,7 +3507,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{74E3BD4A-40E6-475E-8288-DC90F802DB14}" type="pres">
-      <dgm:prSet presAssocID="{8570D345-0017-4FB7-97D8-558D21E0D926}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="9">
+      <dgm:prSet presAssocID="{8570D345-0017-4FB7-97D8-558D21E0D926}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="10">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3465,7 +3533,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{20753BF2-0D7F-4695-879C-908482DA5B47}" type="pres">
-      <dgm:prSet presAssocID="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3476,7 +3544,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6A91BBDB-6803-43A6-8683-4B6468961754}" type="pres">
-      <dgm:prSet presAssocID="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3498,7 +3566,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0ECFF24D-6683-4AFC-9B7F-CD0D77C6771A}" type="pres">
-      <dgm:prSet presAssocID="{F5050CEC-E453-4096-A803-275398B27760}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="9">
+      <dgm:prSet presAssocID="{F5050CEC-E453-4096-A803-275398B27760}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="10">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3524,7 +3592,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}" type="pres">
-      <dgm:prSet presAssocID="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3535,7 +3603,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C4403317-3C9A-42B0-855F-11D6FBB268BB}" type="pres">
-      <dgm:prSet presAssocID="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3557,7 +3625,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0F5C5E05-724C-4615-9A27-0292B8BF7467}" type="pres">
-      <dgm:prSet presAssocID="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="9">
+      <dgm:prSet presAssocID="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="10">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3583,7 +3651,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FA9E5C58-920C-4962-A474-015BE2EAD31D}" type="pres">
-      <dgm:prSet presAssocID="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3594,7 +3662,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CC9D094D-7F95-4C6E-A462-4B1926F24FF9}" type="pres">
-      <dgm:prSet presAssocID="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3616,7 +3684,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{84198158-0634-44E0-82FA-C5DACA6BFD04}" type="pres">
-      <dgm:prSet presAssocID="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="9">
+      <dgm:prSet presAssocID="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="10">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3819,7 +3887,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8C352C1C-738A-4A10-981D-E71F662088F5}" type="pres">
-      <dgm:prSet presAssocID="{675C5201-5BA2-47CE-800D-A6384009EC75}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{675C5201-5BA2-47CE-800D-A6384009EC75}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3830,7 +3898,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F096C77D-217B-4E4F-BD39-338FE324D381}" type="pres">
-      <dgm:prSet presAssocID="{675C5201-5BA2-47CE-800D-A6384009EC75}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{675C5201-5BA2-47CE-800D-A6384009EC75}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3852,7 +3920,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DC66AB97-B3B7-454F-BADA-742E0A317634}" type="pres">
-      <dgm:prSet presAssocID="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="9">
+      <dgm:prSet presAssocID="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="10">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3996,7 +4064,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}" type="pres">
-      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4007,7 +4075,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{87E643AA-72A4-4612-B289-26E6E69BA69D}" type="pres">
-      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4029,7 +4097,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EF7CB15F-86FD-4372-B781-C31717015D39}" type="pres">
-      <dgm:prSet presAssocID="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="9">
+      <dgm:prSet presAssocID="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="10">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4114,7 +4182,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}" type="pres">
-      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4125,7 +4193,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{67608300-5F86-4317-AB34-2391DC98945C}" type="pres">
-      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4147,7 +4215,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{19273AAB-E414-41A1-9D60-19175C768B84}" type="pres">
-      <dgm:prSet presAssocID="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="9">
+      <dgm:prSet presAssocID="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="10">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4232,7 +4300,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}" type="pres">
-      <dgm:prSet presAssocID="{27481B52-DE79-4D07-90EC-53EA026B04E1}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{27481B52-DE79-4D07-90EC-53EA026B04E1}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4243,7 +4311,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0B720156-C01C-492E-8E97-EFAE0AB93A9F}" type="pres">
-      <dgm:prSet presAssocID="{27481B52-DE79-4D07-90EC-53EA026B04E1}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{27481B52-DE79-4D07-90EC-53EA026B04E1}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="10"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4265,7 +4333,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{74E3D885-0104-4156-8E63-BED57F56F2DB}" type="pres">
-      <dgm:prSet presAssocID="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="9">
+      <dgm:prSet presAssocID="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="10">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4528,101 +4596,105 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{C3A042AA-1499-4E35-B911-37FB305502D7}" type="presOf" srcId="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" destId="{74E3D885-0104-4156-8E63-BED57F56F2DB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6F7F2286-9D73-458A-9600-728B80032683}" type="presOf" srcId="{559DD2B8-4F93-431D-A172-966C2015BF0C}" destId="{1D599482-94C5-4AC2-9979-DA0473588216}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A9B1677B-439D-4C35-9B58-62FFCC683CEC}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" srcOrd="10" destOrd="0" parTransId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" sibTransId="{5338813F-CDB8-4B17-B301-9A1E2C13158C}"/>
+    <dgm:cxn modelId="{599AABAA-2C30-4D51-BA17-D7E9AB45CB50}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" srcOrd="0" destOrd="0" parTransId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" sibTransId="{69857E7C-5030-4D39-BE1C-81C2B1166F47}"/>
+    <dgm:cxn modelId="{6332CE73-A45C-4F97-BA7F-AD129A240B0B}" type="presOf" srcId="{8F5577FA-BD2C-45E5-B09F-CC214ED7D117}" destId="{8711A100-87C2-4EFE-BB48-418F353A2470}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6FE2B9FB-C5B1-4C7A-A8BF-B605591F5217}" srcId="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" destId="{31CD7878-84F1-4825-B934-E86F76D7D560}" srcOrd="0" destOrd="0" parTransId="{48CDDD27-CA42-4A8F-85F1-58706086F444}" sibTransId="{660A0425-314A-43B6-9E38-458E0CA60A18}"/>
+    <dgm:cxn modelId="{98E7F509-3CF8-427F-B56B-790E8675987A}" type="presOf" srcId="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" destId="{1D2BB695-8C27-4347-A006-147A1DBEA74F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{145C319D-EF66-42C0-89E9-07F7FF9692A7}" type="presOf" srcId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" destId="{E445A682-3309-48F3-9735-EBB2F9E78523}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D95655CC-9891-462F-9EC4-46A0CA6E7B0A}" type="presOf" srcId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" destId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{611C8462-0314-47AA-AC20-2F84B60AB6E0}" type="presOf" srcId="{3873C774-C9E3-4842-845E-3F0F0A27954C}" destId="{1211BB58-91E1-4D17-8AEA-A049AA32E719}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BE7CEEEB-D628-4D3F-9E9E-D96ED39D2E9B}" srcId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" destId="{B7DE4E17-4A8A-48E5-B6A2-F6B94A2EF4C0}" srcOrd="0" destOrd="0" parTransId="{559DD2B8-4F93-431D-A172-966C2015BF0C}" sibTransId="{B0D85B6C-4765-4A6D-BB0E-89DEDE6CCB2A}"/>
+    <dgm:cxn modelId="{67B2E9F6-F29F-4C4B-A774-8BEA2D4C7A8A}" type="presOf" srcId="{675C5201-5BA2-47CE-800D-A6384009EC75}" destId="{F096C77D-217B-4E4F-BD39-338FE324D381}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8799599A-5096-414A-8D49-C85637058AD4}" srcId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" destId="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" srcOrd="0" destOrd="0" parTransId="{675C5201-5BA2-47CE-800D-A6384009EC75}" sibTransId="{CB16F46D-665A-479C-A8D9-C522A3ADA694}"/>
+    <dgm:cxn modelId="{413D4DFA-823D-41EE-B222-18EE6B68199A}" type="presOf" srcId="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" destId="{CC54B996-C92F-4E02-A4CC-BE8ED9E7597C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BC379DEB-700E-40DA-981B-0961DA271015}" type="presOf" srcId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" destId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{181A4CB7-58BC-4410-8809-D108D15EFD91}" type="presOf" srcId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" destId="{515834A5-28FF-4C53-ACA2-A74E27687D59}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1A4F8ED8-31A1-43AA-8DB0-193A1907E2CF}" type="presOf" srcId="{F5050CEC-E453-4096-A803-275398B27760}" destId="{0ECFF24D-6683-4AFC-9B7F-CD0D77C6771A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5DFD60EE-C4DB-465F-AE60-B66F879DA43A}" type="presOf" srcId="{281C279B-179E-4D08-AE07-8C99B5657ACE}" destId="{5DEBC261-70C5-45EF-943D-72FBA2D29F89}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ACF6001F-CF99-4F37-B0B2-7BF5A4A78693}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" srcOrd="5" destOrd="0" parTransId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" sibTransId="{CC793FB2-49FD-477C-8EC3-3400F305DF28}"/>
+    <dgm:cxn modelId="{13BCB9EE-A0C6-4E15-9262-A271A88D08EA}" type="presOf" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7F6C4993-38D3-42CC-A893-A1CABC800B7D}" type="presOf" srcId="{27481B52-DE79-4D07-90EC-53EA026B04E1}" destId="{0B720156-C01C-492E-8E97-EFAE0AB93A9F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ACA4C21D-474A-4E70-A4EF-DEBB05C0320B}" type="presOf" srcId="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" destId="{DC66AB97-B3B7-454F-BADA-742E0A317634}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B4313D12-AA2D-4796-95E0-3D76BEA04572}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" srcOrd="2" destOrd="0" parTransId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" sibTransId="{D4B0F6EC-70A0-451B-8D13-ACBF5C5EE10E}"/>
+    <dgm:cxn modelId="{82917F59-2648-432B-A5B9-B912DAC749E3}" type="presOf" srcId="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" destId="{EF7CB15F-86FD-4372-B781-C31717015D39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{514F4805-DBBC-4C62-8567-1E871BCD1543}" type="presOf" srcId="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" destId="{19273AAB-E414-41A1-9D60-19175C768B84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E1680719-A6D2-4310-8CC7-B8F07CD814AD}" type="presOf" srcId="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" destId="{20753BF2-0D7F-4695-879C-908482DA5B47}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{09AFC2D2-D25D-4826-BB1E-B74B84BAB87B}" srcId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" destId="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" srcOrd="0" destOrd="0" parTransId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" sibTransId="{222BD0EF-C488-41C0-B063-C91C237494CA}"/>
+    <dgm:cxn modelId="{1AA1476F-B6E3-4303-8C06-AC72375FD938}" type="presOf" srcId="{8570D345-0017-4FB7-97D8-558D21E0D926}" destId="{74E3BD4A-40E6-475E-8288-DC90F802DB14}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0EC45787-5BAB-4B50-8558-E810FE6B74D0}" type="presOf" srcId="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" destId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D42689F1-2387-4AAF-B01B-A5249A2EB979}" type="presOf" srcId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" destId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4F448A1C-5B1F-4336-AC30-3AC052731F76}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" srcOrd="1" destOrd="0" parTransId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" sibTransId="{0D9ECB33-BFA2-4C1C-A0AE-F1927F22831E}"/>
+    <dgm:cxn modelId="{CAF44A32-6E1F-417C-9766-62B0DDC36C06}" type="presOf" srcId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" destId="{27E95C9E-DFB1-42E7-88F2-FAC674D0BA38}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FC06F30F-AB26-44E8-B4D1-D3683620FB5C}" type="presOf" srcId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" destId="{87E643AA-72A4-4612-B289-26E6E69BA69D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A440A9C0-FFCA-4447-8E8C-C90DD8F175B7}" type="presOf" srcId="{569D4530-2880-4B71-B432-ED7F88BC411D}" destId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{BAB0C694-65D3-4A86-BE32-46A48304A02B}" type="presOf" srcId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" destId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A7F87905-E1AA-4C71-883E-ADEA0FB9E64D}" type="presOf" srcId="{281C279B-179E-4D08-AE07-8C99B5657ACE}" destId="{1B098D82-6EE2-46B9-99E2-4FD64D567D37}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{268EDC3A-B892-4D1C-832F-FCFCB2F167F1}" type="presOf" srcId="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" destId="{0F5C5E05-724C-4615-9A27-0292B8BF7467}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CF125C6D-E5C7-423A-B63D-429BE60D661E}" srcId="{7D712709-A7D6-486B-957D-F3E0A466960F}" destId="{BA71DA5D-21B1-4B1D-A363-D8A62109F187}" srcOrd="0" destOrd="0" parTransId="{281C279B-179E-4D08-AE07-8C99B5657ACE}" sibTransId="{6E36CC7B-CB2E-4311-BD39-B2B8C6E2F25B}"/>
+    <dgm:cxn modelId="{E73CD5E8-7FA6-4027-899A-FCBA604DD803}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{68138C9E-656F-4ECF-9770-ED91439B2549}" srcOrd="8" destOrd="0" parTransId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" sibTransId="{755B4C76-42A1-41DC-B5E3-F612FC79C5AF}"/>
+    <dgm:cxn modelId="{A58F26D1-A0FE-41EC-8250-BE82F7D9A850}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" srcOrd="3" destOrd="0" parTransId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" sibTransId="{2341C01B-050C-4692-87AA-FBAB4A11079B}"/>
+    <dgm:cxn modelId="{764D0C7C-03F3-43A4-A459-661B4BA0D500}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{D227BC4F-3E9D-4433-87E2-4FCB465AB942}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A7C8B10F-F14E-4AAF-849C-A3F80278F687}" type="presOf" srcId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" destId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{59001AAE-34FD-40E9-AE69-6DCE627E662C}" type="presOf" srcId="{675C5201-5BA2-47CE-800D-A6384009EC75}" destId="{8C352C1C-738A-4A10-981D-E71F662088F5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{C97A2AF4-6412-42A7-88D3-3CF2C08BB16F}" type="presOf" srcId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" destId="{33B2E686-47BD-45CE-946E-82276B7C9666}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{CF125C6D-E5C7-423A-B63D-429BE60D661E}" srcId="{7D712709-A7D6-486B-957D-F3E0A466960F}" destId="{BA71DA5D-21B1-4B1D-A363-D8A62109F187}" srcOrd="0" destOrd="0" parTransId="{281C279B-179E-4D08-AE07-8C99B5657ACE}" sibTransId="{6E36CC7B-CB2E-4311-BD39-B2B8C6E2F25B}"/>
-    <dgm:cxn modelId="{A7F87905-E1AA-4C71-883E-ADEA0FB9E64D}" type="presOf" srcId="{281C279B-179E-4D08-AE07-8C99B5657ACE}" destId="{1B098D82-6EE2-46B9-99E2-4FD64D567D37}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0B60D818-6534-411C-AC63-29CCDFCDFEFB}" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" srcOrd="3" destOrd="0" parTransId="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" sibTransId="{87C669F3-4CE0-4177-BE29-7A7D430106F0}"/>
-    <dgm:cxn modelId="{98E7F509-3CF8-427F-B56B-790E8675987A}" type="presOf" srcId="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" destId="{1D2BB695-8C27-4347-A006-147A1DBEA74F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{E1680719-A6D2-4310-8CC7-B8F07CD814AD}" type="presOf" srcId="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" destId="{20753BF2-0D7F-4695-879C-908482DA5B47}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{ECD525E0-071A-4D3F-91CD-E3A916775A0F}" type="presOf" srcId="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" destId="{98556681-3D9F-4912-AC6C-8A99410E01D5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B4D91084-CCF8-455B-AC10-541DB8809651}" type="presOf" srcId="{0CE297AD-381C-4E1D-93C9-29394359AD51}" destId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0300DB19-CEF2-4D35-A9F0-2ECCC38E5E32}" srcId="{0CE297AD-381C-4E1D-93C9-29394359AD51}" destId="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" srcOrd="0" destOrd="0" parTransId="{27481B52-DE79-4D07-90EC-53EA026B04E1}" sibTransId="{A246CAF9-69F6-4E46-A750-C2B40F0B8E92}"/>
+    <dgm:cxn modelId="{A4849C86-A61F-4DB2-BAEC-728EA6BBB55C}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{0CE297AD-381C-4E1D-93C9-29394359AD51}" srcOrd="9" destOrd="0" parTransId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" sibTransId="{F45D05D9-65D0-4358-A6EB-605E64C4D8BB}"/>
+    <dgm:cxn modelId="{4ACE751F-6DC8-4304-88A3-7F15B9CDAABB}" type="presOf" srcId="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" destId="{FA9E5C58-920C-4962-A474-015BE2EAD31D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{766C6487-F348-4BB5-83C8-F88A3D520537}" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{F5050CEC-E453-4096-A803-275398B27760}" srcOrd="1" destOrd="0" parTransId="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" sibTransId="{DA408AEC-7E48-4F2D-858E-1E0EC7489AAE}"/>
+    <dgm:cxn modelId="{88563BBC-2096-4E97-B568-6C4973130BF3}" type="presOf" srcId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" destId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{183B8392-E5FE-4D66-BFA0-711DC2F89DFF}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" srcOrd="7" destOrd="0" parTransId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" sibTransId="{65B501C3-2A7E-419D-8CCB-FED00DD292D0}"/>
     <dgm:cxn modelId="{7DF9BD4E-62DF-4346-98B6-D1BA9A37B299}" type="presOf" srcId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" destId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B9F624A4-67AA-4419-8286-DEC9FD13E7AE}" type="presOf" srcId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" destId="{F216577D-6FCB-4212-9BED-9C81EE0A6A09}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EF0FEB8A-9C3E-431E-884B-EB378E2C86C0}" type="presOf" srcId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" destId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7805392A-4E17-4429-B6DF-3AD03CE55706}" type="presOf" srcId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" destId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{201D36AE-E9C2-48B3-BB12-9F674508D3D4}" type="presOf" srcId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" destId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7C6A378F-2479-4458-A171-0AB17FEEF4A9}" type="presOf" srcId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" destId="{07445E72-6E0D-4223-8951-2B3FE2B491A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A8F51EA3-D546-4480-A9DC-4A8865744C5A}" srcId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" destId="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" srcOrd="0" destOrd="0" parTransId="{3873C774-C9E3-4842-845E-3F0F0A27954C}" sibTransId="{D77E36F3-C88B-406F-8D67-7AB15A0509B0}"/>
+    <dgm:cxn modelId="{C507D615-DC3E-4883-9DB8-089D14929E62}" srcId="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" destId="{7D712709-A7D6-486B-957D-F3E0A466960F}" srcOrd="0" destOrd="0" parTransId="{6685CE29-0B27-4599-8A61-2E450B77D4E6}" sibTransId="{0070C935-FB69-45CF-8C14-D759D14EB217}"/>
+    <dgm:cxn modelId="{51CCEB5F-0195-49A4-9C05-8CBEE42A0ADC}" type="presOf" srcId="{7D712709-A7D6-486B-957D-F3E0A466960F}" destId="{62AD5277-2022-4E96-9530-E41482C4F93E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8A804103-D183-4DF0-9F8C-4D4CDFDBFCF6}" type="presOf" srcId="{B7DE4E17-4A8A-48E5-B6A2-F6B94A2EF4C0}" destId="{B7A723E6-704C-42EB-B047-E088BD225749}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{819996A4-8E78-4DA4-817F-39A1B1AE679E}" type="presOf" srcId="{3C23E61D-C228-4D36-A913-A912602620F7}" destId="{344E9AF4-45E1-4810-9A46-556F99E367E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{192D774D-417F-4BB8-98B7-EC27FA5DFE39}" type="presOf" srcId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" destId="{493F0A8D-C152-42A2-B413-C05E0C689C00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0F6D280E-934E-49E2-8B13-BD4FF69B880D}" type="presOf" srcId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" destId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0B60D818-6534-411C-AC63-29CCDFCDFEFB}" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" srcOrd="3" destOrd="0" parTransId="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" sibTransId="{87C669F3-4CE0-4177-BE29-7A7D430106F0}"/>
+    <dgm:cxn modelId="{114138D0-C81A-4AFB-9C8C-CB017F030301}" type="presOf" srcId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" destId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B6ABE272-0FEA-47B5-AC0A-E0BF595BFC33}" type="presOf" srcId="{BA71DA5D-21B1-4B1D-A363-D8A62109F187}" destId="{B0A59766-BFD1-4971-AA3E-083F56792E4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CD267788-94CE-451C-9F50-B5F53159AD3F}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" srcOrd="4" destOrd="0" parTransId="{569D4530-2880-4B71-B432-ED7F88BC411D}" sibTransId="{D184293E-3DF9-4312-830C-7C26789016D5}"/>
+    <dgm:cxn modelId="{E492B71F-DEFD-45B1-B2C2-C248A042E52F}" type="presOf" srcId="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" destId="{099476A6-4E27-4FAA-9398-2AE46D180721}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8A396820-53A3-44B8-BCBA-B109377E2C57}" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" srcOrd="2" destOrd="0" parTransId="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" sibTransId="{4B62E928-E321-4E2F-9BDA-46A285CDA4B4}"/>
+    <dgm:cxn modelId="{0E47A5E0-764E-46C8-802E-961F4F388902}" type="presOf" srcId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" destId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BA256EFC-C7C2-4586-A7E8-AFF656ADB148}" type="presOf" srcId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" destId="{D1296DF1-78D9-4238-A067-6069827E6644}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{59192AD8-A27A-4ED2-B501-953907C56F77}" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{8570D345-0017-4FB7-97D8-558D21E0D926}" srcOrd="0" destOrd="0" parTransId="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" sibTransId="{C5B3A973-0831-4FD5-8516-41EED8ACB3DB}"/>
+    <dgm:cxn modelId="{9E11CEF6-E5A4-42E1-B049-D5C631DB4ACE}" type="presOf" srcId="{3C23E61D-C228-4D36-A913-A912602620F7}" destId="{BDD69BDD-29E7-4FD7-B53D-0D4DE508ADE7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C5276DE2-D864-4310-83AB-4481E50F452F}" srcId="{7D712709-A7D6-486B-957D-F3E0A466960F}" destId="{8F5577FA-BD2C-45E5-B09F-CC214ED7D117}" srcOrd="1" destOrd="0" parTransId="{3C23E61D-C228-4D36-A913-A912602620F7}" sibTransId="{95A91E17-67B3-4961-BE08-A86E3442BE77}"/>
     <dgm:cxn modelId="{47BFAECF-6B04-4776-AC89-F70C702B5E4A}" type="presOf" srcId="{6685CE29-0B27-4599-8A61-2E450B77D4E6}" destId="{3E16072F-A068-47C2-8804-97F6B4D9B98F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{413D4DFA-823D-41EE-B222-18EE6B68199A}" type="presOf" srcId="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" destId="{CC54B996-C92F-4E02-A4CC-BE8ED9E7597C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A00F107A-6569-4868-8CE1-B7DF8A419271}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" srcOrd="6" destOrd="0" parTransId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" sibTransId="{F3D6601C-5E3B-483E-9A2D-4F05F66683BB}"/>
+    <dgm:cxn modelId="{08F4A0F4-2ACD-4BEE-A393-FA744D550DC3}" type="presOf" srcId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" destId="{67608300-5F86-4317-AB34-2391DC98945C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C97A2AF4-6412-42A7-88D3-3CF2C08BB16F}" type="presOf" srcId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" destId="{33B2E686-47BD-45CE-946E-82276B7C9666}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F1E8F784-730D-4557-B920-BF4060688176}" type="presOf" srcId="{68138C9E-656F-4ECF-9770-ED91439B2549}" destId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{4852B326-CE08-4397-880E-F59F9E79D1DC}" type="presOf" srcId="{569D4530-2880-4B71-B432-ED7F88BC411D}" destId="{9C3216F4-3DBA-4E6B-9827-A0F23AE4644D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{514F4805-DBBC-4C62-8567-1E871BCD1543}" type="presOf" srcId="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" destId="{19273AAB-E414-41A1-9D60-19175C768B84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{E492B71F-DEFD-45B1-B2C2-C248A042E52F}" type="presOf" srcId="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" destId="{099476A6-4E27-4FAA-9398-2AE46D180721}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A4849C86-A61F-4DB2-BAEC-728EA6BBB55C}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{0CE297AD-381C-4E1D-93C9-29394359AD51}" srcOrd="9" destOrd="0" parTransId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" sibTransId="{F45D05D9-65D0-4358-A6EB-605E64C4D8BB}"/>
-    <dgm:cxn modelId="{82917F59-2648-432B-A5B9-B912DAC749E3}" type="presOf" srcId="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" destId="{EF7CB15F-86FD-4372-B781-C31717015D39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{9E11CEF6-E5A4-42E1-B049-D5C631DB4ACE}" type="presOf" srcId="{3C23E61D-C228-4D36-A913-A912602620F7}" destId="{BDD69BDD-29E7-4FD7-B53D-0D4DE508ADE7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A58F26D1-A0FE-41EC-8250-BE82F7D9A850}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" srcOrd="3" destOrd="0" parTransId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" sibTransId="{2341C01B-050C-4692-87AA-FBAB4A11079B}"/>
-    <dgm:cxn modelId="{8A396820-53A3-44B8-BCBA-B109377E2C57}" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" srcOrd="2" destOrd="0" parTransId="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" sibTransId="{4B62E928-E321-4E2F-9BDA-46A285CDA4B4}"/>
-    <dgm:cxn modelId="{09AFC2D2-D25D-4826-BB1E-B74B84BAB87B}" srcId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" destId="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" srcOrd="0" destOrd="0" parTransId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" sibTransId="{222BD0EF-C488-41C0-B063-C91C237494CA}"/>
+    <dgm:cxn modelId="{CEB17849-D01E-468A-A8AC-4B9BE1A2130A}" type="presOf" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{AC3929EA-AEDC-45D8-B9CA-70262C585A0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E79C1C19-E4ED-4E2A-9B77-98D5C754ED01}" type="presOf" srcId="{27481B52-DE79-4D07-90EC-53EA026B04E1}" destId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ED172AF3-3662-4CA2-B193-A18E503E617E}" type="presOf" srcId="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" destId="{84198158-0634-44E0-82FA-C5DACA6BFD04}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{46D955C0-FDD0-4F65-9A7C-0DBC85CB1FF3}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7BDDD235-9EFB-470A-992C-444ECE118C84}" type="presOf" srcId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" destId="{28F496D2-4019-4178-92C0-A9F924F314B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{971B1D42-AA2A-49E2-BDA9-C111A31016E7}" type="presOf" srcId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" destId="{B8F02BE7-8743-45EE-BB4C-0D916BB1864F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{31A1FD36-5B8F-4A53-9E3F-E50E7EF2E74F}" type="presOf" srcId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" destId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6287E5F0-6984-4682-895A-CFDFD17A9970}" type="presOf" srcId="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" destId="{CC9D094D-7F95-4C6E-A462-4B1926F24FF9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{070A9A71-C544-4A96-ABF0-E92978BE955A}" type="presOf" srcId="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" destId="{C4403317-3C9A-42B0-855F-11D6FBB268BB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9772425B-5259-41F7-BCE3-9C15A449C07C}" type="presOf" srcId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" destId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FE1926E7-D5F2-4E82-8AC9-2AD158FD8066}" type="presOf" srcId="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" destId="{6A91BBDB-6803-43A6-8683-4B6468961754}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{369FD756-C69A-4521-94EB-7B5A5E30C9A5}" type="presOf" srcId="{6685CE29-0B27-4599-8A61-2E450B77D4E6}" destId="{57B659E6-114D-4A2E-9EAD-DE383F33A3D6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9058878F-DEBF-468B-A31E-CA220283D6AC}" type="presOf" srcId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" destId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8495542A-6220-478A-8BED-F69EED43DEC4}" type="presOf" srcId="{559DD2B8-4F93-431D-A172-966C2015BF0C}" destId="{54EE237B-A561-477B-A047-5340603D15C1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7883FB67-2A4A-4A00-9EE8-D7BFC0EFAD87}" type="presOf" srcId="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" destId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{92215F05-E1DD-48D2-AC0C-8F5704A71C87}" type="presOf" srcId="{3873C774-C9E3-4842-845E-3F0F0A27954C}" destId="{2753ED25-9652-4141-9D86-C075B64E5A0C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{DE18C9AE-F6CB-4511-8817-7352C2887128}" type="presOf" srcId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" destId="{D84339FB-047D-4649-8593-289A5B8D130D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{E79C1C19-E4ED-4E2A-9B77-98D5C754ED01}" type="presOf" srcId="{27481B52-DE79-4D07-90EC-53EA026B04E1}" destId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{CAF44A32-6E1F-417C-9766-62B0DDC36C06}" type="presOf" srcId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" destId="{27E95C9E-DFB1-42E7-88F2-FAC674D0BA38}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{F1E8F784-730D-4557-B920-BF4060688176}" type="presOf" srcId="{68138C9E-656F-4ECF-9770-ED91439B2549}" destId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{7883FB67-2A4A-4A00-9EE8-D7BFC0EFAD87}" type="presOf" srcId="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" destId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{9058878F-DEBF-468B-A31E-CA220283D6AC}" type="presOf" srcId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" destId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{51CCEB5F-0195-49A4-9C05-8CBEE42A0ADC}" type="presOf" srcId="{7D712709-A7D6-486B-957D-F3E0A466960F}" destId="{62AD5277-2022-4E96-9530-E41482C4F93E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{114138D0-C81A-4AFB-9C8C-CB017F030301}" type="presOf" srcId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" destId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B4313D12-AA2D-4796-95E0-3D76BEA04572}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" srcOrd="2" destOrd="0" parTransId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" sibTransId="{D4B0F6EC-70A0-451B-8D13-ACBF5C5EE10E}"/>
-    <dgm:cxn modelId="{0F6D280E-934E-49E2-8B13-BD4FF69B880D}" type="presOf" srcId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" destId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{13BCB9EE-A0C6-4E15-9262-A271A88D08EA}" type="presOf" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{5DFD60EE-C4DB-465F-AE60-B66F879DA43A}" type="presOf" srcId="{281C279B-179E-4D08-AE07-8C99B5657ACE}" destId="{5DEBC261-70C5-45EF-943D-72FBA2D29F89}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{7BDDD235-9EFB-470A-992C-444ECE118C84}" type="presOf" srcId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" destId="{28F496D2-4019-4178-92C0-A9F924F314B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{C3A042AA-1499-4E35-B911-37FB305502D7}" type="presOf" srcId="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" destId="{74E3D885-0104-4156-8E63-BED57F56F2DB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{67B2E9F6-F29F-4C4B-A774-8BEA2D4C7A8A}" type="presOf" srcId="{675C5201-5BA2-47CE-800D-A6384009EC75}" destId="{F096C77D-217B-4E4F-BD39-338FE324D381}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B4D91084-CCF8-455B-AC10-541DB8809651}" type="presOf" srcId="{0CE297AD-381C-4E1D-93C9-29394359AD51}" destId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{145C319D-EF66-42C0-89E9-07F7FF9692A7}" type="presOf" srcId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" destId="{E445A682-3309-48F3-9735-EBB2F9E78523}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A9B1677B-439D-4C35-9B58-62FFCC683CEC}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" srcOrd="10" destOrd="0" parTransId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" sibTransId="{5338813F-CDB8-4B17-B301-9A1E2C13158C}"/>
-    <dgm:cxn modelId="{D42689F1-2387-4AAF-B01B-A5249A2EB979}" type="presOf" srcId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" destId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{46D955C0-FDD0-4F65-9A7C-0DBC85CB1FF3}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{7805392A-4E17-4429-B6DF-3AD03CE55706}" type="presOf" srcId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" destId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{9772425B-5259-41F7-BCE3-9C15A449C07C}" type="presOf" srcId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" destId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{C507D615-DC3E-4883-9DB8-089D14929E62}" srcId="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" destId="{7D712709-A7D6-486B-957D-F3E0A466960F}" srcOrd="0" destOrd="0" parTransId="{6685CE29-0B27-4599-8A61-2E450B77D4E6}" sibTransId="{0070C935-FB69-45CF-8C14-D759D14EB217}"/>
-    <dgm:cxn modelId="{181A4CB7-58BC-4410-8809-D108D15EFD91}" type="presOf" srcId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" destId="{515834A5-28FF-4C53-ACA2-A74E27687D59}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{8799599A-5096-414A-8D49-C85637058AD4}" srcId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" destId="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" srcOrd="0" destOrd="0" parTransId="{675C5201-5BA2-47CE-800D-A6384009EC75}" sibTransId="{CB16F46D-665A-479C-A8D9-C522A3ADA694}"/>
-    <dgm:cxn modelId="{E73CD5E8-7FA6-4027-899A-FCBA604DD803}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{68138C9E-656F-4ECF-9770-ED91439B2549}" srcOrd="8" destOrd="0" parTransId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" sibTransId="{755B4C76-42A1-41DC-B5E3-F612FC79C5AF}"/>
-    <dgm:cxn modelId="{4F448A1C-5B1F-4336-AC30-3AC052731F76}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" srcOrd="1" destOrd="0" parTransId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" sibTransId="{0D9ECB33-BFA2-4C1C-A0AE-F1927F22831E}"/>
-    <dgm:cxn modelId="{EF0FEB8A-9C3E-431E-884B-EB378E2C86C0}" type="presOf" srcId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" destId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{59192AD8-A27A-4ED2-B501-953907C56F77}" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{8570D345-0017-4FB7-97D8-558D21E0D926}" srcOrd="0" destOrd="0" parTransId="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" sibTransId="{C5B3A973-0831-4FD5-8516-41EED8ACB3DB}"/>
-    <dgm:cxn modelId="{7F6C4993-38D3-42CC-A893-A1CABC800B7D}" type="presOf" srcId="{27481B52-DE79-4D07-90EC-53EA026B04E1}" destId="{0B720156-C01C-492E-8E97-EFAE0AB93A9F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{4ACE751F-6DC8-4304-88A3-7F15B9CDAABB}" type="presOf" srcId="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" destId="{FA9E5C58-920C-4962-A474-015BE2EAD31D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{766C6487-F348-4BB5-83C8-F88A3D520537}" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{F5050CEC-E453-4096-A803-275398B27760}" srcOrd="1" destOrd="0" parTransId="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" sibTransId="{DA408AEC-7E48-4F2D-858E-1E0EC7489AAE}"/>
-    <dgm:cxn modelId="{6287E5F0-6984-4682-895A-CFDFD17A9970}" type="presOf" srcId="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" destId="{CC9D094D-7F95-4C6E-A462-4B1926F24FF9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{FC06F30F-AB26-44E8-B4D1-D3683620FB5C}" type="presOf" srcId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" destId="{87E643AA-72A4-4612-B289-26E6E69BA69D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{764D0C7C-03F3-43A4-A459-661B4BA0D500}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{D227BC4F-3E9D-4433-87E2-4FCB465AB942}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{268EDC3A-B892-4D1C-832F-FCFCB2F167F1}" type="presOf" srcId="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" destId="{0F5C5E05-724C-4615-9A27-0292B8BF7467}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{803AA8EB-D49C-44A3-9D38-F663402CE54E}" srcId="{68138C9E-656F-4ECF-9770-ED91439B2549}" destId="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" srcOrd="0" destOrd="0" parTransId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" sibTransId="{5EC8EE83-9951-4544-A6E5-0D874EC1E69F}"/>
-    <dgm:cxn modelId="{7C6A378F-2479-4458-A171-0AB17FEEF4A9}" type="presOf" srcId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" destId="{07445E72-6E0D-4223-8951-2B3FE2B491A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{D95655CC-9891-462F-9EC4-46A0CA6E7B0A}" type="presOf" srcId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" destId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{201D36AE-E9C2-48B3-BB12-9F674508D3D4}" type="presOf" srcId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" destId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{FE1926E7-D5F2-4E82-8AC9-2AD158FD8066}" type="presOf" srcId="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" destId="{6A91BBDB-6803-43A6-8683-4B6468961754}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{BA256EFC-C7C2-4586-A7E8-AFF656ADB148}" type="presOf" srcId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" destId="{D1296DF1-78D9-4238-A067-6069827E6644}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A440A9C0-FFCA-4447-8E8C-C90DD8F175B7}" type="presOf" srcId="{569D4530-2880-4B71-B432-ED7F88BC411D}" destId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{369FD756-C69A-4521-94EB-7B5A5E30C9A5}" type="presOf" srcId="{6685CE29-0B27-4599-8A61-2E450B77D4E6}" destId="{57B659E6-114D-4A2E-9EAD-DE383F33A3D6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{CD267788-94CE-451C-9F50-B5F53159AD3F}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" srcOrd="4" destOrd="0" parTransId="{569D4530-2880-4B71-B432-ED7F88BC411D}" sibTransId="{D184293E-3DF9-4312-830C-7C26789016D5}"/>
-    <dgm:cxn modelId="{599AABAA-2C30-4D51-BA17-D7E9AB45CB50}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" srcOrd="0" destOrd="0" parTransId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" sibTransId="{69857E7C-5030-4D39-BE1C-81C2B1166F47}"/>
-    <dgm:cxn modelId="{BC379DEB-700E-40DA-981B-0961DA271015}" type="presOf" srcId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" destId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{1AA1476F-B6E3-4303-8C06-AC72375FD938}" type="presOf" srcId="{8570D345-0017-4FB7-97D8-558D21E0D926}" destId="{74E3BD4A-40E6-475E-8288-DC90F802DB14}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{ACF6001F-CF99-4F37-B0B2-7BF5A4A78693}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" srcOrd="5" destOrd="0" parTransId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" sibTransId="{CC793FB2-49FD-477C-8EC3-3400F305DF28}"/>
-    <dgm:cxn modelId="{6332CE73-A45C-4F97-BA7F-AD129A240B0B}" type="presOf" srcId="{8F5577FA-BD2C-45E5-B09F-CC214ED7D117}" destId="{8711A100-87C2-4EFE-BB48-418F353A2470}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A8F51EA3-D546-4480-A9DC-4A8865744C5A}" srcId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" destId="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" srcOrd="0" destOrd="0" parTransId="{3873C774-C9E3-4842-845E-3F0F0A27954C}" sibTransId="{D77E36F3-C88B-406F-8D67-7AB15A0509B0}"/>
-    <dgm:cxn modelId="{611C8462-0314-47AA-AC20-2F84B60AB6E0}" type="presOf" srcId="{3873C774-C9E3-4842-845E-3F0F0A27954C}" destId="{1211BB58-91E1-4D17-8AEA-A049AA32E719}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A00F107A-6569-4868-8CE1-B7DF8A419271}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" srcOrd="6" destOrd="0" parTransId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" sibTransId="{F3D6601C-5E3B-483E-9A2D-4F05F66683BB}"/>
-    <dgm:cxn modelId="{192D774D-417F-4BB8-98B7-EC27FA5DFE39}" type="presOf" srcId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" destId="{493F0A8D-C152-42A2-B413-C05E0C689C00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0300DB19-CEF2-4D35-A9F0-2ECCC38E5E32}" srcId="{0CE297AD-381C-4E1D-93C9-29394359AD51}" destId="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" srcOrd="0" destOrd="0" parTransId="{27481B52-DE79-4D07-90EC-53EA026B04E1}" sibTransId="{A246CAF9-69F6-4E46-A750-C2B40F0B8E92}"/>
-    <dgm:cxn modelId="{88563BBC-2096-4E97-B568-6C4973130BF3}" type="presOf" srcId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" destId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{6FE2B9FB-C5B1-4C7A-A8BF-B605591F5217}" srcId="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" destId="{31CD7878-84F1-4825-B934-E86F76D7D560}" srcOrd="0" destOrd="0" parTransId="{48CDDD27-CA42-4A8F-85F1-58706086F444}" sibTransId="{660A0425-314A-43B6-9E38-458E0CA60A18}"/>
-    <dgm:cxn modelId="{08F4A0F4-2ACD-4BEE-A393-FA744D550DC3}" type="presOf" srcId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" destId="{67608300-5F86-4317-AB34-2391DC98945C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A7C8B10F-F14E-4AAF-849C-A3F80278F687}" type="presOf" srcId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" destId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{070A9A71-C544-4A96-ABF0-E92978BE955A}" type="presOf" srcId="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" destId="{C4403317-3C9A-42B0-855F-11D6FBB268BB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B9F624A4-67AA-4419-8286-DEC9FD13E7AE}" type="presOf" srcId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" destId="{F216577D-6FCB-4212-9BED-9C81EE0A6A09}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{819996A4-8E78-4DA4-817F-39A1B1AE679E}" type="presOf" srcId="{3C23E61D-C228-4D36-A913-A912602620F7}" destId="{344E9AF4-45E1-4810-9A46-556F99E367E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B6ABE272-0FEA-47B5-AC0A-E0BF595BFC33}" type="presOf" srcId="{BA71DA5D-21B1-4B1D-A363-D8A62109F187}" destId="{B0A59766-BFD1-4971-AA3E-083F56792E4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{C5276DE2-D864-4310-83AB-4481E50F452F}" srcId="{7D712709-A7D6-486B-957D-F3E0A466960F}" destId="{8F5577FA-BD2C-45E5-B09F-CC214ED7D117}" srcOrd="1" destOrd="0" parTransId="{3C23E61D-C228-4D36-A913-A912602620F7}" sibTransId="{95A91E17-67B3-4961-BE08-A86E3442BE77}"/>
-    <dgm:cxn modelId="{1A4F8ED8-31A1-43AA-8DB0-193A1907E2CF}" type="presOf" srcId="{F5050CEC-E453-4096-A803-275398B27760}" destId="{0ECFF24D-6683-4AFC-9B7F-CD0D77C6771A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{ED172AF3-3662-4CA2-B193-A18E503E617E}" type="presOf" srcId="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" destId="{84198158-0634-44E0-82FA-C5DACA6BFD04}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{ACA4C21D-474A-4E70-A4EF-DEBB05C0320B}" type="presOf" srcId="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" destId="{DC66AB97-B3B7-454F-BADA-742E0A317634}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{31A1FD36-5B8F-4A53-9E3F-E50E7EF2E74F}" type="presOf" srcId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" destId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{CEB17849-D01E-468A-A8AC-4B9BE1A2130A}" type="presOf" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{AC3929EA-AEDC-45D8-B9CA-70262C585A0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{92215F05-E1DD-48D2-AC0C-8F5704A71C87}" type="presOf" srcId="{3873C774-C9E3-4842-845E-3F0F0A27954C}" destId="{2753ED25-9652-4141-9D86-C075B64E5A0C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0EC45787-5BAB-4B50-8558-E810FE6B74D0}" type="presOf" srcId="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" destId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0E47A5E0-764E-46C8-802E-961F4F388902}" type="presOf" srcId="{73C96848-B3BC-4D3B-8D8F-08A963AD8C47}" destId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E5CEFDC8-E389-4BDF-BE61-891E5470B840}" type="presParOf" srcId="{099476A6-4E27-4FAA-9398-2AE46D180721}" destId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B4FD49CA-A96F-479A-8757-AF277CFC90B3}" type="presParOf" srcId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" destId="{AC3929EA-AEDC-45D8-B9CA-70262C585A0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B11F3C13-2260-4469-BB3F-BEE2236CF8DF}" type="presParOf" srcId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" destId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -4641,6 +4713,11 @@
     <dgm:cxn modelId="{59BF17BA-8166-41F0-AE5F-88E3ABC03709}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{0B035392-FDFC-45AF-B680-4C8E3254DB9D}" type="presParOf" srcId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" destId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{8F67B4EE-FDCB-4911-BCC9-34D22EF2A3CA}" type="presParOf" srcId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" destId="{5142D8E6-9CE4-46F6-AC41-6F5BDF9B0433}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0E47A77F-4963-4365-9FA6-0ECFE55B03A9}" type="presParOf" srcId="{5142D8E6-9CE4-46F6-AC41-6F5BDF9B0433}" destId="{54EE237B-A561-477B-A047-5340603D15C1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9E96BD3C-6C89-4B1D-B164-D974EA6B38CF}" type="presParOf" srcId="{54EE237B-A561-477B-A047-5340603D15C1}" destId="{1D599482-94C5-4AC2-9979-DA0473588216}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{76B5579F-1ABA-4A7B-A142-6458095FEB98}" type="presParOf" srcId="{5142D8E6-9CE4-46F6-AC41-6F5BDF9B0433}" destId="{D516F224-2148-4904-BBE0-D243CC6A6FDE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A53A4DBC-01A6-4DD2-8E23-8B149357D4AA}" type="presParOf" srcId="{D516F224-2148-4904-BBE0-D243CC6A6FDE}" destId="{B7A723E6-704C-42EB-B047-E088BD225749}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E6831EAE-4EB8-4A10-8361-034EE9C3014E}" type="presParOf" srcId="{D516F224-2148-4904-BBE0-D243CC6A6FDE}" destId="{619EE549-712A-4A93-AB10-BB75AF3A339B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{AF008AFF-4D09-4935-BDCA-4D35FF8ED820}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{28F496D2-4019-4178-92C0-A9F924F314B7}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{6BDE91C1-3464-4889-9AFA-B2CDAA0222C4}" type="presParOf" srcId="{28F496D2-4019-4178-92C0-A9F924F314B7}" destId="{D1296DF1-78D9-4238-A067-6069827E6644}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{40E48CE5-5F34-4354-B713-3134D8535C27}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{3AAC51B9-98D5-4DEB-B9D8-DC6DE83552C6}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -4760,1074 +4837,6 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{1ACCD27C-BFD2-4CBD-9DBE-48B89CBD7F86}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1110" y="1488220"/>
-          <a:ext cx="2295765" cy="1147882"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>首页</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="34730" y="1521840"/>
-        <a:ext cx="2228525" cy="1080642"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{958C144E-3B45-4F84-801D-D6F5732ADC86}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm rot="18289469">
-          <a:off x="1951999" y="1377080"/>
-          <a:ext cx="1608060" cy="50097"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="25048"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1608060" y="25048"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2715827" y="1361927"/>
-        <a:ext cx="80403" cy="80403"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{C57E4053-FFC8-4C45-8FCD-F6EB10AB0812}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3215182" y="168154"/>
-          <a:ext cx="2295765" cy="1147882"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
-            <a:t>Best Sellers</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3248802" y="201774"/>
-        <a:ext cx="2228525" cy="1080642"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{294A4AC0-AF02-463A-B38C-A49A4D84944C}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5510948" y="717047"/>
-          <a:ext cx="918306" cy="50097"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="25048"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="918306" y="25048"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5947143" y="719138"/>
-        <a:ext cx="45915" cy="45915"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{8E9FC2C2-F581-4AC2-9B6F-CF9BD2775C76}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6429254" y="168154"/>
-          <a:ext cx="2295765" cy="1147882"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
-            <a:t>templates/tpl_modules_all_static.php</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="6462874" y="201774"/>
-        <a:ext cx="2228525" cy="1080642"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{9CCEB3F3-5CD8-44BA-96B1-A54AA0DA8338}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="8725020" y="717047"/>
-          <a:ext cx="918306" cy="50097"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="25048"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="918306" y="25048"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="9161215" y="719138"/>
-        <a:ext cx="45915" cy="45915"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{F5301CE4-7EC4-40C3-9B59-5BB3F63CBCC5}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="9643326" y="168154"/>
-          <a:ext cx="2295765" cy="1147882"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
-            <a:t>best_seller/all_static_index.php</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="9676946" y="201774"/>
-        <a:ext cx="2228525" cy="1080642"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{6F0AE8D5-3E09-40F8-AC76-90A455BDC108}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="11939092" y="717047"/>
-          <a:ext cx="918306" cy="50097"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="25048"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="918306" y="25048"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="12375287" y="719138"/>
-        <a:ext cx="45915" cy="45915"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{B53EF1D3-3F99-4284-A7A8-D733C450C193}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="12857398" y="168154"/>
-          <a:ext cx="2295765" cy="1147882"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
-            <a:t>zencart.home_page_static_model</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="12891018" y="201774"/>
-        <a:ext cx="2228525" cy="1080642"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{C5607393-E8DC-4BBB-A077-8249A3AE9831}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2296876" y="2037112"/>
-          <a:ext cx="918306" cy="50097"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="25048"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="918306" y="25048"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2733071" y="2039203"/>
-        <a:ext cx="45915" cy="45915"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{D547E350-B9B6-473D-9991-C1D5E848E325}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3215182" y="1488220"/>
-          <a:ext cx="2295765" cy="1147882"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
-            <a:t>New Products</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3248802" y="1521840"/>
-        <a:ext cx="2228525" cy="1080642"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{E40EBAF3-F951-49D3-A73C-5B3F647DB687}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm rot="3310531">
-          <a:off x="1951999" y="2697145"/>
-          <a:ext cx="1608060" cy="50097"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="25048"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1608060" y="25048"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2715827" y="2681992"/>
-        <a:ext cx="80403" cy="80403"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{F8A46D00-5D64-4195-9715-E450D40925F9}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3215182" y="2808285"/>
-          <a:ext cx="2295765" cy="1147882"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
-            <a:t>Hot Products</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3248802" y="2841905"/>
-        <a:ext cx="2228525" cy="1080642"/>
-      </dsp:txXfrm>
-    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -5847,8 +4856,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="92315" y="9023777"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="829716" y="9079641"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5891,12 +4900,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5908,14 +4917,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
             <a:t>详情页</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="134090" y="9065552"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="868219" y="9118144"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}">
@@ -5924,9 +4933,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="16632517">
-          <a:off x="-1031181" y="5219639"/>
-          <a:ext cx="9093274" cy="13183"/>
+        <a:xfrm rot="16596808">
+          <a:off x="-580974" y="5195552"/>
+          <a:ext cx="9131370" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5937,10 +4946,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="9093274" y="6591"/>
+                <a:pt x="9131370" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5978,7 +4987,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5989,12 +4998,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3288123" y="4998899"/>
-        <a:ext cx="454663" cy="454663"/>
+        <a:off x="3756426" y="4973343"/>
+        <a:ext cx="456568" cy="456568"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}">
@@ -6004,8 +5013,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4085978" y="2377"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="4510543" y="9033"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6048,12 +5057,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6065,14 +5074,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
             <a:t>标题</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4127753" y="44152"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="4549046" y="47536"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2753ED25-9652-4141-9D86-C075B64E5A0C}">
@@ -6082,8 +5091,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6938595" y="708939"/>
-          <a:ext cx="1141046" cy="13183"/>
+          <a:off x="7139704" y="660248"/>
+          <a:ext cx="1051664" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6094,10 +5103,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1141046" y="6591"/>
+                <a:pt x="1051664" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6150,8 +5159,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7480592" y="687005"/>
-        <a:ext cx="57052" cy="57052"/>
+        <a:off x="7639245" y="640032"/>
+        <a:ext cx="52583" cy="52583"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CC54B996-C92F-4E02-A4CC-BE8ED9E7597C}">
@@ -6161,8 +5170,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8079642" y="2377"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="8191369" y="9033"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6205,12 +5214,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6222,14 +5231,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" kern="1200"/>
             <a:t>products_description.products_name</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8121417" y="44152"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="8229872" y="47536"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}">
@@ -6238,9 +5247,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="16727265">
-          <a:off x="-218955" y="6039766"/>
-          <a:ext cx="7468821" cy="13183"/>
+        <a:xfrm rot="16675244">
+          <a:off x="168886" y="5951436"/>
+          <a:ext cx="7631648" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6251,10 +5260,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="7468821" y="6591"/>
+                <a:pt x="7631648" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6292,7 +5301,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6303,12 +5312,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3328734" y="5859638"/>
-        <a:ext cx="373441" cy="373441"/>
+        <a:off x="3793919" y="5766720"/>
+        <a:ext cx="381582" cy="381582"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}">
@@ -6318,8 +5327,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4085978" y="1642631"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="4510543" y="1520801"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6362,12 +5371,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6379,25 +5388,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
             <a:t>图片</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4127753" y="1684406"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="4549046" y="1559304"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{28F496D2-4019-4178-92C0-A9F924F314B7}">
+    <dsp:sp modelId="{54EE237B-A561-477B-A047-5340603D15C1}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="16983315">
-          <a:off x="989792" y="7269957"/>
-          <a:ext cx="5051326" cy="13183"/>
+        <a:xfrm>
+          <a:off x="7139704" y="2172016"/>
+          <a:ext cx="1051664" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6408,10 +5417,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="5051326" y="6591"/>
+                <a:pt x="1051664" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6420,7 +5429,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -6449,7 +5458,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6460,23 +5469,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3389172" y="7150266"/>
-        <a:ext cx="252566" cy="252566"/>
+        <a:off x="7639245" y="2151800"/>
+        <a:ext cx="52583" cy="52583"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}">
+    <dsp:sp modelId="{B7A723E6-704C-42EB-B047-E088BD225749}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4085978" y="4103013"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="8191369" y="1520801"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6519,12 +5528,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6536,25 +5545,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>价格</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>tpl_modules_main_product_image.php</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4127753" y="4144788"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="8229872" y="1559304"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}">
+    <dsp:sp modelId="{28F496D2-4019-4178-92C0-A9F924F314B7}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17692822">
-          <a:off x="6153070" y="3579385"/>
-          <a:ext cx="2712096" cy="13183"/>
+        <a:xfrm rot="17132988">
+          <a:off x="2023205" y="7841146"/>
+          <a:ext cx="3923010" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6565,10 +5575,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2712096" y="6591"/>
+                <a:pt x="3923010" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6577,7 +5587,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -6606,7 +5616,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6617,23 +5627,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7441316" y="3518174"/>
-        <a:ext cx="135604" cy="135604"/>
+        <a:off x="3886635" y="7749146"/>
+        <a:ext cx="196150" cy="196150"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{74E3BD4A-40E6-475E-8288-DC90F802DB14}">
+    <dsp:sp modelId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8079642" y="1642631"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="4510543" y="5300221"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6676,12 +5686,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6693,25 +5703,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>原价</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>价格</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8121417" y="1684406"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="4549046" y="5338724"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{20753BF2-0D7F-4695-879C-908482DA5B47}">
+    <dsp:sp modelId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="19457599">
-          <a:off x="6806517" y="4399512"/>
-          <a:ext cx="1405203" cy="13183"/>
+        <a:xfrm rot="17692822">
+          <a:off x="6415712" y="4817610"/>
+          <a:ext cx="2499648" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6722,10 +5732,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1405203" y="6591"/>
+                <a:pt x="2499648" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6763,7 +5773,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6774,23 +5784,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7473988" y="4370974"/>
-        <a:ext cx="70260" cy="70260"/>
+        <a:off x="7603046" y="4761194"/>
+        <a:ext cx="124982" cy="124982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{0ECFF24D-6683-4AFC-9B7F-CD0D77C6771A}">
+    <dsp:sp modelId="{74E3BD4A-40E6-475E-8288-DC90F802DB14}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8079642" y="3282886"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="8191369" y="3032569"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6833,12 +5843,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6850,25 +5860,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>特价</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>原价</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8121417" y="3324661"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="8229872" y="3071072"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}">
+    <dsp:sp modelId="{20753BF2-0D7F-4695-879C-908482DA5B47}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="2142401">
-          <a:off x="6806517" y="5219639"/>
-          <a:ext cx="1405203" cy="13183"/>
+        <a:xfrm rot="19457599">
+          <a:off x="7017972" y="5573494"/>
+          <a:ext cx="1295129" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6879,10 +5889,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1405203" y="6591"/>
+                <a:pt x="1295129" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6935,19 +5945,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7473988" y="5191101"/>
-        <a:ext cx="70260" cy="70260"/>
+        <a:off x="7633159" y="5547191"/>
+        <a:ext cx="64756" cy="64756"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{0F5C5E05-724C-4615-9A27-0292B8BF7467}">
+    <dsp:sp modelId="{0ECFF24D-6683-4AFC-9B7F-CD0D77C6771A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8079642" y="4923140"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="8191369" y="4544337"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6990,12 +6000,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7007,25 +6017,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>海外仓</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>特价</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8121417" y="4964915"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="8229872" y="4582840"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{FA9E5C58-920C-4962-A474-015BE2EAD31D}">
+    <dsp:sp modelId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="3907178">
-          <a:off x="6153070" y="6039766"/>
-          <a:ext cx="2712096" cy="13183"/>
+        <a:xfrm rot="2142401">
+          <a:off x="7017972" y="6329378"/>
+          <a:ext cx="1295129" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7036,10 +6046,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2712096" y="6591"/>
+                <a:pt x="1295129" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7077,7 +6087,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7088,23 +6098,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7441316" y="5978556"/>
-        <a:ext cx="135604" cy="135604"/>
+        <a:off x="7633159" y="6303075"/>
+        <a:ext cx="64756" cy="64756"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{84198158-0634-44E0-82FA-C5DACA6BFD04}">
+    <dsp:sp modelId="{0F5C5E05-724C-4615-9A27-0292B8BF7467}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8079642" y="6563395"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="8191369" y="6056105"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7147,12 +6157,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7164,33 +6174,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>全球价 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" kern="1200"/>
-            <a:t>/ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>多区定价</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>海外仓</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8121417" y="6605170"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="8229872" y="6094608"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{145DAD85-EA95-4FDF-9834-24E8C158645C}">
+    <dsp:sp modelId="{FA9E5C58-920C-4962-A474-015BE2EAD31D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17350740">
-          <a:off x="1778811" y="8090085"/>
-          <a:ext cx="3473287" cy="13183"/>
+        <a:xfrm rot="3907178">
+          <a:off x="6415712" y="7085262"/>
+          <a:ext cx="2499648" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7201,10 +6203,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3473287" y="6591"/>
+                <a:pt x="2499648" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7213,7 +6215,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -7242,7 +6244,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7253,23 +6255,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3428623" y="8009844"/>
-        <a:ext cx="173664" cy="173664"/>
+        <a:off x="7603046" y="7028846"/>
+        <a:ext cx="124982" cy="124982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}">
+    <dsp:sp modelId="{84198158-0634-44E0-82FA-C5DACA6BFD04}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4085978" y="5743268"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="8191369" y="7567873"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7312,12 +6314,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7329,25 +6331,33 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>描述</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>全球价 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" kern="1200"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>多区定价</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4127753" y="5785043"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="8229872" y="7606376"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{28F1DC58-4C80-42A9-951A-A48CC763381A}">
+    <dsp:sp modelId="{145DAD85-EA95-4FDF-9834-24E8C158645C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="18289469">
-          <a:off x="2516403" y="8910212"/>
-          <a:ext cx="1998104" cy="13183"/>
+        <a:xfrm rot="17692822">
+          <a:off x="2734886" y="8597030"/>
+          <a:ext cx="2499648" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7358,10 +6368,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1998104" y="6591"/>
+                <a:pt x="2499648" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7399,7 +6409,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7410,23 +6420,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3465502" y="8866851"/>
-        <a:ext cx="99905" cy="99905"/>
+        <a:off x="3922219" y="8540614"/>
+        <a:ext cx="124982" cy="124982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}">
+    <dsp:sp modelId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4085978" y="7383522"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="4510543" y="6811989"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7469,12 +6479,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7486,25 +6496,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>属性</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>描述</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4127753" y="7425297"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="4549046" y="6850492"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}">
+    <dsp:sp modelId="{28F1DC58-4C80-42A9-951A-A48CC763381A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="21527217">
-          <a:off x="2944804" y="9718258"/>
-          <a:ext cx="1141302" cy="13183"/>
+        <a:xfrm rot="19457599">
+          <a:off x="3337146" y="9352914"/>
+          <a:ext cx="1295129" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7515,10 +6525,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1141302" y="6591"/>
+                <a:pt x="1295129" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7571,19 +6581,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3486922" y="9696318"/>
-        <a:ext cx="57065" cy="57065"/>
+        <a:off x="3952332" y="9326611"/>
+        <a:ext cx="64756" cy="64756"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}">
+    <dsp:sp modelId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4085978" y="8999615"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="4510543" y="8323757"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7626,12 +6636,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7643,26 +6653,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" kern="1200"/>
-            <a:t>Accessories</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>属性</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4127753" y="9041390"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="4549046" y="8362260"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{8C352C1C-738A-4A10-981D-E71F662088F5}">
+    <dsp:sp modelId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="72783">
-          <a:off x="6938467" y="9718258"/>
-          <a:ext cx="1141302" cy="13183"/>
+        <a:xfrm rot="2093920">
+          <a:off x="3343581" y="10097663"/>
+          <a:ext cx="1282259" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7673,10 +6682,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1141302" y="6591"/>
+                <a:pt x="1282259" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7685,7 +6694,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -7729,19 +6738,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7480586" y="9696318"/>
-        <a:ext cx="57065" cy="57065"/>
+        <a:off x="3952654" y="10071682"/>
+        <a:ext cx="64112" cy="64112"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{DC66AB97-B3B7-454F-BADA-742E0A317634}">
+    <dsp:sp modelId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8079642" y="9023777"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="4510543" y="9813256"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7784,12 +6793,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7801,26 +6810,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" kern="1200"/>
-            <a:t>product_to_products</a:t>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
+            <a:t>Accessories</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8121417" y="9065552"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="4549046" y="9851759"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}">
+    <dsp:sp modelId="{8C352C1C-738A-4A10-981D-E71F662088F5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="3310531">
-          <a:off x="2516403" y="10550466"/>
-          <a:ext cx="1998104" cy="13183"/>
+        <a:xfrm rot="72783">
+          <a:off x="7139587" y="10475605"/>
+          <a:ext cx="1051900" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7831,10 +6840,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1998104" y="6591"/>
+                <a:pt x="1051900" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7843,7 +6852,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -7872,7 +6881,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7883,23 +6892,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3465502" y="10507106"/>
-        <a:ext cx="99905" cy="99905"/>
+        <a:off x="7639239" y="10455383"/>
+        <a:ext cx="52595" cy="52595"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}">
+    <dsp:sp modelId="{DC66AB97-B3B7-454F-BADA-742E0A317634}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4085978" y="10664031"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="8191369" y="9835525"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7942,12 +6951,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7959,25 +6968,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>推荐</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" kern="1200"/>
+            <a:t>product_to_products</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4127753" y="10705806"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="8229872" y="9874028"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}">
+    <dsp:sp modelId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4249260">
-          <a:off x="1778811" y="11370594"/>
-          <a:ext cx="3473287" cy="13183"/>
+        <a:xfrm rot="3907178">
+          <a:off x="2734886" y="10864682"/>
+          <a:ext cx="2499648" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7988,10 +6998,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3473287" y="6591"/>
+                <a:pt x="2499648" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8029,7 +7039,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8040,23 +7050,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3428623" y="11290353"/>
-        <a:ext cx="173664" cy="173664"/>
+        <a:off x="3922219" y="10808266"/>
+        <a:ext cx="124982" cy="124982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}">
+    <dsp:sp modelId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4085978" y="12304286"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="4510543" y="11347293"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8099,12 +7109,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8116,25 +7126,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" kern="1200"/>
-            <a:t>Customer Images</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>推荐</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4127753" y="12346061"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="4549046" y="11385796"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}">
+    <dsp:sp modelId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6938595" y="13010848"/>
-          <a:ext cx="1141046" cy="13183"/>
+        <a:xfrm rot="4467012">
+          <a:off x="2023205" y="11620566"/>
+          <a:ext cx="3923010" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8145,10 +7155,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1141046" y="6591"/>
+                <a:pt x="3923010" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8157,7 +7167,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -8186,7 +7196,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8197,23 +7207,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7480592" y="12988914"/>
-        <a:ext cx="57052" cy="57052"/>
+        <a:off x="3886635" y="11528566"/>
+        <a:ext cx="196150" cy="196150"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{EF7CB15F-86FD-4372-B781-C31717015D39}">
+    <dsp:sp modelId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8079642" y="12304286"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="4510543" y="12859060"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8256,12 +7266,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8273,26 +7283,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>customers_images</a:t>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
+            <a:t>Customer Images</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8121417" y="12346061"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="4549046" y="12897563"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}">
+    <dsp:sp modelId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4616685">
-          <a:off x="989792" y="12190721"/>
-          <a:ext cx="5051326" cy="13183"/>
+        <a:xfrm>
+          <a:off x="7139704" y="13510275"/>
+          <a:ext cx="1051664" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8303,10 +7312,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="5051326" y="6591"/>
+                <a:pt x="1051664" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8315,7 +7324,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -8344,7 +7353,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8355,23 +7364,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3389172" y="12071030"/>
-        <a:ext cx="252566" cy="252566"/>
+        <a:off x="7639245" y="13490059"/>
+        <a:ext cx="52583" cy="52583"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}">
+    <dsp:sp modelId="{EF7CB15F-86FD-4372-B781-C31717015D39}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4085978" y="13944541"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="8191369" y="12859060"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8414,12 +7423,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8431,25 +7440,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" kern="1200"/>
-            <a:t>Customer Videos</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>customers_images</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4127753" y="13986316"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="8229872" y="12897563"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}">
+    <dsp:sp modelId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6938595" y="14651103"/>
-          <a:ext cx="1141046" cy="13183"/>
+        <a:xfrm rot="4725511">
+          <a:off x="1287366" y="12376450"/>
+          <a:ext cx="5394688" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8460,10 +7470,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1141046" y="6591"/>
+                <a:pt x="5394688" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8472,7 +7482,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -8501,7 +7511,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8512,23 +7522,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7480592" y="14629169"/>
-        <a:ext cx="57052" cy="57052"/>
+        <a:off x="3849843" y="12247658"/>
+        <a:ext cx="269734" cy="269734"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{19273AAB-E414-41A1-9D60-19175C768B84}">
+    <dsp:sp modelId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8079642" y="13944541"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="4510543" y="14370828"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8571,12 +7581,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8588,26 +7598,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>products_video_url</a:t>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
+            <a:t>Customer Videos</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8121417" y="13986316"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="4549046" y="14409331"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}">
+    <dsp:sp modelId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4872735">
-          <a:off x="-218955" y="13420912"/>
-          <a:ext cx="7468821" cy="13183"/>
+        <a:xfrm>
+          <a:off x="7139704" y="15022043"/>
+          <a:ext cx="1051664" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8618,10 +7627,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="7468821" y="6591"/>
+                <a:pt x="1051664" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8630,7 +7639,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -8659,7 +7668,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8670,23 +7679,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3328734" y="13240783"/>
-        <a:ext cx="373441" cy="373441"/>
+        <a:off x="7639245" y="15001827"/>
+        <a:ext cx="52583" cy="52583"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}">
+    <dsp:sp modelId="{19273AAB-E414-41A1-9D60-19175C768B84}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4085978" y="16404922"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="8191369" y="14370828"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8729,12 +7738,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8746,26 +7755,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" kern="1200"/>
-            <a:t>Customer Reviews</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>products_video_url</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4127753" y="16446697"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="8229872" y="14409331"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}">
+    <dsp:sp modelId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6938595" y="17111485"/>
-          <a:ext cx="1141046" cy="13183"/>
+        <a:xfrm rot="4924756">
+          <a:off x="168886" y="13510275"/>
+          <a:ext cx="7631648" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8776,10 +7785,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1141046" y="6591"/>
+                <a:pt x="7631648" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8788,7 +7797,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -8817,7 +7826,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8828,23 +7837,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7480592" y="17089550"/>
-        <a:ext cx="57052" cy="57052"/>
+        <a:off x="3793919" y="13325560"/>
+        <a:ext cx="381582" cy="381582"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{74E3D885-0104-4156-8E63-BED57F56F2DB}">
+    <dsp:sp modelId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8079642" y="16404922"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="4510543" y="16638480"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8887,12 +7896,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8904,26 +7913,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" kern="1200"/>
-            <a:t>zencart.reviews</a:t>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
+            <a:t>Customer Reviews</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8121417" y="16446697"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="4549046" y="16676983"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{57B659E6-114D-4A2E-9EAD-DE383F33A3D6}">
+    <dsp:sp modelId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10932258" y="17111485"/>
-          <a:ext cx="1141046" cy="13183"/>
+          <a:off x="7139704" y="17289695"/>
+          <a:ext cx="1051664" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8934,10 +7943,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1141046" y="6591"/>
+                <a:pt x="1051664" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8990,19 +7999,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11474255" y="17089550"/>
-        <a:ext cx="57052" cy="57052"/>
+        <a:off x="7639245" y="17269479"/>
+        <a:ext cx="52583" cy="52583"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{62AD5277-2022-4E96-9530-E41482C4F93E}">
+    <dsp:sp modelId="{74E3D885-0104-4156-8E63-BED57F56F2DB}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12073305" y="16404922"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="8191369" y="16638480"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9045,12 +8054,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9062,25 +8071,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>评论数量</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" kern="1200"/>
+            <a:t>zencart.reviews</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12115080" y="16446697"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="8229872" y="16676983"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1B098D82-6EE2-46B9-99E2-4FD64D567D37}">
+    <dsp:sp modelId="{57B659E6-114D-4A2E-9EAD-DE383F33A3D6}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="19457599">
-          <a:off x="14793843" y="16701421"/>
-          <a:ext cx="1405203" cy="13183"/>
+        <a:xfrm>
+          <a:off x="10820531" y="17289695"/>
+          <a:ext cx="1051664" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9091,10 +8101,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1405203" y="6591"/>
+                <a:pt x="1051664" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9147,19 +8157,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="15461315" y="16672883"/>
-        <a:ext cx="70260" cy="70260"/>
+        <a:off x="11320072" y="17269479"/>
+        <a:ext cx="52583" cy="52583"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{B0A59766-BFD1-4971-AA3E-083F56792E4A}">
+    <dsp:sp modelId="{62AD5277-2022-4E96-9530-E41482C4F93E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="16066968" y="15584795"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="11872196" y="16638480"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9202,12 +8212,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9219,25 +8229,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>有登陆</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>评论数量</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="16108743" y="15626570"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="11910699" y="16676983"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{344E9AF4-45E1-4810-9A46-556F99E367E5}">
+    <dsp:sp modelId="{1B098D82-6EE2-46B9-99E2-4FD64D567D37}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="2142401">
-          <a:off x="14793843" y="17521548"/>
-          <a:ext cx="1405203" cy="13183"/>
+        <a:xfrm rot="19457599">
+          <a:off x="14379625" y="16911753"/>
+          <a:ext cx="1295129" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9248,10 +8258,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1405203" y="6591"/>
+                <a:pt x="1295129" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9304,19 +8314,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="15461315" y="17493010"/>
-        <a:ext cx="70260" cy="70260"/>
+        <a:off x="14994811" y="16885451"/>
+        <a:ext cx="64756" cy="64756"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{8711A100-87C2-4EFE-BB48-418F353A2470}">
+    <dsp:sp modelId="{B0A59766-BFD1-4971-AA3E-083F56792E4A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="16066968" y="17225050"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="15553022" y="15882596"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9359,12 +8369,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9376,25 +8386,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>没有登陆</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>有登陆</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="16108743" y="17266825"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="15591525" y="15921099"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{D84339FB-047D-4649-8593-289A5B8D130D}">
+    <dsp:sp modelId="{344E9AF4-45E1-4810-9A46-556F99E367E5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4967483">
-          <a:off x="-1031181" y="14241039"/>
-          <a:ext cx="9093274" cy="13183"/>
+        <a:xfrm rot="2142401">
+          <a:off x="14379625" y="17667637"/>
+          <a:ext cx="1295129" cy="12150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9405,10 +8415,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6591"/>
+                <a:pt x="0" y="6075"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="9093274" y="6591"/>
+                <a:pt x="1295129" y="6075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9417,7 +8427,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -9446,7 +8456,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9457,23 +8467,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3288123" y="14020299"/>
-        <a:ext cx="454663" cy="454663"/>
+        <a:off x="14994811" y="17641335"/>
+        <a:ext cx="64756" cy="64756"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{98556681-3D9F-4912-AC6C-8A99410E01D5}">
+    <dsp:sp modelId="{8711A100-87C2-4EFE-BB48-418F353A2470}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4085978" y="18045177"/>
-          <a:ext cx="2852616" cy="1426308"/>
+          <a:off x="15553022" y="17394364"/>
+          <a:ext cx="2629161" cy="1314580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9516,12 +8526,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9533,15 +8543,172 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:t>没有登陆</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="15591525" y="17432867"/>
+        <a:ext cx="2552155" cy="1237574"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D84339FB-047D-4649-8593-289A5B8D130D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5003192">
+          <a:off x="-580974" y="14266159"/>
+          <a:ext cx="9131370" cy="12150"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6075"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="9131370" y="6075"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3756426" y="14043951"/>
+        <a:ext cx="456568" cy="456568"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{98556681-3D9F-4912-AC6C-8A99410E01D5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4510543" y="18150248"/>
+          <a:ext cx="2629161" cy="1314580"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
             <a:t>Q &amp; A</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4127753" y="18086952"/>
-        <a:ext cx="2769066" cy="1342758"/>
+        <a:off x="4549046" y="18188751"/>
+        <a:ext cx="2552155" cy="1237574"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>

--- a/zencart/docs/模块功能划分.xlsx
+++ b/zencart/docs/模块功能划分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -3386,10 +3386,24 @@
     <dgm:pt modelId="{54EE237B-A561-477B-A047-5340603D15C1}" type="pres">
       <dgm:prSet presAssocID="{559DD2B8-4F93-431D-A172-966C2015BF0C}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1D599482-94C5-4AC2-9979-DA0473588216}" type="pres">
       <dgm:prSet presAssocID="{559DD2B8-4F93-431D-A172-966C2015BF0C}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D516F224-2148-4904-BBE0-D243CC6A6FDE}" type="pres">
       <dgm:prSet presAssocID="{B7DE4E17-4A8A-48E5-B6A2-F6B94A2EF4C0}" presName="root2" presStyleCnt="0"/>

--- a/zencart/docs/模块功能划分.xlsx
+++ b/zencart/docs/模块功能划分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -3122,7 +3122,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US"/>
-            <a:t>tpl_modules_main_product_image.php</a:t>
+            <a:t>tpl_modules_main_product_new_image.php</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US"/>
         </a:p>
@@ -4914,12 +4914,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4931,7 +4931,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>详情页</a:t>
           </a:r>
         </a:p>
@@ -5001,7 +5001,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5012,7 +5012,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -5071,12 +5071,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5088,7 +5088,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>标题</a:t>
           </a:r>
         </a:p>
@@ -5228,12 +5228,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5245,7 +5245,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
             <a:t>products_description.products_name</a:t>
           </a:r>
         </a:p>
@@ -5315,7 +5315,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5326,7 +5326,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -5385,12 +5385,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5402,7 +5402,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>图片</a:t>
           </a:r>
         </a:p>
@@ -5542,12 +5542,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5559,10 +5559,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1200" kern="1200"/>
-            <a:t>tpl_modules_main_product_image.php</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="1000" kern="1200"/>
+            <a:t>tpl_modules_main_product_new_image.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -5630,7 +5630,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5641,7 +5641,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -5700,12 +5700,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5717,7 +5717,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>价格</a:t>
           </a:r>
         </a:p>
@@ -5857,12 +5857,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5874,7 +5874,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>原价</a:t>
           </a:r>
         </a:p>
@@ -6014,12 +6014,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6031,7 +6031,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>特价</a:t>
           </a:r>
         </a:p>
@@ -6171,12 +6171,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6188,7 +6188,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>海外仓</a:t>
           </a:r>
         </a:p>
@@ -6328,12 +6328,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6345,15 +6345,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>全球价 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>多区定价</a:t>
           </a:r>
         </a:p>
@@ -6493,12 +6493,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6510,7 +6510,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>描述</a:t>
           </a:r>
         </a:p>
@@ -6650,12 +6650,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6667,7 +6667,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>属性</a:t>
           </a:r>
         </a:p>
@@ -6807,12 +6807,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6824,10 +6824,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200"/>
             <a:t>Accessories</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -6965,12 +6965,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6982,10 +6982,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
             <a:t>product_to_products</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -7123,12 +7123,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7140,7 +7140,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>推荐</a:t>
           </a:r>
         </a:p>
@@ -7210,7 +7210,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7221,7 +7221,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -7280,12 +7280,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7297,7 +7297,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200"/>
             <a:t>Customer Images</a:t>
           </a:r>
         </a:p>
@@ -7437,12 +7437,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7454,10 +7454,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>customers_images</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -7525,7 +7525,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7536,7 +7536,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -7595,12 +7595,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7612,7 +7612,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200"/>
             <a:t>Customer Videos</a:t>
           </a:r>
         </a:p>
@@ -7752,12 +7752,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7769,10 +7769,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>products_video_url</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -7840,7 +7840,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7851,7 +7851,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -7910,12 +7910,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7927,10 +7927,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200"/>
             <a:t>Customer Reviews</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -8068,12 +8068,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8085,10 +8085,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
             <a:t>zencart.reviews</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -8226,12 +8226,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8243,7 +8243,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>评论数量</a:t>
           </a:r>
         </a:p>
@@ -8383,12 +8383,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8400,7 +8400,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>有登陆</a:t>
           </a:r>
         </a:p>
@@ -8540,12 +8540,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8557,7 +8557,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
             <a:t>没有登陆</a:t>
           </a:r>
         </a:p>
@@ -8627,7 +8627,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8638,7 +8638,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -8697,12 +8697,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8714,10 +8714,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" i="0" kern="1200"/>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200"/>
             <a:t>Q &amp; A</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>

--- a/zencart/docs/模块功能划分.xlsx
+++ b/zencart/docs/模块功能划分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -1563,6 +1563,753 @@
 </dgm:colorsDef>
 </file>
 
+<file path=xl/diagrams/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
 <file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
@@ -2751,9 +3498,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>products_description.products_name</a:t>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>tpl_modules_products_info_translate_on_title.php</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -4843,6 +5591,740 @@
 </dgm:dataModel>
 </file>
 
+<file path=xl/diagrams/data3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{295836EE-9898-4D01-8116-58F01C1A8092}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>index.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8EA142D3-7323-43A5-87B8-F1214F4A980D}" type="parTrans" cxnId="{000773AC-81AA-430B-8B01-7E545191E57A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B0E45E60-0CFB-4F25-8337-FC54C681585D}" type="sibTrans" cxnId="{000773AC-81AA-430B-8B01-7E545191E57A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>main_template_vars.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" type="parTrans" cxnId="{0F3A6965-1E78-4871-AF0B-360652B5CA2C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{39DE77A3-87E6-46B4-A2E3-3009DB60BF12}" type="sibTrans" cxnId="{0F3A6965-1E78-4871-AF0B-360652B5CA2C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>tpl_product_info_display.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{201D2E86-29B5-44CE-B880-84185C4C9696}" type="parTrans" cxnId="{AA865BA5-FDD4-45D2-8F2B-8791419E4897}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{28ABEC6F-261B-428D-8FD1-516BB62249B0}" type="sibTrans" cxnId="{AA865BA5-FDD4-45D2-8F2B-8791419E4897}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E8C41B39-016E-4213-B80B-71616F1709EB}">
+      <dgm:prSet phldrT="[文本]" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ED862AD3-1821-4DC4-BB16-0C3EFF975AA7}" type="parTrans" cxnId="{20214083-5A9E-4C45-9CAF-505B5E8958DD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0CF6906F-DCC2-4311-ACA3-0E663A291DBE}" type="sibTrans" cxnId="{20214083-5A9E-4C45-9CAF-505B5E8958DD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{30D03971-7F89-4C3B-92A1-1B293A417E16}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>tpl_modules_products_info_head.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" type="parTrans" cxnId="{BC7353E9-901D-4DBC-B847-279B6C2F6697}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{162F667C-216A-4CF4-89D5-AA1A30D1A241}" type="sibTrans" cxnId="{BC7353E9-901D-4DBC-B847-279B6C2F6697}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" type="parTrans" cxnId="{BF911B88-5C25-4E9F-8687-581BDC18E261}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EC3045C6-6E17-4767-BBD6-A62A64E2BDD5}" type="sibTrans" cxnId="{BF911B88-5C25-4E9F-8687-581BDC18E261}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>tpl_modules_main_product_new_image.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" type="parTrans" cxnId="{12548BC3-C3CC-4665-9F7A-27458648BD5C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{55ABE942-6067-4A5A-B82B-7CBD4F2A758A}" type="sibTrans" cxnId="{12548BC3-C3CC-4665-9F7A-27458648BD5C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>tpl_modules_products_info_translate_on_title.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8B5AD710-3453-4459-A021-4BD74C23C219}" type="parTrans" cxnId="{35F1E70A-9F62-4B6B-8D65-B663D9D1F862}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8C60739A-E9F0-4A1F-A4F6-66CA10C2223A}" type="sibTrans" cxnId="{35F1E70A-9F62-4B6B-8D65-B663D9D1F862}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9F4DB3E8-6BDE-4789-8CC1-3B5E11758B86}" type="pres">
+      <dgm:prSet presAssocID="{295836EE-9898-4D01-8116-58F01C1A8092}" presName="mainComposite" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2F12C531-236E-4BA1-B421-3771C12823A5}" type="pres">
+      <dgm:prSet presAssocID="{295836EE-9898-4D01-8116-58F01C1A8092}" presName="hierFlow" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C53E3F74-DDEF-4E78-835A-2CE3DA176D42}" type="pres">
+      <dgm:prSet presAssocID="{295836EE-9898-4D01-8116-58F01C1A8092}" presName="hierChild1" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6478DF03-1D40-49C2-B53A-E2DB8D6A01E8}" type="pres">
+      <dgm:prSet presAssocID="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" presName="Name17" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DC6A21B9-A9D2-4F85-8A73-A6A117693EF4}" type="pres">
+      <dgm:prSet presAssocID="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" presName="level1Shape" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C7BCE144-E7D4-4638-9E4B-43E1D16FE972}" type="pres">
+      <dgm:prSet presAssocID="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" presName="hierChild2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9F9A6106-7959-4F3A-AD4F-E4852F2499BE}" type="pres">
+      <dgm:prSet presAssocID="{49D03A51-E8B9-478C-93EE-18CC012808C1}" presName="Name25" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8F62B0A0-055B-4267-AC07-31B1EC1A0A7B}" type="pres">
+      <dgm:prSet presAssocID="{49D03A51-E8B9-478C-93EE-18CC012808C1}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A6AD8DB0-FFE0-4868-B007-FA949D629AC1}" type="pres">
+      <dgm:prSet presAssocID="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{135742A3-6E51-4EB7-B239-943F208D9E9C}" type="pres">
+      <dgm:prSet presAssocID="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DB9F66EA-8AB5-4B55-854C-942D0A4096E7}" type="pres">
+      <dgm:prSet presAssocID="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C9AC55F9-27BD-4C07-BCE1-57BCE584CFE5}" type="pres">
+      <dgm:prSet presAssocID="{201D2E86-29B5-44CE-B880-84185C4C9696}" presName="Name25" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AC631A13-A371-4978-9364-985E50833F88}" type="pres">
+      <dgm:prSet presAssocID="{201D2E86-29B5-44CE-B880-84185C4C9696}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8B507F29-0A07-44E6-A1BA-58E66D4E815D}" type="pres">
+      <dgm:prSet presAssocID="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B512A0DA-199F-45E7-ADCB-1D19A5DB77C5}" type="pres">
+      <dgm:prSet presAssocID="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" type="pres">
+      <dgm:prSet presAssocID="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}" type="pres">
+      <dgm:prSet presAssocID="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DD9241E1-4FE0-446D-A84C-5DB9472C5DFC}" type="pres">
+      <dgm:prSet presAssocID="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A230C792-8C7C-4E50-9C12-B30D4CB434AF}" type="pres">
+      <dgm:prSet presAssocID="{30D03971-7F89-4C3B-92A1-1B293A417E16}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}" type="pres">
+      <dgm:prSet presAssocID="{30D03971-7F89-4C3B-92A1-1B293A417E16}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" type="pres">
+      <dgm:prSet presAssocID="{30D03971-7F89-4C3B-92A1-1B293A417E16}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}" type="pres">
+      <dgm:prSet presAssocID="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E8E018BE-5584-4651-93AA-17B4C22EF729}" type="pres">
+      <dgm:prSet presAssocID="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EFAFC656-A6D3-4491-9EA1-4330624EF3A4}" type="pres">
+      <dgm:prSet presAssocID="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D47872FA-6671-4924-8700-A6F7228C9CAA}" type="pres">
+      <dgm:prSet presAssocID="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C84BE1F1-A9CC-420B-9E5C-0EAE902BBCCB}" type="pres">
+      <dgm:prSet presAssocID="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8783F691-2C30-4412-98D8-FDAC14A8B237}" type="pres">
+      <dgm:prSet presAssocID="{8B5AD710-3453-4459-A021-4BD74C23C219}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EA0863B0-AD59-4641-ADAD-9375F74FE231}" type="pres">
+      <dgm:prSet presAssocID="{8B5AD710-3453-4459-A021-4BD74C23C219}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D7C79EE1-DFD6-41EE-9A7F-6FDF3A4351AC}" type="pres">
+      <dgm:prSet presAssocID="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}" type="pres">
+      <dgm:prSet presAssocID="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E956A68F-B708-45F2-BFB0-6F6253DADAF1}" type="pres">
+      <dgm:prSet presAssocID="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" type="pres">
+      <dgm:prSet presAssocID="{A5D4838D-B98F-4857-8497-981EA9743CF7}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AB15B0AB-EC18-49A3-BB95-9A9668A68592}" type="pres">
+      <dgm:prSet presAssocID="{A5D4838D-B98F-4857-8497-981EA9743CF7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{141AC46E-6C07-46B1-A734-832EF32C43E2}" type="pres">
+      <dgm:prSet presAssocID="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}" type="pres">
+      <dgm:prSet presAssocID="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AABCFF50-AF1C-4C8B-BFAB-264D4F7BFC02}" type="pres">
+      <dgm:prSet presAssocID="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6ACA4257-28F6-41BB-B600-EAFEAF2938C6}" type="pres">
+      <dgm:prSet presAssocID="{ED862AD3-1821-4DC4-BB16-0C3EFF975AA7}" presName="Name25" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7A3E7577-E672-4DD8-BF96-5714BC38366D}" type="pres">
+      <dgm:prSet presAssocID="{ED862AD3-1821-4DC4-BB16-0C3EFF975AA7}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AA742DFA-6D8C-4EEF-BA2D-E8E4B93CEB30}" type="pres">
+      <dgm:prSet presAssocID="{E8C41B39-016E-4213-B80B-71616F1709EB}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{564C0EB9-E7D8-4682-B16E-0ADD761EE08E}" type="pres">
+      <dgm:prSet presAssocID="{E8C41B39-016E-4213-B80B-71616F1709EB}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A64C2205-DB8C-4DEC-B6E1-12B9D6C67F0F}" type="pres">
+      <dgm:prSet presAssocID="{E8C41B39-016E-4213-B80B-71616F1709EB}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{07B0A892-030E-4A52-9BA5-92180C9C2B9B}" type="pres">
+      <dgm:prSet presAssocID="{295836EE-9898-4D01-8116-58F01C1A8092}" presName="bgShapesFlow" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{32287D36-9BC6-44F1-BCC3-DF54122829DC}" type="presOf" srcId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" destId="{DC6A21B9-A9D2-4F85-8A73-A6A117693EF4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A4D0B4E6-C6D3-4FDE-ACF6-3D2644405668}" type="presOf" srcId="{ED862AD3-1821-4DC4-BB16-0C3EFF975AA7}" destId="{6ACA4257-28F6-41BB-B600-EAFEAF2938C6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{9BE1E706-B48B-4F02-B830-44DDC8745F02}" type="presOf" srcId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" destId="{8F62B0A0-055B-4267-AC07-31B1EC1A0A7B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0C1E16C2-E753-4FA5-A303-4F45B8C36CF5}" type="presOf" srcId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" destId="{AB15B0AB-EC18-49A3-BB95-9A9668A68592}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{20214083-5A9E-4C45-9CAF-505B5E8958DD}" srcId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" destId="{E8C41B39-016E-4213-B80B-71616F1709EB}" srcOrd="1" destOrd="0" parTransId="{ED862AD3-1821-4DC4-BB16-0C3EFF975AA7}" sibTransId="{0CF6906F-DCC2-4311-ACA3-0E663A291DBE}"/>
+    <dgm:cxn modelId="{12548BC3-C3CC-4665-9F7A-27458648BD5C}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" srcOrd="0" destOrd="0" parTransId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" sibTransId="{55ABE942-6067-4A5A-B82B-7CBD4F2A758A}"/>
+    <dgm:cxn modelId="{557A4395-07D5-4339-BB20-42556F4487D4}" type="presOf" srcId="{8B5AD710-3453-4459-A021-4BD74C23C219}" destId="{EA0863B0-AD59-4641-ADAD-9375F74FE231}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{9565190C-FE6F-460C-86F5-AE07E63B29AB}" type="presOf" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4B91FD79-7F95-4CB5-871C-625FD7075E19}" type="presOf" srcId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" destId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{9FB8E239-9359-4A43-BC82-60621C16E7DC}" type="presOf" srcId="{201D2E86-29B5-44CE-B880-84185C4C9696}" destId="{AC631A13-A371-4978-9364-985E50833F88}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{000773AC-81AA-430B-8B01-7E545191E57A}" srcId="{295836EE-9898-4D01-8116-58F01C1A8092}" destId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" srcOrd="0" destOrd="0" parTransId="{8EA142D3-7323-43A5-87B8-F1214F4A980D}" sibTransId="{B0E45E60-0CFB-4F25-8337-FC54C681585D}"/>
+    <dgm:cxn modelId="{BF911B88-5C25-4E9F-8687-581BDC18E261}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" srcOrd="1" destOrd="0" parTransId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" sibTransId="{EC3045C6-6E17-4767-BBD6-A62A64E2BDD5}"/>
+    <dgm:cxn modelId="{35F1E70A-9F62-4B6B-8D65-B663D9D1F862}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" srcOrd="1" destOrd="0" parTransId="{8B5AD710-3453-4459-A021-4BD74C23C219}" sibTransId="{8C60739A-E9F0-4A1F-A4F6-66CA10C2223A}"/>
+    <dgm:cxn modelId="{8368D1B5-5E22-4CEE-81BC-72049EC43847}" type="presOf" srcId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" destId="{DD9241E1-4FE0-446D-A84C-5DB9472C5DFC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{3627BA9C-2188-41BC-9A4D-5E572F3CCDFB}" type="presOf" srcId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" destId="{135742A3-6E51-4EB7-B239-943F208D9E9C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{5CD9EB8C-0C1C-4426-B8B3-30D9B7264B57}" type="presOf" srcId="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" destId="{D47872FA-6671-4924-8700-A6F7228C9CAA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6CD41AC0-251D-4922-9575-8B4512ADF8B1}" type="presOf" srcId="{201D2E86-29B5-44CE-B880-84185C4C9696}" destId="{C9AC55F9-27BD-4C07-BCE1-57BCE584CFE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4101698A-1813-49A1-A2EB-4A1D796E6E1F}" type="presOf" srcId="{E8C41B39-016E-4213-B80B-71616F1709EB}" destId="{564C0EB9-E7D8-4682-B16E-0ADD761EE08E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0F3A6965-1E78-4871-AF0B-360652B5CA2C}" srcId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" destId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" srcOrd="0" destOrd="0" parTransId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" sibTransId="{39DE77A3-87E6-46B4-A2E3-3009DB60BF12}"/>
+    <dgm:cxn modelId="{B5BFB057-AF6E-48AA-BE1C-F82837D9D828}" type="presOf" srcId="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" destId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{EF6A7F97-0327-4239-98A0-751CD7AC785C}" type="presOf" srcId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" destId="{E8E018BE-5584-4651-93AA-17B4C22EF729}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{CAA5A420-DDAD-4CDB-B656-4498C00CD74A}" type="presOf" srcId="{8B5AD710-3453-4459-A021-4BD74C23C219}" destId="{8783F691-2C30-4412-98D8-FDAC14A8B237}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4C855954-AF9E-4DA5-905A-A759DEA2D333}" type="presOf" srcId="{ED862AD3-1821-4DC4-BB16-0C3EFF975AA7}" destId="{7A3E7577-E672-4DD8-BF96-5714BC38366D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{23EB6930-CC5E-4ED7-BA3F-7E07AB8DC708}" type="presOf" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{B512A0DA-199F-45E7-ADCB-1D19A5DB77C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{CEC118CA-636C-4BCF-A59C-19DDB5D3CC87}" type="presOf" srcId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" destId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{065E058B-9BBA-4F70-ABC3-200FAB07429F}" type="presOf" srcId="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" destId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C13BCAA9-1381-49DC-A043-45993735F4FA}" type="presOf" srcId="{295836EE-9898-4D01-8116-58F01C1A8092}" destId="{9F4DB3E8-6BDE-4789-8CC1-3B5E11758B86}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4103F6C1-505E-4792-8993-551F2EE87A62}" type="presOf" srcId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" destId="{9F9A6106-7959-4F3A-AD4F-E4852F2499BE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{AC2C8475-4889-4E3A-8768-E7C0865179E5}" type="presOf" srcId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" destId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{AA865BA5-FDD4-45D2-8F2B-8791419E4897}" srcId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" destId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" srcOrd="0" destOrd="0" parTransId="{201D2E86-29B5-44CE-B880-84185C4C9696}" sibTransId="{28ABEC6F-261B-428D-8FD1-516BB62249B0}"/>
+    <dgm:cxn modelId="{BC7353E9-901D-4DBC-B847-279B6C2F6697}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" srcOrd="0" destOrd="0" parTransId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" sibTransId="{162F667C-216A-4CF4-89D5-AA1A30D1A241}"/>
+    <dgm:cxn modelId="{2787FE32-FC36-46C0-9D35-DDBAFF7E56EB}" type="presParOf" srcId="{9F4DB3E8-6BDE-4789-8CC1-3B5E11758B86}" destId="{2F12C531-236E-4BA1-B421-3771C12823A5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{CDC852FE-CC3C-465B-BB72-330EE3C8766E}" type="presParOf" srcId="{2F12C531-236E-4BA1-B421-3771C12823A5}" destId="{C53E3F74-DDEF-4E78-835A-2CE3DA176D42}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{F055BC50-A045-49CF-8A6B-8253E5B820E2}" type="presParOf" srcId="{C53E3F74-DDEF-4E78-835A-2CE3DA176D42}" destId="{6478DF03-1D40-49C2-B53A-E2DB8D6A01E8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4A2E2FCD-D12E-4162-AF5D-BA8737293421}" type="presParOf" srcId="{6478DF03-1D40-49C2-B53A-E2DB8D6A01E8}" destId="{DC6A21B9-A9D2-4F85-8A73-A6A117693EF4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{115C7C19-4F0C-4551-96BB-B2B74D4EEA75}" type="presParOf" srcId="{6478DF03-1D40-49C2-B53A-E2DB8D6A01E8}" destId="{C7BCE144-E7D4-4638-9E4B-43E1D16FE972}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{2A5FD791-F07E-450B-90B4-723C0E0EBEEC}" type="presParOf" srcId="{C7BCE144-E7D4-4638-9E4B-43E1D16FE972}" destId="{9F9A6106-7959-4F3A-AD4F-E4852F2499BE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{5D3119FC-037E-4F39-B2E0-EDCD2C281623}" type="presParOf" srcId="{9F9A6106-7959-4F3A-AD4F-E4852F2499BE}" destId="{8F62B0A0-055B-4267-AC07-31B1EC1A0A7B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BC332CDC-5A12-4EE1-8253-ADF480688130}" type="presParOf" srcId="{C7BCE144-E7D4-4638-9E4B-43E1D16FE972}" destId="{A6AD8DB0-FFE0-4868-B007-FA949D629AC1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{CD168D5D-129B-4D40-AFB7-61DAEB1B6C07}" type="presParOf" srcId="{A6AD8DB0-FFE0-4868-B007-FA949D629AC1}" destId="{135742A3-6E51-4EB7-B239-943F208D9E9C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{14BA8851-B9CF-41E0-99DB-9A8E97CA1F81}" type="presParOf" srcId="{A6AD8DB0-FFE0-4868-B007-FA949D629AC1}" destId="{DB9F66EA-8AB5-4B55-854C-942D0A4096E7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C92EF922-FBC4-4CF7-8CD2-1C7635AF3CE7}" type="presParOf" srcId="{DB9F66EA-8AB5-4B55-854C-942D0A4096E7}" destId="{C9AC55F9-27BD-4C07-BCE1-57BCE584CFE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C8112322-95E9-46F4-A0C2-541947E6BAB2}" type="presParOf" srcId="{C9AC55F9-27BD-4C07-BCE1-57BCE584CFE5}" destId="{AC631A13-A371-4978-9364-985E50833F88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{7D65E823-10B1-4FB9-9AD6-5C75522F303F}" type="presParOf" srcId="{DB9F66EA-8AB5-4B55-854C-942D0A4096E7}" destId="{8B507F29-0A07-44E6-A1BA-58E66D4E815D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{83DB2C5B-CC96-463A-8BFF-B31A2DF1D4BD}" type="presParOf" srcId="{8B507F29-0A07-44E6-A1BA-58E66D4E815D}" destId="{B512A0DA-199F-45E7-ADCB-1D19A5DB77C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C03E026F-66E0-40D7-8556-4078300C6733}" type="presParOf" srcId="{8B507F29-0A07-44E6-A1BA-58E66D4E815D}" destId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{EFC5E965-B5B4-4EA6-B55A-20D276AE9BD7}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1997EA91-E48F-4F15-ADA4-6177BD2CB43E}" type="presParOf" srcId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}" destId="{DD9241E1-4FE0-446D-A84C-5DB9472C5DFC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{E2BED829-7CEC-4224-9AB6-2240DD6774A3}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{A230C792-8C7C-4E50-9C12-B30D4CB434AF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{70766893-07FD-4D3F-9E17-3F78575E5DA9}" type="presParOf" srcId="{A230C792-8C7C-4E50-9C12-B30D4CB434AF}" destId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{D282ACF0-30EA-4456-A438-622DED123EC7}" type="presParOf" srcId="{A230C792-8C7C-4E50-9C12-B30D4CB434AF}" destId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BD15C237-EBC4-4F22-A707-DDD84601C2D8}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{EAEF2372-7731-4C2F-BDAD-F649ABA73696}" type="presParOf" srcId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}" destId="{E8E018BE-5584-4651-93AA-17B4C22EF729}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{3F4AE70C-B661-446F-9456-D69A7D600AEC}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{EFAFC656-A6D3-4491-9EA1-4330624EF3A4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A71E5221-A375-448D-83CD-DC4770CCDD04}" type="presParOf" srcId="{EFAFC656-A6D3-4491-9EA1-4330624EF3A4}" destId="{D47872FA-6671-4924-8700-A6F7228C9CAA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4AF26A00-BD00-4042-BDF4-88EEEDF0C1C5}" type="presParOf" srcId="{EFAFC656-A6D3-4491-9EA1-4330624EF3A4}" destId="{C84BE1F1-A9CC-420B-9E5C-0EAE902BBCCB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{36451569-2EB1-4C61-9A98-1412E5EE7DDC}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{8783F691-2C30-4412-98D8-FDAC14A8B237}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6BA7EB63-CBFA-4264-B779-5B8574F734EC}" type="presParOf" srcId="{8783F691-2C30-4412-98D8-FDAC14A8B237}" destId="{EA0863B0-AD59-4641-ADAD-9375F74FE231}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{B054ACCA-BA8F-4D48-8483-B86D6921E664}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{D7C79EE1-DFD6-41EE-9A7F-6FDF3A4351AC}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{F2715551-5329-41EB-9CE4-521038B2ED56}" type="presParOf" srcId="{D7C79EE1-DFD6-41EE-9A7F-6FDF3A4351AC}" destId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{53701732-6979-4CDE-82A6-E135D3F1D277}" type="presParOf" srcId="{D7C79EE1-DFD6-41EE-9A7F-6FDF3A4351AC}" destId="{E956A68F-B708-45F2-BFB0-6F6253DADAF1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{FADA2D48-88A6-4D83-A5F3-0BE5546DEB83}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{55B45366-7CB7-4D56-B80C-C82CC89053AF}" type="presParOf" srcId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" destId="{AB15B0AB-EC18-49A3-BB95-9A9668A68592}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{84FDB018-7A3E-4433-922C-237FE69C232E}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{141AC46E-6C07-46B1-A734-832EF32C43E2}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{00E77205-1FC7-4764-8009-7560B9406A94}" type="presParOf" srcId="{141AC46E-6C07-46B1-A734-832EF32C43E2}" destId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{D00E97FB-467D-4760-9968-7799A736C71B}" type="presParOf" srcId="{141AC46E-6C07-46B1-A734-832EF32C43E2}" destId="{AABCFF50-AF1C-4C8B-BFAB-264D4F7BFC02}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{39073249-79C1-4000-A27A-6F79550A293C}" type="presParOf" srcId="{DB9F66EA-8AB5-4B55-854C-942D0A4096E7}" destId="{6ACA4257-28F6-41BB-B600-EAFEAF2938C6}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1D6EF2CF-DCA7-4629-9BEC-2E88A85B2782}" type="presParOf" srcId="{6ACA4257-28F6-41BB-B600-EAFEAF2938C6}" destId="{7A3E7577-E672-4DD8-BF96-5714BC38366D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C91FF025-E0BD-463D-A8E8-02666720D716}" type="presParOf" srcId="{DB9F66EA-8AB5-4B55-854C-942D0A4096E7}" destId="{AA742DFA-6D8C-4EEF-BA2D-E8E4B93CEB30}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0F8BA763-D65B-4C73-A460-A9524FE70687}" type="presParOf" srcId="{AA742DFA-6D8C-4EEF-BA2D-E8E4B93CEB30}" destId="{564C0EB9-E7D8-4682-B16E-0ADD761EE08E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{86B013C5-4176-47C3-AF0B-6A8CD1368169}" type="presParOf" srcId="{AA742DFA-6D8C-4EEF-BA2D-E8E4B93CEB30}" destId="{A64C2205-DB8C-4DEC-B6E1-12B9D6C67F0F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{38F777C6-DA03-49A9-89BC-60FB6C5C63DF}" type="presParOf" srcId="{9F4DB3E8-6BDE-4789-8CC1-3B5E11758B86}" destId="{07B0A892-030E-4A52-9BA5-92180C9C2B9B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId10" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
 <file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dsp:spTree>
@@ -4914,12 +6396,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4931,7 +6413,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
             <a:t>详情页</a:t>
           </a:r>
         </a:p>
@@ -5001,7 +6483,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5012,7 +6494,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -5071,12 +6553,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5088,7 +6570,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
             <a:t>标题</a:t>
           </a:r>
         </a:p>
@@ -5228,12 +6710,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5245,9 +6727,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
-            <a:t>products_description.products_name</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_modules_products_info_translate_on_title.php</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -5315,7 +6798,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5326,7 +6809,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -5385,12 +6868,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5402,7 +6885,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
             <a:t>图片</a:t>
           </a:r>
         </a:p>
@@ -5542,12 +7025,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5559,10 +7042,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
             <a:t>tpl_modules_main_product_new_image.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -5630,7 +7113,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5641,7 +7124,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -5700,12 +7183,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5717,7 +7200,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
             <a:t>价格</a:t>
           </a:r>
         </a:p>
@@ -5787,7 +7270,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5798,7 +7281,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -5857,12 +7340,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5874,7 +7357,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
             <a:t>原价</a:t>
           </a:r>
         </a:p>
@@ -6014,12 +7497,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6031,7 +7514,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
             <a:t>特价</a:t>
           </a:r>
         </a:p>
@@ -6171,12 +7654,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6188,7 +7671,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
             <a:t>海外仓</a:t>
           </a:r>
         </a:p>
@@ -6258,7 +7741,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6269,7 +7752,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -6328,12 +7811,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6345,15 +7828,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
             <a:t>全球价 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
             <a:t>多区定价</a:t>
           </a:r>
         </a:p>
@@ -6423,7 +7906,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6434,7 +7917,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -6493,12 +7976,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6510,7 +7993,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
             <a:t>描述</a:t>
           </a:r>
         </a:p>
@@ -6650,12 +8133,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6667,7 +8150,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
             <a:t>属性</a:t>
           </a:r>
         </a:p>
@@ -6807,12 +8290,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6824,10 +8307,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200"/>
+            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
             <a:t>Accessories</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -6965,12 +8448,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6982,10 +8465,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
             <a:t>product_to_products</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -7053,7 +8536,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7064,7 +8547,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -7123,12 +8606,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7140,7 +8623,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
             <a:t>推荐</a:t>
           </a:r>
         </a:p>
@@ -7210,7 +8693,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7221,7 +8704,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -7280,12 +8763,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7297,7 +8780,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200"/>
+            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
             <a:t>Customer Images</a:t>
           </a:r>
         </a:p>
@@ -7437,12 +8920,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7454,10 +8937,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
             <a:t>customers_images</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -7525,7 +9008,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7536,7 +9019,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -7595,12 +9078,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7612,7 +9095,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200"/>
+            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
             <a:t>Customer Videos</a:t>
           </a:r>
         </a:p>
@@ -7752,12 +9235,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7769,10 +9252,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
             <a:t>products_video_url</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -7840,7 +9323,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7851,7 +9334,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -7910,12 +9393,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7927,10 +9410,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200"/>
+            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
             <a:t>Customer Reviews</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -8068,12 +9551,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8085,10 +9568,10 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
             <a:t>zencart.reviews</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -8226,12 +9709,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8243,7 +9726,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
             <a:t>评论数量</a:t>
           </a:r>
         </a:p>
@@ -8383,12 +9866,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8400,7 +9883,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
             <a:t>有登陆</a:t>
           </a:r>
         </a:p>
@@ -8540,12 +10023,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8557,7 +10040,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
             <a:t>没有登陆</a:t>
           </a:r>
         </a:p>
@@ -8627,7 +10110,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8638,7 +10121,7 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -8697,12 +10180,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8714,15 +10197,1204 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200"/>
+            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
             <a:t>Q &amp; A</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="4549046" y="18188751"/>
         <a:ext cx="2552155" cy="1237574"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{DC6A21B9-A9D2-4F85-8A73-A6A117693EF4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6597" y="2697448"/>
+          <a:ext cx="2526455" cy="1263227"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
+            <a:t>index.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="43596" y="2734447"/>
+        <a:ext cx="2452457" cy="1189229"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9F9A6106-7959-4F3A-AD4F-E4852F2499BE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2533053" y="3307221"/>
+          <a:ext cx="1010582" cy="43681"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="21840"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1010582" y="21840"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3013079" y="3303797"/>
+        <a:ext cx="50529" cy="50529"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{135742A3-6E51-4EB7-B239-943F208D9E9C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3543635" y="2697448"/>
+          <a:ext cx="2526455" cy="1263227"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>main_template_vars.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3580634" y="2734447"/>
+        <a:ext cx="2452457" cy="1189229"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C9AC55F9-27BD-4C07-BCE1-57BCE584CFE5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="5953113" y="2944043"/>
+          <a:ext cx="1244535" cy="43681"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="21840"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1244535" y="21840"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6544268" y="2934771"/>
+        <a:ext cx="62226" cy="62226"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B512A0DA-199F-45E7-ADCB-1D19A5DB77C5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7080672" y="1971092"/>
+          <a:ext cx="2526455" cy="1263227"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_product_info_display.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7117671" y="2008091"/>
+        <a:ext cx="2452457" cy="1189229"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="9490151" y="2217687"/>
+          <a:ext cx="1244535" cy="43681"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="21840"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1244535" y="21840"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="10081305" y="2208415"/>
+        <a:ext cx="62226" cy="62226"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="10617710" y="1244736"/>
+          <a:ext cx="2526455" cy="1263227"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_modules_products_info_head.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="10654709" y="1281735"/>
+        <a:ext cx="2452457" cy="1189229"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="13027188" y="1491331"/>
+          <a:ext cx="1244535" cy="43681"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="21840"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1244535" y="21840"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="13618343" y="1482059"/>
+        <a:ext cx="62226" cy="62226"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D47872FA-6671-4924-8700-A6F7228C9CAA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="14154747" y="518380"/>
+          <a:ext cx="2526455" cy="1263227"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_modules_main_product_new_image.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="14191746" y="555379"/>
+        <a:ext cx="2452457" cy="1189229"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8783F691-2C30-4412-98D8-FDAC14A8B237}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="13027188" y="2217687"/>
+          <a:ext cx="1244535" cy="43681"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="21840"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1244535" y="21840"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="13618343" y="2208415"/>
+        <a:ext cx="62226" cy="62226"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="14154747" y="1971092"/>
+          <a:ext cx="2526455" cy="1263227"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_modules_products_info_translate_on_title.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="14191746" y="2008091"/>
+        <a:ext cx="2452457" cy="1189229"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="9490151" y="2944043"/>
+          <a:ext cx="1244535" cy="43681"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="21840"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1244535" y="21840"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="10081305" y="2934771"/>
+        <a:ext cx="62226" cy="62226"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="10617710" y="2697448"/>
+          <a:ext cx="2526455" cy="1263227"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="10654709" y="2734447"/>
+        <a:ext cx="2452457" cy="1189229"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6ACA4257-28F6-41BB-B600-EAFEAF2938C6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="5953113" y="3670399"/>
+          <a:ext cx="1244535" cy="43681"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="21840"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1244535" y="21840"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6544268" y="3661126"/>
+        <a:ext cx="62226" cy="62226"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{564C0EB9-E7D8-4682-B16E-0ADD761EE08E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7080672" y="3423804"/>
+          <a:ext cx="2526455" cy="1263227"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7117671" y="3460803"/>
+        <a:ext cx="2452457" cy="1189229"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -9369,6 +12041,580 @@
 </dgm:layoutDef>
 </file>
 
+<file path=xl/diagrams/layout3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="6000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="5">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="6">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="7" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="10" srcId="0" destId="4" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="11" srcId="0" destId="5" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="12" srcId="0" destId="6" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="211"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="311"/>
+        <dgm:pt modelId="4"/>
+        <dgm:pt modelId="5"/>
+        <dgm:pt modelId="6"/>
+        <dgm:pt modelId="7"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="8" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="10" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="21" destId="211" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="31" destId="311" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="11" srcId="0" destId="4" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="12" srcId="0" destId="5" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="0" destId="6" srcOrd="3" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="0" destId="7" srcOrd="4" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="mainComposite">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:alg type="composite"/>
+    <dgm:presOf/>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" axis="ch" ptType="node" func="cnt" op="gte" val="2">
+        <dgm:choose name="Name2">
+          <dgm:if name="Name3" func="var" arg="dir" op="equ" val="norm">
+            <dgm:constrLst>
+              <dgm:constr type="l" for="ch" forName="hierFlow"/>
+              <dgm:constr type="t" for="ch" forName="hierFlow" refType="h" fact="0.3"/>
+              <dgm:constr type="r" for="ch" forName="hierFlow" refType="w" fact="0.98"/>
+              <dgm:constr type="b" for="ch" forName="hierFlow" refType="h" fact="0.96"/>
+              <dgm:constr type="l" for="ch" forName="bgShapesFlow"/>
+              <dgm:constr type="t" for="ch" forName="bgShapesFlow"/>
+              <dgm:constr type="r" for="ch" forName="bgShapesFlow" refType="w"/>
+              <dgm:constr type="b" for="ch" forName="bgShapesFlow" refType="h"/>
+              <dgm:constr type="h" for="des" forName="level1Shape" refType="h"/>
+              <dgm:constr type="w" for="des" forName="level1Shape" refType="h" refFor="des" refForName="level1Shape" fact="2"/>
+              <dgm:constr type="w" for="des" forName="level2Shape" refType="w" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="h" for="des" forName="level2Shape" refType="h" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="sp" for="des" refType="w" refFor="des" refForName="level1Shape" op="equ" fact="0.4"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild1" refType="h" refFor="des" refForName="level1Shape" op="equ" fact="0.15"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild2" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild3" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+              <dgm:constr type="userA" for="des" refType="w" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="userB" for="des" refType="sp" refFor="des" op="equ"/>
+              <dgm:constr type="w" for="des" forName="firstBuf" refType="w" refFor="des" refForName="level1Shape" fact="0.1"/>
+            </dgm:constrLst>
+          </dgm:if>
+          <dgm:else name="Name4">
+            <dgm:constrLst>
+              <dgm:constr type="l" for="ch" forName="hierFlow" refType="w" fact="0.02"/>
+              <dgm:constr type="t" for="ch" forName="hierFlow" refType="h" fact="0.3"/>
+              <dgm:constr type="r" for="ch" forName="hierFlow" refType="w"/>
+              <dgm:constr type="b" for="ch" forName="hierFlow" refType="h" fact="0.96"/>
+              <dgm:constr type="l" for="ch" forName="bgShapesFlow"/>
+              <dgm:constr type="t" for="ch" forName="bgShapesFlow"/>
+              <dgm:constr type="r" for="ch" forName="bgShapesFlow" refType="w"/>
+              <dgm:constr type="b" for="ch" forName="bgShapesFlow" refType="h"/>
+              <dgm:constr type="h" for="des" forName="level1Shape" refType="h"/>
+              <dgm:constr type="w" for="des" forName="level1Shape" refType="h" refFor="des" refForName="level1Shape" fact="2"/>
+              <dgm:constr type="w" for="des" forName="level2Shape" refType="w" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="h" for="des" forName="level2Shape" refType="h" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="sp" for="des" refType="w" refFor="des" refForName="level1Shape" op="equ" fact="0.4"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild1" refType="h" refFor="des" refForName="level1Shape" op="equ" fact="0.15"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild2" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild3" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+              <dgm:constr type="userA" for="des" refType="w" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="userB" for="des" refType="sp" refFor="des" op="equ"/>
+              <dgm:constr type="w" for="des" forName="firstBuf" refType="w" refFor="des" refForName="level1Shape" fact="0.1"/>
+            </dgm:constrLst>
+          </dgm:else>
+        </dgm:choose>
+      </dgm:if>
+      <dgm:else name="Name5">
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="hierFlow"/>
+          <dgm:constr type="t" for="ch" forName="hierFlow"/>
+          <dgm:constr type="r" for="ch" forName="hierFlow" refType="w"/>
+          <dgm:constr type="b" for="ch" forName="hierFlow" refType="h"/>
+          <dgm:constr type="l" for="ch" forName="bgShapesFlow"/>
+          <dgm:constr type="t" for="ch" forName="bgShapesFlow"/>
+          <dgm:constr type="r" for="ch" forName="bgShapesFlow" refType="w"/>
+          <dgm:constr type="b" for="ch" forName="bgShapesFlow" refType="h"/>
+          <dgm:constr type="h" for="des" forName="level1Shape" refType="h"/>
+          <dgm:constr type="w" for="des" forName="level1Shape" refType="h" refFor="des" refForName="level1Shape" fact="2"/>
+          <dgm:constr type="w" for="des" forName="level2Shape" refType="w" refFor="des" refForName="level1Shape" op="equ"/>
+          <dgm:constr type="h" for="des" forName="level2Shape" refType="h" refFor="des" refForName="level1Shape" op="equ"/>
+          <dgm:constr type="sp" for="des" refType="w" refFor="des" refForName="level1Shape" op="equ" fact="0.4"/>
+          <dgm:constr type="sibSp" for="des" forName="hierChild1" refType="h" refFor="des" refForName="level1Shape" op="equ" fact="0.15"/>
+          <dgm:constr type="sibSp" for="des" forName="hierChild2" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+          <dgm:constr type="sibSp" for="des" forName="hierChild3" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+          <dgm:constr type="userA" for="des" refType="w" refFor="des" refForName="level1Shape" op="equ"/>
+          <dgm:constr type="userB" for="des" refType="sp" refFor="des" op="equ"/>
+          <dgm:constr type="w" for="des" forName="firstBuf" refType="w" refFor="des" refForName="level1Shape" fact="0.1"/>
+        </dgm:constrLst>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:ruleLst/>
+    <dgm:layoutNode name="hierFlow">
+      <dgm:choose name="Name6">
+        <dgm:if name="Name7" func="var" arg="dir" op="equ" val="norm">
+          <dgm:alg type="lin">
+            <dgm:param type="linDir" val="fromL"/>
+            <dgm:param type="nodeVertAlign" val="mid"/>
+            <dgm:param type="vertAlign" val="mid"/>
+            <dgm:param type="nodeHorzAlign" val="l"/>
+            <dgm:param type="horzAlign" val="l"/>
+            <dgm:param type="fallback" val="2D"/>
+          </dgm:alg>
+        </dgm:if>
+        <dgm:else name="Name8">
+          <dgm:alg type="lin">
+            <dgm:param type="linDir" val="fromR"/>
+            <dgm:param type="nodeVertAlign" val="mid"/>
+            <dgm:param type="vertAlign" val="mid"/>
+            <dgm:param type="nodeHorzAlign" val="r"/>
+            <dgm:param type="horzAlign" val="r"/>
+            <dgm:param type="fallback" val="2D"/>
+          </dgm:alg>
+        </dgm:else>
+      </dgm:choose>
+      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+        <dgm:adjLst/>
+      </dgm:shape>
+      <dgm:presOf/>
+      <dgm:constrLst>
+        <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+        <dgm:constr type="primFontSz" for="des" forName="connTx" op="equ" val="55"/>
+        <dgm:constr type="primFontSz" for="des" forName="connTx" refType="primFontSz" refFor="des" refPtType="node" op="lte" fact="0.8"/>
+      </dgm:constrLst>
+      <dgm:ruleLst/>
+      <dgm:choose name="Name9">
+        <dgm:if name="Name10" axis="ch" ptType="node" func="cnt" op="gte" val="2">
+          <dgm:layoutNode name="firstBuf">
+            <dgm:alg type="sp"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+          </dgm:layoutNode>
+        </dgm:if>
+        <dgm:else name="Name11"/>
+      </dgm:choose>
+      <dgm:layoutNode name="hierChild1">
+        <dgm:varLst>
+          <dgm:chPref val="1"/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+        </dgm:varLst>
+        <dgm:choose name="Name12">
+          <dgm:if name="Name13" func="var" arg="dir" op="equ" val="norm">
+            <dgm:alg type="hierChild">
+              <dgm:param type="linDir" val="fromT"/>
+              <dgm:param type="chAlign" val="l"/>
+            </dgm:alg>
+          </dgm:if>
+          <dgm:else name="Name14">
+            <dgm:alg type="hierChild">
+              <dgm:param type="linDir" val="fromT"/>
+              <dgm:param type="chAlign" val="r"/>
+            </dgm:alg>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst/>
+        <dgm:ruleLst/>
+        <dgm:forEach name="Name15" axis="ch" cnt="3">
+          <dgm:forEach name="Name16" axis="self" ptType="node">
+            <dgm:layoutNode name="Name17">
+              <dgm:choose name="Name18">
+                <dgm:if name="Name19" func="var" arg="dir" op="equ" val="norm">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="lCtrCh"/>
+                  </dgm:alg>
+                </dgm:if>
+                <dgm:else name="Name20">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="rCtrCh"/>
+                  </dgm:alg>
+                </dgm:else>
+              </dgm:choose>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+              <dgm:layoutNode name="level1Shape" styleLbl="node0">
+                <dgm:varLst>
+                  <dgm:chPref val="3"/>
+                </dgm:varLst>
+                <dgm:alg type="tx"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                  <dgm:adjLst>
+                    <dgm:adj idx="1" val="0.1"/>
+                  </dgm:adjLst>
+                </dgm:shape>
+                <dgm:presOf axis="self"/>
+                <dgm:constrLst>
+                  <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                  <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                  <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                  <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                </dgm:constrLst>
+                <dgm:ruleLst>
+                  <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                </dgm:ruleLst>
+              </dgm:layoutNode>
+              <dgm:layoutNode name="hierChild2">
+                <dgm:choose name="Name21">
+                  <dgm:if name="Name22" func="var" arg="dir" op="equ" val="norm">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="linDir" val="fromT"/>
+                      <dgm:param type="chAlign" val="l"/>
+                    </dgm:alg>
+                  </dgm:if>
+                  <dgm:else name="Name23">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="linDir" val="fromT"/>
+                      <dgm:param type="chAlign" val="r"/>
+                    </dgm:alg>
+                  </dgm:else>
+                </dgm:choose>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst/>
+                <dgm:ruleLst/>
+                <dgm:forEach name="repeat" axis="ch">
+                  <dgm:forEach name="Name24" axis="self" ptType="parTrans" cnt="1">
+                    <dgm:layoutNode name="Name25">
+                      <dgm:choose name="Name26">
+                        <dgm:if name="Name27" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midR"/>
+                            <dgm:param type="endPts" val="midL"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name28">
+                          <dgm:alg type="conn">
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="begPts" val="midL"/>
+                            <dgm:param type="endPts" val="midR"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf axis="self"/>
+                      <dgm:constrLst>
+                        <dgm:constr type="w" val="1"/>
+                        <dgm:constr type="h" val="5"/>
+                        <dgm:constr type="connDist"/>
+                        <dgm:constr type="begPad"/>
+                        <dgm:constr type="endPad"/>
+                        <dgm:constr type="userA" for="ch" refType="connDist"/>
+                      </dgm:constrLst>
+                      <dgm:ruleLst/>
+                      <dgm:layoutNode name="connTx">
+                        <dgm:alg type="tx">
+                          <dgm:param type="autoTxRot" val="grav"/>
+                        </dgm:alg>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf axis="self"/>
+                        <dgm:constrLst>
+                          <dgm:constr type="userA"/>
+                          <dgm:constr type="w" refType="userA" fact="0.05"/>
+                          <dgm:constr type="h" refType="userA" fact="0.05"/>
+                          <dgm:constr type="lMarg" val="1"/>
+                          <dgm:constr type="rMarg" val="1"/>
+                          <dgm:constr type="tMarg"/>
+                          <dgm:constr type="bMarg"/>
+                        </dgm:constrLst>
+                        <dgm:ruleLst>
+                          <dgm:rule type="h" val="NaN" fact="0.25" max="NaN"/>
+                          <dgm:rule type="w" val="NaN" fact="0.8" max="NaN"/>
+                          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                        </dgm:ruleLst>
+                      </dgm:layoutNode>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:forEach name="Name29" axis="self" ptType="node">
+                    <dgm:layoutNode name="Name30">
+                      <dgm:choose name="Name31">
+                        <dgm:if name="Name32" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierRoot">
+                            <dgm:param type="hierAlign" val="lCtrCh"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name33">
+                          <dgm:alg type="hierRoot">
+                            <dgm:param type="hierAlign" val="rCtrCh"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:constrLst/>
+                      <dgm:ruleLst/>
+                      <dgm:layoutNode name="level2Shape">
+                        <dgm:alg type="tx"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                          <dgm:adjLst>
+                            <dgm:adj idx="1" val="0.1"/>
+                          </dgm:adjLst>
+                        </dgm:shape>
+                        <dgm:presOf axis="self"/>
+                        <dgm:constrLst>
+                          <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                          <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                          <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                          <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                        </dgm:constrLst>
+                        <dgm:ruleLst>
+                          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                        </dgm:ruleLst>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="hierChild3">
+                        <dgm:choose name="Name34">
+                          <dgm:if name="Name35" func="var" arg="dir" op="equ" val="norm">
+                            <dgm:alg type="hierChild">
+                              <dgm:param type="linDir" val="fromT"/>
+                              <dgm:param type="chAlign" val="l"/>
+                            </dgm:alg>
+                          </dgm:if>
+                          <dgm:else name="Name36">
+                            <dgm:alg type="hierChild">
+                              <dgm:param type="linDir" val="fromT"/>
+                              <dgm:param type="chAlign" val="r"/>
+                            </dgm:alg>
+                          </dgm:else>
+                        </dgm:choose>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst/>
+                        <dgm:ruleLst/>
+                        <dgm:forEach name="Name37" ref="repeat"/>
+                      </dgm:layoutNode>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                </dgm:forEach>
+              </dgm:layoutNode>
+            </dgm:layoutNode>
+          </dgm:forEach>
+        </dgm:forEach>
+      </dgm:layoutNode>
+    </dgm:layoutNode>
+    <dgm:layoutNode name="bgShapesFlow">
+      <dgm:choose name="Name38">
+        <dgm:if name="Name39" func="var" arg="dir" op="equ" val="norm">
+          <dgm:alg type="lin">
+            <dgm:param type="linDir" val="fromL"/>
+            <dgm:param type="nodeVertAlign" val="mid"/>
+            <dgm:param type="vertAlign" val="mid"/>
+            <dgm:param type="nodeHorzAlign" val="l"/>
+            <dgm:param type="horzAlign" val="l"/>
+          </dgm:alg>
+        </dgm:if>
+        <dgm:else name="Name40">
+          <dgm:alg type="lin">
+            <dgm:param type="linDir" val="fromR"/>
+            <dgm:param type="nodeVertAlign" val="mid"/>
+            <dgm:param type="vertAlign" val="mid"/>
+            <dgm:param type="nodeHorzAlign" val="r"/>
+            <dgm:param type="horzAlign" val="r"/>
+          </dgm:alg>
+        </dgm:else>
+      </dgm:choose>
+      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+        <dgm:adjLst/>
+      </dgm:shape>
+      <dgm:presOf/>
+      <dgm:constrLst>
+        <dgm:constr type="w" for="ch" forName="rectComp" refType="w"/>
+        <dgm:constr type="h" for="ch" forName="rectComp" refType="h"/>
+        <dgm:constr type="h" for="des" forName="bgRect" refType="h"/>
+        <dgm:constr type="primFontSz" for="des" forName="bgRectTx" op="equ" val="65"/>
+      </dgm:constrLst>
+      <dgm:ruleLst/>
+      <dgm:forEach name="Name41" axis="ch" ptType="node" st="2">
+        <dgm:layoutNode name="rectComp">
+          <dgm:alg type="composite"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst>
+            <dgm:constr type="userA"/>
+            <dgm:constr type="l" for="ch" forName="bgRect"/>
+            <dgm:constr type="t" for="ch" forName="bgRect"/>
+            <dgm:constr type="w" for="ch" forName="bgRect" refType="userA" fact="1.2"/>
+            <dgm:constr type="l" for="ch" forName="bgRectTx"/>
+            <dgm:constr type="t" for="ch" forName="bgRectTx"/>
+            <dgm:constr type="h" for="ch" forName="bgRectTx" refType="h" refFor="ch" refForName="bgRect" fact="0.3"/>
+            <dgm:constr type="w" for="ch" forName="bgRectTx" refType="w" refFor="ch" refForName="bgRect" op="equ"/>
+          </dgm:constrLst>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="bgRect" styleLbl="bgShp">
+            <dgm:alg type="sp"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="" zOrderOff="-999">
+              <dgm:adjLst>
+                <dgm:adj idx="1" val="0.1"/>
+              </dgm:adjLst>
+            </dgm:shape>
+            <dgm:presOf axis="desOrSelf" ptType="node"/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="bgRectTx" styleLbl="bgShp">
+            <dgm:varLst>
+              <dgm:bulletEnabled val="1"/>
+            </dgm:varLst>
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" zOrderOff="-999" hideGeom="1">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="desOrSelf" ptType="node"/>
+            <dgm:constrLst/>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+        <dgm:choose name="Name42">
+          <dgm:if name="Name43" axis="self" ptType="node" func="revPos" op="gte" val="2">
+            <dgm:layoutNode name="spComp">
+              <dgm:alg type="composite"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf/>
+              <dgm:constrLst>
+                <dgm:constr type="userA"/>
+                <dgm:constr type="userB"/>
+                <dgm:constr type="l" for="ch" forName="hSp"/>
+                <dgm:constr type="t" for="ch" forName="hSp"/>
+                <dgm:constr type="w" for="ch" forName="hSp" refType="userB"/>
+                <dgm:constr type="wOff" for="ch" forName="hSp" refType="userA" fact="-0.2"/>
+              </dgm:constrLst>
+              <dgm:ruleLst/>
+              <dgm:layoutNode name="hSp">
+                <dgm:alg type="sp"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst/>
+                <dgm:ruleLst/>
+              </dgm:layoutNode>
+            </dgm:layoutNode>
+          </dgm:if>
+          <dgm:else name="Name44"/>
+        </dgm:choose>
+      </dgm:forEach>
+    </dgm:layoutNode>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
 <file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple2">
   <dgm:title val=""/>
@@ -10404,6 +13650,1040 @@
 </file>
 
 <file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle3.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -11499,6 +15779,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
           <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图示 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId6" r:lo="rId7" r:qs="rId8" r:cs="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11812,8 +16122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V79" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/zencart/docs/模块功能划分.xlsx
+++ b/zencart/docs/模块功能划分.xlsx
@@ -4,15 +4,38 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="14805" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
     <sheet name="详情页" sheetId="2" r:id="rId2"/>
     <sheet name="SEO" sheetId="3" r:id="rId3"/>
+    <sheet name="Wish List" sheetId="4" r:id="rId4"/>
+    <sheet name="排序" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customers_wishlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products_sort_orders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5716,39 +5739,6 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{E8C41B39-016E-4213-B80B-71616F1709EB}">
-      <dgm:prSet phldrT="[文本]" phldr="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{ED862AD3-1821-4DC4-BB16-0C3EFF975AA7}" type="parTrans" cxnId="{20214083-5A9E-4C45-9CAF-505B5E8958DD}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{0CF6906F-DCC2-4311-ACA3-0E663A291DBE}" type="sibTrans" cxnId="{20214083-5A9E-4C45-9CAF-505B5E8958DD}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
     <dgm:pt modelId="{30D03971-7F89-4C3B-92A1-1B293A417E16}">
       <dgm:prSet/>
       <dgm:spPr/>
@@ -5793,6 +5783,10 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>column_left.php</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US"/>
         </a:p>
       </dgm:t>
@@ -5883,6 +5877,598 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8C60739A-E9F0-4A1F-A4F6-66CA10C2223A}" type="sibTrans" cxnId="{35F1E70A-9F62-4B6B-8D65-B663D9D1F862}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>tpl_modules_attributes.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" type="parTrans" cxnId="{D2D9C506-9468-4A19-80B4-F04B6B00D6CF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{96EA5327-EA59-489E-BAF9-8864B7D5E133}" type="sibTrans" cxnId="{D2D9C506-9468-4A19-80B4-F04B6B00D6CF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3C036C0B-079B-4BE1-95F5-409D9EAEA50E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>tpl_modules_products_quantity_discounts.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" type="parTrans" cxnId="{72C3E7A5-A242-4C34-9E1A-224DCDE18595}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E88C81FA-7825-4CFE-A1B1-EF8BD70C9EE7}" type="sibTrans" cxnId="{72C3E7A5-A242-4C34-9E1A-224DCDE18595}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>tpl_products_page_tab_a.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" type="parTrans" cxnId="{DA82E983-7C17-47B9-8535-A0CA96AD9425}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D8923E56-A77E-4877-A47F-76A2D9E3803C}" type="sibTrans" cxnId="{DA82E983-7C17-47B9-8535-A0CA96AD9425}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B7FB9C49-37C5-44CC-A6E9-1F35367C20AE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>tpl_modules_also_purchased_products.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" type="parTrans" cxnId="{F1AF9E78-287F-4722-BE1E-D4AFE571662F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C6C2F5B2-F858-4699-B1DF-0A9C787E3A7E}" type="sibTrans" cxnId="{F1AF9E78-287F-4722-BE1E-D4AFE571662F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EE1A2468-3288-4E2A-9579-D9E012C0657D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>tpl_modules_products_info_translate.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" type="parTrans" cxnId="{1B4BE6C0-A187-459C-B7C9-97391CFD9216}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1FDE62D4-4956-453C-9CCB-584B532AD74F}" type="sibTrans" cxnId="{1B4BE6C0-A187-459C-B7C9-97391CFD9216}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E330EAC3-672C-4E4F-8377-A820D547B924}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>tpl_modules_products_shipping_delivery.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2D414069-067C-4600-A128-6B14AA4F61CB}" type="parTrans" cxnId="{515F7375-CB11-470B-A49E-11CE0F958D40}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8CA0550D-EFE1-4B93-9411-0335F47A3217}" type="sibTrans" cxnId="{515F7375-CB11-470B-A49E-11CE0F958D40}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{30F80E6A-A636-434A-952F-806EAF184437}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>tpl_modules_products_forum_listing.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" type="parTrans" cxnId="{723667AA-4797-4407-975D-48581F8BF189}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9C06FDEB-50DD-485B-8D3D-A420E15CEA50}" type="sibTrans" cxnId="{723667AA-4797-4407-975D-48581F8BF189}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FAF7D901-90A5-4D63-B540-F0098C05641C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>product_accessories</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{211224C1-8566-4354-88B3-5D447D1FE9A7}" type="parTrans" cxnId="{1E103175-C1F8-4CF4-A331-DA2D7D01F24E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{03373185-46B9-4F08-92C1-C0C8D10159BC}" type="sibTrans" cxnId="{1E103175-C1F8-4CF4-A331-DA2D7D01F24E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{017A9184-DEF2-4145-B985-1784EC653C12}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>TEXT_CUSTOMER_IMAGES</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" type="parTrans" cxnId="{2202FB61-787D-4216-82D1-93E2EE2845D3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A5D0D2A1-991C-4A0F-9550-67F9E198910C}" type="sibTrans" cxnId="{2202FB61-787D-4216-82D1-93E2EE2845D3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{496BAC66-63CB-4FE6-84E1-3C96E19AEB0D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>tpl_modules_customer_upload_img.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" type="parTrans" cxnId="{218DAF4E-1C6A-4176-9879-BD23227FEA41}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CEF146C5-118A-4EC6-9B21-DE5EFEA4934D}" type="sibTrans" cxnId="{218DAF4E-1C6A-4176-9879-BD23227FEA41}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4B8D0128-7CF7-4465-BFA0-6F5F34B34AB6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>TEXT_CUSTOMER_VIDEOS</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" type="parTrans" cxnId="{38054A65-D83F-4749-B0E3-119B699329D6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3D0F18FE-484C-427B-8745-6B854DDFFC5D}" type="sibTrans" cxnId="{38054A65-D83F-4749-B0E3-119B699329D6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{68DD22E8-9E1F-4630-8302-69683E3575E4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>TEXT_CUSTOMER_CONSULTING</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1BA67879-58D8-44D2-879D-13516216E2E4}" type="parTrans" cxnId="{F95E9E9B-2184-4082-B324-4D46A3530B9C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{081E5A47-00CC-4E31-8351-80CB32D0E3D1}" type="sibTrans" cxnId="{F95E9E9B-2184-4082-B324-4D46A3530B9C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8B2B853F-AAFA-4715-91F0-14EC4F346491}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>tpl_modules_also_purchased_products.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" type="parTrans" cxnId="{E9C023D9-FDC1-4DF3-AD45-34AAB9583A36}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{404732D1-7624-43D5-9F79-CE1ECE11FBE6}" type="sibTrans" cxnId="{E9C023D9-FDC1-4DF3-AD45-34AAB9583A36}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>also_purchased_products.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" type="parTrans" cxnId="{BB75F691-DCBA-48B5-82C0-4991E309250F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F4EBB8EA-FEA3-429E-B779-EF8A2AEEA79B}" type="sibTrans" cxnId="{BB75F691-DCBA-48B5-82C0-4991E309250F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C17FDAA5-5247-40D3-A375-0421F2890443}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>var_cache.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CA122700-3CB7-4094-8D40-298220BCF9CE}" type="parTrans" cxnId="{BB6457E0-3EB9-4C85-A5DC-6FB873A9866B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A0B0EF1B-03CC-48AF-89BC-FF9D8B444EE0}" type="sibTrans" cxnId="{BB6457E0-3EB9-4C85-A5DC-6FB873A9866B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E799A07D-AE9D-4715-B273-0D81BE9946AD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>get_customer_recommend_by_view</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" type="parTrans" cxnId="{0E8B65EE-845B-4528-98DF-E6FA51F7D84A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F8396548-1223-4D0A-9AEE-ABF4E57FC2D7}" type="sibTrans" cxnId="{0E8B65EE-845B-4528-98DF-E6FA51F7D84A}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -5991,7 +6577,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C9AC55F9-27BD-4C07-BCE1-57BCE584CFE5}" type="pres">
-      <dgm:prSet presAssocID="{201D2E86-29B5-44CE-B880-84185C4C9696}" presName="Name25" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:prSet presAssocID="{201D2E86-29B5-44CE-B880-84185C4C9696}" presName="Name25" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6002,7 +6588,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AC631A13-A371-4978-9364-985E50833F88}" type="pres">
-      <dgm:prSet presAssocID="{201D2E86-29B5-44CE-B880-84185C4C9696}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:prSet presAssocID="{201D2E86-29B5-44CE-B880-84185C4C9696}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6017,7 +6603,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B512A0DA-199F-45E7-ADCB-1D19A5DB77C5}" type="pres">
-      <dgm:prSet presAssocID="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:prSet presAssocID="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6031,8 +6617,109 @@
       <dgm:prSet presAssocID="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{D7231407-A161-4C9C-BFB9-D651AF1947FD}" type="pres">
+      <dgm:prSet presAssocID="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B1C8A51E-5E7B-42B8-BF39-8C9A68CF865A}" type="pres">
+      <dgm:prSet presAssocID="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{88632946-8097-4FA2-B5E9-B577000B97E3}" type="pres">
+      <dgm:prSet presAssocID="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2898F935-43C7-4879-803D-0CF37CADF3CA}" type="pres">
+      <dgm:prSet presAssocID="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="20"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{54A2E538-DDB1-4A85-8FFE-460F1C6F8C32}" type="pres">
+      <dgm:prSet presAssocID="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4CFD6804-8C0F-4F9F-A90E-6BD5AB9C2B8C}" type="pres">
+      <dgm:prSet presAssocID="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0F3CDCF7-7401-45DB-841B-0EDE1B628B67}" type="pres">
+      <dgm:prSet presAssocID="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{76ECF671-85DB-4639-B976-B7EA27095C9A}" type="pres">
+      <dgm:prSet presAssocID="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A2EFEE31-448F-455C-8C70-CD33577FC4C9}" type="pres">
+      <dgm:prSet presAssocID="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="20"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B59C777A-7711-432F-9CC3-7AC44E3D43FC}" type="pres">
+      <dgm:prSet presAssocID="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3F791B83-8F9D-4AEC-A34E-F3313F38BEB7}" type="pres">
+      <dgm:prSet presAssocID="{CA122700-3CB7-4094-8D40-298220BCF9CE}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4DA3DE6D-E22A-459F-9C90-25561DC5E2FD}" type="pres">
+      <dgm:prSet presAssocID="{CA122700-3CB7-4094-8D40-298220BCF9CE}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4EF784B9-F76C-473D-987E-368332D36D7B}" type="pres">
+      <dgm:prSet presAssocID="{C17FDAA5-5247-40D3-A375-0421F2890443}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F8A96FFD-FE69-476E-A459-8F49D47314A7}" type="pres">
+      <dgm:prSet presAssocID="{C17FDAA5-5247-40D3-A375-0421F2890443}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8229884C-D76D-4F4B-B282-EFDAE285A81E}" type="pres">
+      <dgm:prSet presAssocID="{C17FDAA5-5247-40D3-A375-0421F2890443}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{746E57B4-FFA3-4E88-BCD5-9D79BDBD9277}" type="pres">
+      <dgm:prSet presAssocID="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C70A7FBD-BD4A-45C8-BFF3-9B3D1D482109}" type="pres">
+      <dgm:prSet presAssocID="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DDF10F2D-2C7D-469C-A5ED-3B5FE30D590B}" type="pres">
+      <dgm:prSet presAssocID="{E799A07D-AE9D-4715-B273-0D81BE9946AD}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AD4DEA5A-B382-4ADA-86B7-A56A91105758}" type="pres">
+      <dgm:prSet presAssocID="{E799A07D-AE9D-4715-B273-0D81BE9946AD}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="20"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C6C265F5-4980-4ED9-A010-CE92F916CA57}" type="pres">
+      <dgm:prSet presAssocID="{E799A07D-AE9D-4715-B273-0D81BE9946AD}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}" type="pres">
-      <dgm:prSet presAssocID="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="20"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6043,7 +6730,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DD9241E1-4FE0-446D-A84C-5DB9472C5DFC}" type="pres">
-      <dgm:prSet presAssocID="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="20"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6058,7 +6745,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}" type="pres">
-      <dgm:prSet presAssocID="{30D03971-7F89-4C3B-92A1-1B293A417E16}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{30D03971-7F89-4C3B-92A1-1B293A417E16}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="20"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6073,7 +6760,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}" type="pres">
-      <dgm:prSet presAssocID="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="20"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6084,7 +6771,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E8E018BE-5584-4651-93AA-17B4C22EF729}" type="pres">
-      <dgm:prSet presAssocID="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="20"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6099,7 +6786,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D47872FA-6671-4924-8700-A6F7228C9CAA}" type="pres">
-      <dgm:prSet presAssocID="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="20"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6114,7 +6801,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8783F691-2C30-4412-98D8-FDAC14A8B237}" type="pres">
-      <dgm:prSet presAssocID="{8B5AD710-3453-4459-A021-4BD74C23C219}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{8B5AD710-3453-4459-A021-4BD74C23C219}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="20"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6125,7 +6812,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EA0863B0-AD59-4641-ADAD-9375F74FE231}" type="pres">
-      <dgm:prSet presAssocID="{8B5AD710-3453-4459-A021-4BD74C23C219}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{8B5AD710-3453-4459-A021-4BD74C23C219}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="20"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6140,7 +6827,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}" type="pres">
-      <dgm:prSet presAssocID="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="20"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6154,8 +6841,62 @@
       <dgm:prSet presAssocID="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{FCEB44E5-7AF6-4EBB-9766-B34343D312FE}" type="pres">
+      <dgm:prSet presAssocID="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BA10F88C-69F8-41F6-A540-002FB9AEE59B}" type="pres">
+      <dgm:prSet presAssocID="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7CB4BD25-A392-4A6E-91EE-5B7CC04BD0DD}" type="pres">
+      <dgm:prSet presAssocID="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4707F9A1-D761-4EDB-ACAD-70D62191C0C9}" type="pres">
+      <dgm:prSet presAssocID="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="20"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E4F9720C-278F-431F-9FCA-FFD89016B4B2}" type="pres">
+      <dgm:prSet presAssocID="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9307F662-7AEC-4FD9-B049-1251B671D585}" type="pres">
+      <dgm:prSet presAssocID="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{08C27923-5E46-40F6-A0E1-9A9AC1CE3C12}" type="pres">
+      <dgm:prSet presAssocID="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{50C3BB8E-849F-4B43-9593-4085E8B94966}" type="pres">
+      <dgm:prSet presAssocID="{3C036C0B-079B-4BE1-95F5-409D9EAEA50E}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1E38A29E-159D-47A6-88BA-C2A8D6EE0DD3}" type="pres">
+      <dgm:prSet presAssocID="{3C036C0B-079B-4BE1-95F5-409D9EAEA50E}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="20"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{85821046-A123-4300-AFFA-F9DC592E2156}" type="pres">
+      <dgm:prSet presAssocID="{3C036C0B-079B-4BE1-95F5-409D9EAEA50E}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" type="pres">
-      <dgm:prSet presAssocID="{A5D4838D-B98F-4857-8497-981EA9743CF7}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{A5D4838D-B98F-4857-8497-981EA9743CF7}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="20"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6166,7 +6907,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AB15B0AB-EC18-49A3-BB95-9A9668A68592}" type="pres">
-      <dgm:prSet presAssocID="{A5D4838D-B98F-4857-8497-981EA9743CF7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{A5D4838D-B98F-4857-8497-981EA9743CF7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="20"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6181,7 +6922,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}" type="pres">
-      <dgm:prSet presAssocID="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="20"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6195,45 +6936,274 @@
       <dgm:prSet presAssocID="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{6ACA4257-28F6-41BB-B600-EAFEAF2938C6}" type="pres">
-      <dgm:prSet presAssocID="{ED862AD3-1821-4DC4-BB16-0C3EFF975AA7}" presName="Name25" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{7A3E7577-E672-4DD8-BF96-5714BC38366D}" type="pres">
-      <dgm:prSet presAssocID="{ED862AD3-1821-4DC4-BB16-0C3EFF975AA7}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{AA742DFA-6D8C-4EEF-BA2D-E8E4B93CEB30}" type="pres">
-      <dgm:prSet presAssocID="{E8C41B39-016E-4213-B80B-71616F1709EB}" presName="Name30" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{564C0EB9-E7D8-4682-B16E-0ADD761EE08E}" type="pres">
-      <dgm:prSet presAssocID="{E8C41B39-016E-4213-B80B-71616F1709EB}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{A64C2205-DB8C-4DEC-B6E1-12B9D6C67F0F}" type="pres">
-      <dgm:prSet presAssocID="{E8C41B39-016E-4213-B80B-71616F1709EB}" presName="hierChild3" presStyleCnt="0"/>
+    <dgm:pt modelId="{0575102E-0DA6-4AC8-8596-3ABCEB6D6A42}" type="pres">
+      <dgm:prSet presAssocID="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{45E3EAF8-FED0-49D3-9BE1-9EAFBD862872}" type="pres">
+      <dgm:prSet presAssocID="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D8306D31-FDEB-442E-9A6D-FAC8DE1296F8}" type="pres">
+      <dgm:prSet presAssocID="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7E14C1C1-BC53-4754-92BA-B9751D55335A}" type="pres">
+      <dgm:prSet presAssocID="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="20"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6707BFE4-8C46-4983-B095-9FED02E0A041}" type="pres">
+      <dgm:prSet presAssocID="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1F30B705-D4F7-485E-9F36-062F34A99D2A}" type="pres">
+      <dgm:prSet presAssocID="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9297FB63-9F0A-4A11-BBE6-EACD5E3D5B3A}" type="pres">
+      <dgm:prSet presAssocID="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5A1240A2-C5C2-494F-9508-EB596B9002F5}" type="pres">
+      <dgm:prSet presAssocID="{B7FB9C49-37C5-44CC-A6E9-1F35367C20AE}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{634A27FE-F3F3-4A9C-84EC-9561A9A7F6B1}" type="pres">
+      <dgm:prSet presAssocID="{B7FB9C49-37C5-44CC-A6E9-1F35367C20AE}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="20"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{04816A46-8CD7-439F-AA95-46A3E0902E3E}" type="pres">
+      <dgm:prSet presAssocID="{B7FB9C49-37C5-44CC-A6E9-1F35367C20AE}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1D0C8CB8-6BD7-481D-A856-4E83066AB9BB}" type="pres">
+      <dgm:prSet presAssocID="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B9B4D712-3F31-42DD-BA96-FD41945417A1}" type="pres">
+      <dgm:prSet presAssocID="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C82BC579-8033-4FA9-BCC5-880DB641C0E1}" type="pres">
+      <dgm:prSet presAssocID="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7198C7EC-7623-4A5E-BC87-C3132AB8338A}" type="pres">
+      <dgm:prSet presAssocID="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="20"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0824303E-B3C3-4596-8A42-20865C0EBD7D}" type="pres">
+      <dgm:prSet presAssocID="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0801DDAF-EEDB-4FB0-9CBD-634BB92409A4}" type="pres">
+      <dgm:prSet presAssocID="{2D414069-067C-4600-A128-6B14AA4F61CB}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{021F3772-C225-43E6-82C2-AFC2A70A3D69}" type="pres">
+      <dgm:prSet presAssocID="{2D414069-067C-4600-A128-6B14AA4F61CB}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ED41444A-A78D-419F-9FE0-E396CE32EE78}" type="pres">
+      <dgm:prSet presAssocID="{E330EAC3-672C-4E4F-8377-A820D547B924}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E1D68129-142E-4A8A-B96C-E43717499CD6}" type="pres">
+      <dgm:prSet presAssocID="{E330EAC3-672C-4E4F-8377-A820D547B924}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="20"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B5D9A05A-5106-4582-B0D3-3EE89B99F4E7}" type="pres">
+      <dgm:prSet presAssocID="{E330EAC3-672C-4E4F-8377-A820D547B924}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{443D1CFF-1AB4-4A1A-A786-8370C61C29BF}" type="pres">
+      <dgm:prSet presAssocID="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B40D749F-EAAC-47DA-BB9F-4E368D95F9B2}" type="pres">
+      <dgm:prSet presAssocID="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A1DBE4A2-F7FA-4AEB-AC03-03F48030F4F6}" type="pres">
+      <dgm:prSet presAssocID="{30F80E6A-A636-434A-952F-806EAF184437}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C25262C4-ABEB-46B4-B8CF-A0B809264530}" type="pres">
+      <dgm:prSet presAssocID="{30F80E6A-A636-434A-952F-806EAF184437}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="20"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1FF00289-52C3-4E92-971A-E488B5606844}" type="pres">
+      <dgm:prSet presAssocID="{30F80E6A-A636-434A-952F-806EAF184437}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{343E6E5B-CC3D-4E24-955B-0E5B78CE3991}" type="pres">
+      <dgm:prSet presAssocID="{211224C1-8566-4354-88B3-5D447D1FE9A7}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B410FAB9-5A46-4E97-9C89-8CC2B47C05E3}" type="pres">
+      <dgm:prSet presAssocID="{211224C1-8566-4354-88B3-5D447D1FE9A7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{05EF2B83-D736-4D74-A4D3-DFFBA6718185}" type="pres">
+      <dgm:prSet presAssocID="{FAF7D901-90A5-4D63-B540-F0098C05641C}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5775B216-44FE-4F35-B639-AF206C3F76DD}" type="pres">
+      <dgm:prSet presAssocID="{FAF7D901-90A5-4D63-B540-F0098C05641C}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="20"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{511542E0-3A37-4DC2-9D38-783C71792916}" type="pres">
+      <dgm:prSet presAssocID="{FAF7D901-90A5-4D63-B540-F0098C05641C}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DF3E950C-F570-40DD-BD47-9C5516CC6FB6}" type="pres">
+      <dgm:prSet presAssocID="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D88C9FEC-C059-4849-89C3-8B1B05A6E40A}" type="pres">
+      <dgm:prSet presAssocID="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2FC89D97-028C-4786-A40F-363FA90C4022}" type="pres">
+      <dgm:prSet presAssocID="{017A9184-DEF2-4145-B985-1784EC653C12}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0E0E136A-8620-44A0-A8CA-199634068733}" type="pres">
+      <dgm:prSet presAssocID="{017A9184-DEF2-4145-B985-1784EC653C12}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="20"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E9EAF543-BA3B-460E-975D-08B8C90B7FA2}" type="pres">
+      <dgm:prSet presAssocID="{017A9184-DEF2-4145-B985-1784EC653C12}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{641D670E-C412-4D0E-A23F-D8989384F4C6}" type="pres">
+      <dgm:prSet presAssocID="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C393C001-61F3-4F2F-872E-CCFE430D85E4}" type="pres">
+      <dgm:prSet presAssocID="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{994A6DD4-8A7F-47BF-8756-A3B1244CC5A1}" type="pres">
+      <dgm:prSet presAssocID="{496BAC66-63CB-4FE6-84E1-3C96E19AEB0D}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{57692DBE-23AB-4CFD-8267-448DDA996315}" type="pres">
+      <dgm:prSet presAssocID="{496BAC66-63CB-4FE6-84E1-3C96E19AEB0D}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="20"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EC4EF17D-CD76-4F4F-AC79-6A5AC7A20D19}" type="pres">
+      <dgm:prSet presAssocID="{496BAC66-63CB-4FE6-84E1-3C96E19AEB0D}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{33C553A3-157B-4A7E-A9A2-619C06049D06}" type="pres">
+      <dgm:prSet presAssocID="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CCC040B1-1277-467F-8DE1-686DC823CAC4}" type="pres">
+      <dgm:prSet presAssocID="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4C329847-9B46-4767-85A7-F0A0DB173E1D}" type="pres">
+      <dgm:prSet presAssocID="{4B8D0128-7CF7-4465-BFA0-6F5F34B34AB6}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E52019C8-7216-48BA-A1EB-279757EB0574}" type="pres">
+      <dgm:prSet presAssocID="{4B8D0128-7CF7-4465-BFA0-6F5F34B34AB6}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="18" presStyleCnt="20"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BF9BC1DE-3269-4BDD-8643-A42E0390BADB}" type="pres">
+      <dgm:prSet presAssocID="{4B8D0128-7CF7-4465-BFA0-6F5F34B34AB6}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CA60F4DB-F023-433F-95B2-356A28D29C17}" type="pres">
+      <dgm:prSet presAssocID="{1BA67879-58D8-44D2-879D-13516216E2E4}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DAEC425D-96C4-4F6C-817D-299ECED70A00}" type="pres">
+      <dgm:prSet presAssocID="{1BA67879-58D8-44D2-879D-13516216E2E4}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="20"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E6188837-C4CA-4575-B2D3-17C3F5B95427}" type="pres">
+      <dgm:prSet presAssocID="{68DD22E8-9E1F-4630-8302-69683E3575E4}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{430A3F02-1AD7-4B3E-93A4-A48F033178F2}" type="pres">
+      <dgm:prSet presAssocID="{68DD22E8-9E1F-4630-8302-69683E3575E4}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="19" presStyleCnt="20"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2C6E9674-2C23-4A39-943A-327F4E1A1DF3}" type="pres">
+      <dgm:prSet presAssocID="{68DD22E8-9E1F-4630-8302-69683E3575E4}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{07B0A892-030E-4A52-9BA5-92180C9C2B9B}" type="pres">
@@ -6242,37 +7212,97 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{1447143E-A527-4F9F-A524-5DACC4C17553}" type="presOf" srcId="{E330EAC3-672C-4E4F-8377-A820D547B924}" destId="{E1D68129-142E-4A8A-B96C-E43717499CD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A6877520-F558-4E0F-91A6-69B90F12DD70}" type="presOf" srcId="{2D414069-067C-4600-A128-6B14AA4F61CB}" destId="{0801DDAF-EEDB-4FB0-9CBD-634BB92409A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{05DA63EC-BA88-43AF-AF3F-4A7DA6DD9849}" type="presOf" srcId="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" destId="{33C553A3-157B-4A7E-A9A2-619C06049D06}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BAB31805-CE2E-4372-BB96-F6AEDDD43412}" type="presOf" srcId="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" destId="{4CFD6804-8C0F-4F9F-A90E-6BD5AB9C2B8C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{F95E9E9B-2184-4082-B324-4D46A3530B9C}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{68DD22E8-9E1F-4630-8302-69683E3575E4}" srcOrd="6" destOrd="0" parTransId="{1BA67879-58D8-44D2-879D-13516216E2E4}" sibTransId="{081E5A47-00CC-4E31-8351-80CB32D0E3D1}"/>
+    <dgm:cxn modelId="{666EBFF3-045A-4DB9-9611-0D4863A763BC}" type="presOf" srcId="{017A9184-DEF2-4145-B985-1784EC653C12}" destId="{0E0E136A-8620-44A0-A8CA-199634068733}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{ECE0BE17-8875-4C84-BD12-7FC323430ECD}" type="presOf" srcId="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" destId="{1F30B705-D4F7-485E-9F36-062F34A99D2A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{723667AA-4797-4407-975D-48581F8BF189}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{30F80E6A-A636-434A-952F-806EAF184437}" srcOrd="3" destOrd="0" parTransId="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" sibTransId="{9C06FDEB-50DD-485B-8D3D-A420E15CEA50}"/>
+    <dgm:cxn modelId="{5CD9EB8C-0C1C-4426-B8B3-30D9B7264B57}" type="presOf" srcId="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" destId="{D47872FA-6671-4924-8700-A6F7228C9CAA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{DA82E983-7C17-47B9-8535-A0CA96AD9425}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" srcOrd="3" destOrd="0" parTransId="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" sibTransId="{D8923E56-A77E-4877-A47F-76A2D9E3803C}"/>
+    <dgm:cxn modelId="{AC2C8475-4889-4E3A-8768-E7C0865179E5}" type="presOf" srcId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" destId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BF68ED17-194A-4611-A94D-5B70729044AF}" type="presOf" srcId="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" destId="{C70A7FBD-BD4A-45C8-BFF3-9B3D1D482109}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{CDC87E84-D14B-42D1-8A31-254B7EA784A1}" type="presOf" srcId="{68DD22E8-9E1F-4630-8302-69683E3575E4}" destId="{430A3F02-1AD7-4B3E-93A4-A48F033178F2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{7DC03675-4D52-45CE-988B-FEF85E39DA38}" type="presOf" srcId="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" destId="{9297FB63-9F0A-4A11-BBE6-EACD5E3D5B3A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A9A519D6-F6B1-4581-B2EB-869EA9F61BA3}" type="presOf" srcId="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" destId="{2898F935-43C7-4879-803D-0CF37CADF3CA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C13BCAA9-1381-49DC-A043-45993735F4FA}" type="presOf" srcId="{295836EE-9898-4D01-8116-58F01C1A8092}" destId="{9F4DB3E8-6BDE-4789-8CC1-3B5E11758B86}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{35F1E70A-9F62-4B6B-8D65-B663D9D1F862}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" srcOrd="1" destOrd="0" parTransId="{8B5AD710-3453-4459-A021-4BD74C23C219}" sibTransId="{8C60739A-E9F0-4A1F-A4F6-66CA10C2223A}"/>
+    <dgm:cxn modelId="{F1AF9E78-287F-4722-BE1E-D4AFE571662F}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{B7FB9C49-37C5-44CC-A6E9-1F35367C20AE}" srcOrd="0" destOrd="0" parTransId="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" sibTransId="{C6C2F5B2-F858-4699-B1DF-0A9C787E3A7E}"/>
+    <dgm:cxn modelId="{0D09AB05-6936-4EDF-BBDF-5E31669CF17B}" type="presOf" srcId="{E799A07D-AE9D-4715-B273-0D81BE9946AD}" destId="{AD4DEA5A-B382-4ADA-86B7-A56A91105758}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1B4BE6C0-A187-459C-B7C9-97391CFD9216}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" srcOrd="1" destOrd="0" parTransId="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" sibTransId="{1FDE62D4-4956-453C-9CCB-584B532AD74F}"/>
+    <dgm:cxn modelId="{CCEE8C2D-1D4F-4B3A-8DF3-56EC13162155}" type="presOf" srcId="{4B8D0128-7CF7-4465-BFA0-6F5F34B34AB6}" destId="{E52019C8-7216-48BA-A1EB-279757EB0574}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6B1778C6-9CC4-4191-A651-D76868454C3C}" type="presOf" srcId="{1BA67879-58D8-44D2-879D-13516216E2E4}" destId="{DAEC425D-96C4-4F6C-817D-299ECED70A00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{E9C023D9-FDC1-4DF3-AD45-34AAB9583A36}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" srcOrd="0" destOrd="0" parTransId="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" sibTransId="{404732D1-7624-43D5-9F79-CE1ECE11FBE6}"/>
+    <dgm:cxn modelId="{4B4ECA0E-803B-45DB-92AA-E3F68BAB066A}" type="presOf" srcId="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" destId="{08C27923-5E46-40F6-A0E1-9A9AC1CE3C12}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{10BFBC44-72A7-4EAB-9DDB-FF2FD8CCB687}" type="presOf" srcId="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" destId="{7198C7EC-7623-4A5E-BC87-C3132AB8338A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{242B984C-296B-4A21-B9D4-86FFCAB6C58B}" type="presOf" srcId="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" destId="{443D1CFF-1AB4-4A1A-A786-8370C61C29BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0ADA8733-D9EE-43E3-8422-6769D34CF180}" type="presOf" srcId="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" destId="{D88C9FEC-C059-4849-89C3-8B1B05A6E40A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{065E058B-9BBA-4F70-ABC3-200FAB07429F}" type="presOf" srcId="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" destId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{34BB8730-4A7E-4C6C-8799-E83AEEFF129F}" type="presOf" srcId="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" destId="{746E57B4-FFA3-4E88-BCD5-9D79BDBD9277}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{557A4395-07D5-4339-BB20-42556F4487D4}" type="presOf" srcId="{8B5AD710-3453-4459-A021-4BD74C23C219}" destId="{EA0863B0-AD59-4641-ADAD-9375F74FE231}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{416194BD-6EBD-4A07-9DE1-001FBB4103C1}" type="presOf" srcId="{CA122700-3CB7-4094-8D40-298220BCF9CE}" destId="{3F791B83-8F9D-4AEC-A34E-F3313F38BEB7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{DBBDA661-893F-4C74-B66B-2EA622CBB5E3}" type="presOf" srcId="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" destId="{DF3E950C-F570-40DD-BD47-9C5516CC6FB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{38054A65-D83F-4749-B0E3-119B699329D6}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{4B8D0128-7CF7-4465-BFA0-6F5F34B34AB6}" srcOrd="5" destOrd="0" parTransId="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" sibTransId="{3D0F18FE-484C-427B-8745-6B854DDFFC5D}"/>
+    <dgm:cxn modelId="{CEC118CA-636C-4BCF-A59C-19DDB5D3CC87}" type="presOf" srcId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" destId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{E3D6913A-E156-40D1-96AD-E81ED55C4D8B}" type="presOf" srcId="{496BAC66-63CB-4FE6-84E1-3C96E19AEB0D}" destId="{57692DBE-23AB-4CFD-8267-448DDA996315}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{12548BC3-C3CC-4665-9F7A-27458648BD5C}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" srcOrd="0" destOrd="0" parTransId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" sibTransId="{55ABE942-6067-4A5A-B82B-7CBD4F2A758A}"/>
+    <dgm:cxn modelId="{F2B13EDA-F149-4A54-BD2B-C3FD6DF3EA54}" type="presOf" srcId="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" destId="{CCC040B1-1277-467F-8DE1-686DC823CAC4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6CD41AC0-251D-4922-9575-8B4512ADF8B1}" type="presOf" srcId="{201D2E86-29B5-44CE-B880-84185C4C9696}" destId="{C9AC55F9-27BD-4C07-BCE1-57BCE584CFE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0C1E16C2-E753-4FA5-A303-4F45B8C36CF5}" type="presOf" srcId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" destId="{AB15B0AB-EC18-49A3-BB95-9A9668A68592}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1E103175-C1F8-4CF4-A331-DA2D7D01F24E}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{FAF7D901-90A5-4D63-B540-F0098C05641C}" srcOrd="4" destOrd="0" parTransId="{211224C1-8566-4354-88B3-5D447D1FE9A7}" sibTransId="{03373185-46B9-4F08-92C1-C0C8D10159BC}"/>
+    <dgm:cxn modelId="{9FB8E239-9359-4A43-BC82-60621C16E7DC}" type="presOf" srcId="{201D2E86-29B5-44CE-B880-84185C4C9696}" destId="{AC631A13-A371-4978-9364-985E50833F88}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{DB0BAA33-19C3-40FB-8E71-17E8BDE027E8}" type="presOf" srcId="{211224C1-8566-4354-88B3-5D447D1FE9A7}" destId="{B410FAB9-5A46-4E97-9C89-8CC2B47C05E3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{AA865BA5-FDD4-45D2-8F2B-8791419E4897}" srcId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" destId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" srcOrd="0" destOrd="0" parTransId="{201D2E86-29B5-44CE-B880-84185C4C9696}" sibTransId="{28ABEC6F-261B-428D-8FD1-516BB62249B0}"/>
+    <dgm:cxn modelId="{4B91FD79-7F95-4CB5-871C-625FD7075E19}" type="presOf" srcId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" destId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0F3A6965-1E78-4871-AF0B-360652B5CA2C}" srcId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" destId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" srcOrd="0" destOrd="0" parTransId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" sibTransId="{39DE77A3-87E6-46B4-A2E3-3009DB60BF12}"/>
+    <dgm:cxn modelId="{5FF686C6-17E5-4A59-9952-E07C0DE58854}" type="presOf" srcId="{CA122700-3CB7-4094-8D40-298220BCF9CE}" destId="{4DA3DE6D-E22A-459F-9C90-25561DC5E2FD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{2202FB61-787D-4216-82D1-93E2EE2845D3}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{017A9184-DEF2-4145-B985-1784EC653C12}" srcOrd="4" destOrd="0" parTransId="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" sibTransId="{A5D0D2A1-991C-4A0F-9550-67F9E198910C}"/>
+    <dgm:cxn modelId="{50075FF3-D713-4A18-B84F-BBFAD70520A3}" type="presOf" srcId="{C17FDAA5-5247-40D3-A375-0421F2890443}" destId="{F8A96FFD-FE69-476E-A459-8F49D47314A7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{2785768C-2051-49D5-865B-2108027A306D}" type="presOf" srcId="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" destId="{D7231407-A161-4C9C-BFB9-D651AF1947FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{EF6A7F97-0327-4239-98A0-751CD7AC785C}" type="presOf" srcId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" destId="{E8E018BE-5584-4651-93AA-17B4C22EF729}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{80A4DC88-9406-46E8-B024-2D4FDA6C9D84}" type="presOf" srcId="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" destId="{B9B4D712-3F31-42DD-BA96-FD41945417A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{72C3E7A5-A242-4C34-9E1A-224DCDE18595}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{3C036C0B-079B-4BE1-95F5-409D9EAEA50E}" srcOrd="3" destOrd="0" parTransId="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" sibTransId="{E88C81FA-7825-4CFE-A1B1-EF8BD70C9EE7}"/>
+    <dgm:cxn modelId="{BC7353E9-901D-4DBC-B847-279B6C2F6697}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" srcOrd="1" destOrd="0" parTransId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" sibTransId="{162F667C-216A-4CF4-89D5-AA1A30D1A241}"/>
+    <dgm:cxn modelId="{8368D1B5-5E22-4CEE-81BC-72049EC43847}" type="presOf" srcId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" destId="{DD9241E1-4FE0-446D-A84C-5DB9472C5DFC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{3C6F7512-4D7D-4924-96AB-59CE084ED8C1}" type="presOf" srcId="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" destId="{9307F662-7AEC-4FD9-B049-1251B671D585}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{FBCE7963-7FD4-4165-8CE3-5E5E665971A4}" type="presOf" srcId="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" destId="{B40D749F-EAAC-47DA-BB9F-4E368D95F9B2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{9BE1E706-B48B-4F02-B830-44DDC8745F02}" type="presOf" srcId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" destId="{8F62B0A0-055B-4267-AC07-31B1EC1A0A7B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{895AD91E-84BB-4FD0-99FC-61244BEE6BD9}" type="presOf" srcId="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" destId="{0F3CDCF7-7401-45DB-841B-0EDE1B628B67}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{25FA581E-F5E0-4923-BFA8-F2BD418A9C00}" type="presOf" srcId="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" destId="{0575102E-0DA6-4AC8-8596-3ABCEB6D6A42}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{81CF8FD9-FE27-42B1-9C51-8519570838EE}" type="presOf" srcId="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" destId="{C393C001-61F3-4F2F-872E-CCFE430D85E4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{3E4D03AB-922F-4ECC-8800-D9F68E320B7F}" type="presOf" srcId="{30F80E6A-A636-434A-952F-806EAF184437}" destId="{C25262C4-ABEB-46B4-B8CF-A0B809264530}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{23EB6930-CC5E-4ED7-BA3F-7E07AB8DC708}" type="presOf" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{B512A0DA-199F-45E7-ADCB-1D19A5DB77C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{9565190C-FE6F-460C-86F5-AE07E63B29AB}" type="presOf" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{32287D36-9BC6-44F1-BCC3-DF54122829DC}" type="presOf" srcId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" destId="{DC6A21B9-A9D2-4F85-8A73-A6A117693EF4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{A4D0B4E6-C6D3-4FDE-ACF6-3D2644405668}" type="presOf" srcId="{ED862AD3-1821-4DC4-BB16-0C3EFF975AA7}" destId="{6ACA4257-28F6-41BB-B600-EAFEAF2938C6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{9BE1E706-B48B-4F02-B830-44DDC8745F02}" type="presOf" srcId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" destId="{8F62B0A0-055B-4267-AC07-31B1EC1A0A7B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{0C1E16C2-E753-4FA5-A303-4F45B8C36CF5}" type="presOf" srcId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" destId="{AB15B0AB-EC18-49A3-BB95-9A9668A68592}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{20214083-5A9E-4C45-9CAF-505B5E8958DD}" srcId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" destId="{E8C41B39-016E-4213-B80B-71616F1709EB}" srcOrd="1" destOrd="0" parTransId="{ED862AD3-1821-4DC4-BB16-0C3EFF975AA7}" sibTransId="{0CF6906F-DCC2-4311-ACA3-0E663A291DBE}"/>
-    <dgm:cxn modelId="{12548BC3-C3CC-4665-9F7A-27458648BD5C}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" srcOrd="0" destOrd="0" parTransId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" sibTransId="{55ABE942-6067-4A5A-B82B-7CBD4F2A758A}"/>
-    <dgm:cxn modelId="{557A4395-07D5-4339-BB20-42556F4487D4}" type="presOf" srcId="{8B5AD710-3453-4459-A021-4BD74C23C219}" destId="{EA0863B0-AD59-4641-ADAD-9375F74FE231}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{9565190C-FE6F-460C-86F5-AE07E63B29AB}" type="presOf" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{4B91FD79-7F95-4CB5-871C-625FD7075E19}" type="presOf" srcId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" destId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{9FB8E239-9359-4A43-BC82-60621C16E7DC}" type="presOf" srcId="{201D2E86-29B5-44CE-B880-84185C4C9696}" destId="{AC631A13-A371-4978-9364-985E50833F88}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{8561F031-CB90-4BDA-884A-038877B865FD}" type="presOf" srcId="{3C036C0B-079B-4BE1-95F5-409D9EAEA50E}" destId="{1E38A29E-159D-47A6-88BA-C2A8D6EE0DD3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6E695587-AA8C-46D1-81C6-7EE46864F7DD}" type="presOf" srcId="{B7FB9C49-37C5-44CC-A6E9-1F35367C20AE}" destId="{634A27FE-F3F3-4A9C-84EC-9561A9A7F6B1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BB6457E0-3EB9-4C85-A5DC-6FB873A9866B}" srcId="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" destId="{C17FDAA5-5247-40D3-A375-0421F2890443}" srcOrd="0" destOrd="0" parTransId="{CA122700-3CB7-4094-8D40-298220BCF9CE}" sibTransId="{A0B0EF1B-03CC-48AF-89BC-FF9D8B444EE0}"/>
+    <dgm:cxn modelId="{E28A5A0E-6F42-43CC-85BC-A4F741962A3E}" type="presOf" srcId="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}" destId="{4707F9A1-D761-4EDB-ACAD-70D62191C0C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{B5BFB057-AF6E-48AA-BE1C-F82837D9D828}" type="presOf" srcId="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" destId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{2AB07F18-F55A-4C5E-9BC6-4B4F9065502F}" type="presOf" srcId="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" destId="{1D0C8CB8-6BD7-481D-A856-4E83066AB9BB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{2A25FC5B-61D1-4698-9B47-38E7568A0BCA}" type="presOf" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{7E14C1C1-BC53-4754-92BA-B9751D55335A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BDFF1F1D-9AA1-4FF0-AB3C-B7BF4ACFFA50}" type="presOf" srcId="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" destId="{FCEB44E5-7AF6-4EBB-9766-B34343D312FE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{871ABAA3-EDE8-4286-8BC0-754EB530EA7F}" type="presOf" srcId="{211224C1-8566-4354-88B3-5D447D1FE9A7}" destId="{343E6E5B-CC3D-4E24-955B-0E5B78CE3991}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{515F7375-CB11-470B-A49E-11CE0F958D40}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{E330EAC3-672C-4E4F-8377-A820D547B924}" srcOrd="2" destOrd="0" parTransId="{2D414069-067C-4600-A128-6B14AA4F61CB}" sibTransId="{8CA0550D-EFE1-4B93-9411-0335F47A3217}"/>
+    <dgm:cxn modelId="{BF911B88-5C25-4E9F-8687-581BDC18E261}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" srcOrd="2" destOrd="0" parTransId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" sibTransId="{EC3045C6-6E17-4767-BBD6-A62A64E2BDD5}"/>
+    <dgm:cxn modelId="{F1E392D2-A23D-4F4B-9E70-FD1FE0A07866}" type="presOf" srcId="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" destId="{B1C8A51E-5E7B-42B8-BF39-8C9A68CF865A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4103F6C1-505E-4792-8993-551F2EE87A62}" type="presOf" srcId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" destId="{9F9A6106-7959-4F3A-AD4F-E4852F2499BE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{218DAF4E-1C6A-4176-9879-BD23227FEA41}" srcId="{017A9184-DEF2-4145-B985-1784EC653C12}" destId="{496BAC66-63CB-4FE6-84E1-3C96E19AEB0D}" srcOrd="0" destOrd="0" parTransId="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" sibTransId="{CEF146C5-118A-4EC6-9B21-DE5EFEA4934D}"/>
+    <dgm:cxn modelId="{0CADD679-AA74-457C-B72E-BA53254E3642}" type="presOf" srcId="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" destId="{45E3EAF8-FED0-49D3-9BE1-9EAFBD862872}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6301EB1B-5754-43EB-8584-A7D3BE5D5BB6}" type="presOf" srcId="{1BA67879-58D8-44D2-879D-13516216E2E4}" destId="{CA60F4DB-F023-433F-95B2-356A28D29C17}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{7A92B652-FC89-417D-8F18-C6F6BE769253}" type="presOf" srcId="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" destId="{A2EFEE31-448F-455C-8C70-CD33577FC4C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{D2D9C506-9468-4A19-80B4-F04B6B00D6CF}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}" srcOrd="2" destOrd="0" parTransId="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" sibTransId="{96EA5327-EA59-489E-BAF9-8864B7D5E133}"/>
+    <dgm:cxn modelId="{1FD4E344-0D9C-4719-A791-B90F9C5AFCAC}" type="presOf" srcId="{2D414069-067C-4600-A128-6B14AA4F61CB}" destId="{021F3772-C225-43E6-82C2-AFC2A70A3D69}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{3627BA9C-2188-41BC-9A4D-5E572F3CCDFB}" type="presOf" srcId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" destId="{135742A3-6E51-4EB7-B239-943F208D9E9C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{236E1B5A-7210-4114-9E0F-D4FAB3DEF19C}" type="presOf" srcId="{FAF7D901-90A5-4D63-B540-F0098C05641C}" destId="{5775B216-44FE-4F35-B639-AF206C3F76DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BB75F691-DCBA-48B5-82C0-4991E309250F}" srcId="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" destId="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" srcOrd="0" destOrd="0" parTransId="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" sibTransId="{F4EBB8EA-FEA3-429E-B779-EF8A2AEEA79B}"/>
+    <dgm:cxn modelId="{0E8B65EE-845B-4528-98DF-E6FA51F7D84A}" srcId="{C17FDAA5-5247-40D3-A375-0421F2890443}" destId="{E799A07D-AE9D-4715-B273-0D81BE9946AD}" srcOrd="0" destOrd="0" parTransId="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" sibTransId="{F8396548-1223-4D0A-9AEE-ABF4E57FC2D7}"/>
+    <dgm:cxn modelId="{CAA5A420-DDAD-4CDB-B656-4498C00CD74A}" type="presOf" srcId="{8B5AD710-3453-4459-A021-4BD74C23C219}" destId="{8783F691-2C30-4412-98D8-FDAC14A8B237}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{000773AC-81AA-430B-8B01-7E545191E57A}" srcId="{295836EE-9898-4D01-8116-58F01C1A8092}" destId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" srcOrd="0" destOrd="0" parTransId="{8EA142D3-7323-43A5-87B8-F1214F4A980D}" sibTransId="{B0E45E60-0CFB-4F25-8337-FC54C681585D}"/>
-    <dgm:cxn modelId="{BF911B88-5C25-4E9F-8687-581BDC18E261}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" srcOrd="1" destOrd="0" parTransId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" sibTransId="{EC3045C6-6E17-4767-BBD6-A62A64E2BDD5}"/>
-    <dgm:cxn modelId="{35F1E70A-9F62-4B6B-8D65-B663D9D1F862}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" srcOrd="1" destOrd="0" parTransId="{8B5AD710-3453-4459-A021-4BD74C23C219}" sibTransId="{8C60739A-E9F0-4A1F-A4F6-66CA10C2223A}"/>
-    <dgm:cxn modelId="{8368D1B5-5E22-4CEE-81BC-72049EC43847}" type="presOf" srcId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" destId="{DD9241E1-4FE0-446D-A84C-5DB9472C5DFC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{3627BA9C-2188-41BC-9A4D-5E572F3CCDFB}" type="presOf" srcId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" destId="{135742A3-6E51-4EB7-B239-943F208D9E9C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{5CD9EB8C-0C1C-4426-B8B3-30D9B7264B57}" type="presOf" srcId="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" destId="{D47872FA-6671-4924-8700-A6F7228C9CAA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{6CD41AC0-251D-4922-9575-8B4512ADF8B1}" type="presOf" srcId="{201D2E86-29B5-44CE-B880-84185C4C9696}" destId="{C9AC55F9-27BD-4C07-BCE1-57BCE584CFE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{4101698A-1813-49A1-A2EB-4A1D796E6E1F}" type="presOf" srcId="{E8C41B39-016E-4213-B80B-71616F1709EB}" destId="{564C0EB9-E7D8-4682-B16E-0ADD761EE08E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{0F3A6965-1E78-4871-AF0B-360652B5CA2C}" srcId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" destId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" srcOrd="0" destOrd="0" parTransId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" sibTransId="{39DE77A3-87E6-46B4-A2E3-3009DB60BF12}"/>
-    <dgm:cxn modelId="{B5BFB057-AF6E-48AA-BE1C-F82837D9D828}" type="presOf" srcId="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" destId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{EF6A7F97-0327-4239-98A0-751CD7AC785C}" type="presOf" srcId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" destId="{E8E018BE-5584-4651-93AA-17B4C22EF729}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{CAA5A420-DDAD-4CDB-B656-4498C00CD74A}" type="presOf" srcId="{8B5AD710-3453-4459-A021-4BD74C23C219}" destId="{8783F691-2C30-4412-98D8-FDAC14A8B237}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{4C855954-AF9E-4DA5-905A-A759DEA2D333}" type="presOf" srcId="{ED862AD3-1821-4DC4-BB16-0C3EFF975AA7}" destId="{7A3E7577-E672-4DD8-BF96-5714BC38366D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{23EB6930-CC5E-4ED7-BA3F-7E07AB8DC708}" type="presOf" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{B512A0DA-199F-45E7-ADCB-1D19A5DB77C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{CEC118CA-636C-4BCF-A59C-19DDB5D3CC87}" type="presOf" srcId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" destId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{065E058B-9BBA-4F70-ABC3-200FAB07429F}" type="presOf" srcId="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" destId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{C13BCAA9-1381-49DC-A043-45993735F4FA}" type="presOf" srcId="{295836EE-9898-4D01-8116-58F01C1A8092}" destId="{9F4DB3E8-6BDE-4789-8CC1-3B5E11758B86}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{4103F6C1-505E-4792-8993-551F2EE87A62}" type="presOf" srcId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" destId="{9F9A6106-7959-4F3A-AD4F-E4852F2499BE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{AC2C8475-4889-4E3A-8768-E7C0865179E5}" type="presOf" srcId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" destId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{AA865BA5-FDD4-45D2-8F2B-8791419E4897}" srcId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" destId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" srcOrd="0" destOrd="0" parTransId="{201D2E86-29B5-44CE-B880-84185C4C9696}" sibTransId="{28ABEC6F-261B-428D-8FD1-516BB62249B0}"/>
-    <dgm:cxn modelId="{BC7353E9-901D-4DBC-B847-279B6C2F6697}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" srcOrd="0" destOrd="0" parTransId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" sibTransId="{162F667C-216A-4CF4-89D5-AA1A30D1A241}"/>
+    <dgm:cxn modelId="{CF909A5E-E31F-43CE-9067-78FC32D51DD6}" type="presOf" srcId="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" destId="{BA10F88C-69F8-41F6-A540-002FB9AEE59B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1A574872-508E-4A50-89FD-92F1760E8842}" type="presOf" srcId="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" destId="{641D670E-C412-4D0E-A23F-D8989384F4C6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{2787FE32-FC36-46C0-9D35-DDBAFF7E56EB}" type="presParOf" srcId="{9F4DB3E8-6BDE-4789-8CC1-3B5E11758B86}" destId="{2F12C531-236E-4BA1-B421-3771C12823A5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{CDC852FE-CC3C-465B-BB72-330EE3C8766E}" type="presParOf" srcId="{2F12C531-236E-4BA1-B421-3771C12823A5}" destId="{C53E3F74-DDEF-4E78-835A-2CE3DA176D42}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{F055BC50-A045-49CF-8A6B-8253E5B820E2}" type="presParOf" srcId="{C53E3F74-DDEF-4E78-835A-2CE3DA176D42}" destId="{6478DF03-1D40-49C2-B53A-E2DB8D6A01E8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
@@ -6288,9 +7318,29 @@
     <dgm:cxn modelId="{7D65E823-10B1-4FB9-9AD6-5C75522F303F}" type="presParOf" srcId="{DB9F66EA-8AB5-4B55-854C-942D0A4096E7}" destId="{8B507F29-0A07-44E6-A1BA-58E66D4E815D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{83DB2C5B-CC96-463A-8BFF-B31A2DF1D4BD}" type="presParOf" srcId="{8B507F29-0A07-44E6-A1BA-58E66D4E815D}" destId="{B512A0DA-199F-45E7-ADCB-1D19A5DB77C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{C03E026F-66E0-40D7-8556-4078300C6733}" type="presParOf" srcId="{8B507F29-0A07-44E6-A1BA-58E66D4E815D}" destId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{EFC5E965-B5B4-4EA6-B55A-20D276AE9BD7}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{B0316680-47FD-4113-AF2E-72977647A305}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{D7231407-A161-4C9C-BFB9-D651AF1947FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{EFC8C1A8-8576-4B08-B1D1-D0650FD8F85A}" type="presParOf" srcId="{D7231407-A161-4C9C-BFB9-D651AF1947FD}" destId="{B1C8A51E-5E7B-42B8-BF39-8C9A68CF865A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{35CFBBF2-6EB6-46ED-A339-98FCEBBA1191}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{88632946-8097-4FA2-B5E9-B577000B97E3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{48E03B5E-28B6-4B2D-820E-315314E0AE9A}" type="presParOf" srcId="{88632946-8097-4FA2-B5E9-B577000B97E3}" destId="{2898F935-43C7-4879-803D-0CF37CADF3CA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{D9AF3705-170C-4A92-B8A1-B7375E7E7908}" type="presParOf" srcId="{88632946-8097-4FA2-B5E9-B577000B97E3}" destId="{54A2E538-DDB1-4A85-8FFE-460F1C6F8C32}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{62CDC1F9-DCDC-42F1-9245-33410A95688F}" type="presParOf" srcId="{54A2E538-DDB1-4A85-8FFE-460F1C6F8C32}" destId="{4CFD6804-8C0F-4F9F-A90E-6BD5AB9C2B8C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{023E694A-1A27-4F6B-B887-99F78DB1021A}" type="presParOf" srcId="{4CFD6804-8C0F-4F9F-A90E-6BD5AB9C2B8C}" destId="{0F3CDCF7-7401-45DB-841B-0EDE1B628B67}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{7DE139A4-1DC2-4DF5-AC18-74D189DAABA7}" type="presParOf" srcId="{54A2E538-DDB1-4A85-8FFE-460F1C6F8C32}" destId="{76ECF671-85DB-4639-B976-B7EA27095C9A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{23723603-3F05-4150-8181-01CA8EBCEF49}" type="presParOf" srcId="{76ECF671-85DB-4639-B976-B7EA27095C9A}" destId="{A2EFEE31-448F-455C-8C70-CD33577FC4C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A78AD550-EADB-4F93-8FD5-FDD246E5ED39}" type="presParOf" srcId="{76ECF671-85DB-4639-B976-B7EA27095C9A}" destId="{B59C777A-7711-432F-9CC3-7AC44E3D43FC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BC3265D5-81DC-4A47-894C-73679C13A45C}" type="presParOf" srcId="{B59C777A-7711-432F-9CC3-7AC44E3D43FC}" destId="{3F791B83-8F9D-4AEC-A34E-F3313F38BEB7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{EA7FECC4-3BF1-4F1F-AE6C-C42FC8231CC7}" type="presParOf" srcId="{3F791B83-8F9D-4AEC-A34E-F3313F38BEB7}" destId="{4DA3DE6D-E22A-459F-9C90-25561DC5E2FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C797A460-0CEA-4326-AC86-B53496B6D1F3}" type="presParOf" srcId="{B59C777A-7711-432F-9CC3-7AC44E3D43FC}" destId="{4EF784B9-F76C-473D-987E-368332D36D7B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{F26F78E5-A6ED-43AA-9474-837294122767}" type="presParOf" srcId="{4EF784B9-F76C-473D-987E-368332D36D7B}" destId="{F8A96FFD-FE69-476E-A459-8F49D47314A7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6D21D80C-4A10-49E7-B0E3-7AF8FB0E84D0}" type="presParOf" srcId="{4EF784B9-F76C-473D-987E-368332D36D7B}" destId="{8229884C-D76D-4F4B-B282-EFDAE285A81E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1CF2979F-4B74-494A-9662-7C03C5643BCC}" type="presParOf" srcId="{8229884C-D76D-4F4B-B282-EFDAE285A81E}" destId="{746E57B4-FFA3-4E88-BCD5-9D79BDBD9277}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{7781A8BC-292B-4CF0-AD1E-377F905D8A6A}" type="presParOf" srcId="{746E57B4-FFA3-4E88-BCD5-9D79BDBD9277}" destId="{C70A7FBD-BD4A-45C8-BFF3-9B3D1D482109}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{32CAEF19-8F91-494C-947D-728EE78BEC5A}" type="presParOf" srcId="{8229884C-D76D-4F4B-B282-EFDAE285A81E}" destId="{DDF10F2D-2C7D-469C-A5ED-3B5FE30D590B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{344AFEA6-0FCE-462D-BBBB-8417E753574E}" type="presParOf" srcId="{DDF10F2D-2C7D-469C-A5ED-3B5FE30D590B}" destId="{AD4DEA5A-B382-4ADA-86B7-A56A91105758}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{E00B8B72-53E6-4759-B1C8-278B2256C000}" type="presParOf" srcId="{DDF10F2D-2C7D-469C-A5ED-3B5FE30D590B}" destId="{C6C265F5-4980-4ED9-A010-CE92F916CA57}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{EFC5E965-B5B4-4EA6-B55A-20D276AE9BD7}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{1997EA91-E48F-4F15-ADA4-6177BD2CB43E}" type="presParOf" srcId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}" destId="{DD9241E1-4FE0-446D-A84C-5DB9472C5DFC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{E2BED829-7CEC-4224-9AB6-2240DD6774A3}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{A230C792-8C7C-4E50-9C12-B30D4CB434AF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{E2BED829-7CEC-4224-9AB6-2240DD6774A3}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{A230C792-8C7C-4E50-9C12-B30D4CB434AF}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{70766893-07FD-4D3F-9E17-3F78575E5DA9}" type="presParOf" srcId="{A230C792-8C7C-4E50-9C12-B30D4CB434AF}" destId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{D282ACF0-30EA-4456-A438-622DED123EC7}" type="presParOf" srcId="{A230C792-8C7C-4E50-9C12-B30D4CB434AF}" destId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{BD15C237-EBC4-4F22-A707-DDD84601C2D8}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
@@ -6303,16 +7353,71 @@
     <dgm:cxn modelId="{B054ACCA-BA8F-4D48-8483-B86D6921E664}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{D7C79EE1-DFD6-41EE-9A7F-6FDF3A4351AC}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{F2715551-5329-41EB-9CE4-521038B2ED56}" type="presParOf" srcId="{D7C79EE1-DFD6-41EE-9A7F-6FDF3A4351AC}" destId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{53701732-6979-4CDE-82A6-E135D3F1D277}" type="presParOf" srcId="{D7C79EE1-DFD6-41EE-9A7F-6FDF3A4351AC}" destId="{E956A68F-B708-45F2-BFB0-6F6253DADAF1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{FADA2D48-88A6-4D83-A5F3-0BE5546DEB83}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{FC80838B-4695-4590-9E2B-19C47E0F137C}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{FCEB44E5-7AF6-4EBB-9766-B34343D312FE}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{5644EBAA-3347-402A-9916-821204DDFC47}" type="presParOf" srcId="{FCEB44E5-7AF6-4EBB-9766-B34343D312FE}" destId="{BA10F88C-69F8-41F6-A540-002FB9AEE59B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{29551C23-DA92-4D32-A782-0BF9B0C7138A}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{7CB4BD25-A392-4A6E-91EE-5B7CC04BD0DD}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{B33334D4-79AB-4F9E-AD05-E7A0251D1429}" type="presParOf" srcId="{7CB4BD25-A392-4A6E-91EE-5B7CC04BD0DD}" destId="{4707F9A1-D761-4EDB-ACAD-70D62191C0C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{862EAE54-5EF1-4257-A248-1F6DA047970B}" type="presParOf" srcId="{7CB4BD25-A392-4A6E-91EE-5B7CC04BD0DD}" destId="{E4F9720C-278F-431F-9FCA-FFD89016B4B2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{9918675E-04FC-4D8C-865F-04192770C001}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{9307F662-7AEC-4FD9-B049-1251B671D585}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{32CCFAED-E831-4BE0-A890-70B0F8AC585A}" type="presParOf" srcId="{9307F662-7AEC-4FD9-B049-1251B671D585}" destId="{08C27923-5E46-40F6-A0E1-9A9AC1CE3C12}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{F983E8A8-84E5-4342-B12F-0CD07D7AA04E}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{50C3BB8E-849F-4B43-9593-4085E8B94966}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{7DF76E4B-C097-47C8-A5E2-7ED5C8FA61A9}" type="presParOf" srcId="{50C3BB8E-849F-4B43-9593-4085E8B94966}" destId="{1E38A29E-159D-47A6-88BA-C2A8D6EE0DD3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{DC5607B2-C784-428D-9B33-EDDF70D17708}" type="presParOf" srcId="{50C3BB8E-849F-4B43-9593-4085E8B94966}" destId="{85821046-A123-4300-AFFA-F9DC592E2156}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{FADA2D48-88A6-4D83-A5F3-0BE5546DEB83}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{55B45366-7CB7-4D56-B80C-C82CC89053AF}" type="presParOf" srcId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" destId="{AB15B0AB-EC18-49A3-BB95-9A9668A68592}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{84FDB018-7A3E-4433-922C-237FE69C232E}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{141AC46E-6C07-46B1-A734-832EF32C43E2}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{84FDB018-7A3E-4433-922C-237FE69C232E}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{141AC46E-6C07-46B1-A734-832EF32C43E2}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{00E77205-1FC7-4764-8009-7560B9406A94}" type="presParOf" srcId="{141AC46E-6C07-46B1-A734-832EF32C43E2}" destId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{D00E97FB-467D-4760-9968-7799A736C71B}" type="presParOf" srcId="{141AC46E-6C07-46B1-A734-832EF32C43E2}" destId="{AABCFF50-AF1C-4C8B-BFAB-264D4F7BFC02}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{39073249-79C1-4000-A27A-6F79550A293C}" type="presParOf" srcId="{DB9F66EA-8AB5-4B55-854C-942D0A4096E7}" destId="{6ACA4257-28F6-41BB-B600-EAFEAF2938C6}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{1D6EF2CF-DCA7-4629-9BEC-2E88A85B2782}" type="presParOf" srcId="{6ACA4257-28F6-41BB-B600-EAFEAF2938C6}" destId="{7A3E7577-E672-4DD8-BF96-5714BC38366D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{C91FF025-E0BD-463D-A8E8-02666720D716}" type="presParOf" srcId="{DB9F66EA-8AB5-4B55-854C-942D0A4096E7}" destId="{AA742DFA-6D8C-4EEF-BA2D-E8E4B93CEB30}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{0F8BA763-D65B-4C73-A460-A9524FE70687}" type="presParOf" srcId="{AA742DFA-6D8C-4EEF-BA2D-E8E4B93CEB30}" destId="{564C0EB9-E7D8-4682-B16E-0ADD761EE08E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{86B013C5-4176-47C3-AF0B-6A8CD1368169}" type="presParOf" srcId="{AA742DFA-6D8C-4EEF-BA2D-E8E4B93CEB30}" destId="{A64C2205-DB8C-4DEC-B6E1-12B9D6C67F0F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4DDDE894-A409-4536-A761-A943B17097F6}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{0575102E-0DA6-4AC8-8596-3ABCEB6D6A42}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{06899B46-50C1-4A15-8C7E-E7B7D316F4FF}" type="presParOf" srcId="{0575102E-0DA6-4AC8-8596-3ABCEB6D6A42}" destId="{45E3EAF8-FED0-49D3-9BE1-9EAFBD862872}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BF83E17B-BFE2-4409-B37F-7AE5200186B6}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{D8306D31-FDEB-442E-9A6D-FAC8DE1296F8}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{E8544990-9D27-4A59-940C-C7AF3769D406}" type="presParOf" srcId="{D8306D31-FDEB-442E-9A6D-FAC8DE1296F8}" destId="{7E14C1C1-BC53-4754-92BA-B9751D55335A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{596E0745-47EA-4AD9-880B-912F41BE443F}" type="presParOf" srcId="{D8306D31-FDEB-442E-9A6D-FAC8DE1296F8}" destId="{6707BFE4-8C46-4983-B095-9FED02E0A041}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{57890660-C1D9-41CE-9A90-834E255608A9}" type="presParOf" srcId="{6707BFE4-8C46-4983-B095-9FED02E0A041}" destId="{1F30B705-D4F7-485E-9F36-062F34A99D2A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{9CC8F049-2852-4418-99FA-21FBC2FE317C}" type="presParOf" srcId="{1F30B705-D4F7-485E-9F36-062F34A99D2A}" destId="{9297FB63-9F0A-4A11-BBE6-EACD5E3D5B3A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{25ED1D3E-16E7-42EC-AD00-4BB1B50A87E1}" type="presParOf" srcId="{6707BFE4-8C46-4983-B095-9FED02E0A041}" destId="{5A1240A2-C5C2-494F-9508-EB596B9002F5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C8BA1B4F-5F89-4964-921E-D12AA22FD6BD}" type="presParOf" srcId="{5A1240A2-C5C2-494F-9508-EB596B9002F5}" destId="{634A27FE-F3F3-4A9C-84EC-9561A9A7F6B1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4452D9C2-1E0E-4170-9143-DBC84008588E}" type="presParOf" srcId="{5A1240A2-C5C2-494F-9508-EB596B9002F5}" destId="{04816A46-8CD7-439F-AA95-46A3E0902E3E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1BCC9B05-1C15-4E79-A145-067E86650BA8}" type="presParOf" srcId="{6707BFE4-8C46-4983-B095-9FED02E0A041}" destId="{1D0C8CB8-6BD7-481D-A856-4E83066AB9BB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0C59B444-25D3-4212-B3B6-832308F6A850}" type="presParOf" srcId="{1D0C8CB8-6BD7-481D-A856-4E83066AB9BB}" destId="{B9B4D712-3F31-42DD-BA96-FD41945417A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A8FB28B5-603F-4184-865A-B9D3A40868BE}" type="presParOf" srcId="{6707BFE4-8C46-4983-B095-9FED02E0A041}" destId="{C82BC579-8033-4FA9-BCC5-880DB641C0E1}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{E80FF367-4043-458B-9982-33E8BE6A5EA6}" type="presParOf" srcId="{C82BC579-8033-4FA9-BCC5-880DB641C0E1}" destId="{7198C7EC-7623-4A5E-BC87-C3132AB8338A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{FD14D7C0-CF7C-4C8A-A11D-BED420856DDE}" type="presParOf" srcId="{C82BC579-8033-4FA9-BCC5-880DB641C0E1}" destId="{0824303E-B3C3-4596-8A42-20865C0EBD7D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C5328A33-708F-45AC-A367-E45897CB1A6C}" type="presParOf" srcId="{6707BFE4-8C46-4983-B095-9FED02E0A041}" destId="{0801DDAF-EEDB-4FB0-9CBD-634BB92409A4}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{9FE0B1A2-D4D4-4542-958A-210DB93090F6}" type="presParOf" srcId="{0801DDAF-EEDB-4FB0-9CBD-634BB92409A4}" destId="{021F3772-C225-43E6-82C2-AFC2A70A3D69}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{392B9EED-7705-4012-9342-5784BD461E1C}" type="presParOf" srcId="{6707BFE4-8C46-4983-B095-9FED02E0A041}" destId="{ED41444A-A78D-419F-9FE0-E396CE32EE78}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{29C79BAD-8ABD-45F8-AEBE-072E135DD69D}" type="presParOf" srcId="{ED41444A-A78D-419F-9FE0-E396CE32EE78}" destId="{E1D68129-142E-4A8A-B96C-E43717499CD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{EDE2CB1E-B7FE-43D9-B343-E27A8C43DD03}" type="presParOf" srcId="{ED41444A-A78D-419F-9FE0-E396CE32EE78}" destId="{B5D9A05A-5106-4582-B0D3-3EE89B99F4E7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{292303E5-281D-49E7-9EEE-F3D5AD6B61C5}" type="presParOf" srcId="{6707BFE4-8C46-4983-B095-9FED02E0A041}" destId="{443D1CFF-1AB4-4A1A-A786-8370C61C29BF}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{5E3E0488-CF97-4F90-945A-D6BC1F471809}" type="presParOf" srcId="{443D1CFF-1AB4-4A1A-A786-8370C61C29BF}" destId="{B40D749F-EAAC-47DA-BB9F-4E368D95F9B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{775170E4-48F1-4A22-BA61-582C5EA83DCE}" type="presParOf" srcId="{6707BFE4-8C46-4983-B095-9FED02E0A041}" destId="{A1DBE4A2-F7FA-4AEB-AC03-03F48030F4F6}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{8B32E2B1-914B-481F-B74A-8188D48AF7A5}" type="presParOf" srcId="{A1DBE4A2-F7FA-4AEB-AC03-03F48030F4F6}" destId="{C25262C4-ABEB-46B4-B8CF-A0B809264530}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{37F6809C-700E-4128-A474-7B3F1A2619F0}" type="presParOf" srcId="{A1DBE4A2-F7FA-4AEB-AC03-03F48030F4F6}" destId="{1FF00289-52C3-4E92-971A-E488B5606844}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1506E179-5A15-466A-BF87-A95DEEE7FF3E}" type="presParOf" srcId="{6707BFE4-8C46-4983-B095-9FED02E0A041}" destId="{343E6E5B-CC3D-4E24-955B-0E5B78CE3991}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C22478FB-06EE-4795-8AC6-15DACEF2CDC3}" type="presParOf" srcId="{343E6E5B-CC3D-4E24-955B-0E5B78CE3991}" destId="{B410FAB9-5A46-4E97-9C89-8CC2B47C05E3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1123178B-EAA4-412E-BDDD-0726C0A892E6}" type="presParOf" srcId="{6707BFE4-8C46-4983-B095-9FED02E0A041}" destId="{05EF2B83-D736-4D74-A4D3-DFFBA6718185}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BFB091D1-3B3E-41BF-9E68-78713933B47C}" type="presParOf" srcId="{05EF2B83-D736-4D74-A4D3-DFFBA6718185}" destId="{5775B216-44FE-4F35-B639-AF206C3F76DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{43510951-ED11-4D7D-8023-BB09C5D5E37F}" type="presParOf" srcId="{05EF2B83-D736-4D74-A4D3-DFFBA6718185}" destId="{511542E0-3A37-4DC2-9D38-783C71792916}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{528E7C70-47F9-4DD8-85F6-15E0AAECF90B}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{DF3E950C-F570-40DD-BD47-9C5516CC6FB6}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C3ED25B4-77D4-49D6-B1F8-CACE25526C2D}" type="presParOf" srcId="{DF3E950C-F570-40DD-BD47-9C5516CC6FB6}" destId="{D88C9FEC-C059-4849-89C3-8B1B05A6E40A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{3C8DFA85-63F3-420C-813A-EF0CCA2F4EFC}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{2FC89D97-028C-4786-A40F-363FA90C4022}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{D5F8C993-14E3-4624-BF19-3CED4F0AAAB5}" type="presParOf" srcId="{2FC89D97-028C-4786-A40F-363FA90C4022}" destId="{0E0E136A-8620-44A0-A8CA-199634068733}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{8708513E-48D0-4951-9E3A-6EB09287C02E}" type="presParOf" srcId="{2FC89D97-028C-4786-A40F-363FA90C4022}" destId="{E9EAF543-BA3B-460E-975D-08B8C90B7FA2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{F9DF78C6-F5BE-4908-8F49-8C89EFA311C2}" type="presParOf" srcId="{E9EAF543-BA3B-460E-975D-08B8C90B7FA2}" destId="{641D670E-C412-4D0E-A23F-D8989384F4C6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{7FEDCB74-7D20-4D0D-8567-9225DA7605FD}" type="presParOf" srcId="{641D670E-C412-4D0E-A23F-D8989384F4C6}" destId="{C393C001-61F3-4F2F-872E-CCFE430D85E4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{00C8F37C-C829-46EF-A154-89C47173EE3D}" type="presParOf" srcId="{E9EAF543-BA3B-460E-975D-08B8C90B7FA2}" destId="{994A6DD4-8A7F-47BF-8756-A3B1244CC5A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{24777D00-01BF-4F8A-9619-76788B483057}" type="presParOf" srcId="{994A6DD4-8A7F-47BF-8756-A3B1244CC5A1}" destId="{57692DBE-23AB-4CFD-8267-448DDA996315}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{15BAE47C-8893-4DE4-A49A-137AD234E165}" type="presParOf" srcId="{994A6DD4-8A7F-47BF-8756-A3B1244CC5A1}" destId="{EC4EF17D-CD76-4F4F-AC79-6A5AC7A20D19}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{442ABE29-8F7F-46E3-A6B9-52B3E98ABF7C}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{33C553A3-157B-4A7E-A9A2-619C06049D06}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A7E5DAFA-863B-44B8-BD01-3914C88569BC}" type="presParOf" srcId="{33C553A3-157B-4A7E-A9A2-619C06049D06}" destId="{CCC040B1-1277-467F-8DE1-686DC823CAC4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{54449955-ECD6-498F-B340-D0E7BF7A3EE3}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{4C329847-9B46-4767-85A7-F0A0DB173E1D}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{F702E2A5-C784-43DB-8B6D-AC5A8B0B2E86}" type="presParOf" srcId="{4C329847-9B46-4767-85A7-F0A0DB173E1D}" destId="{E52019C8-7216-48BA-A1EB-279757EB0574}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{99E87AB7-83FD-474A-A073-C8C26DCBC1A0}" type="presParOf" srcId="{4C329847-9B46-4767-85A7-F0A0DB173E1D}" destId="{BF9BC1DE-3269-4BDD-8643-A42E0390BADB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C56193C7-6F3C-4332-B2BC-9C6807E9AABE}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{CA60F4DB-F023-433F-95B2-356A28D29C17}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{E23AC825-C6FF-41EB-B0C6-E78117948DBB}" type="presParOf" srcId="{CA60F4DB-F023-433F-95B2-356A28D29C17}" destId="{DAEC425D-96C4-4F6C-817D-299ECED70A00}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6D75A665-1AF5-487D-AACE-1020BFD69028}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{E6188837-C4CA-4575-B2D3-17C3F5B95427}" srcOrd="13" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{613420A1-D333-4123-B554-20ADE8AC3843}" type="presParOf" srcId="{E6188837-C4CA-4575-B2D3-17C3F5B95427}" destId="{430A3F02-1AD7-4B3E-93A4-A48F033178F2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{411DD2B3-20ED-418E-808C-4456DF157D4C}" type="presParOf" srcId="{E6188837-C4CA-4575-B2D3-17C3F5B95427}" destId="{2C6E9674-2C23-4A39-943A-327F4E1A1DF3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{38F777C6-DA03-49A9-89BC-60FB6C5C63DF}" type="presParOf" srcId="{9F4DB3E8-6BDE-4789-8CC1-3B5E11758B86}" destId="{07B0A892-030E-4A52-9BA5-92180C9C2B9B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
   </dgm:cxnLst>
   <dgm:bg/>
@@ -6333,6 +7438,1074 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
+    <dsp:sp modelId="{1ACCD27C-BFD2-4CBD-9DBE-48B89CBD7F86}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1110" y="1488220"/>
+          <a:ext cx="2295765" cy="1147882"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>首页</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="34730" y="1521840"/>
+        <a:ext cx="2228525" cy="1080642"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{958C144E-3B45-4F84-801D-D6F5732ADC86}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="18289469">
+          <a:off x="1951999" y="1377080"/>
+          <a:ext cx="1608060" cy="50097"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="25048"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1608060" y="25048"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2715827" y="1361927"/>
+        <a:ext cx="80403" cy="80403"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C57E4053-FFC8-4C45-8FCD-F6EB10AB0812}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3215182" y="168154"/>
+          <a:ext cx="2295765" cy="1147882"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>Best Sellers</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3248802" y="201774"/>
+        <a:ext cx="2228525" cy="1080642"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{294A4AC0-AF02-463A-B38C-A49A4D84944C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5510948" y="717047"/>
+          <a:ext cx="918306" cy="50097"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="25048"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="918306" y="25048"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5947143" y="719138"/>
+        <a:ext cx="45915" cy="45915"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8E9FC2C2-F581-4AC2-9B6F-CF9BD2775C76}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6429254" y="168154"/>
+          <a:ext cx="2295765" cy="1147882"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>templates/tpl_modules_all_static.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6462874" y="201774"/>
+        <a:ext cx="2228525" cy="1080642"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9CCEB3F3-5CD8-44BA-96B1-A54AA0DA8338}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8725020" y="717047"/>
+          <a:ext cx="918306" cy="50097"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="25048"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="918306" y="25048"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9161215" y="719138"/>
+        <a:ext cx="45915" cy="45915"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F5301CE4-7EC4-40C3-9B59-5BB3F63CBCC5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9643326" y="168154"/>
+          <a:ext cx="2295765" cy="1147882"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>best_seller/all_static_index.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9676946" y="201774"/>
+        <a:ext cx="2228525" cy="1080642"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6F0AE8D5-3E09-40F8-AC76-90A455BDC108}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="11939092" y="717047"/>
+          <a:ext cx="918306" cy="50097"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="25048"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="918306" y="25048"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="12375287" y="719138"/>
+        <a:ext cx="45915" cy="45915"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B53EF1D3-3F99-4284-A7A8-D733C450C193}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="12857398" y="168154"/>
+          <a:ext cx="2295765" cy="1147882"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>zencart.home_page_static_model</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="12891018" y="201774"/>
+        <a:ext cx="2228525" cy="1080642"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C5607393-E8DC-4BBB-A077-8249A3AE9831}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2296876" y="2037112"/>
+          <a:ext cx="918306" cy="50097"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="25048"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="918306" y="25048"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2733071" y="2039203"/>
+        <a:ext cx="45915" cy="45915"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D547E350-B9B6-473D-9991-C1D5E848E325}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3215182" y="1488220"/>
+          <a:ext cx="2295765" cy="1147882"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>New Products</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3248802" y="1521840"/>
+        <a:ext cx="2228525" cy="1080642"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E40EBAF3-F951-49D3-A73C-5B3F647DB687}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="3310531">
+          <a:off x="1951999" y="2697145"/>
+          <a:ext cx="1608060" cy="50097"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="25048"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1608060" y="25048"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2715827" y="2681992"/>
+        <a:ext cx="80403" cy="80403"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F8A46D00-5D64-4195-9715-E450D40925F9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3215182" y="2808285"/>
+          <a:ext cx="2295765" cy="1147882"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>Hot Products</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3248802" y="2841905"/>
+        <a:ext cx="2228525" cy="1080642"/>
+      </dsp:txXfrm>
+    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -10227,8 +12400,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6597" y="2697448"/>
-          <a:ext cx="2526455" cy="1263227"/>
+          <a:off x="6561" y="9335812"/>
+          <a:ext cx="2347428" cy="1173714"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10271,12 +12444,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10288,15 +12461,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" kern="1200"/>
             <a:t>index.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="43596" y="2734447"/>
-        <a:ext cx="2452457" cy="1189229"/>
+        <a:off x="40938" y="9370189"/>
+        <a:ext cx="2278674" cy="1104960"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9F9A6106-7959-4F3A-AD4F-E4852F2499BE}">
@@ -10306,8 +12479,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2533053" y="3307221"/>
-          <a:ext cx="1010582" cy="43681"/>
+          <a:off x="2353990" y="9917347"/>
+          <a:ext cx="938971" cy="10645"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10318,10 +12491,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="21840"/>
+                <a:pt x="0" y="5322"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1010582" y="21840"/>
+                <a:pt x="938971" y="5322"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10374,8 +12547,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3013079" y="3303797"/>
-        <a:ext cx="50529" cy="50529"/>
+        <a:off x="2800001" y="9899195"/>
+        <a:ext cx="46948" cy="46948"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{135742A3-6E51-4EB7-B239-943F208D9E9C}">
@@ -10385,8 +12558,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3543635" y="2697448"/>
-          <a:ext cx="2526455" cy="1263227"/>
+          <a:off x="3292961" y="9335812"/>
+          <a:ext cx="2347428" cy="1173714"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10429,12 +12602,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10446,15 +12619,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
             <a:t>main_template_vars.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3580634" y="2734447"/>
-        <a:ext cx="2452457" cy="1189229"/>
+        <a:off x="3327338" y="9370189"/>
+        <a:ext cx="2278674" cy="1104960"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C9AC55F9-27BD-4C07-BCE1-57BCE584CFE5}">
@@ -10463,9 +12636,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="19457599">
-          <a:off x="5953113" y="2944043"/>
-          <a:ext cx="1244535" cy="43681"/>
+        <a:xfrm>
+          <a:off x="5640390" y="9917347"/>
+          <a:ext cx="938971" cy="10645"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10476,10 +12649,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="21840"/>
+                <a:pt x="0" y="5322"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1244535" y="21840"/>
+                <a:pt x="938971" y="5322"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10532,8 +12705,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6544268" y="2934771"/>
-        <a:ext cx="62226" cy="62226"/>
+        <a:off x="6086401" y="9899195"/>
+        <a:ext cx="46948" cy="46948"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B512A0DA-199F-45E7-ADCB-1D19A5DB77C5}">
@@ -10543,8 +12716,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7080672" y="1971092"/>
-          <a:ext cx="2526455" cy="1263227"/>
+          <a:off x="6579361" y="9335812"/>
+          <a:ext cx="2347428" cy="1173714"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10587,12 +12760,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10604,26 +12777,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
             <a:t>tpl_product_info_display.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7117671" y="2008091"/>
-        <a:ext cx="2452457" cy="1189229"/>
+        <a:off x="6613738" y="9370189"/>
+        <a:ext cx="2278674" cy="1104960"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}">
+    <dsp:sp modelId="{D7231407-A161-4C9C-BFB9-D651AF1947FD}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="19457599">
-          <a:off x="9490151" y="2217687"/>
-          <a:ext cx="1244535" cy="43681"/>
+        <a:xfrm rot="16596808">
+          <a:off x="5319836" y="5868032"/>
+          <a:ext cx="8152879" cy="10645"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10634,10 +12807,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="21840"/>
+                <a:pt x="0" y="5322"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1244535" y="21840"/>
+                <a:pt x="8152879" y="5322"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10675,7 +12848,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10686,23 +12859,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10081305" y="2208415"/>
-        <a:ext cx="62226" cy="62226"/>
+        <a:off x="9192454" y="5669533"/>
+        <a:ext cx="407643" cy="407643"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}">
+    <dsp:sp modelId="{2898F935-43C7-4879-803D-0CF37CADF3CA}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10617710" y="1244736"/>
-          <a:ext cx="2526455" cy="1263227"/>
+          <a:off x="9865761" y="1237184"/>
+          <a:ext cx="2347428" cy="1173714"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10745,12 +12918,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10762,26 +12935,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>tpl_modules_products_info_head.php</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>tpl_modules_also_purchased_products.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10654709" y="1281735"/>
-        <a:ext cx="2452457" cy="1189229"/>
+        <a:off x="9900138" y="1271561"/>
+        <a:ext cx="2278674" cy="1104960"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}">
+    <dsp:sp modelId="{4CFD6804-8C0F-4F9F-A90E-6BD5AB9C2B8C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="19457599">
-          <a:off x="13027188" y="1491331"/>
-          <a:ext cx="1244535" cy="43681"/>
+        <a:xfrm>
+          <a:off x="12213190" y="1818718"/>
+          <a:ext cx="938971" cy="10645"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10792,10 +12965,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="21840"/>
+                <a:pt x="0" y="5322"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1244535" y="21840"/>
+                <a:pt x="938971" y="5322"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10848,19 +13021,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13618343" y="1482059"/>
-        <a:ext cx="62226" cy="62226"/>
+        <a:off x="12659201" y="1800567"/>
+        <a:ext cx="46948" cy="46948"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{D47872FA-6671-4924-8700-A6F7228C9CAA}">
+    <dsp:sp modelId="{A2EFEE31-448F-455C-8C70-CD33577FC4C9}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14154747" y="518380"/>
-          <a:ext cx="2526455" cy="1263227"/>
+          <a:off x="13152161" y="1237184"/>
+          <a:ext cx="2347428" cy="1173714"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10903,12 +13076,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10920,26 +13093,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>tpl_modules_main_product_new_image.php</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>also_purchased_products.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14191746" y="555379"/>
-        <a:ext cx="2452457" cy="1189229"/>
+        <a:off x="13186538" y="1271561"/>
+        <a:ext cx="2278674" cy="1104960"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{8783F691-2C30-4412-98D8-FDAC14A8B237}">
+    <dsp:sp modelId="{3F791B83-8F9D-4AEC-A34E-F3313F38BEB7}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="2142401">
-          <a:off x="13027188" y="2217687"/>
-          <a:ext cx="1244535" cy="43681"/>
+        <a:xfrm>
+          <a:off x="15499590" y="1818718"/>
+          <a:ext cx="938971" cy="10645"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10950,10 +13123,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="21840"/>
+                <a:pt x="0" y="5322"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1244535" y="21840"/>
+                <a:pt x="938971" y="5322"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11006,19 +13179,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13618343" y="2208415"/>
-        <a:ext cx="62226" cy="62226"/>
+        <a:off x="15945601" y="1800567"/>
+        <a:ext cx="46948" cy="46948"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}">
+    <dsp:sp modelId="{F8A96FFD-FE69-476E-A459-8F49D47314A7}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14154747" y="1971092"/>
-          <a:ext cx="2526455" cy="1263227"/>
+          <a:off x="16438561" y="1237184"/>
+          <a:ext cx="2347428" cy="1173714"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11061,12 +13234,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11078,26 +13251,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>tpl_modules_products_info_translate_on_title.php</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" kern="1200"/>
+            <a:t>var_cache.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14191746" y="2008091"/>
-        <a:ext cx="2452457" cy="1189229"/>
+        <a:off x="16472938" y="1271561"/>
+        <a:ext cx="2278674" cy="1104960"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}">
+    <dsp:sp modelId="{746E57B4-FFA3-4E88-BCD5-9D79BDBD9277}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="2142401">
-          <a:off x="9490151" y="2944043"/>
-          <a:ext cx="1244535" cy="43681"/>
+        <a:xfrm>
+          <a:off x="18785990" y="1818718"/>
+          <a:ext cx="938971" cy="10645"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11108,10 +13281,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="21840"/>
+                <a:pt x="0" y="5322"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1244535" y="21840"/>
+                <a:pt x="938971" y="5322"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11164,19 +13337,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10081305" y="2934771"/>
-        <a:ext cx="62226" cy="62226"/>
+        <a:off x="19232001" y="1800567"/>
+        <a:ext cx="46948" cy="46948"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}">
+    <dsp:sp modelId="{AD4DEA5A-B382-4ADA-86B7-A56A91105758}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10617710" y="2697448"/>
-          <a:ext cx="2526455" cy="1263227"/>
+          <a:off x="19724961" y="1237184"/>
+          <a:ext cx="2347428" cy="1173714"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11219,12 +13392,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11235,23 +13408,27 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>get_customer_recommend_by_view</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10654709" y="2734447"/>
-        <a:ext cx="2452457" cy="1189229"/>
+        <a:off x="19759338" y="1271561"/>
+        <a:ext cx="2278674" cy="1104960"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{6ACA4257-28F6-41BB-B600-EAFEAF2938C6}">
+    <dsp:sp modelId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="2142401">
-          <a:off x="5953113" y="3670399"/>
-          <a:ext cx="1244535" cy="43681"/>
+        <a:xfrm rot="16874489">
+          <a:off x="6987971" y="7555247"/>
+          <a:ext cx="4816610" cy="10645"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11262,10 +13439,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="21840"/>
+                <a:pt x="0" y="5322"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1244535" y="21840"/>
+                <a:pt x="4816610" y="5322"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11303,7 +13480,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11314,23 +13491,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6544268" y="3661126"/>
-        <a:ext cx="62226" cy="62226"/>
+        <a:off x="9275860" y="7440154"/>
+        <a:ext cx="240830" cy="240830"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{564C0EB9-E7D8-4682-B16E-0ADD761EE08E}">
+    <dsp:sp modelId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7080672" y="3423804"/>
-          <a:ext cx="2526455" cy="1263227"/>
+          <a:off x="9865761" y="4611612"/>
+          <a:ext cx="2347428" cy="1173714"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11373,12 +13550,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11389,12 +13566,2386 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>tpl_modules_products_info_head.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7117671" y="3460803"/>
-        <a:ext cx="2452457" cy="1189229"/>
+        <a:off x="9900138" y="4645989"/>
+        <a:ext cx="2278674" cy="1104960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="17692822">
+          <a:off x="11566779" y="4180818"/>
+          <a:ext cx="2231793" cy="10645"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5322"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2231793" y="5322"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="12626881" y="4130346"/>
+        <a:ext cx="111589" cy="111589"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D47872FA-6671-4924-8700-A6F7228C9CAA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="13152161" y="2586955"/>
+          <a:ext cx="2347428" cy="1173714"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>tpl_modules_main_product_new_image.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="13186538" y="2621332"/>
+        <a:ext cx="2278674" cy="1104960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8783F691-2C30-4412-98D8-FDAC14A8B237}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="12104502" y="4855704"/>
+          <a:ext cx="1156346" cy="10645"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5322"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1156346" y="5322"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="12653767" y="4832118"/>
+        <a:ext cx="57817" cy="57817"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="13152161" y="3936727"/>
+          <a:ext cx="2347428" cy="1173714"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>tpl_modules_products_info_translate_on_title.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="13186538" y="3971104"/>
+        <a:ext cx="2278674" cy="1104960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{FCEB44E5-7AF6-4EBB-9766-B34343D312FE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="12104502" y="5530590"/>
+          <a:ext cx="1156346" cy="10645"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5322"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1156346" y="5322"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="12653767" y="5507004"/>
+        <a:ext cx="57817" cy="57817"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4707F9A1-D761-4EDB-ACAD-70D62191C0C9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="13152161" y="5286498"/>
+          <a:ext cx="2347428" cy="1173714"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>tpl_modules_attributes.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="13186538" y="5320875"/>
+        <a:ext cx="2278674" cy="1104960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9307F662-7AEC-4FD9-B049-1251B671D585}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="3907178">
+          <a:off x="11566779" y="6205475"/>
+          <a:ext cx="2231793" cy="10645"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5322"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2231793" y="5322"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="12626881" y="6155003"/>
+        <a:ext cx="111589" cy="111589"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1E38A29E-159D-47A6-88BA-C2A8D6EE0DD3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="13152161" y="6636270"/>
+          <a:ext cx="2347428" cy="1173714"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>tpl_modules_products_quantity_discounts.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="13186538" y="6670647"/>
+        <a:ext cx="2278674" cy="1104960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="17132988">
+          <a:off x="7644959" y="8230132"/>
+          <a:ext cx="3502632" cy="10645"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5322"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="3502632" y="5322"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9308710" y="8147889"/>
+        <a:ext cx="175131" cy="175131"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9865761" y="5961384"/>
+          <a:ext cx="2347428" cy="1173714"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>column_left.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9900138" y="5995761"/>
+        <a:ext cx="2278674" cy="1104960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0575102E-0DA6-4AC8-8596-3ABCEB6D6A42}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="3310531">
+          <a:off x="8574152" y="10592232"/>
+          <a:ext cx="1644247" cy="10645"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5322"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1644247" y="5322"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9355169" y="10556449"/>
+        <a:ext cx="82212" cy="82212"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7E14C1C1-BC53-4754-92BA-B9751D55335A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9865761" y="10685584"/>
+          <a:ext cx="2347428" cy="1173714"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>tpl_products_page_tab_a.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9900138" y="10719961"/>
+        <a:ext cx="2278674" cy="1104960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1F30B705-D4F7-485E-9F36-062F34A99D2A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="17350740">
+          <a:off x="11253585" y="9917347"/>
+          <a:ext cx="2858181" cy="10645"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5322"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2858181" y="5322"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="12611221" y="9851215"/>
+        <a:ext cx="142909" cy="142909"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{634A27FE-F3F3-4A9C-84EC-9561A9A7F6B1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="13152161" y="7986041"/>
+          <a:ext cx="2347428" cy="1173714"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>tpl_modules_also_purchased_products.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="13186538" y="8020418"/>
+        <a:ext cx="2278674" cy="1104960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1D0C8CB8-6BD7-481D-A856-4E83066AB9BB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="18289469">
+          <a:off x="11860552" y="10592232"/>
+          <a:ext cx="1644247" cy="10645"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5322"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1644247" y="5322"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="12641569" y="10556449"/>
+        <a:ext cx="82212" cy="82212"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7198C7EC-7623-4A5E-BC87-C3132AB8338A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="13152161" y="9335812"/>
+          <a:ext cx="2347428" cy="1173714"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>tpl_modules_products_info_translate.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="13186538" y="9370189"/>
+        <a:ext cx="2278674" cy="1104960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0801DDAF-EEDB-4FB0-9CBD-634BB92409A4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="12213190" y="11267118"/>
+          <a:ext cx="938971" cy="10645"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5322"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="938971" y="5322"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="12659201" y="11248967"/>
+        <a:ext cx="46948" cy="46948"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E1D68129-142E-4A8A-B96C-E43717499CD6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="13152161" y="10685584"/>
+          <a:ext cx="2347428" cy="1173714"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>tpl_modules_products_shipping_delivery.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="13186538" y="10719961"/>
+        <a:ext cx="2278674" cy="1104960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{443D1CFF-1AB4-4A1A-A786-8370C61C29BF}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="3310531">
+          <a:off x="11860552" y="11942004"/>
+          <a:ext cx="1644247" cy="10645"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5322"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1644247" y="5322"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="12641569" y="11906220"/>
+        <a:ext cx="82212" cy="82212"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C25262C4-ABEB-46B4-B8CF-A0B809264530}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="13152161" y="12035355"/>
+          <a:ext cx="2347428" cy="1173714"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>tpl_modules_products_forum_listing.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="13186538" y="12069732"/>
+        <a:ext cx="2278674" cy="1104960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{343E6E5B-CC3D-4E24-955B-0E5B78CE3991}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4249260">
+          <a:off x="11253585" y="12616889"/>
+          <a:ext cx="2858181" cy="10645"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5322"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2858181" y="5322"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="12611221" y="12550758"/>
+        <a:ext cx="142909" cy="142909"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5775B216-44FE-4F35-B639-AF206C3F76DD}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="13152161" y="13385127"/>
+          <a:ext cx="2347428" cy="1173714"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>product_accessories</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="13186538" y="13419504"/>
+        <a:ext cx="2278674" cy="1104960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{DF3E950C-F570-40DD-BD47-9C5516CC6FB6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4808052">
+          <a:off x="6656212" y="12616889"/>
+          <a:ext cx="5480127" cy="10645"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5322"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="5480127" y="5322"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9259272" y="12485209"/>
+        <a:ext cx="274006" cy="274006"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0E0E136A-8620-44A0-A8CA-199634068733}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9865761" y="14734898"/>
+          <a:ext cx="2347428" cy="1173714"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>TEXT_CUSTOMER_IMAGES</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9900138" y="14769275"/>
+        <a:ext cx="2278674" cy="1104960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{641D670E-C412-4D0E-A23F-D8989384F4C6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="12213190" y="15316432"/>
+          <a:ext cx="938971" cy="10645"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5322"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="938971" y="5322"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="12659201" y="15298281"/>
+        <a:ext cx="46948" cy="46948"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{57692DBE-23AB-4CFD-8267-448DDA996315}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="13152161" y="14734898"/>
+          <a:ext cx="2347428" cy="1173714"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>tpl_modules_customer_upload_img.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="13186538" y="14769275"/>
+        <a:ext cx="2278674" cy="1104960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{33C553A3-157B-4A7E-A9A2-619C06049D06}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4924756">
+          <a:off x="5989344" y="13291775"/>
+          <a:ext cx="6813863" cy="10645"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5322"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="6813863" y="5322"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9225929" y="13126751"/>
+        <a:ext cx="340693" cy="340693"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E52019C8-7216-48BA-A1EB-279757EB0574}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9865761" y="16084669"/>
+          <a:ext cx="2347428" cy="1173714"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>TEXT_CUSTOMER_VIDEOS</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9900138" y="16119046"/>
+        <a:ext cx="2278674" cy="1104960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CA60F4DB-F023-433F-95B2-356A28D29C17}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5003192">
+          <a:off x="5319836" y="13966661"/>
+          <a:ext cx="8152879" cy="10645"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5322"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="8152879" y="5322"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9192454" y="13768162"/>
+        <a:ext cx="407643" cy="407643"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{430A3F02-1AD7-4B3E-93A4-A48F033178F2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9865761" y="17434441"/>
+          <a:ext cx="2347428" cy="1173714"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:t>TEXT_CUSTOMER_CONSULTING</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9900138" y="17468818"/>
+        <a:ext cx="2278674" cy="1104960"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -15787,15 +20338,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:colOff>200023</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>80960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16122,8 +20673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="C208" workbookViewId="0">
+      <selection activeCell="R200" sqref="R200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16147,4 +20698,56 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/zencart/docs/模块功能划分.xlsx
+++ b/zencart/docs/模块功能划分.xlsx
@@ -3921,6 +3921,42 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{DB3369F4-948C-43BD-AC0D-9C838395DC73}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>数量折扣</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D3C31E61-0D79-4898-8F0B-BA2F4306964A}" type="parTrans" cxnId="{506DE3C4-8866-4B23-B4D6-CD95117F8ACC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3CE7BE30-2B45-4494-A4E5-A02C57C984B4}" type="sibTrans" cxnId="{506DE3C4-8866-4B23-B4D6-CD95117F8ACC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
     <dgm:pt modelId="{099476A6-4E27-4FAA-9398-2AE46D180721}" type="pres">
       <dgm:prSet presAssocID="{5811F9FE-B0C6-4E16-B25E-031AEE9C8FA5}" presName="diagram" presStyleCnt="0">
         <dgm:presLayoutVars>
@@ -4037,7 +4073,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2753ED25-9652-4141-9D86-C075B64E5A0C}" type="pres">
-      <dgm:prSet presAssocID="{3873C774-C9E3-4842-845E-3F0F0A27954C}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{3873C774-C9E3-4842-845E-3F0F0A27954C}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4048,7 +4084,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1211BB58-91E1-4D17-8AEA-A049AA32E719}" type="pres">
-      <dgm:prSet presAssocID="{3873C774-C9E3-4842-845E-3F0F0A27954C}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{3873C774-C9E3-4842-845E-3F0F0A27954C}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4070,7 +4106,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CC54B996-C92F-4E02-A4CC-BE8ED9E7597C}" type="pres">
-      <dgm:prSet presAssocID="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="10">
+      <dgm:prSet presAssocID="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4155,7 +4191,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{54EE237B-A561-477B-A047-5340603D15C1}" type="pres">
-      <dgm:prSet presAssocID="{559DD2B8-4F93-431D-A172-966C2015BF0C}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{559DD2B8-4F93-431D-A172-966C2015BF0C}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4166,7 +4202,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1D599482-94C5-4AC2-9979-DA0473588216}" type="pres">
-      <dgm:prSet presAssocID="{559DD2B8-4F93-431D-A172-966C2015BF0C}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{559DD2B8-4F93-431D-A172-966C2015BF0C}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4181,7 +4217,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B7A723E6-704C-42EB-B047-E088BD225749}" type="pres">
-      <dgm:prSet presAssocID="{B7DE4E17-4A8A-48E5-B6A2-F6B94A2EF4C0}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="10">
+      <dgm:prSet presAssocID="{B7DE4E17-4A8A-48E5-B6A2-F6B94A2EF4C0}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4259,7 +4295,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}" type="pres">
-      <dgm:prSet presAssocID="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4270,7 +4306,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1D2BB695-8C27-4347-A006-147A1DBEA74F}" type="pres">
-      <dgm:prSet presAssocID="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4292,7 +4328,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{74E3BD4A-40E6-475E-8288-DC90F802DB14}" type="pres">
-      <dgm:prSet presAssocID="{8570D345-0017-4FB7-97D8-558D21E0D926}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="10">
+      <dgm:prSet presAssocID="{8570D345-0017-4FB7-97D8-558D21E0D926}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4318,7 +4354,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{20753BF2-0D7F-4695-879C-908482DA5B47}" type="pres">
-      <dgm:prSet presAssocID="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4329,7 +4365,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6A91BBDB-6803-43A6-8683-4B6468961754}" type="pres">
-      <dgm:prSet presAssocID="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4351,7 +4387,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0ECFF24D-6683-4AFC-9B7F-CD0D77C6771A}" type="pres">
-      <dgm:prSet presAssocID="{F5050CEC-E453-4096-A803-275398B27760}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="10">
+      <dgm:prSet presAssocID="{F5050CEC-E453-4096-A803-275398B27760}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4377,7 +4413,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}" type="pres">
-      <dgm:prSet presAssocID="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4388,7 +4424,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C4403317-3C9A-42B0-855F-11D6FBB268BB}" type="pres">
-      <dgm:prSet presAssocID="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4410,7 +4446,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0F5C5E05-724C-4615-9A27-0292B8BF7467}" type="pres">
-      <dgm:prSet presAssocID="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="10">
+      <dgm:prSet presAssocID="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4436,7 +4472,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FA9E5C58-920C-4962-A474-015BE2EAD31D}" type="pres">
-      <dgm:prSet presAssocID="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4447,7 +4483,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CC9D094D-7F95-4C6E-A462-4B1926F24FF9}" type="pres">
-      <dgm:prSet presAssocID="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4469,7 +4505,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{84198158-0634-44E0-82FA-C5DACA6BFD04}" type="pres">
-      <dgm:prSet presAssocID="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="10">
+      <dgm:prSet presAssocID="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4493,6 +4529,30 @@
           <a:endParaRPr lang="zh-CN" altLang="en-US"/>
         </a:p>
       </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{735D3964-1A08-4712-BDBE-06EA0455A6EC}" type="pres">
+      <dgm:prSet presAssocID="{D3C31E61-0D79-4898-8F0B-BA2F4306964A}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8B77E1B8-0A17-4899-9C3E-4D18703FDC7A}" type="pres">
+      <dgm:prSet presAssocID="{D3C31E61-0D79-4898-8F0B-BA2F4306964A}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F6B14D6A-3AA9-4E2B-BD4F-99616DAA9B26}" type="pres">
+      <dgm:prSet presAssocID="{DB3369F4-948C-43BD-AC0D-9C838395DC73}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7AE2FE72-4EAB-4297-BC61-4E9316A2E869}" type="pres">
+      <dgm:prSet presAssocID="{DB3369F4-948C-43BD-AC0D-9C838395DC73}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4059FA6D-7FD4-4D69-B512-550FFA335454}" type="pres">
+      <dgm:prSet presAssocID="{DB3369F4-948C-43BD-AC0D-9C838395DC73}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" type="pres">
       <dgm:prSet presAssocID="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="11"/>
@@ -4672,7 +4732,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8C352C1C-738A-4A10-981D-E71F662088F5}" type="pres">
-      <dgm:prSet presAssocID="{675C5201-5BA2-47CE-800D-A6384009EC75}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{675C5201-5BA2-47CE-800D-A6384009EC75}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4683,7 +4743,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F096C77D-217B-4E4F-BD39-338FE324D381}" type="pres">
-      <dgm:prSet presAssocID="{675C5201-5BA2-47CE-800D-A6384009EC75}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{675C5201-5BA2-47CE-800D-A6384009EC75}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4705,7 +4765,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DC66AB97-B3B7-454F-BADA-742E0A317634}" type="pres">
-      <dgm:prSet presAssocID="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="10">
+      <dgm:prSet presAssocID="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4849,7 +4909,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}" type="pres">
-      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4860,7 +4920,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{87E643AA-72A4-4612-B289-26E6E69BA69D}" type="pres">
-      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4882,7 +4942,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EF7CB15F-86FD-4372-B781-C31717015D39}" type="pres">
-      <dgm:prSet presAssocID="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="10">
+      <dgm:prSet presAssocID="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4967,7 +5027,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}" type="pres">
-      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4978,7 +5038,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{67608300-5F86-4317-AB34-2391DC98945C}" type="pres">
-      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -5000,7 +5060,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{19273AAB-E414-41A1-9D60-19175C768B84}" type="pres">
-      <dgm:prSet presAssocID="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="10">
+      <dgm:prSet presAssocID="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -5085,7 +5145,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}" type="pres">
-      <dgm:prSet presAssocID="{27481B52-DE79-4D07-90EC-53EA026B04E1}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{27481B52-DE79-4D07-90EC-53EA026B04E1}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -5096,7 +5156,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0B720156-C01C-492E-8E97-EFAE0AB93A9F}" type="pres">
-      <dgm:prSet presAssocID="{27481B52-DE79-4D07-90EC-53EA026B04E1}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{27481B52-DE79-4D07-90EC-53EA026B04E1}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="11"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -5118,7 +5178,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{74E3D885-0104-4156-8E63-BED57F56F2DB}" type="pres">
-      <dgm:prSet presAssocID="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="10">
+      <dgm:prSet presAssocID="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -5403,6 +5463,7 @@
     <dgm:cxn modelId="{13BCB9EE-A0C6-4E15-9262-A271A88D08EA}" type="presOf" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{7F6C4993-38D3-42CC-A893-A1CABC800B7D}" type="presOf" srcId="{27481B52-DE79-4D07-90EC-53EA026B04E1}" destId="{0B720156-C01C-492E-8E97-EFAE0AB93A9F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{ACA4C21D-474A-4E70-A4EF-DEBB05C0320B}" type="presOf" srcId="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" destId="{DC66AB97-B3B7-454F-BADA-742E0A317634}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B7F2937F-7206-41EE-BE3A-0D0348065B6A}" type="presOf" srcId="{D3C31E61-0D79-4898-8F0B-BA2F4306964A}" destId="{735D3964-1A08-4712-BDBE-06EA0455A6EC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B4313D12-AA2D-4796-95E0-3D76BEA04572}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" srcOrd="2" destOrd="0" parTransId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" sibTransId="{D4B0F6EC-70A0-451B-8D13-ACBF5C5EE10E}"/>
     <dgm:cxn modelId="{82917F59-2648-432B-A5B9-B912DAC749E3}" type="presOf" srcId="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" destId="{EF7CB15F-86FD-4372-B781-C31717015D39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{514F4805-DBBC-4C62-8567-1E871BCD1543}" type="presOf" srcId="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" destId="{19273AAB-E414-41A1-9D60-19175C768B84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -5412,6 +5473,7 @@
     <dgm:cxn modelId="{0EC45787-5BAB-4B50-8558-E810FE6B74D0}" type="presOf" srcId="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" destId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{D42689F1-2387-4AAF-B01B-A5249A2EB979}" type="presOf" srcId="{6CA4F439-FEE7-4C68-A28A-E9EE186B1068}" destId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{4F448A1C-5B1F-4336-AC30-3AC052731F76}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" srcOrd="1" destOrd="0" parTransId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" sibTransId="{0D9ECB33-BFA2-4C1C-A0AE-F1927F22831E}"/>
+    <dgm:cxn modelId="{A2DD8B5E-A15E-4F06-819E-281664871891}" type="presOf" srcId="{DB3369F4-948C-43BD-AC0D-9C838395DC73}" destId="{7AE2FE72-4EAB-4297-BC61-4E9316A2E869}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{CAF44A32-6E1F-417C-9766-62B0DDC36C06}" type="presOf" srcId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" destId="{27E95C9E-DFB1-42E7-88F2-FAC674D0BA38}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{FC06F30F-AB26-44E8-B4D1-D3683620FB5C}" type="presOf" srcId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" destId="{87E643AA-72A4-4612-B289-26E6E69BA69D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{A440A9C0-FFCA-4447-8E8C-C90DD8F175B7}" type="presOf" srcId="{569D4530-2880-4B71-B432-ED7F88BC411D}" destId="{28F1DC58-4C80-42A9-951A-A48CC763381A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -5419,6 +5481,7 @@
     <dgm:cxn modelId="{A7F87905-E1AA-4C71-883E-ADEA0FB9E64D}" type="presOf" srcId="{281C279B-179E-4D08-AE07-8C99B5657ACE}" destId="{1B098D82-6EE2-46B9-99E2-4FD64D567D37}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{268EDC3A-B892-4D1C-832F-FCFCB2F167F1}" type="presOf" srcId="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" destId="{0F5C5E05-724C-4615-9A27-0292B8BF7467}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{CF125C6D-E5C7-423A-B63D-429BE60D661E}" srcId="{7D712709-A7D6-486B-957D-F3E0A466960F}" destId="{BA71DA5D-21B1-4B1D-A363-D8A62109F187}" srcOrd="0" destOrd="0" parTransId="{281C279B-179E-4D08-AE07-8C99B5657ACE}" sibTransId="{6E36CC7B-CB2E-4311-BD39-B2B8C6E2F25B}"/>
+    <dgm:cxn modelId="{506DE3C4-8866-4B23-B4D6-CD95117F8ACC}" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{DB3369F4-948C-43BD-AC0D-9C838395DC73}" srcOrd="4" destOrd="0" parTransId="{D3C31E61-0D79-4898-8F0B-BA2F4306964A}" sibTransId="{3CE7BE30-2B45-4494-A4E5-A02C57C984B4}"/>
     <dgm:cxn modelId="{E73CD5E8-7FA6-4027-899A-FCBA604DD803}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{68138C9E-656F-4ECF-9770-ED91439B2549}" srcOrd="8" destOrd="0" parTransId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" sibTransId="{755B4C76-42A1-41DC-B5E3-F612FC79C5AF}"/>
     <dgm:cxn modelId="{A58F26D1-A0FE-41EC-8250-BE82F7D9A850}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{488B119A-0EB0-457C-BEF7-FEFB1B6BFBC9}" srcOrd="3" destOrd="0" parTransId="{C81E6BDB-5029-407F-8D08-54C91C8FD310}" sibTransId="{2341C01B-050C-4692-87AA-FBAB4A11079B}"/>
     <dgm:cxn modelId="{764D0C7C-03F3-43A4-A459-661B4BA0D500}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{D227BC4F-3E9D-4433-87E2-4FCB465AB942}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -5464,6 +5527,7 @@
     <dgm:cxn modelId="{4852B326-CE08-4397-880E-F59F9E79D1DC}" type="presOf" srcId="{569D4530-2880-4B71-B432-ED7F88BC411D}" destId="{9C3216F4-3DBA-4E6B-9827-A0F23AE4644D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{CEB17849-D01E-468A-A8AC-4B9BE1A2130A}" type="presOf" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{AC3929EA-AEDC-45D8-B9CA-70262C585A0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E79C1C19-E4ED-4E2A-9B77-98D5C754ED01}" type="presOf" srcId="{27481B52-DE79-4D07-90EC-53EA026B04E1}" destId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D5FA1E90-641B-4A48-8970-C23BA74FD7B2}" type="presOf" srcId="{D3C31E61-0D79-4898-8F0B-BA2F4306964A}" destId="{8B77E1B8-0A17-4899-9C3E-4D18703FDC7A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{ED172AF3-3662-4CA2-B193-A18E503E617E}" type="presOf" srcId="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" destId="{84198158-0634-44E0-82FA-C5DACA6BFD04}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{46D955C0-FDD0-4F65-9A7C-0DBC85CB1FF3}" type="presOf" srcId="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" destId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{7BDDD235-9EFB-470A-992C-444ECE118C84}" type="presOf" srcId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" destId="{28F496D2-4019-4178-92C0-A9F924F314B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -5528,6 +5592,11 @@
     <dgm:cxn modelId="{033489A3-5600-4E5C-8F12-537C78051522}" type="presParOf" srcId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" destId="{75239506-F92C-498A-AA29-CD2824F2DC36}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{0A6BAE51-0BDD-4AB7-89A7-195014E2C494}" type="presParOf" srcId="{75239506-F92C-498A-AA29-CD2824F2DC36}" destId="{84198158-0634-44E0-82FA-C5DACA6BFD04}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{2B1CC0C6-0D0B-4DA7-88D3-B19BCAF32169}" type="presParOf" srcId="{75239506-F92C-498A-AA29-CD2824F2DC36}" destId="{65A6BD0B-546B-4F1D-A1A0-EE9E0BB35BDB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3768E43A-4FB9-4DC3-9CC5-18791792AAB0}" type="presParOf" srcId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" destId="{735D3964-1A08-4712-BDBE-06EA0455A6EC}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{766517DD-1AC6-4F90-A5F8-95CBB0388382}" type="presParOf" srcId="{735D3964-1A08-4712-BDBE-06EA0455A6EC}" destId="{8B77E1B8-0A17-4899-9C3E-4D18703FDC7A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{87137D4F-9FD9-460F-8431-9645F0B7467A}" type="presParOf" srcId="{4FBC7B2B-9166-4EFA-95AA-01C79476A7B1}" destId="{F6B14D6A-3AA9-4E2B-BD4F-99616DAA9B26}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DDBAE6F9-CA0B-4EBA-9C16-9FB0F54207C2}" type="presParOf" srcId="{F6B14D6A-3AA9-4E2B-BD4F-99616DAA9B26}" destId="{7AE2FE72-4EAB-4297-BC61-4E9316A2E869}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EC1FCDB8-1D83-49A5-BDE1-AAEF564B2E12}" type="presParOf" srcId="{F6B14D6A-3AA9-4E2B-BD4F-99616DAA9B26}" destId="{4059FA6D-7FD4-4D69-B512-550FFA335454}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{F5B1231C-F7FC-4F1E-AF42-85C6B137DF35}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{423D81A3-B454-46A6-86B4-EC4EA8FE758A}" type="presParOf" srcId="{145DAD85-EA95-4FDF-9834-24E8C158645C}" destId="{B8F02BE7-8743-45EE-BB4C-0D916BB1864F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{0372151D-FD7F-4782-9F6D-D12F50FA65DA}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{7A1E64AB-131B-4387-A37B-C2771C1AD578}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -6620,10 +6689,24 @@
     <dgm:pt modelId="{D7231407-A161-4C9C-BFB9-D651AF1947FD}" type="pres">
       <dgm:prSet presAssocID="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B1C8A51E-5E7B-42B8-BF39-8C9A68CF865A}" type="pres">
       <dgm:prSet presAssocID="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{88632946-8097-4FA2-B5E9-B577000B97E3}" type="pres">
       <dgm:prSet presAssocID="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" presName="Name30" presStyleCnt="0"/>
@@ -6647,10 +6730,24 @@
     <dgm:pt modelId="{4CFD6804-8C0F-4F9F-A90E-6BD5AB9C2B8C}" type="pres">
       <dgm:prSet presAssocID="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0F3CDCF7-7401-45DB-841B-0EDE1B628B67}" type="pres">
       <dgm:prSet presAssocID="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{76ECF671-85DB-4639-B976-B7EA27095C9A}" type="pres">
       <dgm:prSet presAssocID="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" presName="Name30" presStyleCnt="0"/>
@@ -6674,10 +6771,24 @@
     <dgm:pt modelId="{3F791B83-8F9D-4AEC-A34E-F3313F38BEB7}" type="pres">
       <dgm:prSet presAssocID="{CA122700-3CB7-4094-8D40-298220BCF9CE}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4DA3DE6D-E22A-459F-9C90-25561DC5E2FD}" type="pres">
       <dgm:prSet presAssocID="{CA122700-3CB7-4094-8D40-298220BCF9CE}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4EF784B9-F76C-473D-987E-368332D36D7B}" type="pres">
       <dgm:prSet presAssocID="{C17FDAA5-5247-40D3-A375-0421F2890443}" presName="Name30" presStyleCnt="0"/>
@@ -6686,6 +6797,13 @@
     <dgm:pt modelId="{F8A96FFD-FE69-476E-A459-8F49D47314A7}" type="pres">
       <dgm:prSet presAssocID="{C17FDAA5-5247-40D3-A375-0421F2890443}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8229884C-D76D-4F4B-B282-EFDAE285A81E}" type="pres">
       <dgm:prSet presAssocID="{C17FDAA5-5247-40D3-A375-0421F2890443}" presName="hierChild3" presStyleCnt="0"/>
@@ -6694,10 +6812,24 @@
     <dgm:pt modelId="{746E57B4-FFA3-4E88-BCD5-9D79BDBD9277}" type="pres">
       <dgm:prSet presAssocID="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C70A7FBD-BD4A-45C8-BFF3-9B3D1D482109}" type="pres">
       <dgm:prSet presAssocID="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DDF10F2D-2C7D-469C-A5ED-3B5FE30D590B}" type="pres">
       <dgm:prSet presAssocID="{E799A07D-AE9D-4715-B273-0D81BE9946AD}" presName="Name30" presStyleCnt="0"/>
@@ -6844,10 +6976,24 @@
     <dgm:pt modelId="{FCEB44E5-7AF6-4EBB-9766-B34343D312FE}" type="pres">
       <dgm:prSet presAssocID="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{BA10F88C-69F8-41F6-A540-002FB9AEE59B}" type="pres">
       <dgm:prSet presAssocID="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7CB4BD25-A392-4A6E-91EE-5B7CC04BD0DD}" type="pres">
       <dgm:prSet presAssocID="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}" presName="Name30" presStyleCnt="0"/>
@@ -6871,10 +7017,24 @@
     <dgm:pt modelId="{9307F662-7AEC-4FD9-B049-1251B671D585}" type="pres">
       <dgm:prSet presAssocID="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{08C27923-5E46-40F6-A0E1-9A9AC1CE3C12}" type="pres">
       <dgm:prSet presAssocID="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{50C3BB8E-849F-4B43-9593-4085E8B94966}" type="pres">
       <dgm:prSet presAssocID="{3C036C0B-079B-4BE1-95F5-409D9EAEA50E}" presName="Name30" presStyleCnt="0"/>
@@ -6939,10 +7099,24 @@
     <dgm:pt modelId="{0575102E-0DA6-4AC8-8596-3ABCEB6D6A42}" type="pres">
       <dgm:prSet presAssocID="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{45E3EAF8-FED0-49D3-9BE1-9EAFBD862872}" type="pres">
       <dgm:prSet presAssocID="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D8306D31-FDEB-442E-9A6D-FAC8DE1296F8}" type="pres">
       <dgm:prSet presAssocID="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" presName="Name30" presStyleCnt="0"/>
@@ -6966,10 +7140,24 @@
     <dgm:pt modelId="{1F30B705-D4F7-485E-9F36-062F34A99D2A}" type="pres">
       <dgm:prSet presAssocID="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9297FB63-9F0A-4A11-BBE6-EACD5E3D5B3A}" type="pres">
       <dgm:prSet presAssocID="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5A1240A2-C5C2-494F-9508-EB596B9002F5}" type="pres">
       <dgm:prSet presAssocID="{B7FB9C49-37C5-44CC-A6E9-1F35367C20AE}" presName="Name30" presStyleCnt="0"/>
@@ -6993,10 +7181,24 @@
     <dgm:pt modelId="{1D0C8CB8-6BD7-481D-A856-4E83066AB9BB}" type="pres">
       <dgm:prSet presAssocID="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B9B4D712-3F31-42DD-BA96-FD41945417A1}" type="pres">
       <dgm:prSet presAssocID="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C82BC579-8033-4FA9-BCC5-880DB641C0E1}" type="pres">
       <dgm:prSet presAssocID="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" presName="Name30" presStyleCnt="0"/>
@@ -7020,10 +7222,24 @@
     <dgm:pt modelId="{0801DDAF-EEDB-4FB0-9CBD-634BB92409A4}" type="pres">
       <dgm:prSet presAssocID="{2D414069-067C-4600-A128-6B14AA4F61CB}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{021F3772-C225-43E6-82C2-AFC2A70A3D69}" type="pres">
       <dgm:prSet presAssocID="{2D414069-067C-4600-A128-6B14AA4F61CB}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{ED41444A-A78D-419F-9FE0-E396CE32EE78}" type="pres">
       <dgm:prSet presAssocID="{E330EAC3-672C-4E4F-8377-A820D547B924}" presName="Name30" presStyleCnt="0"/>
@@ -7047,10 +7263,24 @@
     <dgm:pt modelId="{443D1CFF-1AB4-4A1A-A786-8370C61C29BF}" type="pres">
       <dgm:prSet presAssocID="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B40D749F-EAAC-47DA-BB9F-4E368D95F9B2}" type="pres">
       <dgm:prSet presAssocID="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A1DBE4A2-F7FA-4AEB-AC03-03F48030F4F6}" type="pres">
       <dgm:prSet presAssocID="{30F80E6A-A636-434A-952F-806EAF184437}" presName="Name30" presStyleCnt="0"/>
@@ -7074,10 +7304,24 @@
     <dgm:pt modelId="{343E6E5B-CC3D-4E24-955B-0E5B78CE3991}" type="pres">
       <dgm:prSet presAssocID="{211224C1-8566-4354-88B3-5D447D1FE9A7}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B410FAB9-5A46-4E97-9C89-8CC2B47C05E3}" type="pres">
       <dgm:prSet presAssocID="{211224C1-8566-4354-88B3-5D447D1FE9A7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{05EF2B83-D736-4D74-A4D3-DFFBA6718185}" type="pres">
       <dgm:prSet presAssocID="{FAF7D901-90A5-4D63-B540-F0098C05641C}" presName="Name30" presStyleCnt="0"/>
@@ -7101,10 +7345,24 @@
     <dgm:pt modelId="{DF3E950C-F570-40DD-BD47-9C5516CC6FB6}" type="pres">
       <dgm:prSet presAssocID="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D88C9FEC-C059-4849-89C3-8B1B05A6E40A}" type="pres">
       <dgm:prSet presAssocID="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2FC89D97-028C-4786-A40F-363FA90C4022}" type="pres">
       <dgm:prSet presAssocID="{017A9184-DEF2-4145-B985-1784EC653C12}" presName="Name30" presStyleCnt="0"/>
@@ -7128,10 +7386,24 @@
     <dgm:pt modelId="{641D670E-C412-4D0E-A23F-D8989384F4C6}" type="pres">
       <dgm:prSet presAssocID="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C393C001-61F3-4F2F-872E-CCFE430D85E4}" type="pres">
       <dgm:prSet presAssocID="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{994A6DD4-8A7F-47BF-8756-A3B1244CC5A1}" type="pres">
       <dgm:prSet presAssocID="{496BAC66-63CB-4FE6-84E1-3C96E19AEB0D}" presName="Name30" presStyleCnt="0"/>
@@ -7155,10 +7427,24 @@
     <dgm:pt modelId="{33C553A3-157B-4A7E-A9A2-619C06049D06}" type="pres">
       <dgm:prSet presAssocID="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CCC040B1-1277-467F-8DE1-686DC823CAC4}" type="pres">
       <dgm:prSet presAssocID="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4C329847-9B46-4767-85A7-F0A0DB173E1D}" type="pres">
       <dgm:prSet presAssocID="{4B8D0128-7CF7-4465-BFA0-6F5F34B34AB6}" presName="Name30" presStyleCnt="0"/>
@@ -7182,10 +7468,24 @@
     <dgm:pt modelId="{CA60F4DB-F023-433F-95B2-356A28D29C17}" type="pres">
       <dgm:prSet presAssocID="{1BA67879-58D8-44D2-879D-13516216E2E4}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DAEC425D-96C4-4F6C-817D-299ECED70A00}" type="pres">
       <dgm:prSet presAssocID="{1BA67879-58D8-44D2-879D-13516216E2E4}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="20"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E6188837-C4CA-4575-B2D3-17C3F5B95427}" type="pres">
       <dgm:prSet presAssocID="{68DD22E8-9E1F-4630-8302-69683E3575E4}" presName="Name30" presStyleCnt="0"/>
@@ -7225,23 +7525,23 @@
     <dgm:cxn modelId="{AC2C8475-4889-4E3A-8768-E7C0865179E5}" type="presOf" srcId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" destId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{BF68ED17-194A-4611-A94D-5B70729044AF}" type="presOf" srcId="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" destId="{C70A7FBD-BD4A-45C8-BFF3-9B3D1D482109}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{CDC87E84-D14B-42D1-8A31-254B7EA784A1}" type="presOf" srcId="{68DD22E8-9E1F-4630-8302-69683E3575E4}" destId="{430A3F02-1AD7-4B3E-93A4-A48F033178F2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A9A519D6-F6B1-4581-B2EB-869EA9F61BA3}" type="presOf" srcId="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" destId="{2898F935-43C7-4879-803D-0CF37CADF3CA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{7DC03675-4D52-45CE-988B-FEF85E39DA38}" type="presOf" srcId="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" destId="{9297FB63-9F0A-4A11-BBE6-EACD5E3D5B3A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{A9A519D6-F6B1-4581-B2EB-869EA9F61BA3}" type="presOf" srcId="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" destId="{2898F935-43C7-4879-803D-0CF37CADF3CA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{C13BCAA9-1381-49DC-A043-45993735F4FA}" type="presOf" srcId="{295836EE-9898-4D01-8116-58F01C1A8092}" destId="{9F4DB3E8-6BDE-4789-8CC1-3B5E11758B86}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{35F1E70A-9F62-4B6B-8D65-B663D9D1F862}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" srcOrd="1" destOrd="0" parTransId="{8B5AD710-3453-4459-A021-4BD74C23C219}" sibTransId="{8C60739A-E9F0-4A1F-A4F6-66CA10C2223A}"/>
+    <dgm:cxn modelId="{0D09AB05-6936-4EDF-BBDF-5E31669CF17B}" type="presOf" srcId="{E799A07D-AE9D-4715-B273-0D81BE9946AD}" destId="{AD4DEA5A-B382-4ADA-86B7-A56A91105758}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{F1AF9E78-287F-4722-BE1E-D4AFE571662F}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{B7FB9C49-37C5-44CC-A6E9-1F35367C20AE}" srcOrd="0" destOrd="0" parTransId="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" sibTransId="{C6C2F5B2-F858-4699-B1DF-0A9C787E3A7E}"/>
-    <dgm:cxn modelId="{0D09AB05-6936-4EDF-BBDF-5E31669CF17B}" type="presOf" srcId="{E799A07D-AE9D-4715-B273-0D81BE9946AD}" destId="{AD4DEA5A-B382-4ADA-86B7-A56A91105758}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{1B4BE6C0-A187-459C-B7C9-97391CFD9216}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" srcOrd="1" destOrd="0" parTransId="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" sibTransId="{1FDE62D4-4956-453C-9CCB-584B532AD74F}"/>
     <dgm:cxn modelId="{CCEE8C2D-1D4F-4B3A-8DF3-56EC13162155}" type="presOf" srcId="{4B8D0128-7CF7-4465-BFA0-6F5F34B34AB6}" destId="{E52019C8-7216-48BA-A1EB-279757EB0574}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{6B1778C6-9CC4-4191-A651-D76868454C3C}" type="presOf" srcId="{1BA67879-58D8-44D2-879D-13516216E2E4}" destId="{DAEC425D-96C4-4F6C-817D-299ECED70A00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{E9C023D9-FDC1-4DF3-AD45-34AAB9583A36}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" srcOrd="0" destOrd="0" parTransId="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" sibTransId="{404732D1-7624-43D5-9F79-CE1ECE11FBE6}"/>
+    <dgm:cxn modelId="{10BFBC44-72A7-4EAB-9DDB-FF2FD8CCB687}" type="presOf" srcId="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" destId="{7198C7EC-7623-4A5E-BC87-C3132AB8338A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{4B4ECA0E-803B-45DB-92AA-E3F68BAB066A}" type="presOf" srcId="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" destId="{08C27923-5E46-40F6-A0E1-9A9AC1CE3C12}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{10BFBC44-72A7-4EAB-9DDB-FF2FD8CCB687}" type="presOf" srcId="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" destId="{7198C7EC-7623-4A5E-BC87-C3132AB8338A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{242B984C-296B-4A21-B9D4-86FFCAB6C58B}" type="presOf" srcId="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" destId="{443D1CFF-1AB4-4A1A-A786-8370C61C29BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{0ADA8733-D9EE-43E3-8422-6769D34CF180}" type="presOf" srcId="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" destId="{D88C9FEC-C059-4849-89C3-8B1B05A6E40A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{557A4395-07D5-4339-BB20-42556F4487D4}" type="presOf" srcId="{8B5AD710-3453-4459-A021-4BD74C23C219}" destId="{EA0863B0-AD59-4641-ADAD-9375F74FE231}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{34BB8730-4A7E-4C6C-8799-E83AEEFF129F}" type="presOf" srcId="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" destId="{746E57B4-FFA3-4E88-BCD5-9D79BDBD9277}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{065E058B-9BBA-4F70-ABC3-200FAB07429F}" type="presOf" srcId="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" destId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{34BB8730-4A7E-4C6C-8799-E83AEEFF129F}" type="presOf" srcId="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" destId="{746E57B4-FFA3-4E88-BCD5-9D79BDBD9277}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{557A4395-07D5-4339-BB20-42556F4487D4}" type="presOf" srcId="{8B5AD710-3453-4459-A021-4BD74C23C219}" destId="{EA0863B0-AD59-4641-ADAD-9375F74FE231}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{416194BD-6EBD-4A07-9DE1-001FBB4103C1}" type="presOf" srcId="{CA122700-3CB7-4094-8D40-298220BCF9CE}" destId="{3F791B83-8F9D-4AEC-A34E-F3313F38BEB7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{DBBDA661-893F-4C74-B66B-2EA622CBB5E3}" type="presOf" srcId="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" destId="{DF3E950C-F570-40DD-BD47-9C5516CC6FB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{38054A65-D83F-4749-B0E3-119B699329D6}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{4B8D0128-7CF7-4465-BFA0-6F5F34B34AB6}" srcOrd="5" destOrd="0" parTransId="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" sibTransId="{3D0F18FE-484C-427B-8745-6B854DDFFC5D}"/>
@@ -7258,9 +7558,9 @@
     <dgm:cxn modelId="{4B91FD79-7F95-4CB5-871C-625FD7075E19}" type="presOf" srcId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" destId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{0F3A6965-1E78-4871-AF0B-360652B5CA2C}" srcId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" destId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" srcOrd="0" destOrd="0" parTransId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" sibTransId="{39DE77A3-87E6-46B4-A2E3-3009DB60BF12}"/>
     <dgm:cxn modelId="{5FF686C6-17E5-4A59-9952-E07C0DE58854}" type="presOf" srcId="{CA122700-3CB7-4094-8D40-298220BCF9CE}" destId="{4DA3DE6D-E22A-459F-9C90-25561DC5E2FD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{2202FB61-787D-4216-82D1-93E2EE2845D3}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{017A9184-DEF2-4145-B985-1784EC653C12}" srcOrd="4" destOrd="0" parTransId="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" sibTransId="{A5D0D2A1-991C-4A0F-9550-67F9E198910C}"/>
     <dgm:cxn modelId="{50075FF3-D713-4A18-B84F-BBFAD70520A3}" type="presOf" srcId="{C17FDAA5-5247-40D3-A375-0421F2890443}" destId="{F8A96FFD-FE69-476E-A459-8F49D47314A7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{2785768C-2051-49D5-865B-2108027A306D}" type="presOf" srcId="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" destId="{D7231407-A161-4C9C-BFB9-D651AF1947FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{2202FB61-787D-4216-82D1-93E2EE2845D3}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{017A9184-DEF2-4145-B985-1784EC653C12}" srcOrd="4" destOrd="0" parTransId="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" sibTransId="{A5D0D2A1-991C-4A0F-9550-67F9E198910C}"/>
     <dgm:cxn modelId="{EF6A7F97-0327-4239-98A0-751CD7AC785C}" type="presOf" srcId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" destId="{E8E018BE-5584-4651-93AA-17B4C22EF729}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{80A4DC88-9406-46E8-B024-2D4FDA6C9D84}" type="presOf" srcId="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" destId="{B9B4D712-3F31-42DD-BA96-FD41945417A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{72C3E7A5-A242-4C34-9E1A-224DCDE18595}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{3C036C0B-079B-4BE1-95F5-409D9EAEA50E}" srcOrd="3" destOrd="0" parTransId="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" sibTransId="{E88C81FA-7825-4CFE-A1B1-EF8BD70C9EE7}"/>
@@ -7295,8 +7595,8 @@
     <dgm:cxn modelId="{7A92B652-FC89-417D-8F18-C6F6BE769253}" type="presOf" srcId="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" destId="{A2EFEE31-448F-455C-8C70-CD33577FC4C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{D2D9C506-9468-4A19-80B4-F04B6B00D6CF}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}" srcOrd="2" destOrd="0" parTransId="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" sibTransId="{96EA5327-EA59-489E-BAF9-8864B7D5E133}"/>
     <dgm:cxn modelId="{1FD4E344-0D9C-4719-A791-B90F9C5AFCAC}" type="presOf" srcId="{2D414069-067C-4600-A128-6B14AA4F61CB}" destId="{021F3772-C225-43E6-82C2-AFC2A70A3D69}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{236E1B5A-7210-4114-9E0F-D4FAB3DEF19C}" type="presOf" srcId="{FAF7D901-90A5-4D63-B540-F0098C05641C}" destId="{5775B216-44FE-4F35-B639-AF206C3F76DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{3627BA9C-2188-41BC-9A4D-5E572F3CCDFB}" type="presOf" srcId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" destId="{135742A3-6E51-4EB7-B239-943F208D9E9C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{236E1B5A-7210-4114-9E0F-D4FAB3DEF19C}" type="presOf" srcId="{FAF7D901-90A5-4D63-B540-F0098C05641C}" destId="{5775B216-44FE-4F35-B639-AF206C3F76DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{BB75F691-DCBA-48B5-82C0-4991E309250F}" srcId="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" destId="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" srcOrd="0" destOrd="0" parTransId="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" sibTransId="{F4EBB8EA-FEA3-429E-B779-EF8A2AEEA79B}"/>
     <dgm:cxn modelId="{0E8B65EE-845B-4528-98DF-E6FA51F7D84A}" srcId="{C17FDAA5-5247-40D3-A375-0421F2890443}" destId="{E799A07D-AE9D-4715-B273-0D81BE9946AD}" srcOrd="0" destOrd="0" parTransId="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" sibTransId="{F8396548-1223-4D0A-9AEE-ABF4E57FC2D7}"/>
     <dgm:cxn modelId="{CAA5A420-DDAD-4CDB-B656-4498C00CD74A}" type="presOf" srcId="{8B5AD710-3453-4459-A021-4BD74C23C219}" destId="{8783F691-2C30-4412-98D8-FDAC14A8B237}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
@@ -7438,1074 +7738,6 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{1ACCD27C-BFD2-4CBD-9DBE-48B89CBD7F86}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1110" y="1488220"/>
-          <a:ext cx="2295765" cy="1147882"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>首页</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="34730" y="1521840"/>
-        <a:ext cx="2228525" cy="1080642"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{958C144E-3B45-4F84-801D-D6F5732ADC86}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm rot="18289469">
-          <a:off x="1951999" y="1377080"/>
-          <a:ext cx="1608060" cy="50097"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="25048"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1608060" y="25048"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2715827" y="1361927"/>
-        <a:ext cx="80403" cy="80403"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{C57E4053-FFC8-4C45-8FCD-F6EB10AB0812}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3215182" y="168154"/>
-          <a:ext cx="2295765" cy="1147882"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
-            <a:t>Best Sellers</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3248802" y="201774"/>
-        <a:ext cx="2228525" cy="1080642"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{294A4AC0-AF02-463A-B38C-A49A4D84944C}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5510948" y="717047"/>
-          <a:ext cx="918306" cy="50097"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="25048"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="918306" y="25048"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5947143" y="719138"/>
-        <a:ext cx="45915" cy="45915"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{8E9FC2C2-F581-4AC2-9B6F-CF9BD2775C76}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6429254" y="168154"/>
-          <a:ext cx="2295765" cy="1147882"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
-            <a:t>templates/tpl_modules_all_static.php</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="6462874" y="201774"/>
-        <a:ext cx="2228525" cy="1080642"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{9CCEB3F3-5CD8-44BA-96B1-A54AA0DA8338}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="8725020" y="717047"/>
-          <a:ext cx="918306" cy="50097"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="25048"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="918306" y="25048"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="9161215" y="719138"/>
-        <a:ext cx="45915" cy="45915"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{F5301CE4-7EC4-40C3-9B59-5BB3F63CBCC5}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="9643326" y="168154"/>
-          <a:ext cx="2295765" cy="1147882"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
-            <a:t>best_seller/all_static_index.php</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="9676946" y="201774"/>
-        <a:ext cx="2228525" cy="1080642"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{6F0AE8D5-3E09-40F8-AC76-90A455BDC108}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="11939092" y="717047"/>
-          <a:ext cx="918306" cy="50097"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="25048"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="918306" y="25048"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="12375287" y="719138"/>
-        <a:ext cx="45915" cy="45915"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{B53EF1D3-3F99-4284-A7A8-D733C450C193}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="12857398" y="168154"/>
-          <a:ext cx="2295765" cy="1147882"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
-            <a:t>zencart.home_page_static_model</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="12891018" y="201774"/>
-        <a:ext cx="2228525" cy="1080642"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{C5607393-E8DC-4BBB-A077-8249A3AE9831}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2296876" y="2037112"/>
-          <a:ext cx="918306" cy="50097"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="25048"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="918306" y="25048"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2733071" y="2039203"/>
-        <a:ext cx="45915" cy="45915"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{D547E350-B9B6-473D-9991-C1D5E848E325}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3215182" y="1488220"/>
-          <a:ext cx="2295765" cy="1147882"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
-            <a:t>New Products</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3248802" y="1521840"/>
-        <a:ext cx="2228525" cy="1080642"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{E40EBAF3-F951-49D3-A73C-5B3F647DB687}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm rot="3310531">
-          <a:off x="1951999" y="2697145"/>
-          <a:ext cx="1608060" cy="50097"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="25048"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1608060" y="25048"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2715827" y="2681992"/>
-        <a:ext cx="80403" cy="80403"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{F8A46D00-5D64-4195-9715-E450D40925F9}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3215182" y="2808285"/>
-          <a:ext cx="2295765" cy="1147882"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
-            <a:t>Hot Products</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3248802" y="2841905"/>
-        <a:ext cx="2228525" cy="1080642"/>
-      </dsp:txXfrm>
-    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -8525,8 +7757,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="829716" y="9079641"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="1159194" y="9104601"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8592,8 +7824,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="868219" y="9118144"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="1196235" y="9141642"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}">
@@ -8602,9 +7834,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="16596808">
-          <a:off x="-580974" y="5195552"/>
-          <a:ext cx="9131370" cy="12150"/>
+        <a:xfrm rot="16581068">
+          <a:off x="-378559" y="5186214"/>
+          <a:ext cx="9145875" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8615,10 +7847,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="9131370" y="6075"/>
+                <a:pt x="9145875" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8656,7 +7888,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8667,12 +7899,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3756426" y="4973343"/>
-        <a:ext cx="456568" cy="456568"/>
+        <a:off x="3965731" y="4963412"/>
+        <a:ext cx="457293" cy="457293"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}">
@@ -8682,8 +7914,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4510543" y="9033"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="4700242" y="14857"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8749,8 +7981,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4549046" y="47536"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="4737283" y="51898"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2753ED25-9652-4141-9D86-C075B64E5A0C}">
@@ -8760,8 +7992,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7139704" y="660248"/>
-          <a:ext cx="1051664" cy="12150"/>
+          <a:off x="7229562" y="641342"/>
+          <a:ext cx="1011728" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8772,10 +8004,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1051664" y="6075"/>
+                <a:pt x="1011728" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8828,8 +8060,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7639245" y="640032"/>
-        <a:ext cx="52583" cy="52583"/>
+        <a:off x="7710133" y="621894"/>
+        <a:ext cx="50586" cy="50586"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CC54B996-C92F-4E02-A4CC-BE8ED9E7597C}">
@@ -8839,8 +8071,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8191369" y="9033"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="8241290" y="14857"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8907,8 +8139,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8229872" y="47536"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="8278331" y="51898"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}">
@@ -8917,9 +8149,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="16675244">
-          <a:off x="168886" y="5951436"/>
-          <a:ext cx="7631648" cy="12150"/>
+        <a:xfrm rot="16652881">
+          <a:off x="343316" y="5913394"/>
+          <a:ext cx="7702122" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8930,10 +8162,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="7631648" y="6075"/>
+                <a:pt x="7702122" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8971,7 +8203,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8982,12 +8214,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3793919" y="5766720"/>
-        <a:ext cx="381582" cy="381582"/>
+        <a:off x="4001825" y="5726685"/>
+        <a:ext cx="385106" cy="385106"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}">
@@ -8997,8 +8229,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4510543" y="1520801"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="4700242" y="1469216"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9064,8 +8296,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4549046" y="1559304"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="4737283" y="1506257"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{54EE237B-A561-477B-A047-5340603D15C1}">
@@ -9075,8 +8307,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7139704" y="2172016"/>
-          <a:ext cx="1051664" cy="12150"/>
+          <a:off x="7229562" y="2095701"/>
+          <a:ext cx="1011728" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9087,10 +8319,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1051664" y="6075"/>
+                <a:pt x="1011728" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9143,8 +8375,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7639245" y="2151800"/>
-        <a:ext cx="52583" cy="52583"/>
+        <a:off x="7710133" y="2076253"/>
+        <a:ext cx="50586" cy="50586"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B7A723E6-704C-42EB-B047-E088BD225749}">
@@ -9154,8 +8386,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8191369" y="1520801"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="8241290" y="1469216"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9222,8 +8454,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8229872" y="1559304"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="8278331" y="1506257"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{28F496D2-4019-4178-92C0-A9F924F314B7}">
@@ -9232,9 +8464,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17132988">
-          <a:off x="2023205" y="7841146"/>
-          <a:ext cx="3923010" cy="12150"/>
+        <a:xfrm rot="17230830">
+          <a:off x="2481807" y="8094932"/>
+          <a:ext cx="3425141" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9245,10 +8477,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3923010" y="6075"/>
+                <a:pt x="3425141" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9286,7 +8518,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9297,12 +8529,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3886635" y="7749146"/>
-        <a:ext cx="196150" cy="196150"/>
+        <a:off x="4108749" y="8015149"/>
+        <a:ext cx="171257" cy="171257"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}">
@@ -9312,8 +8544,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4510543" y="5300221"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="4700242" y="5832293"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9379,8 +8611,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4549046" y="5338724"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="4737283" y="5869334"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}">
@@ -9389,9 +8621,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17692822">
-          <a:off x="6415712" y="4817610"/>
-          <a:ext cx="2499648" cy="12150"/>
+        <a:xfrm rot="17350740">
+          <a:off x="6195602" y="5004419"/>
+          <a:ext cx="3079648" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9402,10 +8634,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2499648" y="6075"/>
+                <a:pt x="3079648" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9443,7 +8675,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9454,12 +8686,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7603046" y="4761194"/>
-        <a:ext cx="124982" cy="124982"/>
+        <a:off x="7658435" y="4933273"/>
+        <a:ext cx="153982" cy="153982"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{74E3BD4A-40E6-475E-8288-DC90F802DB14}">
@@ -9469,8 +8701,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8191369" y="3032569"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="8241290" y="2923575"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9536,8 +8768,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8229872" y="3071072"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="8278331" y="2960616"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{20753BF2-0D7F-4695-879C-908482DA5B47}">
@@ -9546,9 +8778,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="19457599">
-          <a:off x="7017972" y="5573494"/>
-          <a:ext cx="1295129" cy="12150"/>
+        <a:xfrm rot="18289469">
+          <a:off x="6849599" y="5731599"/>
+          <a:ext cx="1771652" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9559,10 +8791,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1295129" y="6075"/>
+                <a:pt x="1771652" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9600,7 +8832,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9611,12 +8843,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7633159" y="5547191"/>
-        <a:ext cx="64756" cy="64756"/>
+        <a:off x="7691135" y="5693152"/>
+        <a:ext cx="88582" cy="88582"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0ECFF24D-6683-4AFC-9B7F-CD0D77C6771A}">
@@ -9626,8 +8858,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8191369" y="4544337"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="8241290" y="4377934"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9693,8 +8925,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8229872" y="4582840"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="8278331" y="4414975"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}">
@@ -9703,9 +8935,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="2142401">
-          <a:off x="7017972" y="6329378"/>
-          <a:ext cx="1295129" cy="12150"/>
+        <a:xfrm>
+          <a:off x="7229562" y="6458778"/>
+          <a:ext cx="1011728" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9716,10 +8948,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1295129" y="6075"/>
+                <a:pt x="1011728" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9772,8 +9004,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7633159" y="6303075"/>
-        <a:ext cx="64756" cy="64756"/>
+        <a:off x="7710133" y="6439330"/>
+        <a:ext cx="50586" cy="50586"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0F5C5E05-724C-4615-9A27-0292B8BF7467}">
@@ -9783,8 +9015,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8191369" y="6056105"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="8241290" y="5832293"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9850,8 +9082,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8229872" y="6094608"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="8278331" y="5869334"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FA9E5C58-920C-4962-A474-015BE2EAD31D}">
@@ -9860,9 +9092,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="3907178">
-          <a:off x="6415712" y="7085262"/>
-          <a:ext cx="2499648" cy="12150"/>
+        <a:xfrm rot="3310531">
+          <a:off x="6849599" y="7185958"/>
+          <a:ext cx="1771652" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9873,10 +9105,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2499648" y="6075"/>
+                <a:pt x="1771652" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9914,7 +9146,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9925,12 +9157,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7603046" y="7028846"/>
-        <a:ext cx="124982" cy="124982"/>
+        <a:off x="7691135" y="7147511"/>
+        <a:ext cx="88582" cy="88582"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{84198158-0634-44E0-82FA-C5DACA6BFD04}">
@@ -9940,8 +9172,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8191369" y="7567873"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="8241290" y="7286652"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10015,19 +9247,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8229872" y="7606376"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="8278331" y="7323693"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{145DAD85-EA95-4FDF-9834-24E8C158645C}">
+    <dsp:sp modelId="{735D3964-1A08-4712-BDBE-06EA0455A6EC}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17692822">
-          <a:off x="2734886" y="8597030"/>
-          <a:ext cx="2499648" cy="12150"/>
+        <a:xfrm rot="4249260">
+          <a:off x="6195602" y="7913137"/>
+          <a:ext cx="3079648" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10038,10 +9270,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2499648" y="6075"/>
+                <a:pt x="3079648" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10050,7 +9282,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -10079,7 +9311,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10090,23 +9322,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3922219" y="8540614"/>
-        <a:ext cx="124982" cy="124982"/>
+        <a:off x="7658435" y="7841991"/>
+        <a:ext cx="153982" cy="153982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}">
+    <dsp:sp modelId="{7AE2FE72-4EAB-4297-BC61-4E9316A2E869}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4510543" y="6811989"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="8241290" y="8741011"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10167,24 +9399,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>描述</a:t>
+            <a:t>数量折扣</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4549046" y="6850492"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="8278331" y="8778052"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{28F1DC58-4C80-42A9-951A-A48CC763381A}">
+    <dsp:sp modelId="{145DAD85-EA95-4FDF-9834-24E8C158645C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="19457599">
-          <a:off x="3337146" y="9352914"/>
-          <a:ext cx="1295129" cy="12150"/>
+        <a:xfrm rot="17945813">
+          <a:off x="3154122" y="8822112"/>
+          <a:ext cx="2080512" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10195,10 +9427,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1295129" y="6075"/>
+                <a:pt x="2080512" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10236,7 +9468,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10247,23 +9479,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3952332" y="9326611"/>
-        <a:ext cx="64756" cy="64756"/>
+        <a:off x="4142365" y="8775944"/>
+        <a:ext cx="104025" cy="104025"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}">
+    <dsp:sp modelId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4510543" y="8323757"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="4700242" y="7286652"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10324,24 +9556,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>属性</a:t>
+            <a:t>描述</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4549046" y="8362260"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="4737283" y="7323693"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}">
+    <dsp:sp modelId="{28F1DC58-4C80-42A9-951A-A48CC763381A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="2093920">
-          <a:off x="3343581" y="10097663"/>
-          <a:ext cx="1282259" cy="12150"/>
+        <a:xfrm rot="20413970">
+          <a:off x="3656839" y="9549291"/>
+          <a:ext cx="1075077" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10352,10 +9584,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1282259" y="6075"/>
+                <a:pt x="1075077" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10408,19 +9640,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3952654" y="10071682"/>
-        <a:ext cx="64112" cy="64112"/>
+        <a:off x="4167501" y="9528259"/>
+        <a:ext cx="53753" cy="53753"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}">
+    <dsp:sp modelId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4510543" y="9813256"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="4700242" y="8741011"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10480,26 +9712,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
-            <a:t>Accessories</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>属性</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4549046" y="9851759"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="4737283" y="8778052"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{8C352C1C-738A-4A10-981D-E71F662088F5}">
+    <dsp:sp modelId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="72783">
-          <a:off x="7139587" y="10475605"/>
-          <a:ext cx="1051900" cy="12150"/>
+        <a:xfrm rot="2795155">
+          <a:off x="3458325" y="10265759"/>
+          <a:ext cx="1472105" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10510,10 +9741,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1051900" y="6075"/>
+                <a:pt x="1472105" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10522,7 +9753,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -10566,19 +9797,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7639239" y="10455383"/>
-        <a:ext cx="52595" cy="52595"/>
+        <a:off x="4157575" y="10234801"/>
+        <a:ext cx="73605" cy="73605"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{DC66AB97-B3B7-454F-BADA-742E0A317634}">
+    <dsp:sp modelId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8191369" y="9835525"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="4700242" y="10173947"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10638,26 +9869,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
-            <a:t>product_to_products</a:t>
+            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
+            <a:t>Accessories</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8229872" y="9874028"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="4737283" y="10210988"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}">
+    <dsp:sp modelId="{8C352C1C-738A-4A10-981D-E71F662088F5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="3907178">
-          <a:off x="2734886" y="10864682"/>
-          <a:ext cx="2499648" cy="12150"/>
+        <a:xfrm rot="72783">
+          <a:off x="7229449" y="10811144"/>
+          <a:ext cx="1011954" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10668,10 +9899,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2499648" y="6075"/>
+                <a:pt x="1011954" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10680,7 +9911,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -10709,7 +9940,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10720,23 +9951,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3922219" y="10808266"/>
-        <a:ext cx="124982" cy="124982"/>
+        <a:off x="7710127" y="10791690"/>
+        <a:ext cx="50597" cy="50597"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}">
+    <dsp:sp modelId="{DC66AB97-B3B7-454F-BADA-742E0A317634}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4510543" y="11347293"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="8241290" y="10195370"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10796,25 +10027,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>推荐</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
+            <a:t>product_to_products</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4549046" y="11385796"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="8278331" y="10232411"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}">
+    <dsp:sp modelId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4467012">
-          <a:off x="2023205" y="11620566"/>
-          <a:ext cx="3923010" cy="12150"/>
+        <a:xfrm rot="4099285">
+          <a:off x="2824955" y="11003650"/>
+          <a:ext cx="2738844" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10825,10 +10057,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3923010" y="6075"/>
+                <a:pt x="2738844" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10866,7 +10098,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10877,23 +10109,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3886635" y="11528566"/>
-        <a:ext cx="196150" cy="196150"/>
+        <a:off x="4125907" y="10941024"/>
+        <a:ext cx="136942" cy="136942"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}">
+    <dsp:sp modelId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4510543" y="12859060"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="4700242" y="11649729"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10953,25 +10185,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
-            <a:t>Customer Images</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>推荐</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4549046" y="12897563"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="4737283" y="11686770"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}">
+    <dsp:sp modelId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7139704" y="13510275"/>
-          <a:ext cx="1051664" cy="12150"/>
+        <a:xfrm rot="4548241">
+          <a:off x="2131643" y="11730830"/>
+          <a:ext cx="4125468" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10982,10 +10214,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1051664" y="6075"/>
+                <a:pt x="4125468" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10994,7 +10226,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -11023,7 +10255,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11034,23 +10266,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7639245" y="13490059"/>
-        <a:ext cx="52583" cy="52583"/>
+        <a:off x="4091241" y="11633538"/>
+        <a:ext cx="206273" cy="206273"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{EF7CB15F-86FD-4372-B781-C31717015D39}">
+    <dsp:sp modelId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8191369" y="12859060"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="4700242" y="13104088"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11110,26 +10342,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>customers_images</a:t>
+            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
+            <a:t>Customer Images</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8229872" y="12897563"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="4737283" y="13141129"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}">
+    <dsp:sp modelId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4725511">
-          <a:off x="1287366" y="12376450"/>
-          <a:ext cx="5394688" cy="12150"/>
+        <a:xfrm>
+          <a:off x="7229562" y="13730574"/>
+          <a:ext cx="1011728" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11140,10 +10371,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="5394688" y="6075"/>
+                <a:pt x="1011728" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11152,7 +10383,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -11181,7 +10412,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11192,23 +10423,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3849843" y="12247658"/>
-        <a:ext cx="269734" cy="269734"/>
+        <a:off x="7710133" y="13711125"/>
+        <a:ext cx="50586" cy="50586"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}">
+    <dsp:sp modelId="{EF7CB15F-86FD-4372-B781-C31717015D39}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4510543" y="14370828"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="8241290" y="13104088"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11268,25 +10499,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
-            <a:t>Customer Videos</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>customers_images</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4549046" y="14409331"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="8278331" y="13141129"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}">
+    <dsp:sp modelId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7139704" y="15022043"/>
-          <a:ext cx="1051664" cy="12150"/>
+        <a:xfrm rot="4769441">
+          <a:off x="1420931" y="12458010"/>
+          <a:ext cx="5546894" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11297,10 +10529,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1051664" y="6075"/>
+                <a:pt x="5546894" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11309,7 +10541,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -11338,7 +10570,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11349,23 +10581,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7639245" y="15001827"/>
-        <a:ext cx="52583" cy="52583"/>
+        <a:off x="4055705" y="12325182"/>
+        <a:ext cx="277344" cy="277344"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{19273AAB-E414-41A1-9D60-19175C768B84}">
+    <dsp:sp modelId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8191369" y="14370828"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="4700242" y="14558447"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11425,26 +10657,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>products_video_url</a:t>
+            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
+            <a:t>Customer Videos</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8229872" y="14409331"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="4737283" y="14595488"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}">
+    <dsp:sp modelId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4924756">
-          <a:off x="168886" y="13510275"/>
-          <a:ext cx="7631648" cy="12150"/>
+        <a:xfrm>
+          <a:off x="7229562" y="15184933"/>
+          <a:ext cx="1011728" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11455,10 +10686,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="7631648" y="6075"/>
+                <a:pt x="1011728" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11467,7 +10698,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -11496,7 +10727,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11507,23 +10738,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3793919" y="13325560"/>
-        <a:ext cx="381582" cy="381582"/>
+        <a:off x="7710133" y="15165484"/>
+        <a:ext cx="50586" cy="50586"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}">
+    <dsp:sp modelId="{19273AAB-E414-41A1-9D60-19175C768B84}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4510543" y="16638480"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="8241290" y="14558447"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11583,26 +10814,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
-            <a:t>Customer Reviews</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>products_video_url</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4549046" y="16676983"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="8278331" y="14595488"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}">
+    <dsp:sp modelId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7139704" y="17289695"/>
-          <a:ext cx="1051664" cy="12150"/>
+        <a:xfrm rot="4947119">
+          <a:off x="343316" y="13548779"/>
+          <a:ext cx="7702122" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11613,10 +10844,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1051664" y="6075"/>
+                <a:pt x="7702122" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11625,7 +10856,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -11654,7 +10885,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11665,23 +10896,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7639245" y="17269479"/>
-        <a:ext cx="52583" cy="52583"/>
+        <a:off x="4001825" y="13362070"/>
+        <a:ext cx="385106" cy="385106"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{74E3D885-0104-4156-8E63-BED57F56F2DB}">
+    <dsp:sp modelId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8191369" y="16638480"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="4700242" y="16739986"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11741,26 +10972,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
-            <a:t>zencart.reviews</a:t>
+            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
+            <a:t>Customer Reviews</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8229872" y="16676983"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="4737283" y="16777027"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{57B659E6-114D-4A2E-9EAD-DE383F33A3D6}">
+    <dsp:sp modelId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10820531" y="17289695"/>
-          <a:ext cx="1051664" cy="12150"/>
+          <a:off x="7229562" y="17366471"/>
+          <a:ext cx="1011728" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11771,10 +11002,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1051664" y="6075"/>
+                <a:pt x="1011728" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11827,19 +11058,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11320072" y="17269479"/>
-        <a:ext cx="52583" cy="52583"/>
+        <a:off x="7710133" y="17347023"/>
+        <a:ext cx="50586" cy="50586"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{62AD5277-2022-4E96-9530-E41482C4F93E}">
+    <dsp:sp modelId="{74E3D885-0104-4156-8E63-BED57F56F2DB}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11872196" y="16638480"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="8241290" y="16739986"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11899,25 +11130,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>评论数量</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
+            <a:t>zencart.reviews</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11910699" y="16676983"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="8278331" y="16777027"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1B098D82-6EE2-46B9-99E2-4FD64D567D37}">
+    <dsp:sp modelId="{57B659E6-114D-4A2E-9EAD-DE383F33A3D6}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="19457599">
-          <a:off x="14379625" y="16911753"/>
-          <a:ext cx="1295129" cy="12150"/>
+        <a:xfrm>
+          <a:off x="10770610" y="17366471"/>
+          <a:ext cx="1011728" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11928,10 +11160,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1295129" y="6075"/>
+                <a:pt x="1011728" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11984,19 +11216,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14994811" y="16885451"/>
-        <a:ext cx="64756" cy="64756"/>
+        <a:off x="11251181" y="17347023"/>
+        <a:ext cx="50586" cy="50586"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{B0A59766-BFD1-4971-AA3E-083F56792E4A}">
+    <dsp:sp modelId="{62AD5277-2022-4E96-9530-E41482C4F93E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="15553022" y="15882596"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="11782338" y="16739986"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12057,24 +11289,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>有登陆</a:t>
+            <a:t>评论数量</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="15591525" y="15921099"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="11819379" y="16777027"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{344E9AF4-45E1-4810-9A46-556F99E367E5}">
+    <dsp:sp modelId="{1B098D82-6EE2-46B9-99E2-4FD64D567D37}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="2142401">
-          <a:off x="14379625" y="17667637"/>
-          <a:ext cx="1295129" cy="12150"/>
+        <a:xfrm rot="19457599">
+          <a:off x="14194549" y="17002882"/>
+          <a:ext cx="1245946" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12085,10 +11317,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1295129" y="6075"/>
+                <a:pt x="1245946" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12141,19 +11373,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14994811" y="17641335"/>
-        <a:ext cx="64756" cy="64756"/>
+        <a:off x="14786374" y="16977578"/>
+        <a:ext cx="62297" cy="62297"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{8711A100-87C2-4EFE-BB48-418F353A2470}">
+    <dsp:sp modelId="{B0A59766-BFD1-4971-AA3E-083F56792E4A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="15553022" y="17394364"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="15323386" y="16012806"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12214,24 +11446,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>没有登陆</a:t>
+            <a:t>有登陆</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="15591525" y="17432867"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="15360427" y="16049847"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{D84339FB-047D-4649-8593-289A5B8D130D}">
+    <dsp:sp modelId="{344E9AF4-45E1-4810-9A46-556F99E367E5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="5003192">
-          <a:off x="-580974" y="14266159"/>
-          <a:ext cx="9131370" cy="12150"/>
+        <a:xfrm rot="2142401">
+          <a:off x="14194549" y="17730061"/>
+          <a:ext cx="1245946" cy="11689"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12242,10 +11474,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="6075"/>
+                <a:pt x="0" y="5844"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="9131370" y="6075"/>
+                <a:pt x="1245946" y="5844"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12254,7 +11486,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -12283,7 +11515,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -12294,23 +11526,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3756426" y="14043951"/>
-        <a:ext cx="456568" cy="456568"/>
+        <a:off x="14786374" y="17704757"/>
+        <a:ext cx="62297" cy="62297"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{98556681-3D9F-4912-AC6C-8A99410E01D5}">
+    <dsp:sp modelId="{8711A100-87C2-4EFE-BB48-418F353A2470}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4510543" y="18150248"/>
-          <a:ext cx="2629161" cy="1314580"/>
+          <a:off x="15323386" y="17467166"/>
+          <a:ext cx="2529320" cy="1264660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12370,6 +11602,163 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>没有登陆</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="15360427" y="17504207"/>
+        <a:ext cx="2455238" cy="1190578"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D84339FB-047D-4649-8593-289A5B8D130D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5018932">
+          <a:off x="-378559" y="14275958"/>
+          <a:ext cx="9145875" cy="11689"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5844"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="9145875" y="5844"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3965731" y="14053156"/>
+        <a:ext cx="457293" cy="457293"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{98556681-3D9F-4912-AC6C-8A99410E01D5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4700242" y="18194345"/>
+          <a:ext cx="2529320" cy="1264660"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
             <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
             <a:t>Q &amp; A</a:t>
           </a:r>
@@ -12377,8 +11766,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4549046" y="18188751"/>
-        <a:ext cx="2552155" cy="1237574"/>
+        <a:off x="4737283" y="18231386"/>
+        <a:ext cx="2455238" cy="1190578"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -20673,7 +20062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C208" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="R200" sqref="R200"/>
     </sheetView>
   </sheetViews>

--- a/zencart/docs/模块功能划分.xlsx
+++ b/zencart/docs/模块功能划分.xlsx
@@ -3513,43 +3513,6 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US"/>
-            <a:t>tpl_modules_products_info_translate_on_title.php</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{3873C774-C9E3-4842-845E-3F0F0A27954C}" type="parTrans" cxnId="{A8F51EA3-D546-4480-A9DC-4A8865744C5A}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{D77E36F3-C88B-406F-8D67-7AB15A0509B0}" type="sibTrans" cxnId="{A8F51EA3-D546-4480-A9DC-4A8865744C5A}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
     <dgm:pt modelId="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}">
       <dgm:prSet/>
       <dgm:spPr/>
@@ -3884,43 +3847,6 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{B7DE4E17-4A8A-48E5-B6A2-F6B94A2EF4C0}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US"/>
-            <a:t>tpl_modules_main_product_new_image.php</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{559DD2B8-4F93-431D-A172-966C2015BF0C}" type="parTrans" cxnId="{BE7CEEEB-D628-4D3F-9E9E-D96ED39D2E9B}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{B0D85B6C-4765-4A6D-BB0E-89DEDE6CCB2A}" type="sibTrans" cxnId="{BE7CEEEB-D628-4D3F-9E9E-D96ED39D2E9B}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
     <dgm:pt modelId="{DB3369F4-948C-43BD-AC0D-9C838395DC73}">
       <dgm:prSet/>
       <dgm:spPr/>
@@ -4072,65 +3998,6 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{2753ED25-9652-4141-9D86-C075B64E5A0C}" type="pres">
-      <dgm:prSet presAssocID="{3873C774-C9E3-4842-845E-3F0F0A27954C}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="11"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{1211BB58-91E1-4D17-8AEA-A049AA32E719}" type="pres">
-      <dgm:prSet presAssocID="{3873C774-C9E3-4842-845E-3F0F0A27954C}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="11"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{88012662-5F20-4DB7-9120-070E0744EB57}" type="pres">
-      <dgm:prSet presAssocID="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{CC54B996-C92F-4E02-A4CC-BE8ED9E7597C}" type="pres">
-      <dgm:prSet presAssocID="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="11">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{836CEEA0-70A5-4612-92CF-D9253186CE6C}" type="pres">
-      <dgm:prSet presAssocID="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
     <dgm:pt modelId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" type="pres">
       <dgm:prSet presAssocID="{7AC4E662-1985-4FD6-82B8-E6FE7821F200}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="11"/>
       <dgm:spPr/>
@@ -4190,51 +4057,6 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{54EE237B-A561-477B-A047-5340603D15C1}" type="pres">
-      <dgm:prSet presAssocID="{559DD2B8-4F93-431D-A172-966C2015BF0C}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="11"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{1D599482-94C5-4AC2-9979-DA0473588216}" type="pres">
-      <dgm:prSet presAssocID="{559DD2B8-4F93-431D-A172-966C2015BF0C}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="11"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{D516F224-2148-4904-BBE0-D243CC6A6FDE}" type="pres">
-      <dgm:prSet presAssocID="{B7DE4E17-4A8A-48E5-B6A2-F6B94A2EF4C0}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{B7A723E6-704C-42EB-B047-E088BD225749}" type="pres">
-      <dgm:prSet presAssocID="{B7DE4E17-4A8A-48E5-B6A2-F6B94A2EF4C0}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="11">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{619EE549-712A-4A93-AB10-BB75AF3A339B}" type="pres">
-      <dgm:prSet presAssocID="{B7DE4E17-4A8A-48E5-B6A2-F6B94A2EF4C0}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
     <dgm:pt modelId="{28F496D2-4019-4178-92C0-A9F924F314B7}" type="pres">
       <dgm:prSet presAssocID="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="11"/>
       <dgm:spPr/>
@@ -4295,7 +4117,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}" type="pres">
-      <dgm:prSet presAssocID="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4306,7 +4128,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1D2BB695-8C27-4347-A006-147A1DBEA74F}" type="pres">
-      <dgm:prSet presAssocID="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4328,7 +4150,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{74E3BD4A-40E6-475E-8288-DC90F802DB14}" type="pres">
-      <dgm:prSet presAssocID="{8570D345-0017-4FB7-97D8-558D21E0D926}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="11">
+      <dgm:prSet presAssocID="{8570D345-0017-4FB7-97D8-558D21E0D926}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4354,7 +4176,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{20753BF2-0D7F-4695-879C-908482DA5B47}" type="pres">
-      <dgm:prSet presAssocID="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4365,7 +4187,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6A91BBDB-6803-43A6-8683-4B6468961754}" type="pres">
-      <dgm:prSet presAssocID="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4387,7 +4209,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0ECFF24D-6683-4AFC-9B7F-CD0D77C6771A}" type="pres">
-      <dgm:prSet presAssocID="{F5050CEC-E453-4096-A803-275398B27760}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="11">
+      <dgm:prSet presAssocID="{F5050CEC-E453-4096-A803-275398B27760}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4413,7 +4235,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}" type="pres">
-      <dgm:prSet presAssocID="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4424,7 +4246,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C4403317-3C9A-42B0-855F-11D6FBB268BB}" type="pres">
-      <dgm:prSet presAssocID="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{2BD92D04-38B5-45FF-9943-A262EF7C88D0}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4446,7 +4268,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0F5C5E05-724C-4615-9A27-0292B8BF7467}" type="pres">
-      <dgm:prSet presAssocID="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="11">
+      <dgm:prSet presAssocID="{A5BE022A-D7DA-4BF0-9943-A2D2C73DB81C}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4472,7 +4294,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FA9E5C58-920C-4962-A474-015BE2EAD31D}" type="pres">
-      <dgm:prSet presAssocID="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4483,7 +4305,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CC9D094D-7F95-4C6E-A462-4B1926F24FF9}" type="pres">
-      <dgm:prSet presAssocID="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{94959D24-EEB3-4F3C-AD1A-261184E44BB9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4505,7 +4327,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{84198158-0634-44E0-82FA-C5DACA6BFD04}" type="pres">
-      <dgm:prSet presAssocID="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="11">
+      <dgm:prSet presAssocID="{2DE91439-BCCA-485D-BAC2-BB7CCC451D49}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4531,24 +4353,45 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{735D3964-1A08-4712-BDBE-06EA0455A6EC}" type="pres">
-      <dgm:prSet presAssocID="{D3C31E61-0D79-4898-8F0B-BA2F4306964A}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="11"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{D3C31E61-0D79-4898-8F0B-BA2F4306964A}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8B77E1B8-0A17-4899-9C3E-4D18703FDC7A}" type="pres">
-      <dgm:prSet presAssocID="{D3C31E61-0D79-4898-8F0B-BA2F4306964A}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="11"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{D3C31E61-0D79-4898-8F0B-BA2F4306964A}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F6B14D6A-3AA9-4E2B-BD4F-99616DAA9B26}" type="pres">
       <dgm:prSet presAssocID="{DB3369F4-948C-43BD-AC0D-9C838395DC73}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7AE2FE72-4EAB-4297-BC61-4E9316A2E869}" type="pres">
-      <dgm:prSet presAssocID="{DB3369F4-948C-43BD-AC0D-9C838395DC73}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="11">
+      <dgm:prSet presAssocID="{DB3369F4-948C-43BD-AC0D-9C838395DC73}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4059FA6D-7FD4-4D69-B512-550FFA335454}" type="pres">
       <dgm:prSet presAssocID="{DB3369F4-948C-43BD-AC0D-9C838395DC73}" presName="level3hierChild" presStyleCnt="0"/>
@@ -4732,7 +4575,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8C352C1C-738A-4A10-981D-E71F662088F5}" type="pres">
-      <dgm:prSet presAssocID="{675C5201-5BA2-47CE-800D-A6384009EC75}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{675C5201-5BA2-47CE-800D-A6384009EC75}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4743,7 +4586,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F096C77D-217B-4E4F-BD39-338FE324D381}" type="pres">
-      <dgm:prSet presAssocID="{675C5201-5BA2-47CE-800D-A6384009EC75}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{675C5201-5BA2-47CE-800D-A6384009EC75}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4765,7 +4608,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DC66AB97-B3B7-454F-BADA-742E0A317634}" type="pres">
-      <dgm:prSet presAssocID="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="11">
+      <dgm:prSet presAssocID="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4909,7 +4752,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}" type="pres">
-      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4920,7 +4763,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{87E643AA-72A4-4612-B289-26E6E69BA69D}" type="pres">
-      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4942,7 +4785,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EF7CB15F-86FD-4372-B781-C31717015D39}" type="pres">
-      <dgm:prSet presAssocID="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="11">
+      <dgm:prSet presAssocID="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -5027,7 +4870,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}" type="pres">
-      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -5038,7 +4881,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{67608300-5F86-4317-AB34-2391DC98945C}" type="pres">
-      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -5060,7 +4903,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{19273AAB-E414-41A1-9D60-19175C768B84}" type="pres">
-      <dgm:prSet presAssocID="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="11">
+      <dgm:prSet presAssocID="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -5145,7 +4988,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}" type="pres">
-      <dgm:prSet presAssocID="{27481B52-DE79-4D07-90EC-53EA026B04E1}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{27481B52-DE79-4D07-90EC-53EA026B04E1}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -5156,7 +4999,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0B720156-C01C-492E-8E97-EFAE0AB93A9F}" type="pres">
-      <dgm:prSet presAssocID="{27481B52-DE79-4D07-90EC-53EA026B04E1}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{27481B52-DE79-4D07-90EC-53EA026B04E1}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="9"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -5178,7 +5021,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{74E3D885-0104-4156-8E63-BED57F56F2DB}" type="pres">
-      <dgm:prSet presAssocID="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="11">
+      <dgm:prSet presAssocID="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -5442,7 +5285,6 @@
   </dgm:ptLst>
   <dgm:cxnLst>
     <dgm:cxn modelId="{C3A042AA-1499-4E35-B911-37FB305502D7}" type="presOf" srcId="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" destId="{74E3D885-0104-4156-8E63-BED57F56F2DB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{6F7F2286-9D73-458A-9600-728B80032683}" type="presOf" srcId="{559DD2B8-4F93-431D-A172-966C2015BF0C}" destId="{1D599482-94C5-4AC2-9979-DA0473588216}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{A9B1677B-439D-4C35-9B58-62FFCC683CEC}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{7C404FA2-1F09-4F3F-A0CC-AEB39BCD6086}" srcOrd="10" destOrd="0" parTransId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" sibTransId="{5338813F-CDB8-4B17-B301-9A1E2C13158C}"/>
     <dgm:cxn modelId="{599AABAA-2C30-4D51-BA17-D7E9AB45CB50}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" srcOrd="0" destOrd="0" parTransId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" sibTransId="{69857E7C-5030-4D39-BE1C-81C2B1166F47}"/>
     <dgm:cxn modelId="{6332CE73-A45C-4F97-BA7F-AD129A240B0B}" type="presOf" srcId="{8F5577FA-BD2C-45E5-B09F-CC214ED7D117}" destId="{8711A100-87C2-4EFE-BB48-418F353A2470}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -5450,11 +5292,8 @@
     <dgm:cxn modelId="{98E7F509-3CF8-427F-B56B-790E8675987A}" type="presOf" srcId="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" destId="{1D2BB695-8C27-4347-A006-147A1DBEA74F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{145C319D-EF66-42C0-89E9-07F7FF9692A7}" type="presOf" srcId="{046CB6E8-C903-492C-90F3-C9BC4362779A}" destId="{E445A682-3309-48F3-9735-EBB2F9E78523}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{D95655CC-9891-462F-9EC4-46A0CA6E7B0A}" type="presOf" srcId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" destId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{611C8462-0314-47AA-AC20-2F84B60AB6E0}" type="presOf" srcId="{3873C774-C9E3-4842-845E-3F0F0A27954C}" destId="{1211BB58-91E1-4D17-8AEA-A049AA32E719}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{BE7CEEEB-D628-4D3F-9E9E-D96ED39D2E9B}" srcId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" destId="{B7DE4E17-4A8A-48E5-B6A2-F6B94A2EF4C0}" srcOrd="0" destOrd="0" parTransId="{559DD2B8-4F93-431D-A172-966C2015BF0C}" sibTransId="{B0D85B6C-4765-4A6D-BB0E-89DEDE6CCB2A}"/>
     <dgm:cxn modelId="{67B2E9F6-F29F-4C4B-A774-8BEA2D4C7A8A}" type="presOf" srcId="{675C5201-5BA2-47CE-800D-A6384009EC75}" destId="{F096C77D-217B-4E4F-BD39-338FE324D381}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{8799599A-5096-414A-8D49-C85637058AD4}" srcId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" destId="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" srcOrd="0" destOrd="0" parTransId="{675C5201-5BA2-47CE-800D-A6384009EC75}" sibTransId="{CB16F46D-665A-479C-A8D9-C522A3ADA694}"/>
-    <dgm:cxn modelId="{413D4DFA-823D-41EE-B222-18EE6B68199A}" type="presOf" srcId="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" destId="{CC54B996-C92F-4E02-A4CC-BE8ED9E7597C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{BC379DEB-700E-40DA-981B-0961DA271015}" type="presOf" srcId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" destId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{181A4CB7-58BC-4410-8809-D108D15EFD91}" type="presOf" srcId="{E132B2EE-FC4F-4F6F-97A5-B2321DFD3458}" destId="{515834A5-28FF-4C53-ACA2-A74E27687D59}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{1A4F8ED8-31A1-43AA-8DB0-193A1907E2CF}" type="presOf" srcId="{F5050CEC-E453-4096-A803-275398B27760}" destId="{0ECFF24D-6683-4AFC-9B7F-CD0D77C6771A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -5462,8 +5301,8 @@
     <dgm:cxn modelId="{ACF6001F-CF99-4F37-B0B2-7BF5A4A78693}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{35BA4F71-0FD9-4FA7-88CC-DB2AC1D42D2C}" srcOrd="5" destOrd="0" parTransId="{FC155364-48F5-4F75-95D6-FDD8440E3D0C}" sibTransId="{CC793FB2-49FD-477C-8EC3-3400F305DF28}"/>
     <dgm:cxn modelId="{13BCB9EE-A0C6-4E15-9262-A271A88D08EA}" type="presOf" srcId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" destId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{7F6C4993-38D3-42CC-A893-A1CABC800B7D}" type="presOf" srcId="{27481B52-DE79-4D07-90EC-53EA026B04E1}" destId="{0B720156-C01C-492E-8E97-EFAE0AB93A9F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B7F2937F-7206-41EE-BE3A-0D0348065B6A}" type="presOf" srcId="{D3C31E61-0D79-4898-8F0B-BA2F4306964A}" destId="{735D3964-1A08-4712-BDBE-06EA0455A6EC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{ACA4C21D-474A-4E70-A4EF-DEBB05C0320B}" type="presOf" srcId="{D86CE20E-44F2-46D4-8A14-DAE43AEDAEC8}" destId="{DC66AB97-B3B7-454F-BADA-742E0A317634}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B7F2937F-7206-41EE-BE3A-0D0348065B6A}" type="presOf" srcId="{D3C31E61-0D79-4898-8F0B-BA2F4306964A}" destId="{735D3964-1A08-4712-BDBE-06EA0455A6EC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B4313D12-AA2D-4796-95E0-3D76BEA04572}" srcId="{31CD7878-84F1-4825-B934-E86F76D7D560}" destId="{338A5C5A-CAEE-4A6C-B3A5-39C32D0DCD47}" srcOrd="2" destOrd="0" parTransId="{2F914BCE-F6E8-48AC-8DD6-21EB5370970D}" sibTransId="{D4B0F6EC-70A0-451B-8D13-ACBF5C5EE10E}"/>
     <dgm:cxn modelId="{82917F59-2648-432B-A5B9-B912DAC749E3}" type="presOf" srcId="{883C9833-4CE3-47D8-B312-EAC04B1BBFEF}" destId="{EF7CB15F-86FD-4372-B781-C31717015D39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{514F4805-DBBC-4C62-8567-1E871BCD1543}" type="presOf" srcId="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" destId="{19273AAB-E414-41A1-9D60-19175C768B84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -5501,10 +5340,8 @@
     <dgm:cxn modelId="{7805392A-4E17-4429-B6DF-3AD03CE55706}" type="presOf" srcId="{A89150BB-238D-44AA-BEFF-A5B6A51FD1A7}" destId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{201D36AE-E9C2-48B3-BB12-9F674508D3D4}" type="presOf" srcId="{18BE967E-3EA8-43BD-B02D-47AEBE90DF44}" destId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{7C6A378F-2479-4458-A171-0AB17FEEF4A9}" type="presOf" srcId="{70F5336D-058E-47B2-940D-645D2C4D30E5}" destId="{07445E72-6E0D-4223-8951-2B3FE2B491A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A8F51EA3-D546-4480-A9DC-4A8865744C5A}" srcId="{0DE4A7BF-6554-4169-A454-645BD29EAD06}" destId="{F78D925D-8A39-4BB4-BA4C-8762FCE1AF49}" srcOrd="0" destOrd="0" parTransId="{3873C774-C9E3-4842-845E-3F0F0A27954C}" sibTransId="{D77E36F3-C88B-406F-8D67-7AB15A0509B0}"/>
     <dgm:cxn modelId="{C507D615-DC3E-4883-9DB8-089D14929E62}" srcId="{4E4C3743-8093-45F6-8A41-15462B04EAC8}" destId="{7D712709-A7D6-486B-957D-F3E0A466960F}" srcOrd="0" destOrd="0" parTransId="{6685CE29-0B27-4599-8A61-2E450B77D4E6}" sibTransId="{0070C935-FB69-45CF-8C14-D759D14EB217}"/>
     <dgm:cxn modelId="{51CCEB5F-0195-49A4-9C05-8CBEE42A0ADC}" type="presOf" srcId="{7D712709-A7D6-486B-957D-F3E0A466960F}" destId="{62AD5277-2022-4E96-9530-E41482C4F93E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{8A804103-D183-4DF0-9F8C-4D4CDFDBFCF6}" type="presOf" srcId="{B7DE4E17-4A8A-48E5-B6A2-F6B94A2EF4C0}" destId="{B7A723E6-704C-42EB-B047-E088BD225749}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{819996A4-8E78-4DA4-817F-39A1B1AE679E}" type="presOf" srcId="{3C23E61D-C228-4D36-A913-A912602620F7}" destId="{344E9AF4-45E1-4810-9A46-556F99E367E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{192D774D-417F-4BB8-98B7-EC27FA5DFE39}" type="presOf" srcId="{B9D642CE-345D-45B1-98BC-6C38D82AAB59}" destId="{493F0A8D-C152-42A2-B413-C05E0C689C00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{0F6D280E-934E-49E2-8B13-BD4FF69B880D}" type="presOf" srcId="{C7A8DF60-87AC-4D4B-9F6E-110064F46689}" destId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -5539,9 +5376,7 @@
     <dgm:cxn modelId="{FE1926E7-D5F2-4E82-8AC9-2AD158FD8066}" type="presOf" srcId="{019D7A92-FDE1-4D72-9AD5-90F77FEF63A2}" destId="{6A91BBDB-6803-43A6-8683-4B6468961754}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{369FD756-C69A-4521-94EB-7B5A5E30C9A5}" type="presOf" srcId="{6685CE29-0B27-4599-8A61-2E450B77D4E6}" destId="{57B659E6-114D-4A2E-9EAD-DE383F33A3D6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{9058878F-DEBF-468B-A31E-CA220283D6AC}" type="presOf" srcId="{7C2FF7FF-EC55-41A4-AAAF-83160D4AD4EC}" destId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{8495542A-6220-478A-8BED-F69EED43DEC4}" type="presOf" srcId="{559DD2B8-4F93-431D-A172-966C2015BF0C}" destId="{54EE237B-A561-477B-A047-5340603D15C1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{7883FB67-2A4A-4A00-9EE8-D7BFC0EFAD87}" type="presOf" srcId="{FE4927AE-1F19-4E8C-865B-4C0DD8DB001B}" destId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{92215F05-E1DD-48D2-AC0C-8F5704A71C87}" type="presOf" srcId="{3873C774-C9E3-4842-845E-3F0F0A27954C}" destId="{2753ED25-9652-4141-9D86-C075B64E5A0C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{DE18C9AE-F6CB-4511-8817-7352C2887128}" type="presOf" srcId="{9615E39F-F49B-4AFA-A11E-12CE4CF9F499}" destId="{D84339FB-047D-4649-8593-289A5B8D130D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{803AA8EB-D49C-44A3-9D38-F663402CE54E}" srcId="{68138C9E-656F-4ECF-9770-ED91439B2549}" destId="{AA0641E3-6C64-4D5C-B586-0D4D5975B4DE}" srcOrd="0" destOrd="0" parTransId="{3B6CDD84-F028-435D-9C77-9A6802FF0ED9}" sibTransId="{5EC8EE83-9951-4544-A6E5-0D874EC1E69F}"/>
     <dgm:cxn modelId="{E5CEFDC8-E389-4BDF-BE61-891E5470B840}" type="presParOf" srcId="{099476A6-4E27-4FAA-9398-2AE46D180721}" destId="{D835486E-AE2B-4722-88FC-F876B0FDDEE3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -5552,21 +5387,11 @@
     <dgm:cxn modelId="{93CAF996-950D-4E35-A818-98752F56F0EC}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{C654AC46-6EBF-4415-B923-570FBF4BB307}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{F6FBF0B2-B968-427F-9784-B851124348F7}" type="presParOf" srcId="{C654AC46-6EBF-4415-B923-570FBF4BB307}" destId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E14C2B10-D4BB-430C-B242-60A82919F1CF}" type="presParOf" srcId="{C654AC46-6EBF-4415-B923-570FBF4BB307}" destId="{5EF65C10-0F4C-4867-ABC8-8BA7400B4D33}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{44FCDC11-B474-4C3B-8298-C875999AFF53}" type="presParOf" srcId="{5EF65C10-0F4C-4867-ABC8-8BA7400B4D33}" destId="{2753ED25-9652-4141-9D86-C075B64E5A0C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{02AF61C9-3320-4688-8098-67933748A184}" type="presParOf" srcId="{2753ED25-9652-4141-9D86-C075B64E5A0C}" destId="{1211BB58-91E1-4D17-8AEA-A049AA32E719}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{926CB505-23D7-469D-8F41-9F2796D32B10}" type="presParOf" srcId="{5EF65C10-0F4C-4867-ABC8-8BA7400B4D33}" destId="{88012662-5F20-4DB7-9120-070E0744EB57}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{FE5A8023-FB25-4E4C-AC1E-4C0218976BFB}" type="presParOf" srcId="{88012662-5F20-4DB7-9120-070E0744EB57}" destId="{CC54B996-C92F-4E02-A4CC-BE8ED9E7597C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{8F0435F0-5A43-47A6-8614-3F536F868932}" type="presParOf" srcId="{88012662-5F20-4DB7-9120-070E0744EB57}" destId="{836CEEA0-70A5-4612-92CF-D9253186CE6C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{6605617B-C0D8-4E9F-A22F-452110DC8229}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{11068D85-39AA-45AA-ACD5-63344EA7AF48}" type="presParOf" srcId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}" destId="{D227BC4F-3E9D-4433-87E2-4FCB465AB942}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{59BF17BA-8166-41F0-AE5F-88E3ABC03709}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{0B035392-FDFC-45AF-B680-4C8E3254DB9D}" type="presParOf" srcId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" destId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{8F67B4EE-FDCB-4911-BCC9-34D22EF2A3CA}" type="presParOf" srcId="{AAAD9A1C-A0C2-411B-9149-92A6AAB14988}" destId="{5142D8E6-9CE4-46F6-AC41-6F5BDF9B0433}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0E47A77F-4963-4365-9FA6-0ECFE55B03A9}" type="presParOf" srcId="{5142D8E6-9CE4-46F6-AC41-6F5BDF9B0433}" destId="{54EE237B-A561-477B-A047-5340603D15C1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{9E96BD3C-6C89-4B1D-B164-D974EA6B38CF}" type="presParOf" srcId="{54EE237B-A561-477B-A047-5340603D15C1}" destId="{1D599482-94C5-4AC2-9979-DA0473588216}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{76B5579F-1ABA-4A7B-A142-6458095FEB98}" type="presParOf" srcId="{5142D8E6-9CE4-46F6-AC41-6F5BDF9B0433}" destId="{D516F224-2148-4904-BBE0-D243CC6A6FDE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A53A4DBC-01A6-4DD2-8E23-8B149357D4AA}" type="presParOf" srcId="{D516F224-2148-4904-BBE0-D243CC6A6FDE}" destId="{B7A723E6-704C-42EB-B047-E088BD225749}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{E6831EAE-4EB8-4A10-8361-034EE9C3014E}" type="presParOf" srcId="{D516F224-2148-4904-BBE0-D243CC6A6FDE}" destId="{619EE549-712A-4A93-AB10-BB75AF3A339B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{AF008AFF-4D09-4935-BDCA-4D35FF8ED820}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{28F496D2-4019-4178-92C0-A9F924F314B7}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{6BDE91C1-3464-4889-9AFA-B2CDAA0222C4}" type="presParOf" srcId="{28F496D2-4019-4178-92C0-A9F924F314B7}" destId="{D1296DF1-78D9-4238-A067-6069827E6644}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{40E48CE5-5F34-4354-B713-3134D8535C27}" type="presParOf" srcId="{13FBAE6E-9230-4FE8-A312-F91F98A04C79}" destId="{3AAC51B9-98D5-4DEB-B9D8-DC6DE83552C6}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -6548,6 +6373,259 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{D553F2E4-5003-49CE-927E-DB28186447D9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>图片</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A05354B3-36D9-4DD8-8B34-EA3AEC452E63}" type="parTrans" cxnId="{0BCA1D36-E047-4650-9B78-3502A22B22EE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F3CF67AB-0ACE-4DC8-8CF1-FCDBF2236920}" type="sibTrans" cxnId="{0BCA1D36-E047-4650-9B78-3502A22B22EE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{93142448-5088-4BE1-9144-2F55C5419AB6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>标题</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{117D11F4-DD02-4CCD-BD3D-E9EAEFE0FEF5}" type="parTrans" cxnId="{BF95C1DF-A3D0-46B1-89AE-B84D18CB83F0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{800C02B4-42A2-4A5E-8765-B3BAB9BDACF9}" type="sibTrans" cxnId="{BF95C1DF-A3D0-46B1-89AE-B84D18CB83F0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{43740451-90B7-46AF-85C2-D616196C550E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>属性产品</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1BE39D87-2EA5-4308-AFAD-67B00EFA6B10}" type="parTrans" cxnId="{215133B6-473B-4279-99A4-1469420DC835}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{761B8BEF-7642-4653-ABB9-D17E5B5D9507}" type="sibTrans" cxnId="{215133B6-473B-4279-99A4-1469420DC835}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BDA4DFBC-B132-42B5-8F9B-80C4784E13B3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>数量折扣</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{061FB950-AA34-4798-8D26-DC0D3862FCC3}" type="parTrans" cxnId="{838B0417-4CB5-46A6-BBB6-3529E3DE6857}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3EBA3AFD-6511-4746-AC77-2B3522B27C93}" type="sibTrans" cxnId="{838B0417-4CB5-46A6-BBB6-3529E3DE6857}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8BF3371F-37B0-4008-81A3-022828676E90}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>海外仓</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AF4FEF3D-8731-46C4-9C67-4034174C318A}" type="parTrans" cxnId="{8E698BCC-D6F1-48FA-B2C9-5065C97641D6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{98ED0252-72B6-4346-89F0-4BC8F6E90331}" type="sibTrans" cxnId="{8E698BCC-D6F1-48FA-B2C9-5065C97641D6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{64A4C501-BF30-4666-BACA-39F77E87B444}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US"/>
+            <a:t>zen_products_star</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{74CB4036-ED90-4ACC-9E85-658981007752}" type="parTrans" cxnId="{4F859922-60DB-4CFB-8C11-4F8E32C82FFC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2273EB48-B0B9-4991-9E81-2F46B1E05CA1}" type="sibTrans" cxnId="{4F859922-60DB-4CFB-8C11-4F8E32C82FFC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3A2075E2-D0AD-425D-A1BE-153A57111333}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>评论星级</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C4E2A896-F84E-4EDB-AFCD-4E9BF3C4EFD0}" type="parTrans" cxnId="{BC949F6E-B84D-470D-AF98-82CAC02390FA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{201EEC1F-AD6C-4112-8BC5-E7D65A88C8E4}" type="sibTrans" cxnId="{BC949F6E-B84D-470D-AF98-82CAC02390FA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
     <dgm:pt modelId="{9F4DB3E8-6BDE-4789-8CC1-3B5E11758B86}" type="pres">
       <dgm:prSet presAssocID="{295836EE-9898-4D01-8116-58F01C1A8092}" presName="mainComposite" presStyleCnt="0">
         <dgm:presLayoutVars>
@@ -6687,7 +6765,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D7231407-A161-4C9C-BFB9-D651AF1947FD}" type="pres">
-      <dgm:prSet presAssocID="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6698,7 +6776,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B1C8A51E-5E7B-42B8-BF39-8C9A68CF865A}" type="pres">
-      <dgm:prSet presAssocID="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6713,7 +6791,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2898F935-43C7-4879-803D-0CF37CADF3CA}" type="pres">
-      <dgm:prSet presAssocID="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6728,7 +6806,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4CFD6804-8C0F-4F9F-A90E-6BD5AB9C2B8C}" type="pres">
-      <dgm:prSet presAssocID="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6739,7 +6817,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0F3CDCF7-7401-45DB-841B-0EDE1B628B67}" type="pres">
-      <dgm:prSet presAssocID="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6754,7 +6832,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A2EFEE31-448F-455C-8C70-CD33577FC4C9}" type="pres">
-      <dgm:prSet presAssocID="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6769,7 +6847,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3F791B83-8F9D-4AEC-A34E-F3313F38BEB7}" type="pres">
-      <dgm:prSet presAssocID="{CA122700-3CB7-4094-8D40-298220BCF9CE}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{CA122700-3CB7-4094-8D40-298220BCF9CE}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6780,7 +6858,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4DA3DE6D-E22A-459F-9C90-25561DC5E2FD}" type="pres">
-      <dgm:prSet presAssocID="{CA122700-3CB7-4094-8D40-298220BCF9CE}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{CA122700-3CB7-4094-8D40-298220BCF9CE}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6795,7 +6873,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F8A96FFD-FE69-476E-A459-8F49D47314A7}" type="pres">
-      <dgm:prSet presAssocID="{C17FDAA5-5247-40D3-A375-0421F2890443}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{C17FDAA5-5247-40D3-A375-0421F2890443}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6810,7 +6888,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{746E57B4-FFA3-4E88-BCD5-9D79BDBD9277}" type="pres">
-      <dgm:prSet presAssocID="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6821,7 +6899,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C70A7FBD-BD4A-45C8-BFF3-9B3D1D482109}" type="pres">
-      <dgm:prSet presAssocID="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6836,7 +6914,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{AD4DEA5A-B382-4ADA-86B7-A56A91105758}" type="pres">
-      <dgm:prSet presAssocID="{E799A07D-AE9D-4715-B273-0D81BE9946AD}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{E799A07D-AE9D-4715-B273-0D81BE9946AD}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6851,7 +6929,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}" type="pres">
-      <dgm:prSet presAssocID="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6862,7 +6940,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DD9241E1-4FE0-446D-A84C-5DB9472C5DFC}" type="pres">
-      <dgm:prSet presAssocID="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6877,7 +6955,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}" type="pres">
-      <dgm:prSet presAssocID="{30D03971-7F89-4C3B-92A1-1B293A417E16}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{30D03971-7F89-4C3B-92A1-1B293A417E16}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6892,7 +6970,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}" type="pres">
-      <dgm:prSet presAssocID="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6903,7 +6981,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E8E018BE-5584-4651-93AA-17B4C22EF729}" type="pres">
-      <dgm:prSet presAssocID="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6918,7 +6996,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D47872FA-6671-4924-8700-A6F7228C9CAA}" type="pres">
-      <dgm:prSet presAssocID="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6932,8 +7010,28 @@
       <dgm:prSet presAssocID="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{2773881A-7C67-41C3-9241-6B6F6F2DC387}" type="pres">
+      <dgm:prSet presAssocID="{A05354B3-36D9-4DD8-8B34-EA3AEC452E63}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AE3809D7-5EF4-4D4F-99FA-EA7995C0D07E}" type="pres">
+      <dgm:prSet presAssocID="{A05354B3-36D9-4DD8-8B34-EA3AEC452E63}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{93EFAB7F-905B-4CBC-B074-67714B07DFB2}" type="pres">
+      <dgm:prSet presAssocID="{D553F2E4-5003-49CE-927E-DB28186447D9}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{13D11EEA-3D74-4FB2-9958-DBA3D51C0BA1}" type="pres">
+      <dgm:prSet presAssocID="{D553F2E4-5003-49CE-927E-DB28186447D9}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BFA761AB-8A95-44EE-8DDF-975A7936C360}" type="pres">
+      <dgm:prSet presAssocID="{D553F2E4-5003-49CE-927E-DB28186447D9}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{8783F691-2C30-4412-98D8-FDAC14A8B237}" type="pres">
-      <dgm:prSet presAssocID="{8B5AD710-3453-4459-A021-4BD74C23C219}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{8B5AD710-3453-4459-A021-4BD74C23C219}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6944,7 +7042,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EA0863B0-AD59-4641-ADAD-9375F74FE231}" type="pres">
-      <dgm:prSet presAssocID="{8B5AD710-3453-4459-A021-4BD74C23C219}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{8B5AD710-3453-4459-A021-4BD74C23C219}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6959,7 +7057,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}" type="pres">
-      <dgm:prSet presAssocID="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6973,8 +7071,28 @@
       <dgm:prSet presAssocID="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{34F83C04-7029-48DE-ACD5-E0C6D5D03F12}" type="pres">
+      <dgm:prSet presAssocID="{117D11F4-DD02-4CCD-BD3D-E9EAEFE0FEF5}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{19EBA475-3303-4B3E-906D-17D283E4C7ED}" type="pres">
+      <dgm:prSet presAssocID="{117D11F4-DD02-4CCD-BD3D-E9EAEFE0FEF5}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EA47F5D6-C890-4572-A47D-CA2896540A70}" type="pres">
+      <dgm:prSet presAssocID="{93142448-5088-4BE1-9144-2F55C5419AB6}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{084CCA24-32A2-4C98-8E62-16CBB06EBC4B}" type="pres">
+      <dgm:prSet presAssocID="{93142448-5088-4BE1-9144-2F55C5419AB6}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0BDD21F0-104E-451A-A9DC-988458178FE9}" type="pres">
+      <dgm:prSet presAssocID="{93142448-5088-4BE1-9144-2F55C5419AB6}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{FCEB44E5-7AF6-4EBB-9766-B34343D312FE}" type="pres">
-      <dgm:prSet presAssocID="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -6985,7 +7103,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{BA10F88C-69F8-41F6-A540-002FB9AEE59B}" type="pres">
-      <dgm:prSet presAssocID="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7000,7 +7118,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4707F9A1-D761-4EDB-ACAD-70D62191C0C9}" type="pres">
-      <dgm:prSet presAssocID="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7014,8 +7132,28 @@
       <dgm:prSet presAssocID="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{D65A6760-26D6-4340-A679-8F6CC3C75790}" type="pres">
+      <dgm:prSet presAssocID="{1BE39D87-2EA5-4308-AFAD-67B00EFA6B10}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6F13F81D-6ABC-4D63-BC7A-10AF3D7A0F96}" type="pres">
+      <dgm:prSet presAssocID="{1BE39D87-2EA5-4308-AFAD-67B00EFA6B10}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F65391B9-8CBE-4DB6-9030-033C9C1AC4D1}" type="pres">
+      <dgm:prSet presAssocID="{43740451-90B7-46AF-85C2-D616196C550E}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C13B7917-7DA7-44EE-B89F-CFD2F2B85A0B}" type="pres">
+      <dgm:prSet presAssocID="{43740451-90B7-46AF-85C2-D616196C550E}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1C35F1D1-EE5D-4EE4-ADCD-E36431DCD931}" type="pres">
+      <dgm:prSet presAssocID="{43740451-90B7-46AF-85C2-D616196C550E}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{9307F662-7AEC-4FD9-B049-1251B671D585}" type="pres">
-      <dgm:prSet presAssocID="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7026,7 +7164,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{08C27923-5E46-40F6-A0E1-9A9AC1CE3C12}" type="pres">
-      <dgm:prSet presAssocID="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7041,7 +7179,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1E38A29E-159D-47A6-88BA-C2A8D6EE0DD3}" type="pres">
-      <dgm:prSet presAssocID="{3C036C0B-079B-4BE1-95F5-409D9EAEA50E}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{3C036C0B-079B-4BE1-95F5-409D9EAEA50E}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7055,8 +7193,95 @@
       <dgm:prSet presAssocID="{3C036C0B-079B-4BE1-95F5-409D9EAEA50E}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{577B39DF-2870-4285-8784-744381993351}" type="pres">
+      <dgm:prSet presAssocID="{061FB950-AA34-4798-8D26-DC0D3862FCC3}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{38C50D4F-A900-4A44-B8F8-7758498EBFF2}" type="pres">
+      <dgm:prSet presAssocID="{061FB950-AA34-4798-8D26-DC0D3862FCC3}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{03B0250C-3D69-431A-B222-0ABD2A544BA6}" type="pres">
+      <dgm:prSet presAssocID="{BDA4DFBC-B132-42B5-8F9B-80C4784E13B3}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{779F46FE-DB83-4F70-94D0-DFBAD82789B1}" type="pres">
+      <dgm:prSet presAssocID="{BDA4DFBC-B132-42B5-8F9B-80C4784E13B3}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{91C1BFB4-766F-4D7A-906A-EA7F72272CF3}" type="pres">
+      <dgm:prSet presAssocID="{BDA4DFBC-B132-42B5-8F9B-80C4784E13B3}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6F268978-664C-4B83-A14D-CB66569733B9}" type="pres">
+      <dgm:prSet presAssocID="{AF4FEF3D-8731-46C4-9C67-4034174C318A}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{21306C94-17B2-4874-97EA-3A85FC13140D}" type="pres">
+      <dgm:prSet presAssocID="{AF4FEF3D-8731-46C4-9C67-4034174C318A}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{10579E47-AB0C-4EDF-9D9E-0C8EC97CF74C}" type="pres">
+      <dgm:prSet presAssocID="{8BF3371F-37B0-4008-81A3-022828676E90}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{28541AC7-D3D8-472D-87DC-08015E8EB8AA}" type="pres">
+      <dgm:prSet presAssocID="{8BF3371F-37B0-4008-81A3-022828676E90}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6755EA8F-B5BE-4242-90CD-CF72FF5A47A8}" type="pres">
+      <dgm:prSet presAssocID="{8BF3371F-37B0-4008-81A3-022828676E90}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{35D7E0F4-E577-444B-99E4-F8D164E0BCD7}" type="pres">
+      <dgm:prSet presAssocID="{74CB4036-ED90-4ACC-9E85-658981007752}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4066A51B-A27E-42C5-8B6D-2DCF28245809}" type="pres">
+      <dgm:prSet presAssocID="{74CB4036-ED90-4ACC-9E85-658981007752}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DCB1662A-0291-4A80-B041-DFA530D86614}" type="pres">
+      <dgm:prSet presAssocID="{64A4C501-BF30-4666-BACA-39F77E87B444}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A3ECFA88-E9D6-4993-9D26-3B184B0D3C1B}" type="pres">
+      <dgm:prSet presAssocID="{64A4C501-BF30-4666-BACA-39F77E87B444}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="27"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2E1FB60A-3ADB-4BF2-B81A-42A6C871F949}" type="pres">
+      <dgm:prSet presAssocID="{64A4C501-BF30-4666-BACA-39F77E87B444}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8951976A-AA8D-4CB5-9269-90020B29C9B9}" type="pres">
+      <dgm:prSet presAssocID="{C4E2A896-F84E-4EDB-AFCD-4E9BF3C4EFD0}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{20B84707-C7F7-444A-ACB0-96942961ACCB}" type="pres">
+      <dgm:prSet presAssocID="{C4E2A896-F84E-4EDB-AFCD-4E9BF3C4EFD0}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CA39FC39-6B47-4A9A-903A-98D33A8FE8F3}" type="pres">
+      <dgm:prSet presAssocID="{3A2075E2-D0AD-425D-A1BE-153A57111333}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3318446E-9FA2-4789-9D1C-22F36FD6666C}" type="pres">
+      <dgm:prSet presAssocID="{3A2075E2-D0AD-425D-A1BE-153A57111333}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="27"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6BA61DF2-75B0-493C-96C2-EC545E0731C9}" type="pres">
+      <dgm:prSet presAssocID="{3A2075E2-D0AD-425D-A1BE-153A57111333}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" type="pres">
-      <dgm:prSet presAssocID="{A5D4838D-B98F-4857-8497-981EA9743CF7}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{A5D4838D-B98F-4857-8497-981EA9743CF7}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7067,7 +7292,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AB15B0AB-EC18-49A3-BB95-9A9668A68592}" type="pres">
-      <dgm:prSet presAssocID="{A5D4838D-B98F-4857-8497-981EA9743CF7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{A5D4838D-B98F-4857-8497-981EA9743CF7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7082,7 +7307,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}" type="pres">
-      <dgm:prSet presAssocID="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7097,7 +7322,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0575102E-0DA6-4AC8-8596-3ABCEB6D6A42}" type="pres">
-      <dgm:prSet presAssocID="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7108,7 +7333,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{45E3EAF8-FED0-49D3-9BE1-9EAFBD862872}" type="pres">
-      <dgm:prSet presAssocID="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7123,7 +7348,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7E14C1C1-BC53-4754-92BA-B9751D55335A}" type="pres">
-      <dgm:prSet presAssocID="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7138,7 +7363,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1F30B705-D4F7-485E-9F36-062F34A99D2A}" type="pres">
-      <dgm:prSet presAssocID="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7149,7 +7374,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9297FB63-9F0A-4A11-BBE6-EACD5E3D5B3A}" type="pres">
-      <dgm:prSet presAssocID="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7164,7 +7389,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{634A27FE-F3F3-4A9C-84EC-9561A9A7F6B1}" type="pres">
-      <dgm:prSet presAssocID="{B7FB9C49-37C5-44CC-A6E9-1F35367C20AE}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{B7FB9C49-37C5-44CC-A6E9-1F35367C20AE}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="18" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7179,7 +7404,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1D0C8CB8-6BD7-481D-A856-4E83066AB9BB}" type="pres">
-      <dgm:prSet presAssocID="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7190,7 +7415,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B9B4D712-3F31-42DD-BA96-FD41945417A1}" type="pres">
-      <dgm:prSet presAssocID="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7205,7 +7430,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7198C7EC-7623-4A5E-BC87-C3132AB8338A}" type="pres">
-      <dgm:prSet presAssocID="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="19" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7220,7 +7445,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0801DDAF-EEDB-4FB0-9CBD-634BB92409A4}" type="pres">
-      <dgm:prSet presAssocID="{2D414069-067C-4600-A128-6B14AA4F61CB}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{2D414069-067C-4600-A128-6B14AA4F61CB}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="20" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7231,7 +7456,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{021F3772-C225-43E6-82C2-AFC2A70A3D69}" type="pres">
-      <dgm:prSet presAssocID="{2D414069-067C-4600-A128-6B14AA4F61CB}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{2D414069-067C-4600-A128-6B14AA4F61CB}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="20" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7246,7 +7471,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E1D68129-142E-4A8A-B96C-E43717499CD6}" type="pres">
-      <dgm:prSet presAssocID="{E330EAC3-672C-4E4F-8377-A820D547B924}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{E330EAC3-672C-4E4F-8377-A820D547B924}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="20" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7261,7 +7486,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{443D1CFF-1AB4-4A1A-A786-8370C61C29BF}" type="pres">
-      <dgm:prSet presAssocID="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="21" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7272,7 +7497,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B40D749F-EAAC-47DA-BB9F-4E368D95F9B2}" type="pres">
-      <dgm:prSet presAssocID="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="21" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7287,7 +7512,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C25262C4-ABEB-46B4-B8CF-A0B809264530}" type="pres">
-      <dgm:prSet presAssocID="{30F80E6A-A636-434A-952F-806EAF184437}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{30F80E6A-A636-434A-952F-806EAF184437}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="21" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7302,7 +7527,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{343E6E5B-CC3D-4E24-955B-0E5B78CE3991}" type="pres">
-      <dgm:prSet presAssocID="{211224C1-8566-4354-88B3-5D447D1FE9A7}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{211224C1-8566-4354-88B3-5D447D1FE9A7}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="22" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7313,7 +7538,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B410FAB9-5A46-4E97-9C89-8CC2B47C05E3}" type="pres">
-      <dgm:prSet presAssocID="{211224C1-8566-4354-88B3-5D447D1FE9A7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{211224C1-8566-4354-88B3-5D447D1FE9A7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="22" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7328,7 +7553,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5775B216-44FE-4F35-B639-AF206C3F76DD}" type="pres">
-      <dgm:prSet presAssocID="{FAF7D901-90A5-4D63-B540-F0098C05641C}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{FAF7D901-90A5-4D63-B540-F0098C05641C}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="22" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7343,7 +7568,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DF3E950C-F570-40DD-BD47-9C5516CC6FB6}" type="pres">
-      <dgm:prSet presAssocID="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="23" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7354,7 +7579,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D88C9FEC-C059-4849-89C3-8B1B05A6E40A}" type="pres">
-      <dgm:prSet presAssocID="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="23" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7369,7 +7594,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0E0E136A-8620-44A0-A8CA-199634068733}" type="pres">
-      <dgm:prSet presAssocID="{017A9184-DEF2-4145-B985-1784EC653C12}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{017A9184-DEF2-4145-B985-1784EC653C12}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="23" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7384,7 +7609,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{641D670E-C412-4D0E-A23F-D8989384F4C6}" type="pres">
-      <dgm:prSet presAssocID="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="24" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7395,7 +7620,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C393C001-61F3-4F2F-872E-CCFE430D85E4}" type="pres">
-      <dgm:prSet presAssocID="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="24" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7410,7 +7635,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{57692DBE-23AB-4CFD-8267-448DDA996315}" type="pres">
-      <dgm:prSet presAssocID="{496BAC66-63CB-4FE6-84E1-3C96E19AEB0D}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{496BAC66-63CB-4FE6-84E1-3C96E19AEB0D}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="24" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7425,7 +7650,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{33C553A3-157B-4A7E-A9A2-619C06049D06}" type="pres">
-      <dgm:prSet presAssocID="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="25" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7436,7 +7661,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CCC040B1-1277-467F-8DE1-686DC823CAC4}" type="pres">
-      <dgm:prSet presAssocID="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="25" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7451,7 +7676,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E52019C8-7216-48BA-A1EB-279757EB0574}" type="pres">
-      <dgm:prSet presAssocID="{4B8D0128-7CF7-4465-BFA0-6F5F34B34AB6}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="18" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{4B8D0128-7CF7-4465-BFA0-6F5F34B34AB6}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="25" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7466,7 +7691,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CA60F4DB-F023-433F-95B2-356A28D29C17}" type="pres">
-      <dgm:prSet presAssocID="{1BA67879-58D8-44D2-879D-13516216E2E4}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{1BA67879-58D8-44D2-879D-13516216E2E4}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="26" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7477,7 +7702,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DAEC425D-96C4-4F6C-817D-299ECED70A00}" type="pres">
-      <dgm:prSet presAssocID="{1BA67879-58D8-44D2-879D-13516216E2E4}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{1BA67879-58D8-44D2-879D-13516216E2E4}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="26" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7492,7 +7717,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{430A3F02-1AD7-4B3E-93A4-A48F033178F2}" type="pres">
-      <dgm:prSet presAssocID="{68DD22E8-9E1F-4630-8302-69683E3575E4}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="19" presStyleCnt="20"/>
+      <dgm:prSet presAssocID="{68DD22E8-9E1F-4630-8302-69683E3575E4}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="26" presStyleCnt="27"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -7512,97 +7737,125 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{6CD41AC0-251D-4922-9575-8B4512ADF8B1}" type="presOf" srcId="{201D2E86-29B5-44CE-B880-84185C4C9696}" destId="{C9AC55F9-27BD-4C07-BCE1-57BCE584CFE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{E9C023D9-FDC1-4DF3-AD45-34AAB9583A36}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" srcOrd="0" destOrd="0" parTransId="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" sibTransId="{404732D1-7624-43D5-9F79-CE1ECE11FBE6}"/>
+    <dgm:cxn modelId="{236E1B5A-7210-4114-9E0F-D4FAB3DEF19C}" type="presOf" srcId="{FAF7D901-90A5-4D63-B540-F0098C05641C}" destId="{5775B216-44FE-4F35-B639-AF206C3F76DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4F859922-60DB-4CFB-8C11-4F8E32C82FFC}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{64A4C501-BF30-4666-BACA-39F77E87B444}" srcOrd="5" destOrd="0" parTransId="{74CB4036-ED90-4ACC-9E85-658981007752}" sibTransId="{2273EB48-B0B9-4991-9E81-2F46B1E05CA1}"/>
+    <dgm:cxn modelId="{000773AC-81AA-430B-8B01-7E545191E57A}" srcId="{295836EE-9898-4D01-8116-58F01C1A8092}" destId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" srcOrd="0" destOrd="0" parTransId="{8EA142D3-7323-43A5-87B8-F1214F4A980D}" sibTransId="{B0E45E60-0CFB-4F25-8337-FC54C681585D}"/>
+    <dgm:cxn modelId="{1A574872-508E-4A50-89FD-92F1760E8842}" type="presOf" srcId="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" destId="{641D670E-C412-4D0E-A23F-D8989384F4C6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{9BE1E706-B48B-4F02-B830-44DDC8745F02}" type="presOf" srcId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" destId="{8F62B0A0-055B-4267-AC07-31B1EC1A0A7B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{D8387E0F-4CE1-4E67-B37B-2E531F6E5755}" type="presOf" srcId="{A05354B3-36D9-4DD8-8B34-EA3AEC452E63}" destId="{2773881A-7C67-41C3-9241-6B6F6F2DC387}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BC7353E9-901D-4DBC-B847-279B6C2F6697}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" srcOrd="1" destOrd="0" parTransId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" sibTransId="{162F667C-216A-4CF4-89D5-AA1A30D1A241}"/>
+    <dgm:cxn modelId="{065E058B-9BBA-4F70-ABC3-200FAB07429F}" type="presOf" srcId="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" destId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BC949F6E-B84D-470D-AF98-82CAC02390FA}" srcId="{64A4C501-BF30-4666-BACA-39F77E87B444}" destId="{3A2075E2-D0AD-425D-A1BE-153A57111333}" srcOrd="0" destOrd="0" parTransId="{C4E2A896-F84E-4EDB-AFCD-4E9BF3C4EFD0}" sibTransId="{201EEC1F-AD6C-4112-8BC5-E7D65A88C8E4}"/>
+    <dgm:cxn modelId="{23EB6930-CC5E-4ED7-BA3F-7E07AB8DC708}" type="presOf" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{B512A0DA-199F-45E7-ADCB-1D19A5DB77C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{10BFBC44-72A7-4EAB-9DDB-FF2FD8CCB687}" type="presOf" srcId="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" destId="{7198C7EC-7623-4A5E-BC87-C3132AB8338A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BF911B88-5C25-4E9F-8687-581BDC18E261}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" srcOrd="2" destOrd="0" parTransId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" sibTransId="{EC3045C6-6E17-4767-BBD6-A62A64E2BDD5}"/>
+    <dgm:cxn modelId="{895AD91E-84BB-4FD0-99FC-61244BEE6BD9}" type="presOf" srcId="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" destId="{0F3CDCF7-7401-45DB-841B-0EDE1B628B67}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{34BB8730-4A7E-4C6C-8799-E83AEEFF129F}" type="presOf" srcId="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" destId="{746E57B4-FFA3-4E88-BCD5-9D79BDBD9277}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{25FA581E-F5E0-4923-BFA8-F2BD418A9C00}" type="presOf" srcId="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" destId="{0575102E-0DA6-4AC8-8596-3ABCEB6D6A42}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{1447143E-A527-4F9F-A524-5DACC4C17553}" type="presOf" srcId="{E330EAC3-672C-4E4F-8377-A820D547B924}" destId="{E1D68129-142E-4A8A-B96C-E43717499CD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{A6877520-F558-4E0F-91A6-69B90F12DD70}" type="presOf" srcId="{2D414069-067C-4600-A128-6B14AA4F61CB}" destId="{0801DDAF-EEDB-4FB0-9CBD-634BB92409A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6301EB1B-5754-43EB-8584-A7D3BE5D5BB6}" type="presOf" srcId="{1BA67879-58D8-44D2-879D-13516216E2E4}" destId="{CA60F4DB-F023-433F-95B2-356A28D29C17}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{E3D6913A-E156-40D1-96AD-E81ED55C4D8B}" type="presOf" srcId="{496BAC66-63CB-4FE6-84E1-3C96E19AEB0D}" destId="{57692DBE-23AB-4CFD-8267-448DDA996315}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{7A92B652-FC89-417D-8F18-C6F6BE769253}" type="presOf" srcId="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" destId="{A2EFEE31-448F-455C-8C70-CD33577FC4C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4FA60853-30A5-4F16-B98F-6AFC70349DC1}" type="presOf" srcId="{061FB950-AA34-4798-8D26-DC0D3862FCC3}" destId="{38C50D4F-A900-4A44-B8F8-7758498EBFF2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BF95C1DF-A3D0-46B1-89AE-B84D18CB83F0}" srcId="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" destId="{93142448-5088-4BE1-9144-2F55C5419AB6}" srcOrd="0" destOrd="0" parTransId="{117D11F4-DD02-4CCD-BD3D-E9EAEFE0FEF5}" sibTransId="{800C02B4-42A2-4A5E-8765-B3BAB9BDACF9}"/>
+    <dgm:cxn modelId="{55C2BE4F-233B-49CF-815E-8C2FF132B4DF}" type="presOf" srcId="{74CB4036-ED90-4ACC-9E85-658981007752}" destId="{4066A51B-A27E-42C5-8B6D-2DCF28245809}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{B5BFB057-AF6E-48AA-BE1C-F82837D9D828}" type="presOf" srcId="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" destId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A9BA4F41-B5E8-41DF-9CAD-ECB331C72D37}" type="presOf" srcId="{A05354B3-36D9-4DD8-8B34-EA3AEC452E63}" destId="{AE3809D7-5EF4-4D4F-99FA-EA7995C0D07E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{05DA63EC-BA88-43AF-AF3F-4A7DA6DD9849}" type="presOf" srcId="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" destId="{33C553A3-157B-4A7E-A9A2-619C06049D06}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{BAB31805-CE2E-4372-BB96-F6AEDDD43412}" type="presOf" srcId="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" destId="{4CFD6804-8C0F-4F9F-A90E-6BD5AB9C2B8C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{7DC03675-4D52-45CE-988B-FEF85E39DA38}" type="presOf" srcId="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" destId="{9297FB63-9F0A-4A11-BBE6-EACD5E3D5B3A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{32287D36-9BC6-44F1-BCC3-DF54122829DC}" type="presOf" srcId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" destId="{DC6A21B9-A9D2-4F85-8A73-A6A117693EF4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{CDC87E84-D14B-42D1-8A31-254B7EA784A1}" type="presOf" srcId="{68DD22E8-9E1F-4630-8302-69683E3575E4}" destId="{430A3F02-1AD7-4B3E-93A4-A48F033178F2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{F2B13EDA-F149-4A54-BD2B-C3FD6DF3EA54}" type="presOf" srcId="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" destId="{CCC040B1-1277-467F-8DE1-686DC823CAC4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{8368D1B5-5E22-4CEE-81BC-72049EC43847}" type="presOf" srcId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" destId="{DD9241E1-4FE0-446D-A84C-5DB9472C5DFC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{E0E8DC8C-6863-4281-874B-38D32ED26C14}" type="presOf" srcId="{64A4C501-BF30-4666-BACA-39F77E87B444}" destId="{A3ECFA88-E9D6-4993-9D26-3B184B0D3C1B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{CAA5A420-DDAD-4CDB-B656-4498C00CD74A}" type="presOf" srcId="{8B5AD710-3453-4459-A021-4BD74C23C219}" destId="{8783F691-2C30-4412-98D8-FDAC14A8B237}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C4CF9D36-0BE5-4901-965E-FE1EB9C90BB5}" type="presOf" srcId="{061FB950-AA34-4798-8D26-DC0D3862FCC3}" destId="{577B39DF-2870-4285-8784-744381993351}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BB75F691-DCBA-48B5-82C0-4991E309250F}" srcId="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" destId="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" srcOrd="0" destOrd="0" parTransId="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" sibTransId="{F4EBB8EA-FEA3-429E-B779-EF8A2AEEA79B}"/>
     <dgm:cxn modelId="{F95E9E9B-2184-4082-B324-4D46A3530B9C}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{68DD22E8-9E1F-4630-8302-69683E3575E4}" srcOrd="6" destOrd="0" parTransId="{1BA67879-58D8-44D2-879D-13516216E2E4}" sibTransId="{081E5A47-00CC-4E31-8351-80CB32D0E3D1}"/>
-    <dgm:cxn modelId="{666EBFF3-045A-4DB9-9611-0D4863A763BC}" type="presOf" srcId="{017A9184-DEF2-4145-B985-1784EC653C12}" destId="{0E0E136A-8620-44A0-A8CA-199634068733}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{215133B6-473B-4279-99A4-1469420DC835}" srcId="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}" destId="{43740451-90B7-46AF-85C2-D616196C550E}" srcOrd="0" destOrd="0" parTransId="{1BE39D87-2EA5-4308-AFAD-67B00EFA6B10}" sibTransId="{761B8BEF-7642-4653-ABB9-D17E5B5D9507}"/>
+    <dgm:cxn modelId="{4B91FD79-7F95-4CB5-871C-625FD7075E19}" type="presOf" srcId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" destId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0D09AB05-6936-4EDF-BBDF-5E31669CF17B}" type="presOf" srcId="{E799A07D-AE9D-4715-B273-0D81BE9946AD}" destId="{AD4DEA5A-B382-4ADA-86B7-A56A91105758}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{74D8ED18-EB5C-4DD9-9EE3-C7F1B13B3ABA}" type="presOf" srcId="{C4E2A896-F84E-4EDB-AFCD-4E9BF3C4EFD0}" destId="{20B84707-C7F7-444A-ACB0-96942961ACCB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{ECE0BE17-8875-4C84-BD12-7FC323430ECD}" type="presOf" srcId="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" destId="{1F30B705-D4F7-485E-9F36-062F34A99D2A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{723667AA-4797-4407-975D-48581F8BF189}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{30F80E6A-A636-434A-952F-806EAF184437}" srcOrd="3" destOrd="0" parTransId="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" sibTransId="{9C06FDEB-50DD-485B-8D3D-A420E15CEA50}"/>
-    <dgm:cxn modelId="{5CD9EB8C-0C1C-4426-B8B3-30D9B7264B57}" type="presOf" srcId="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" destId="{D47872FA-6671-4924-8700-A6F7228C9CAA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{DA82E983-7C17-47B9-8535-A0CA96AD9425}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" srcOrd="3" destOrd="0" parTransId="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" sibTransId="{D8923E56-A77E-4877-A47F-76A2D9E3803C}"/>
-    <dgm:cxn modelId="{AC2C8475-4889-4E3A-8768-E7C0865179E5}" type="presOf" srcId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" destId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{BF68ED17-194A-4611-A94D-5B70729044AF}" type="presOf" srcId="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" destId="{C70A7FBD-BD4A-45C8-BFF3-9B3D1D482109}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{CDC87E84-D14B-42D1-8A31-254B7EA784A1}" type="presOf" srcId="{68DD22E8-9E1F-4630-8302-69683E3575E4}" destId="{430A3F02-1AD7-4B3E-93A4-A48F033178F2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{A9A519D6-F6B1-4581-B2EB-869EA9F61BA3}" type="presOf" srcId="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" destId="{2898F935-43C7-4879-803D-0CF37CADF3CA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{7DC03675-4D52-45CE-988B-FEF85E39DA38}" type="presOf" srcId="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" destId="{9297FB63-9F0A-4A11-BBE6-EACD5E3D5B3A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{C13BCAA9-1381-49DC-A043-45993735F4FA}" type="presOf" srcId="{295836EE-9898-4D01-8116-58F01C1A8092}" destId="{9F4DB3E8-6BDE-4789-8CC1-3B5E11758B86}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{35F1E70A-9F62-4B6B-8D65-B663D9D1F862}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" srcOrd="1" destOrd="0" parTransId="{8B5AD710-3453-4459-A021-4BD74C23C219}" sibTransId="{8C60739A-E9F0-4A1F-A4F6-66CA10C2223A}"/>
-    <dgm:cxn modelId="{0D09AB05-6936-4EDF-BBDF-5E31669CF17B}" type="presOf" srcId="{E799A07D-AE9D-4715-B273-0D81BE9946AD}" destId="{AD4DEA5A-B382-4ADA-86B7-A56A91105758}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{F1AF9E78-287F-4722-BE1E-D4AFE571662F}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{B7FB9C49-37C5-44CC-A6E9-1F35367C20AE}" srcOrd="0" destOrd="0" parTransId="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" sibTransId="{C6C2F5B2-F858-4699-B1DF-0A9C787E3A7E}"/>
-    <dgm:cxn modelId="{1B4BE6C0-A187-459C-B7C9-97391CFD9216}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" srcOrd="1" destOrd="0" parTransId="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" sibTransId="{1FDE62D4-4956-453C-9CCB-584B532AD74F}"/>
-    <dgm:cxn modelId="{CCEE8C2D-1D4F-4B3A-8DF3-56EC13162155}" type="presOf" srcId="{4B8D0128-7CF7-4465-BFA0-6F5F34B34AB6}" destId="{E52019C8-7216-48BA-A1EB-279757EB0574}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{6B1778C6-9CC4-4191-A651-D76868454C3C}" type="presOf" srcId="{1BA67879-58D8-44D2-879D-13516216E2E4}" destId="{DAEC425D-96C4-4F6C-817D-299ECED70A00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{E9C023D9-FDC1-4DF3-AD45-34AAB9583A36}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" srcOrd="0" destOrd="0" parTransId="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" sibTransId="{404732D1-7624-43D5-9F79-CE1ECE11FBE6}"/>
-    <dgm:cxn modelId="{10BFBC44-72A7-4EAB-9DDB-FF2FD8CCB687}" type="presOf" srcId="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" destId="{7198C7EC-7623-4A5E-BC87-C3132AB8338A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{4B4ECA0E-803B-45DB-92AA-E3F68BAB066A}" type="presOf" srcId="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" destId="{08C27923-5E46-40F6-A0E1-9A9AC1CE3C12}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{242B984C-296B-4A21-B9D4-86FFCAB6C58B}" type="presOf" srcId="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" destId="{443D1CFF-1AB4-4A1A-A786-8370C61C29BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{0ADA8733-D9EE-43E3-8422-6769D34CF180}" type="presOf" srcId="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" destId="{D88C9FEC-C059-4849-89C3-8B1B05A6E40A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{557A4395-07D5-4339-BB20-42556F4487D4}" type="presOf" srcId="{8B5AD710-3453-4459-A021-4BD74C23C219}" destId="{EA0863B0-AD59-4641-ADAD-9375F74FE231}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{34BB8730-4A7E-4C6C-8799-E83AEEFF129F}" type="presOf" srcId="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" destId="{746E57B4-FFA3-4E88-BCD5-9D79BDBD9277}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{065E058B-9BBA-4F70-ABC3-200FAB07429F}" type="presOf" srcId="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" destId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{416194BD-6EBD-4A07-9DE1-001FBB4103C1}" type="presOf" srcId="{CA122700-3CB7-4094-8D40-298220BCF9CE}" destId="{3F791B83-8F9D-4AEC-A34E-F3313F38BEB7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{DBBDA661-893F-4C74-B66B-2EA622CBB5E3}" type="presOf" srcId="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" destId="{DF3E950C-F570-40DD-BD47-9C5516CC6FB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{38054A65-D83F-4749-B0E3-119B699329D6}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{4B8D0128-7CF7-4465-BFA0-6F5F34B34AB6}" srcOrd="5" destOrd="0" parTransId="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" sibTransId="{3D0F18FE-484C-427B-8745-6B854DDFFC5D}"/>
-    <dgm:cxn modelId="{CEC118CA-636C-4BCF-A59C-19DDB5D3CC87}" type="presOf" srcId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" destId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{E3D6913A-E156-40D1-96AD-E81ED55C4D8B}" type="presOf" srcId="{496BAC66-63CB-4FE6-84E1-3C96E19AEB0D}" destId="{57692DBE-23AB-4CFD-8267-448DDA996315}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{12548BC3-C3CC-4665-9F7A-27458648BD5C}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" srcOrd="0" destOrd="0" parTransId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" sibTransId="{55ABE942-6067-4A5A-B82B-7CBD4F2A758A}"/>
-    <dgm:cxn modelId="{F2B13EDA-F149-4A54-BD2B-C3FD6DF3EA54}" type="presOf" srcId="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" destId="{CCC040B1-1277-467F-8DE1-686DC823CAC4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{6CD41AC0-251D-4922-9575-8B4512ADF8B1}" type="presOf" srcId="{201D2E86-29B5-44CE-B880-84185C4C9696}" destId="{C9AC55F9-27BD-4C07-BCE1-57BCE584CFE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{2A25FC5B-61D1-4698-9B47-38E7568A0BCA}" type="presOf" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{7E14C1C1-BC53-4754-92BA-B9751D55335A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{0C1E16C2-E753-4FA5-A303-4F45B8C36CF5}" type="presOf" srcId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" destId="{AB15B0AB-EC18-49A3-BB95-9A9668A68592}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{1E103175-C1F8-4CF4-A331-DA2D7D01F24E}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{FAF7D901-90A5-4D63-B540-F0098C05641C}" srcOrd="4" destOrd="0" parTransId="{211224C1-8566-4354-88B3-5D447D1FE9A7}" sibTransId="{03373185-46B9-4F08-92C1-C0C8D10159BC}"/>
+    <dgm:cxn modelId="{D4F302A6-B30B-4FC7-8141-5B73786C46E0}" type="presOf" srcId="{8BF3371F-37B0-4008-81A3-022828676E90}" destId="{28541AC7-D3D8-472D-87DC-08015E8EB8AA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{68F94F80-915B-4AE6-8F77-23415CAB672D}" type="presOf" srcId="{BDA4DFBC-B132-42B5-8F9B-80C4784E13B3}" destId="{779F46FE-DB83-4F70-94D0-DFBAD82789B1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0949B86F-7659-4502-BFB0-041E7DF7E1CD}" type="presOf" srcId="{93142448-5088-4BE1-9144-2F55C5419AB6}" destId="{084CCA24-32A2-4C98-8E62-16CBB06EBC4B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{AC2C8475-4889-4E3A-8768-E7C0865179E5}" type="presOf" srcId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" destId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4B4ECA0E-803B-45DB-92AA-E3F68BAB066A}" type="presOf" srcId="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" destId="{08C27923-5E46-40F6-A0E1-9A9AC1CE3C12}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{DB0BAA33-19C3-40FB-8E71-17E8BDE027E8}" type="presOf" srcId="{211224C1-8566-4354-88B3-5D447D1FE9A7}" destId="{B410FAB9-5A46-4E97-9C89-8CC2B47C05E3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{F1E392D2-A23D-4F4B-9E70-FD1FE0A07866}" type="presOf" srcId="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" destId="{B1C8A51E-5E7B-42B8-BF39-8C9A68CF865A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BE6F1A8F-4AA6-46FC-BCC6-731B09AF3B82}" type="presOf" srcId="{AF4FEF3D-8731-46C4-9C67-4034174C318A}" destId="{6F268978-664C-4B83-A14D-CB66569733B9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{7D85AE72-6A4E-401C-8311-A3260ADBF0F9}" type="presOf" srcId="{43740451-90B7-46AF-85C2-D616196C550E}" destId="{C13B7917-7DA7-44EE-B89F-CFD2F2B85A0B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6B1778C6-9CC4-4191-A651-D76868454C3C}" type="presOf" srcId="{1BA67879-58D8-44D2-879D-13516216E2E4}" destId="{DAEC425D-96C4-4F6C-817D-299ECED70A00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1B4BE6C0-A187-459C-B7C9-97391CFD9216}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" srcOrd="1" destOrd="0" parTransId="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" sibTransId="{1FDE62D4-4956-453C-9CCB-584B532AD74F}"/>
+    <dgm:cxn modelId="{557A4395-07D5-4339-BB20-42556F4487D4}" type="presOf" srcId="{8B5AD710-3453-4459-A021-4BD74C23C219}" destId="{EA0863B0-AD59-4641-ADAD-9375F74FE231}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BAB31805-CE2E-4372-BB96-F6AEDDD43412}" type="presOf" srcId="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" destId="{4CFD6804-8C0F-4F9F-A90E-6BD5AB9C2B8C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{FBCE7963-7FD4-4165-8CE3-5E5E665971A4}" type="presOf" srcId="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" destId="{B40D749F-EAAC-47DA-BB9F-4E368D95F9B2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{5FF686C6-17E5-4A59-9952-E07C0DE58854}" type="presOf" srcId="{CA122700-3CB7-4094-8D40-298220BCF9CE}" destId="{4DA3DE6D-E22A-459F-9C90-25561DC5E2FD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{5CD9EB8C-0C1C-4426-B8B3-30D9B7264B57}" type="presOf" srcId="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" destId="{D47872FA-6671-4924-8700-A6F7228C9CAA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{58F2EF84-28F5-46FF-B3D6-578AC619E88C}" type="presOf" srcId="{117D11F4-DD02-4CCD-BD3D-E9EAEFE0FEF5}" destId="{19EBA475-3303-4B3E-906D-17D283E4C7ED}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{F1AF9E78-287F-4722-BE1E-D4AFE571662F}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{B7FB9C49-37C5-44CC-A6E9-1F35367C20AE}" srcOrd="0" destOrd="0" parTransId="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" sibTransId="{C6C2F5B2-F858-4699-B1DF-0A9C787E3A7E}"/>
+    <dgm:cxn modelId="{CD957892-5987-4025-983C-B56511782184}" type="presOf" srcId="{AF4FEF3D-8731-46C4-9C67-4034174C318A}" destId="{21306C94-17B2-4874-97EA-3A85FC13140D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{9565190C-FE6F-460C-86F5-AE07E63B29AB}" type="presOf" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{CCEE8C2D-1D4F-4B3A-8DF3-56EC13162155}" type="presOf" srcId="{4B8D0128-7CF7-4465-BFA0-6F5F34B34AB6}" destId="{E52019C8-7216-48BA-A1EB-279757EB0574}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{2AB07F18-F55A-4C5E-9BC6-4B4F9065502F}" type="presOf" srcId="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" destId="{1D0C8CB8-6BD7-481D-A856-4E83066AB9BB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{416194BD-6EBD-4A07-9DE1-001FBB4103C1}" type="presOf" srcId="{CA122700-3CB7-4094-8D40-298220BCF9CE}" destId="{3F791B83-8F9D-4AEC-A34E-F3313F38BEB7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{242B984C-296B-4A21-B9D4-86FFCAB6C58B}" type="presOf" srcId="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" destId="{443D1CFF-1AB4-4A1A-A786-8370C61C29BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{723667AA-4797-4407-975D-48581F8BF189}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{30F80E6A-A636-434A-952F-806EAF184437}" srcOrd="3" destOrd="0" parTransId="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" sibTransId="{9C06FDEB-50DD-485B-8D3D-A420E15CEA50}"/>
+    <dgm:cxn modelId="{3FC73214-AFED-42B6-9523-F66FF5C1A8BA}" type="presOf" srcId="{117D11F4-DD02-4CCD-BD3D-E9EAEFE0FEF5}" destId="{34F83C04-7029-48DE-ACD5-E0C6D5D03F12}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A6877520-F558-4E0F-91A6-69B90F12DD70}" type="presOf" srcId="{2D414069-067C-4600-A128-6B14AA4F61CB}" destId="{0801DDAF-EEDB-4FB0-9CBD-634BB92409A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{3C6F7512-4D7D-4924-96AB-59CE084ED8C1}" type="presOf" srcId="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" destId="{9307F662-7AEC-4FD9-B049-1251B671D585}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BF68ED17-194A-4611-A94D-5B70729044AF}" type="presOf" srcId="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" destId="{C70A7FBD-BD4A-45C8-BFF3-9B3D1D482109}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{CF909A5E-E31F-43CE-9067-78FC32D51DD6}" type="presOf" srcId="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" destId="{BA10F88C-69F8-41F6-A540-002FB9AEE59B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6E25DE85-FB6A-442F-A285-4112ED733188}" type="presOf" srcId="{3A2075E2-D0AD-425D-A1BE-153A57111333}" destId="{3318446E-9FA2-4789-9D1C-22F36FD6666C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{8E698BCC-D6F1-48FA-B2C9-5065C97641D6}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{8BF3371F-37B0-4008-81A3-022828676E90}" srcOrd="4" destOrd="0" parTransId="{AF4FEF3D-8731-46C4-9C67-4034174C318A}" sibTransId="{98ED0252-72B6-4346-89F0-4BC8F6E90331}"/>
+    <dgm:cxn modelId="{E28A5A0E-6F42-43CC-85BC-A4F741962A3E}" type="presOf" srcId="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}" destId="{4707F9A1-D761-4EDB-ACAD-70D62191C0C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0E8B65EE-845B-4528-98DF-E6FA51F7D84A}" srcId="{C17FDAA5-5247-40D3-A375-0421F2890443}" destId="{E799A07D-AE9D-4715-B273-0D81BE9946AD}" srcOrd="0" destOrd="0" parTransId="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" sibTransId="{F8396548-1223-4D0A-9AEE-ABF4E57FC2D7}"/>
+    <dgm:cxn modelId="{0BCA1D36-E047-4650-9B78-3502A22B22EE}" srcId="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" destId="{D553F2E4-5003-49CE-927E-DB28186447D9}" srcOrd="0" destOrd="0" parTransId="{A05354B3-36D9-4DD8-8B34-EA3AEC452E63}" sibTransId="{F3CF67AB-0ACE-4DC8-8CF1-FCDBF2236920}"/>
+    <dgm:cxn modelId="{38054A65-D83F-4749-B0E3-119B699329D6}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{4B8D0128-7CF7-4465-BFA0-6F5F34B34AB6}" srcOrd="5" destOrd="0" parTransId="{50C566E5-3458-48B0-BB04-4CEA5AE03D98}" sibTransId="{3D0F18FE-484C-427B-8745-6B854DDFFC5D}"/>
+    <dgm:cxn modelId="{0ADA8733-D9EE-43E3-8422-6769D34CF180}" type="presOf" srcId="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" destId="{D88C9FEC-C059-4849-89C3-8B1B05A6E40A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C13BCAA9-1381-49DC-A043-45993735F4FA}" type="presOf" srcId="{295836EE-9898-4D01-8116-58F01C1A8092}" destId="{9F4DB3E8-6BDE-4789-8CC1-3B5E11758B86}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{515F7375-CB11-470B-A49E-11CE0F958D40}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{E330EAC3-672C-4E4F-8377-A820D547B924}" srcOrd="2" destOrd="0" parTransId="{2D414069-067C-4600-A128-6B14AA4F61CB}" sibTransId="{8CA0550D-EFE1-4B93-9411-0335F47A3217}"/>
+    <dgm:cxn modelId="{3627BA9C-2188-41BC-9A4D-5E572F3CCDFB}" type="presOf" srcId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" destId="{135742A3-6E51-4EB7-B239-943F208D9E9C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{728FCE47-956D-43AC-975B-17649F129B46}" type="presOf" srcId="{1BE39D87-2EA5-4308-AFAD-67B00EFA6B10}" destId="{D65A6760-26D6-4340-A679-8F6CC3C75790}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{838B0417-4CB5-46A6-BBB6-3529E3DE6857}" srcId="{3C036C0B-079B-4BE1-95F5-409D9EAEA50E}" destId="{BDA4DFBC-B132-42B5-8F9B-80C4784E13B3}" srcOrd="0" destOrd="0" parTransId="{061FB950-AA34-4798-8D26-DC0D3862FCC3}" sibTransId="{3EBA3AFD-6511-4746-AC77-2B3522B27C93}"/>
+    <dgm:cxn modelId="{218DAF4E-1C6A-4176-9879-BD23227FEA41}" srcId="{017A9184-DEF2-4145-B985-1784EC653C12}" destId="{496BAC66-63CB-4FE6-84E1-3C96E19AEB0D}" srcOrd="0" destOrd="0" parTransId="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" sibTransId="{CEF146C5-118A-4EC6-9B21-DE5EFEA4934D}"/>
+    <dgm:cxn modelId="{D2D9C506-9468-4A19-80B4-F04B6B00D6CF}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}" srcOrd="2" destOrd="0" parTransId="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" sibTransId="{96EA5327-EA59-489E-BAF9-8864B7D5E133}"/>
+    <dgm:cxn modelId="{1FD4E344-0D9C-4719-A791-B90F9C5AFCAC}" type="presOf" srcId="{2D414069-067C-4600-A128-6B14AA4F61CB}" destId="{021F3772-C225-43E6-82C2-AFC2A70A3D69}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{50075FF3-D713-4A18-B84F-BBFAD70520A3}" type="presOf" srcId="{C17FDAA5-5247-40D3-A375-0421F2890443}" destId="{F8A96FFD-FE69-476E-A459-8F49D47314A7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A9A519D6-F6B1-4581-B2EB-869EA9F61BA3}" type="presOf" srcId="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" destId="{2898F935-43C7-4879-803D-0CF37CADF3CA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{AA865BA5-FDD4-45D2-8F2B-8791419E4897}" srcId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" destId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" srcOrd="0" destOrd="0" parTransId="{201D2E86-29B5-44CE-B880-84185C4C9696}" sibTransId="{28ABEC6F-261B-428D-8FD1-516BB62249B0}"/>
+    <dgm:cxn modelId="{DBBDA661-893F-4C74-B66B-2EA622CBB5E3}" type="presOf" srcId="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" destId="{DF3E950C-F570-40DD-BD47-9C5516CC6FB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{EF6A7F97-0327-4239-98A0-751CD7AC785C}" type="presOf" srcId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" destId="{E8E018BE-5584-4651-93AA-17B4C22EF729}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{12548BC3-C3CC-4665-9F7A-27458648BD5C}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" srcOrd="0" destOrd="0" parTransId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" sibTransId="{55ABE942-6067-4A5A-B82B-7CBD4F2A758A}"/>
     <dgm:cxn modelId="{9FB8E239-9359-4A43-BC82-60621C16E7DC}" type="presOf" srcId="{201D2E86-29B5-44CE-B880-84185C4C9696}" destId="{AC631A13-A371-4978-9364-985E50833F88}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{DB0BAA33-19C3-40FB-8E71-17E8BDE027E8}" type="presOf" srcId="{211224C1-8566-4354-88B3-5D447D1FE9A7}" destId="{B410FAB9-5A46-4E97-9C89-8CC2B47C05E3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{AA865BA5-FDD4-45D2-8F2B-8791419E4897}" srcId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" destId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" srcOrd="0" destOrd="0" parTransId="{201D2E86-29B5-44CE-B880-84185C4C9696}" sibTransId="{28ABEC6F-261B-428D-8FD1-516BB62249B0}"/>
-    <dgm:cxn modelId="{4B91FD79-7F95-4CB5-871C-625FD7075E19}" type="presOf" srcId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" destId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{0F3A6965-1E78-4871-AF0B-360652B5CA2C}" srcId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" destId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" srcOrd="0" destOrd="0" parTransId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" sibTransId="{39DE77A3-87E6-46B4-A2E3-3009DB60BF12}"/>
-    <dgm:cxn modelId="{5FF686C6-17E5-4A59-9952-E07C0DE58854}" type="presOf" srcId="{CA122700-3CB7-4094-8D40-298220BCF9CE}" destId="{4DA3DE6D-E22A-459F-9C90-25561DC5E2FD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{50075FF3-D713-4A18-B84F-BBFAD70520A3}" type="presOf" srcId="{C17FDAA5-5247-40D3-A375-0421F2890443}" destId="{F8A96FFD-FE69-476E-A459-8F49D47314A7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{2785768C-2051-49D5-865B-2108027A306D}" type="presOf" srcId="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" destId="{D7231407-A161-4C9C-BFB9-D651AF1947FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{2202FB61-787D-4216-82D1-93E2EE2845D3}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{017A9184-DEF2-4145-B985-1784EC653C12}" srcOrd="4" destOrd="0" parTransId="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" sibTransId="{A5D0D2A1-991C-4A0F-9550-67F9E198910C}"/>
-    <dgm:cxn modelId="{EF6A7F97-0327-4239-98A0-751CD7AC785C}" type="presOf" srcId="{43070D82-80B3-4DE3-A441-531DE69EB4A7}" destId="{E8E018BE-5584-4651-93AA-17B4C22EF729}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{80A4DC88-9406-46E8-B024-2D4FDA6C9D84}" type="presOf" srcId="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" destId="{B9B4D712-3F31-42DD-BA96-FD41945417A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{72C3E7A5-A242-4C34-9E1A-224DCDE18595}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{3C036C0B-079B-4BE1-95F5-409D9EAEA50E}" srcOrd="3" destOrd="0" parTransId="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" sibTransId="{E88C81FA-7825-4CFE-A1B1-EF8BD70C9EE7}"/>
-    <dgm:cxn modelId="{BC7353E9-901D-4DBC-B847-279B6C2F6697}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" srcOrd="1" destOrd="0" parTransId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" sibTransId="{162F667C-216A-4CF4-89D5-AA1A30D1A241}"/>
-    <dgm:cxn modelId="{8368D1B5-5E22-4CEE-81BC-72049EC43847}" type="presOf" srcId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" destId="{DD9241E1-4FE0-446D-A84C-5DB9472C5DFC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{3C6F7512-4D7D-4924-96AB-59CE084ED8C1}" type="presOf" srcId="{C0DF7499-8D38-46C5-B35F-F1A172482E65}" destId="{9307F662-7AEC-4FD9-B049-1251B671D585}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{FBCE7963-7FD4-4165-8CE3-5E5E665971A4}" type="presOf" srcId="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" destId="{B40D749F-EAAC-47DA-BB9F-4E368D95F9B2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{9BE1E706-B48B-4F02-B830-44DDC8745F02}" type="presOf" srcId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" destId="{8F62B0A0-055B-4267-AC07-31B1EC1A0A7B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{895AD91E-84BB-4FD0-99FC-61244BEE6BD9}" type="presOf" srcId="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" destId="{0F3CDCF7-7401-45DB-841B-0EDE1B628B67}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{25FA581E-F5E0-4923-BFA8-F2BD418A9C00}" type="presOf" srcId="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" destId="{0575102E-0DA6-4AC8-8596-3ABCEB6D6A42}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{871ABAA3-EDE8-4286-8BC0-754EB530EA7F}" type="presOf" srcId="{211224C1-8566-4354-88B3-5D447D1FE9A7}" destId="{343E6E5B-CC3D-4E24-955B-0E5B78CE3991}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{2202FB61-787D-4216-82D1-93E2EE2845D3}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{017A9184-DEF2-4145-B985-1784EC653C12}" srcOrd="4" destOrd="0" parTransId="{E946542F-0F5D-49FF-9B28-9FE8323DE345}" sibTransId="{A5D0D2A1-991C-4A0F-9550-67F9E198910C}"/>
+    <dgm:cxn modelId="{8561F031-CB90-4BDA-884A-038877B865FD}" type="presOf" srcId="{3C036C0B-079B-4BE1-95F5-409D9EAEA50E}" destId="{1E38A29E-159D-47A6-88BA-C2A8D6EE0DD3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{3E4D03AB-922F-4ECC-8800-D9F68E320B7F}" type="presOf" srcId="{30F80E6A-A636-434A-952F-806EAF184437}" destId="{C25262C4-ABEB-46B4-B8CF-A0B809264530}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{35F1E70A-9F62-4B6B-8D65-B663D9D1F862}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" srcOrd="1" destOrd="0" parTransId="{8B5AD710-3453-4459-A021-4BD74C23C219}" sibTransId="{8C60739A-E9F0-4A1F-A4F6-66CA10C2223A}"/>
+    <dgm:cxn modelId="{2785768C-2051-49D5-865B-2108027A306D}" type="presOf" srcId="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" destId="{D7231407-A161-4C9C-BFB9-D651AF1947FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{00058280-CBB9-4BF9-A6C2-5550AD11F81F}" type="presOf" srcId="{D553F2E4-5003-49CE-927E-DB28186447D9}" destId="{13D11EEA-3D74-4FB2-9958-DBA3D51C0BA1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6E695587-AA8C-46D1-81C6-7EE46864F7DD}" type="presOf" srcId="{B7FB9C49-37C5-44CC-A6E9-1F35367C20AE}" destId="{634A27FE-F3F3-4A9C-84EC-9561A9A7F6B1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{DA82E983-7C17-47B9-8535-A0CA96AD9425}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" srcOrd="3" destOrd="0" parTransId="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" sibTransId="{D8923E56-A77E-4877-A47F-76A2D9E3803C}"/>
+    <dgm:cxn modelId="{4103F6C1-505E-4792-8993-551F2EE87A62}" type="presOf" srcId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" destId="{9F9A6106-7959-4F3A-AD4F-E4852F2499BE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{3AADDB2C-6118-4550-BC71-5F8AFB376762}" type="presOf" srcId="{1BE39D87-2EA5-4308-AFAD-67B00EFA6B10}" destId="{6F13F81D-6ABC-4D63-BC7A-10AF3D7A0F96}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0F3A6965-1E78-4871-AF0B-360652B5CA2C}" srcId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" destId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" srcOrd="0" destOrd="0" parTransId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" sibTransId="{39DE77A3-87E6-46B4-A2E3-3009DB60BF12}"/>
+    <dgm:cxn modelId="{0CADD679-AA74-457C-B72E-BA53254E3642}" type="presOf" srcId="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" destId="{45E3EAF8-FED0-49D3-9BE1-9EAFBD862872}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BB6457E0-3EB9-4C85-A5DC-6FB873A9866B}" srcId="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" destId="{C17FDAA5-5247-40D3-A375-0421F2890443}" srcOrd="0" destOrd="0" parTransId="{CA122700-3CB7-4094-8D40-298220BCF9CE}" sibTransId="{A0B0EF1B-03CC-48AF-89BC-FF9D8B444EE0}"/>
+    <dgm:cxn modelId="{666EBFF3-045A-4DB9-9611-0D4863A763BC}" type="presOf" srcId="{017A9184-DEF2-4145-B985-1784EC653C12}" destId="{0E0E136A-8620-44A0-A8CA-199634068733}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{8BAACA98-57DB-427B-B9AC-8042ED083513}" type="presOf" srcId="{C4E2A896-F84E-4EDB-AFCD-4E9BF3C4EFD0}" destId="{8951976A-AA8D-4CB5-9269-90020B29C9B9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{CEC118CA-636C-4BCF-A59C-19DDB5D3CC87}" type="presOf" srcId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" destId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{7BB8695C-EA31-440A-B263-7436A4170CA2}" type="presOf" srcId="{74CB4036-ED90-4ACC-9E85-658981007752}" destId="{35D7E0F4-E577-444B-99E4-F8D164E0BCD7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{BDFF1F1D-9AA1-4FF0-AB3C-B7BF4ACFFA50}" type="presOf" srcId="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" destId="{FCEB44E5-7AF6-4EBB-9766-B34343D312FE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{81CF8FD9-FE27-42B1-9C51-8519570838EE}" type="presOf" srcId="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" destId="{C393C001-61F3-4F2F-872E-CCFE430D85E4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{3E4D03AB-922F-4ECC-8800-D9F68E320B7F}" type="presOf" srcId="{30F80E6A-A636-434A-952F-806EAF184437}" destId="{C25262C4-ABEB-46B4-B8CF-A0B809264530}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{23EB6930-CC5E-4ED7-BA3F-7E07AB8DC708}" type="presOf" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{B512A0DA-199F-45E7-ADCB-1D19A5DB77C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{9565190C-FE6F-460C-86F5-AE07E63B29AB}" type="presOf" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{32287D36-9BC6-44F1-BCC3-DF54122829DC}" type="presOf" srcId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" destId="{DC6A21B9-A9D2-4F85-8A73-A6A117693EF4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{8561F031-CB90-4BDA-884A-038877B865FD}" type="presOf" srcId="{3C036C0B-079B-4BE1-95F5-409D9EAEA50E}" destId="{1E38A29E-159D-47A6-88BA-C2A8D6EE0DD3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{6E695587-AA8C-46D1-81C6-7EE46864F7DD}" type="presOf" srcId="{B7FB9C49-37C5-44CC-A6E9-1F35367C20AE}" destId="{634A27FE-F3F3-4A9C-84EC-9561A9A7F6B1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{BB6457E0-3EB9-4C85-A5DC-6FB873A9866B}" srcId="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" destId="{C17FDAA5-5247-40D3-A375-0421F2890443}" srcOrd="0" destOrd="0" parTransId="{CA122700-3CB7-4094-8D40-298220BCF9CE}" sibTransId="{A0B0EF1B-03CC-48AF-89BC-FF9D8B444EE0}"/>
-    <dgm:cxn modelId="{E28A5A0E-6F42-43CC-85BC-A4F741962A3E}" type="presOf" srcId="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}" destId="{4707F9A1-D761-4EDB-ACAD-70D62191C0C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{B5BFB057-AF6E-48AA-BE1C-F82837D9D828}" type="presOf" srcId="{4CACBB07-40C4-4679-8728-32EE5A01DDCF}" destId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{2AB07F18-F55A-4C5E-9BC6-4B4F9065502F}" type="presOf" srcId="{433CABC1-A2ED-49C7-A55D-D2C0CF3904A4}" destId="{1D0C8CB8-6BD7-481D-A856-4E83066AB9BB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{2A25FC5B-61D1-4698-9B47-38E7568A0BCA}" type="presOf" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{7E14C1C1-BC53-4754-92BA-B9751D55335A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{BDFF1F1D-9AA1-4FF0-AB3C-B7BF4ACFFA50}" type="presOf" srcId="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" destId="{FCEB44E5-7AF6-4EBB-9766-B34343D312FE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{871ABAA3-EDE8-4286-8BC0-754EB530EA7F}" type="presOf" srcId="{211224C1-8566-4354-88B3-5D447D1FE9A7}" destId="{343E6E5B-CC3D-4E24-955B-0E5B78CE3991}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{515F7375-CB11-470B-A49E-11CE0F958D40}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{E330EAC3-672C-4E4F-8377-A820D547B924}" srcOrd="2" destOrd="0" parTransId="{2D414069-067C-4600-A128-6B14AA4F61CB}" sibTransId="{8CA0550D-EFE1-4B93-9411-0335F47A3217}"/>
-    <dgm:cxn modelId="{BF911B88-5C25-4E9F-8687-581BDC18E261}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" srcOrd="2" destOrd="0" parTransId="{A5D4838D-B98F-4857-8497-981EA9743CF7}" sibTransId="{EC3045C6-6E17-4767-BBD6-A62A64E2BDD5}"/>
-    <dgm:cxn modelId="{F1E392D2-A23D-4F4B-9E70-FD1FE0A07866}" type="presOf" srcId="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" destId="{B1C8A51E-5E7B-42B8-BF39-8C9A68CF865A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{4103F6C1-505E-4792-8993-551F2EE87A62}" type="presOf" srcId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" destId="{9F9A6106-7959-4F3A-AD4F-E4852F2499BE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{218DAF4E-1C6A-4176-9879-BD23227FEA41}" srcId="{017A9184-DEF2-4145-B985-1784EC653C12}" destId="{496BAC66-63CB-4FE6-84E1-3C96E19AEB0D}" srcOrd="0" destOrd="0" parTransId="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" sibTransId="{CEF146C5-118A-4EC6-9B21-DE5EFEA4934D}"/>
-    <dgm:cxn modelId="{0CADD679-AA74-457C-B72E-BA53254E3642}" type="presOf" srcId="{E0710893-A04D-4BE2-9F22-29FD4B85414D}" destId="{45E3EAF8-FED0-49D3-9BE1-9EAFBD862872}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{6301EB1B-5754-43EB-8584-A7D3BE5D5BB6}" type="presOf" srcId="{1BA67879-58D8-44D2-879D-13516216E2E4}" destId="{CA60F4DB-F023-433F-95B2-356A28D29C17}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{7A92B652-FC89-417D-8F18-C6F6BE769253}" type="presOf" srcId="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" destId="{A2EFEE31-448F-455C-8C70-CD33577FC4C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{D2D9C506-9468-4A19-80B4-F04B6B00D6CF}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{B84B5FEF-19C0-493A-8BB2-62A6C172ED05}" srcOrd="2" destOrd="0" parTransId="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" sibTransId="{96EA5327-EA59-489E-BAF9-8864B7D5E133}"/>
-    <dgm:cxn modelId="{1FD4E344-0D9C-4719-A791-B90F9C5AFCAC}" type="presOf" srcId="{2D414069-067C-4600-A128-6B14AA4F61CB}" destId="{021F3772-C225-43E6-82C2-AFC2A70A3D69}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{236E1B5A-7210-4114-9E0F-D4FAB3DEF19C}" type="presOf" srcId="{FAF7D901-90A5-4D63-B540-F0098C05641C}" destId="{5775B216-44FE-4F35-B639-AF206C3F76DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{3627BA9C-2188-41BC-9A4D-5E572F3CCDFB}" type="presOf" srcId="{A2D0A591-9200-4C74-BF54-CC0A2B522C89}" destId="{135742A3-6E51-4EB7-B239-943F208D9E9C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{BB75F691-DCBA-48B5-82C0-4991E309250F}" srcId="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" destId="{FB5CDA4D-56A1-4479-9391-F993375CAA3A}" srcOrd="0" destOrd="0" parTransId="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" sibTransId="{F4EBB8EA-FEA3-429E-B779-EF8A2AEEA79B}"/>
-    <dgm:cxn modelId="{0E8B65EE-845B-4528-98DF-E6FA51F7D84A}" srcId="{C17FDAA5-5247-40D3-A375-0421F2890443}" destId="{E799A07D-AE9D-4715-B273-0D81BE9946AD}" srcOrd="0" destOrd="0" parTransId="{3A8E029C-F940-4863-9E58-7F6F40EE2218}" sibTransId="{F8396548-1223-4D0A-9AEE-ABF4E57FC2D7}"/>
-    <dgm:cxn modelId="{CAA5A420-DDAD-4CDB-B656-4498C00CD74A}" type="presOf" srcId="{8B5AD710-3453-4459-A021-4BD74C23C219}" destId="{8783F691-2C30-4412-98D8-FDAC14A8B237}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{000773AC-81AA-430B-8B01-7E545191E57A}" srcId="{295836EE-9898-4D01-8116-58F01C1A8092}" destId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" srcOrd="0" destOrd="0" parTransId="{8EA142D3-7323-43A5-87B8-F1214F4A980D}" sibTransId="{B0E45E60-0CFB-4F25-8337-FC54C681585D}"/>
-    <dgm:cxn modelId="{CF909A5E-E31F-43CE-9067-78FC32D51DD6}" type="presOf" srcId="{A1633550-3ABA-491C-A756-DFBF4D0D3A82}" destId="{BA10F88C-69F8-41F6-A540-002FB9AEE59B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{1A574872-508E-4A50-89FD-92F1760E8842}" type="presOf" srcId="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" destId="{641D670E-C412-4D0E-A23F-D8989384F4C6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{2787FE32-FC36-46C0-9D35-DDBAFF7E56EB}" type="presParOf" srcId="{9F4DB3E8-6BDE-4789-8CC1-3B5E11758B86}" destId="{2F12C531-236E-4BA1-B421-3771C12823A5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{CDC852FE-CC3C-465B-BB72-330EE3C8766E}" type="presParOf" srcId="{2F12C531-236E-4BA1-B421-3771C12823A5}" destId="{C53E3F74-DDEF-4E78-835A-2CE3DA176D42}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{F055BC50-A045-49CF-8A6B-8253E5B820E2}" type="presParOf" srcId="{C53E3F74-DDEF-4E78-835A-2CE3DA176D42}" destId="{6478DF03-1D40-49C2-B53A-E2DB8D6A01E8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
@@ -7648,21 +7901,56 @@
     <dgm:cxn modelId="{3F4AE70C-B661-446F-9456-D69A7D600AEC}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{EFAFC656-A6D3-4491-9EA1-4330624EF3A4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{A71E5221-A375-448D-83CD-DC4770CCDD04}" type="presParOf" srcId="{EFAFC656-A6D3-4491-9EA1-4330624EF3A4}" destId="{D47872FA-6671-4924-8700-A6F7228C9CAA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{4AF26A00-BD00-4042-BDF4-88EEEDF0C1C5}" type="presParOf" srcId="{EFAFC656-A6D3-4491-9EA1-4330624EF3A4}" destId="{C84BE1F1-A9CC-420B-9E5C-0EAE902BBCCB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{00FD4654-495F-4D5D-9F1E-8CEC8644FB68}" type="presParOf" srcId="{C84BE1F1-A9CC-420B-9E5C-0EAE902BBCCB}" destId="{2773881A-7C67-41C3-9241-6B6F6F2DC387}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{57D4B309-045A-40C2-91A3-5B829838B751}" type="presParOf" srcId="{2773881A-7C67-41C3-9241-6B6F6F2DC387}" destId="{AE3809D7-5EF4-4D4F-99FA-EA7995C0D07E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{D6FAA0C8-D014-435A-A6D9-E05E111A9BF2}" type="presParOf" srcId="{C84BE1F1-A9CC-420B-9E5C-0EAE902BBCCB}" destId="{93EFAB7F-905B-4CBC-B074-67714B07DFB2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{46D3CF36-66C9-42BA-A8AA-DC1643B16ED5}" type="presParOf" srcId="{93EFAB7F-905B-4CBC-B074-67714B07DFB2}" destId="{13D11EEA-3D74-4FB2-9958-DBA3D51C0BA1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1E9BC481-691B-436A-8682-D78744B9CFB1}" type="presParOf" srcId="{93EFAB7F-905B-4CBC-B074-67714B07DFB2}" destId="{BFA761AB-8A95-44EE-8DDF-975A7936C360}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{36451569-2EB1-4C61-9A98-1412E5EE7DDC}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{8783F691-2C30-4412-98D8-FDAC14A8B237}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{6BA7EB63-CBFA-4264-B779-5B8574F734EC}" type="presParOf" srcId="{8783F691-2C30-4412-98D8-FDAC14A8B237}" destId="{EA0863B0-AD59-4641-ADAD-9375F74FE231}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{B054ACCA-BA8F-4D48-8483-B86D6921E664}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{D7C79EE1-DFD6-41EE-9A7F-6FDF3A4351AC}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{F2715551-5329-41EB-9CE4-521038B2ED56}" type="presParOf" srcId="{D7C79EE1-DFD6-41EE-9A7F-6FDF3A4351AC}" destId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{53701732-6979-4CDE-82A6-E135D3F1D277}" type="presParOf" srcId="{D7C79EE1-DFD6-41EE-9A7F-6FDF3A4351AC}" destId="{E956A68F-B708-45F2-BFB0-6F6253DADAF1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{012E4F5D-52EE-4F92-A0C7-150965F194ED}" type="presParOf" srcId="{E956A68F-B708-45F2-BFB0-6F6253DADAF1}" destId="{34F83C04-7029-48DE-ACD5-E0C6D5D03F12}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C5BF13C7-3DA2-400F-9756-D61BE5AE8E80}" type="presParOf" srcId="{34F83C04-7029-48DE-ACD5-E0C6D5D03F12}" destId="{19EBA475-3303-4B3E-906D-17D283E4C7ED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{309A1D68-AF42-4CD3-9D97-DD7CC63A3CCF}" type="presParOf" srcId="{E956A68F-B708-45F2-BFB0-6F6253DADAF1}" destId="{EA47F5D6-C890-4572-A47D-CA2896540A70}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{E34C4141-B057-4973-8E60-14EB103780D4}" type="presParOf" srcId="{EA47F5D6-C890-4572-A47D-CA2896540A70}" destId="{084CCA24-32A2-4C98-8E62-16CBB06EBC4B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1155708B-1041-494F-B75F-6AB405BFFB30}" type="presParOf" srcId="{EA47F5D6-C890-4572-A47D-CA2896540A70}" destId="{0BDD21F0-104E-451A-A9DC-988458178FE9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{FC80838B-4695-4590-9E2B-19C47E0F137C}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{FCEB44E5-7AF6-4EBB-9766-B34343D312FE}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{5644EBAA-3347-402A-9916-821204DDFC47}" type="presParOf" srcId="{FCEB44E5-7AF6-4EBB-9766-B34343D312FE}" destId="{BA10F88C-69F8-41F6-A540-002FB9AEE59B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{29551C23-DA92-4D32-A782-0BF9B0C7138A}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{7CB4BD25-A392-4A6E-91EE-5B7CC04BD0DD}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{B33334D4-79AB-4F9E-AD05-E7A0251D1429}" type="presParOf" srcId="{7CB4BD25-A392-4A6E-91EE-5B7CC04BD0DD}" destId="{4707F9A1-D761-4EDB-ACAD-70D62191C0C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{862EAE54-5EF1-4257-A248-1F6DA047970B}" type="presParOf" srcId="{7CB4BD25-A392-4A6E-91EE-5B7CC04BD0DD}" destId="{E4F9720C-278F-431F-9FCA-FFD89016B4B2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{77CD3116-6284-4257-B00E-440431F6E652}" type="presParOf" srcId="{E4F9720C-278F-431F-9FCA-FFD89016B4B2}" destId="{D65A6760-26D6-4340-A679-8F6CC3C75790}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{DB131FF3-0C98-4042-8A4B-2444C569FE98}" type="presParOf" srcId="{D65A6760-26D6-4340-A679-8F6CC3C75790}" destId="{6F13F81D-6ABC-4D63-BC7A-10AF3D7A0F96}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{233BB312-8421-4556-9A17-4BD88313E498}" type="presParOf" srcId="{E4F9720C-278F-431F-9FCA-FFD89016B4B2}" destId="{F65391B9-8CBE-4DB6-9030-033C9C1AC4D1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{2D889656-9601-4494-A707-F2CB32714294}" type="presParOf" srcId="{F65391B9-8CBE-4DB6-9030-033C9C1AC4D1}" destId="{C13B7917-7DA7-44EE-B89F-CFD2F2B85A0B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{05F37B62-81B8-47FD-89F5-3BD16D5FAE4C}" type="presParOf" srcId="{F65391B9-8CBE-4DB6-9030-033C9C1AC4D1}" destId="{1C35F1D1-EE5D-4EE4-ADCD-E36431DCD931}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{9918675E-04FC-4D8C-865F-04192770C001}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{9307F662-7AEC-4FD9-B049-1251B671D585}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{32CCFAED-E831-4BE0-A890-70B0F8AC585A}" type="presParOf" srcId="{9307F662-7AEC-4FD9-B049-1251B671D585}" destId="{08C27923-5E46-40F6-A0E1-9A9AC1CE3C12}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{F983E8A8-84E5-4342-B12F-0CD07D7AA04E}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{50C3BB8E-849F-4B43-9593-4085E8B94966}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{7DF76E4B-C097-47C8-A5E2-7ED5C8FA61A9}" type="presParOf" srcId="{50C3BB8E-849F-4B43-9593-4085E8B94966}" destId="{1E38A29E-159D-47A6-88BA-C2A8D6EE0DD3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{DC5607B2-C784-428D-9B33-EDDF70D17708}" type="presParOf" srcId="{50C3BB8E-849F-4B43-9593-4085E8B94966}" destId="{85821046-A123-4300-AFFA-F9DC592E2156}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0929833F-DBFD-406D-AB10-4D891C5A1D2F}" type="presParOf" srcId="{85821046-A123-4300-AFFA-F9DC592E2156}" destId="{577B39DF-2870-4285-8784-744381993351}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{F439EE31-7784-4F9F-AD61-7AB5D7CAB8CD}" type="presParOf" srcId="{577B39DF-2870-4285-8784-744381993351}" destId="{38C50D4F-A900-4A44-B8F8-7758498EBFF2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6810A74F-C919-4F94-97A5-ADE1A191BC12}" type="presParOf" srcId="{85821046-A123-4300-AFFA-F9DC592E2156}" destId="{03B0250C-3D69-431A-B222-0ABD2A544BA6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{3963575E-2597-4C32-AB3D-465E90FB159A}" type="presParOf" srcId="{03B0250C-3D69-431A-B222-0ABD2A544BA6}" destId="{779F46FE-DB83-4F70-94D0-DFBAD82789B1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{B48E4125-1B9A-4097-9005-951A2633B064}" type="presParOf" srcId="{03B0250C-3D69-431A-B222-0ABD2A544BA6}" destId="{91C1BFB4-766F-4D7A-906A-EA7F72272CF3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A8733386-5F90-45B5-94C7-49AD8CF5733D}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{6F268978-664C-4B83-A14D-CB66569733B9}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{490B86C2-4731-4735-AB41-7555B0FE42B5}" type="presParOf" srcId="{6F268978-664C-4B83-A14D-CB66569733B9}" destId="{21306C94-17B2-4874-97EA-3A85FC13140D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6563D01E-C27E-4592-A92E-6792F1FDF0BC}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{10579E47-AB0C-4EDF-9D9E-0C8EC97CF74C}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0D861CEF-4AB0-43AB-96CB-5E067F65DF9C}" type="presParOf" srcId="{10579E47-AB0C-4EDF-9D9E-0C8EC97CF74C}" destId="{28541AC7-D3D8-472D-87DC-08015E8EB8AA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4B06280D-6E8E-46EB-9D9B-0D0515846CF8}" type="presParOf" srcId="{10579E47-AB0C-4EDF-9D9E-0C8EC97CF74C}" destId="{6755EA8F-B5BE-4242-90CD-CF72FF5A47A8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{9A504537-83BB-4DB0-9458-A04689C82659}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{35D7E0F4-E577-444B-99E4-F8D164E0BCD7}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{FB91FB3D-3119-4901-817A-FC3C829F3887}" type="presParOf" srcId="{35D7E0F4-E577-444B-99E4-F8D164E0BCD7}" destId="{4066A51B-A27E-42C5-8B6D-2DCF28245809}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{72D59E0E-3A77-46BB-866C-687802BADBBB}" type="presParOf" srcId="{0207B442-BD78-4ED7-8C93-0439C972D70E}" destId="{DCB1662A-0291-4A80-B041-DFA530D86614}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{47589C13-A700-482F-9F4B-824C231FC385}" type="presParOf" srcId="{DCB1662A-0291-4A80-B041-DFA530D86614}" destId="{A3ECFA88-E9D6-4993-9D26-3B184B0D3C1B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4F461D61-F51E-4120-9C05-EE0587DD685C}" type="presParOf" srcId="{DCB1662A-0291-4A80-B041-DFA530D86614}" destId="{2E1FB60A-3ADB-4BF2-B81A-42A6C871F949}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0F8B5320-80F1-40DD-9816-0C11CC5A6ED8}" type="presParOf" srcId="{2E1FB60A-3ADB-4BF2-B81A-42A6C871F949}" destId="{8951976A-AA8D-4CB5-9269-90020B29C9B9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{D5845FAF-08B1-4B52-810F-3E7750A4953A}" type="presParOf" srcId="{8951976A-AA8D-4CB5-9269-90020B29C9B9}" destId="{20B84707-C7F7-444A-ACB0-96942961ACCB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{3419DA66-93B7-43CD-88C3-755310693CFA}" type="presParOf" srcId="{2E1FB60A-3ADB-4BF2-B81A-42A6C871F949}" destId="{CA39FC39-6B47-4A9A-903A-98D33A8FE8F3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{B7B5A7C9-3A63-4E87-829D-0978CE72621B}" type="presParOf" srcId="{CA39FC39-6B47-4A9A-903A-98D33A8FE8F3}" destId="{3318446E-9FA2-4789-9D1C-22F36FD6666C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C7B3774D-948B-4271-BCD1-756E304ADC01}" type="presParOf" srcId="{CA39FC39-6B47-4A9A-903A-98D33A8FE8F3}" destId="{6BA61DF2-75B0-493C-96C2-EC545E0731C9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{FADA2D48-88A6-4D83-A5F3-0BE5546DEB83}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{55B45366-7CB7-4D56-B80C-C82CC89053AF}" type="presParOf" srcId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}" destId="{AB15B0AB-EC18-49A3-BB95-9A9668A68592}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{84FDB018-7A3E-4433-922C-237FE69C232E}" type="presParOf" srcId="{A8A18F74-1C61-4E41-BDD9-FEFE4B2AFE0E}" destId="{141AC46E-6C07-46B1-A734-832EF32C43E2}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
@@ -7757,8 +8045,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1159194" y="9104601"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="7520" y="6206684"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7801,12 +8089,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7818,14 +8106,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
             <a:t>详情页</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1196235" y="9141642"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="34095" y="6233259"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{416A236D-2B09-47BE-AD0B-E557EC5EDEBE}">
@@ -7834,9 +8122,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="16581068">
-          <a:off x="-378559" y="5186214"/>
-          <a:ext cx="9145875" cy="11689"/>
+        <a:xfrm rot="16652881">
+          <a:off x="-577838" y="3915182"/>
+          <a:ext cx="5525967" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7847,10 +8135,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="9145875" y="5844"/>
+                <a:pt x="5525967" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7888,7 +8176,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7899,12 +8187,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3965731" y="4963412"/>
-        <a:ext cx="457293" cy="457293"/>
+        <a:off x="2046995" y="3783163"/>
+        <a:ext cx="276298" cy="276298"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C1091C88-8FFE-4394-91EF-E308511DCD5C}">
@@ -7914,8 +8202,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4700242" y="14857"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="2548082" y="728598"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7958,12 +8246,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7975,25 +8263,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
             <a:t>标题</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4737283" y="51898"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="2574657" y="755173"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{2753ED25-9652-4141-9D86-C075B64E5A0C}">
+    <dsp:sp modelId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7229562" y="641342"/>
-          <a:ext cx="1011728" cy="11689"/>
+        <a:xfrm rot="16757754">
+          <a:off x="-61682" y="4436905"/>
+          <a:ext cx="4493654" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8004,10 +8292,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1011728" y="5844"/>
+                <a:pt x="4493654" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8016,7 +8304,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -8045,7 +8333,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8056,23 +8344,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7710133" y="621894"/>
-        <a:ext cx="50586" cy="50586"/>
+        <a:off x="2072803" y="4330694"/>
+        <a:ext cx="224682" cy="224682"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{CC54B996-C92F-4E02-A4CC-BE8ED9E7597C}">
+    <dsp:sp modelId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8241290" y="14857"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="2548082" y="1772043"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8115,12 +8403,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8132,26 +8420,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>tpl_modules_products_info_translate_on_title.php</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>图片</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8278331" y="51898"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="2574657" y="1798618"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{C2CDE8B7-77B5-4F36-80DD-769CD59A6A56}">
+    <dsp:sp modelId="{28F496D2-4019-4178-92C0-A9F924F314B7}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="16652881">
-          <a:off x="343316" y="5913394"/>
-          <a:ext cx="7702122" cy="11689"/>
+        <a:xfrm rot="16924900">
+          <a:off x="451139" y="4958627"/>
+          <a:ext cx="3468011" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8162,10 +8449,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="7702122" y="5844"/>
+                <a:pt x="3468011" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8203,7 +8490,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8214,23 +8501,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4001825" y="5726685"/>
-        <a:ext cx="385106" cy="385106"/>
+        <a:off x="2098444" y="4878057"/>
+        <a:ext cx="173400" cy="173400"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7C0F64E6-66C6-4BAC-AB22-02B795F1CAB8}">
+    <dsp:sp modelId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4700242" y="1469216"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="2548082" y="2815488"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8273,12 +8560,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8290,25 +8577,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>图片</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>价格</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4737283" y="1506257"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="2574657" y="2842063"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{54EE237B-A561-477B-A047-5340603D15C1}">
+    <dsp:sp modelId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7229562" y="2095701"/>
-          <a:ext cx="1011728" cy="11689"/>
+        <a:xfrm rot="17350740">
+          <a:off x="3620943" y="2219584"/>
+          <a:ext cx="2209525" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8319,10 +8606,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1011728" y="5844"/>
+                <a:pt x="2209525" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8360,7 +8647,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8371,23 +8658,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7710133" y="2076253"/>
-        <a:ext cx="50586" cy="50586"/>
+        <a:off x="4670468" y="2170476"/>
+        <a:ext cx="110476" cy="110476"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{B7A723E6-704C-42EB-B047-E088BD225749}">
+    <dsp:sp modelId="{74E3BD4A-40E6-475E-8288-DC90F802DB14}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8241290" y="1469216"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="5088644" y="728598"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8430,12 +8717,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8447,26 +8734,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>tpl_modules_main_product_new_image.php</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>原价</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8278331" y="1506257"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="5115219" y="755173"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{28F496D2-4019-4178-92C0-A9F924F314B7}">
+    <dsp:sp modelId="{20753BF2-0D7F-4695-879C-908482DA5B47}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17230830">
-          <a:off x="2481807" y="8094932"/>
-          <a:ext cx="3425141" cy="11689"/>
+        <a:xfrm rot="18289469">
+          <a:off x="4090161" y="2741307"/>
+          <a:ext cx="1271090" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8477,10 +8763,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3425141" y="5844"/>
+                <a:pt x="1271090" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8489,7 +8775,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -8518,7 +8804,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8529,23 +8815,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4108749" y="8015149"/>
-        <a:ext cx="171257" cy="171257"/>
+        <a:off x="4693929" y="2715660"/>
+        <a:ext cx="63554" cy="63554"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{2E2AAF9D-3668-48FE-9CC8-CA0ACA0317FB}">
+    <dsp:sp modelId="{0ECFF24D-6683-4AFC-9B7F-CD0D77C6771A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4700242" y="5832293"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="5088644" y="1772043"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8588,12 +8874,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8605,25 +8891,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>价格</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>特价</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4737283" y="5869334"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="5115219" y="1798618"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{FB6F5BCD-7FE5-4AF4-BF7A-0BC14EE63B7C}">
+    <dsp:sp modelId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17350740">
-          <a:off x="6195602" y="5004419"/>
-          <a:ext cx="3079648" cy="11689"/>
+        <a:xfrm>
+          <a:off x="4362769" y="3263029"/>
+          <a:ext cx="725874" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8634,10 +8920,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3079648" y="5844"/>
+                <a:pt x="725874" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8675,7 +8961,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8686,23 +8972,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7658435" y="4933273"/>
-        <a:ext cx="153982" cy="153982"/>
+        <a:off x="4707559" y="3251013"/>
+        <a:ext cx="36293" cy="36293"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{74E3BD4A-40E6-475E-8288-DC90F802DB14}">
+    <dsp:sp modelId="{0F5C5E05-724C-4615-9A27-0292B8BF7467}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8241290" y="2923575"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="5088644" y="2815488"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8745,12 +9031,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8762,25 +9048,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>原价</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>海外仓</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8278331" y="2960616"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="5115219" y="2842063"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{20753BF2-0D7F-4695-879C-908482DA5B47}">
+    <dsp:sp modelId="{FA9E5C58-920C-4962-A474-015BE2EAD31D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="18289469">
-          <a:off x="6849599" y="5731599"/>
-          <a:ext cx="1771652" cy="11689"/>
+        <a:xfrm rot="3310531">
+          <a:off x="4090161" y="3784752"/>
+          <a:ext cx="1271090" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8791,10 +9077,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1771652" y="5844"/>
+                <a:pt x="1271090" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8832,7 +9118,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8843,23 +9129,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7691135" y="5693152"/>
-        <a:ext cx="88582" cy="88582"/>
+        <a:off x="4693929" y="3759105"/>
+        <a:ext cx="63554" cy="63554"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{0ECFF24D-6683-4AFC-9B7F-CD0D77C6771A}">
+    <dsp:sp modelId="{84198158-0634-44E0-82FA-C5DACA6BFD04}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8241290" y="4377934"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="5088644" y="3858933"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8902,12 +9188,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8919,25 +9205,33 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>特价</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>全球价 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1500" kern="1200"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>多区定价</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8278331" y="4414975"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="5115219" y="3885508"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{B36CCB78-80F2-462F-9B33-4C7EEAC1382E}">
+    <dsp:sp modelId="{735D3964-1A08-4712-BDBE-06EA0455A6EC}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7229562" y="6458778"/>
-          <a:ext cx="1011728" cy="11689"/>
+        <a:xfrm rot="4249260">
+          <a:off x="3620943" y="4306474"/>
+          <a:ext cx="2209525" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8948,10 +9242,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1011728" y="5844"/>
+                <a:pt x="2209525" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8989,7 +9283,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9000,23 +9294,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7710133" y="6439330"/>
-        <a:ext cx="50586" cy="50586"/>
+        <a:off x="4670468" y="4257366"/>
+        <a:ext cx="110476" cy="110476"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{0F5C5E05-724C-4615-9A27-0292B8BF7467}">
+    <dsp:sp modelId="{7AE2FE72-4EAB-4297-BC61-4E9316A2E869}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8241290" y="5832293"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="5088644" y="4902378"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9059,12 +9353,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9076,25 +9370,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>海外仓</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>数量折扣</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8278331" y="5869334"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="5115219" y="4928953"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{FA9E5C58-920C-4962-A474-015BE2EAD31D}">
+    <dsp:sp modelId="{145DAD85-EA95-4FDF-9834-24E8C158645C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="3310531">
-          <a:off x="6849599" y="7185958"/>
-          <a:ext cx="1771652" cy="11689"/>
+        <a:xfrm rot="17230830">
+          <a:off x="956443" y="5480350"/>
+          <a:ext cx="2457402" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9105,10 +9399,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1771652" y="5844"/>
+                <a:pt x="2457402" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9117,7 +9411,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -9146,7 +9440,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9157,23 +9451,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7691135" y="7147511"/>
-        <a:ext cx="88582" cy="88582"/>
+        <a:off x="2123710" y="5425045"/>
+        <a:ext cx="122870" cy="122870"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{84198158-0634-44E0-82FA-C5DACA6BFD04}">
+    <dsp:sp modelId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8241290" y="7286652"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="2548082" y="3858933"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9216,12 +9510,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9233,33 +9527,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>全球价 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
-            <a:t>/ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>多区定价</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>描述</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8278331" y="7323693"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="2574657" y="3885508"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{735D3964-1A08-4712-BDBE-06EA0455A6EC}">
+    <dsp:sp modelId="{28F1DC58-4C80-42A9-951A-A48CC763381A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4249260">
-          <a:off x="6195602" y="7913137"/>
-          <a:ext cx="3079648" cy="11689"/>
+        <a:xfrm rot="17945813">
+          <a:off x="1438802" y="6002072"/>
+          <a:ext cx="1492685" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9270,10 +9556,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3079648" y="5844"/>
+                <a:pt x="1492685" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9282,7 +9568,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -9311,7 +9597,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9322,23 +9608,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7658435" y="7841991"/>
-        <a:ext cx="153982" cy="153982"/>
+        <a:off x="2147828" y="5970885"/>
+        <a:ext cx="74634" cy="74634"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7AE2FE72-4EAB-4297-BC61-4E9316A2E869}">
+    <dsp:sp modelId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8241290" y="8741011"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="2548082" y="4902378"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9381,12 +9667,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9398,25 +9684,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>数量折扣</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>属性</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8278331" y="8778052"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="2574657" y="4928953"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{145DAD85-EA95-4FDF-9834-24E8C158645C}">
+    <dsp:sp modelId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17945813">
-          <a:off x="3154122" y="8822112"/>
-          <a:ext cx="2080512" cy="11689"/>
+        <a:xfrm rot="20349941">
+          <a:off x="1796816" y="6516109"/>
+          <a:ext cx="776658" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9427,10 +9713,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2080512" y="5844"/>
+                <a:pt x="776658" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9468,7 +9754,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9479,23 +9765,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4142365" y="8775944"/>
-        <a:ext cx="104025" cy="104025"/>
+        <a:off x="2165728" y="6502823"/>
+        <a:ext cx="38832" cy="38832"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1F4A90C4-1388-4053-AB0C-7BA9E3934A1F}">
+    <dsp:sp modelId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4700242" y="7286652"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="2548082" y="5930452"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9538,12 +9824,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9555,25 +9841,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>描述</a:t>
+            <a:rPr lang="en-US" sz="1500" b="1" i="0" kern="1200"/>
+            <a:t>Accessories</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4737283" y="7323693"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="2574657" y="5957027"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{28F1DC58-4C80-42A9-951A-A48CC763381A}">
+    <dsp:sp modelId="{8C352C1C-738A-4A10-981D-E71F662088F5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="20413970">
-          <a:off x="3656839" y="9549291"/>
-          <a:ext cx="1075077" cy="11689"/>
+        <a:xfrm rot="72783">
+          <a:off x="4362687" y="6385679"/>
+          <a:ext cx="726037" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9584,10 +9871,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1075077" y="5844"/>
+                <a:pt x="726037" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9596,7 +9883,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -9640,19 +9927,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4167501" y="9528259"/>
-        <a:ext cx="53753" cy="53753"/>
+        <a:off x="4707555" y="6373658"/>
+        <a:ext cx="36301" cy="36301"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{56DC7E77-4FC5-4ECD-82A9-B2C9E4D397BF}">
+    <dsp:sp modelId="{DC66AB97-B3B7-454F-BADA-742E0A317634}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4700242" y="8741011"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="5088644" y="5945823"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9695,12 +9982,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9712,25 +9999,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>属性</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1500" kern="1200"/>
+            <a:t>product_to_products</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4737283" y="8778052"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="5115219" y="5972398"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7D5DBC9E-B948-49CC-B49A-8AC6FC7C33A0}">
+    <dsp:sp modelId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="2795155">
-          <a:off x="3458325" y="10265759"/>
-          <a:ext cx="1472105" cy="11689"/>
+        <a:xfrm rot="2829178">
+          <a:off x="1651447" y="7045517"/>
+          <a:ext cx="1067394" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9741,10 +10029,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1472105" y="5844"/>
+                <a:pt x="1067394" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9797,19 +10085,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4157575" y="10234801"/>
-        <a:ext cx="73605" cy="73605"/>
+        <a:off x="2158460" y="7024962"/>
+        <a:ext cx="53369" cy="53369"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{ADC7C91C-0765-48E3-B3E1-3C5CEC86859F}">
+    <dsp:sp modelId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4700242" y="10173947"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="2548082" y="6989267"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9852,12 +10140,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9869,26 +10157,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
-            <a:t>Accessories</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>推荐</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4737283" y="10210988"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="2574657" y="7015842"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{8C352C1C-738A-4A10-981D-E71F662088F5}">
+    <dsp:sp modelId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="72783">
-          <a:off x="7229449" y="10811144"/>
-          <a:ext cx="1011954" cy="11689"/>
+        <a:xfrm rot="4099285">
+          <a:off x="1202638" y="7567239"/>
+          <a:ext cx="1965012" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9899,10 +10186,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1011954" y="5844"/>
+                <a:pt x="1965012" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9911,7 +10198,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -9940,7 +10227,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9951,23 +10238,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7710127" y="10791690"/>
-        <a:ext cx="50597" cy="50597"/>
+        <a:off x="2136019" y="7524245"/>
+        <a:ext cx="98250" cy="98250"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{DC66AB97-B3B7-454F-BADA-742E0A317634}">
+    <dsp:sp modelId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8241290" y="10195370"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="2548082" y="8032712"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10010,12 +10297,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10027,26 +10314,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
-            <a:t>product_to_products</a:t>
+            <a:rPr lang="en-US" sz="1500" b="1" i="0" kern="1200"/>
+            <a:t>Customer Images</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8278331" y="10232411"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="2574657" y="8059287"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A5BD15BD-F9BB-472B-BADD-DD48A04ECE16}">
+    <dsp:sp modelId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4099285">
-          <a:off x="2824955" y="11003650"/>
-          <a:ext cx="2738844" cy="11689"/>
+        <a:xfrm>
+          <a:off x="4362769" y="8480254"/>
+          <a:ext cx="725874" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10057,10 +10343,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2738844" y="5844"/>
+                <a:pt x="725874" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10069,7 +10355,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -10098,7 +10384,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10109,23 +10395,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4125907" y="10941024"/>
-        <a:ext cx="136942" cy="136942"/>
+        <a:off x="4707559" y="8468237"/>
+        <a:ext cx="36293" cy="36293"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{589F85A9-DA51-474B-AF49-93BCF9345CC5}">
+    <dsp:sp modelId="{EF7CB15F-86FD-4372-B781-C31717015D39}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4700242" y="11649729"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="5088644" y="8032712"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10168,12 +10454,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10185,25 +10471,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>推荐</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>customers_images</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4737283" y="11686770"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="5115219" y="8059287"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{EA272EB5-5F6C-4A9F-B56E-20ECC6B9ECF2}">
+    <dsp:sp modelId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="4548241">
-          <a:off x="2131643" y="11730830"/>
-          <a:ext cx="4125468" cy="11689"/>
+          <a:off x="705215" y="8088962"/>
+          <a:ext cx="2959860" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10214,10 +10501,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="4125468" y="5844"/>
+                <a:pt x="2959860" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10255,7 +10542,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10266,23 +10553,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4091241" y="11633538"/>
-        <a:ext cx="206273" cy="206273"/>
+        <a:off x="2111148" y="8021096"/>
+        <a:ext cx="147993" cy="147993"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{6E62CF16-1C27-401F-9FCF-7F5EC6D00473}">
+    <dsp:sp modelId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4700242" y="13104088"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="2548082" y="9076157"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10325,12 +10612,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10342,25 +10629,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
-            <a:t>Customer Images</a:t>
+            <a:rPr lang="en-US" sz="1500" b="1" i="0" kern="1200"/>
+            <a:t>Customer Videos</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4737283" y="13141129"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="2574657" y="9102732"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A2E90CB9-DF44-4452-B8C3-D5D6E49481FC}">
+    <dsp:sp modelId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7229562" y="13730574"/>
-          <a:ext cx="1011728" cy="11689"/>
+          <a:off x="4362769" y="9523699"/>
+          <a:ext cx="725874" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10371,10 +10658,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1011728" y="5844"/>
+                <a:pt x="725874" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10427,19 +10714,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7710133" y="13711125"/>
-        <a:ext cx="50586" cy="50586"/>
+        <a:off x="4707559" y="9511682"/>
+        <a:ext cx="36293" cy="36293"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{EF7CB15F-86FD-4372-B781-C31717015D39}">
+    <dsp:sp modelId="{19273AAB-E414-41A1-9D60-19175C768B84}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8241290" y="13104088"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="5088644" y="9076157"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10482,12 +10769,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10499,26 +10786,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>customers_images</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>products_video_url</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8278331" y="13141129"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="5115219" y="9102732"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{C31DE0F0-3796-488F-AC53-E1EBF94B49F3}">
+    <dsp:sp modelId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4769441">
-          <a:off x="1420931" y="12458010"/>
-          <a:ext cx="5546894" cy="11689"/>
+        <a:xfrm rot="4842246">
+          <a:off x="-61682" y="8871546"/>
+          <a:ext cx="4493654" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10529,10 +10816,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="5546894" y="5844"/>
+                <a:pt x="4493654" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10570,7 +10857,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10581,23 +10868,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4055705" y="12325182"/>
-        <a:ext cx="277344" cy="277344"/>
+        <a:off x="2072803" y="8765335"/>
+        <a:ext cx="224682" cy="224682"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{FC50ADDE-D586-4B19-BAE7-70026DDC9CAF}">
+    <dsp:sp modelId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4700242" y="14558447"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="2548082" y="10641325"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10640,12 +10927,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10657,25 +10944,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
-            <a:t>Customer Videos</a:t>
+            <a:rPr lang="en-US" sz="1500" b="1" i="0" kern="1200"/>
+            <a:t>Customer Reviews</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4737283" y="14595488"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="2574657" y="10667900"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A9BC48A2-1F87-4F34-9157-D820B77C29C1}">
+    <dsp:sp modelId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7229562" y="15184933"/>
-          <a:ext cx="1011728" cy="11689"/>
+          <a:off x="4362769" y="11088866"/>
+          <a:ext cx="725874" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10686,10 +10974,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1011728" y="5844"/>
+                <a:pt x="725874" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10742,19 +11030,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7710133" y="15165484"/>
-        <a:ext cx="50586" cy="50586"/>
+        <a:off x="4707559" y="11076850"/>
+        <a:ext cx="36293" cy="36293"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{19273AAB-E414-41A1-9D60-19175C768B84}">
+    <dsp:sp modelId="{74E3D885-0104-4156-8E63-BED57F56F2DB}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8241290" y="14558447"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="5088644" y="10641325"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10797,12 +11085,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10814,26 +11102,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>products_video_url</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1500" kern="1200"/>
+            <a:t>zencart.reviews</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8278331" y="14595488"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="5115219" y="10667900"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E87F494E-0EF6-4393-9F11-C8EAB7C91715}">
+    <dsp:sp modelId="{57B659E6-114D-4A2E-9EAD-DE383F33A3D6}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4947119">
-          <a:off x="343316" y="13548779"/>
-          <a:ext cx="7702122" cy="11689"/>
+        <a:xfrm>
+          <a:off x="6903330" y="11088866"/>
+          <a:ext cx="725874" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10844,10 +11132,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="7702122" y="5844"/>
+                <a:pt x="725874" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10856,7 +11144,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -10885,7 +11173,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10896,23 +11184,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4001825" y="13362070"/>
-        <a:ext cx="385106" cy="385106"/>
+        <a:off x="7248121" y="11076850"/>
+        <a:ext cx="36293" cy="36293"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{38C7E7BA-9CC7-4D7D-A069-362900C146A6}">
+    <dsp:sp modelId="{62AD5277-2022-4E96-9530-E41482C4F93E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4700242" y="16739986"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="7629205" y="10641325"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10955,12 +11243,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10972,26 +11260,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
-            <a:t>Customer Reviews</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>评论数量</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4737283" y="16777027"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="7655780" y="10667900"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{CCE1A713-B4CB-4737-96C6-E30E14C325E2}">
+    <dsp:sp modelId="{1B098D82-6EE2-46B9-99E2-4FD64D567D37}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7229562" y="17366471"/>
-          <a:ext cx="1011728" cy="11689"/>
+        <a:xfrm rot="19457599">
+          <a:off x="9359871" y="10828005"/>
+          <a:ext cx="893917" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11002,10 +11289,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1011728" y="5844"/>
+                <a:pt x="893917" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11058,19 +11345,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7710133" y="17347023"/>
-        <a:ext cx="50586" cy="50586"/>
+        <a:off x="9784481" y="10811787"/>
+        <a:ext cx="44695" cy="44695"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{74E3D885-0104-4156-8E63-BED57F56F2DB}">
+    <dsp:sp modelId="{B0A59766-BFD1-4971-AA3E-083F56792E4A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8241290" y="16739986"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="10169767" y="10119602"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11113,12 +11400,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11130,26 +11417,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
-            <a:t>zencart.reviews</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>有登陆</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8278331" y="16777027"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="10196342" y="10146177"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{57B659E6-114D-4A2E-9EAD-DE383F33A3D6}">
+    <dsp:sp modelId="{344E9AF4-45E1-4810-9A46-556F99E367E5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="10770610" y="17366471"/>
-          <a:ext cx="1011728" cy="11689"/>
+        <a:xfrm rot="2142401">
+          <a:off x="9359871" y="11349727"/>
+          <a:ext cx="893917" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11160,10 +11446,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1011728" y="5844"/>
+                <a:pt x="893917" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11216,19 +11502,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11251181" y="17347023"/>
-        <a:ext cx="50586" cy="50586"/>
+        <a:off x="9784481" y="11333510"/>
+        <a:ext cx="44695" cy="44695"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{62AD5277-2022-4E96-9530-E41482C4F93E}">
+    <dsp:sp modelId="{8711A100-87C2-4EFE-BB48-418F353A2470}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11782338" y="16739986"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="10169767" y="11163047"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11271,12 +11557,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11288,25 +11574,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>评论数量</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>没有登陆</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11819379" y="16777027"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="10196342" y="11189622"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1B098D82-6EE2-46B9-99E2-4FD64D567D37}">
+    <dsp:sp modelId="{D84339FB-047D-4649-8593-289A5B8D130D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="19457599">
-          <a:off x="14194549" y="17002882"/>
-          <a:ext cx="1245946" cy="11689"/>
+        <a:xfrm rot="4947119">
+          <a:off x="-577838" y="9393268"/>
+          <a:ext cx="5525967" cy="12260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11317,10 +11603,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="6130"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1245946" y="5844"/>
+                <a:pt x="5525967" y="6130"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11329,7 +11615,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
+              <a:shade val="60000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -11358,7 +11644,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11369,23 +11655,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14786374" y="16977578"/>
-        <a:ext cx="62297" cy="62297"/>
+        <a:off x="2046995" y="9261249"/>
+        <a:ext cx="276298" cy="276298"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{B0A59766-BFD1-4971-AA3E-083F56792E4A}">
+    <dsp:sp modelId="{98556681-3D9F-4912-AC6C-8A99410E01D5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="15323386" y="16012806"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="2548082" y="11684770"/>
+          <a:ext cx="1814686" cy="907343"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11428,12 +11714,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11445,104 +11731,38 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>有登陆</a:t>
+            <a:rPr lang="en-US" sz="1500" b="1" i="0" kern="1200"/>
+            <a:t>Q &amp; A</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="15360427" y="16049847"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="2574657" y="11711345"/>
+        <a:ext cx="1761536" cy="854193"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{344E9AF4-45E1-4810-9A46-556F99E367E5}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm rot="2142401">
-          <a:off x="14194549" y="17730061"/>
-          <a:ext cx="1245946" cy="11689"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="5844"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1245946" y="5844"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="14786374" y="17704757"/>
-        <a:ext cx="62297" cy="62297"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{8711A100-87C2-4EFE-BB48-418F353A2470}">
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{DC6A21B9-A9D2-4F85-8A73-A6A117693EF4}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="15323386" y="17467166"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="136147" y="10024047"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11602,25 +11822,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
-            <a:t>没有登陆</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
+            <a:t>index.php</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="15360427" y="17504207"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="172613" y="10060513"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{D84339FB-047D-4649-8593-289A5B8D130D}">
+    <dsp:sp modelId="{9F9A6106-7959-4F3A-AD4F-E4852F2499BE}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="5018932">
-          <a:off x="-378559" y="14275958"/>
-          <a:ext cx="9145875" cy="11689"/>
+        <a:xfrm>
+          <a:off x="2626238" y="10641307"/>
+          <a:ext cx="996036" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11631,10 +11852,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5844"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="9145875" y="5844"/>
+                <a:pt x="996036" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11672,7 +11893,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11683,23 +11904,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3965731" y="14053156"/>
-        <a:ext cx="457293" cy="457293"/>
+        <a:off x="3099355" y="10621669"/>
+        <a:ext cx="49801" cy="49801"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{98556681-3D9F-4912-AC6C-8A99410E01D5}">
+    <dsp:sp modelId="{135742A3-6E51-4EB7-B239-943F208D9E9C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4700242" y="18194345"/>
-          <a:ext cx="2529320" cy="1264660"/>
+          <a:off x="3622275" y="10024047"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11759,38 +11980,105 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200"/>
-            <a:t>Q &amp; A</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>main_template_vars.php</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4737283" y="18231386"/>
-        <a:ext cx="2455238" cy="1190578"/>
+        <a:off x="3658741" y="10060513"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-  </dsp:spTree>
-</dsp:drawing>
-</file>
-
-<file path=xl/diagrams/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <dsp:spTree>
-    <dsp:nvGrpSpPr>
-      <dsp:cNvPr id="0" name=""/>
-      <dsp:cNvGrpSpPr/>
-    </dsp:nvGrpSpPr>
-    <dsp:grpSpPr/>
-    <dsp:sp modelId="{DC6A21B9-A9D2-4F85-8A73-A6A117693EF4}">
+    <dsp:sp modelId="{C9AC55F9-27BD-4C07-BCE1-57BCE584CFE5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6561" y="9335812"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="6112366" y="10641307"/>
+          <a:ext cx="996036" cy="10524"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5262"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="996036" y="5262"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6585483" y="10621669"/>
+        <a:ext cx="49801" cy="49801"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B512A0DA-199F-45E7-ADCB-1D19A5DB77C5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7108402" y="10024047"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11833,12 +12121,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11850,26 +12138,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800" kern="1200"/>
-            <a:t>index.php</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_product_info_display.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="40938" y="9370189"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="7144868" y="10060513"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{9F9A6106-7959-4F3A-AD4F-E4852F2499BE}">
+    <dsp:sp modelId="{D7231407-A161-4C9C-BFB9-D651AF1947FD}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2353990" y="9917347"/>
-          <a:ext cx="938971" cy="10645"/>
+        <a:xfrm rot="16540521">
+          <a:off x="5060518" y="5629998"/>
+          <a:ext cx="10071988" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11880,10 +12168,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="938971" y="5322"/>
+                <a:pt x="10071988" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11892,7 +12180,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -11921,7 +12209,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11932,23 +12220,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2800001" y="9899195"/>
-        <a:ext cx="46948" cy="46948"/>
+        <a:off x="9844712" y="5383461"/>
+        <a:ext cx="503599" cy="503599"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{135742A3-6E51-4EB7-B239-943F208D9E9C}">
+    <dsp:sp modelId="{2898F935-43C7-4879-803D-0CF37CADF3CA}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3292961" y="9335812"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="10594530" y="1429"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11991,12 +12279,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -12008,26 +12296,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>main_template_vars.php</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_modules_also_purchased_products.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3327338" y="9370189"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="10630996" y="37895"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{C9AC55F9-27BD-4C07-BCE1-57BCE584CFE5}">
+    <dsp:sp modelId="{4CFD6804-8C0F-4F9F-A90E-6BD5AB9C2B8C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5640390" y="9917347"/>
-          <a:ext cx="938971" cy="10645"/>
+          <a:off x="13084622" y="618689"/>
+          <a:ext cx="996036" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12038,10 +12326,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="938971" y="5322"/>
+                <a:pt x="996036" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12094,19 +12382,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6086401" y="9899195"/>
-        <a:ext cx="46948" cy="46948"/>
+        <a:off x="13557739" y="599051"/>
+        <a:ext cx="49801" cy="49801"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{B512A0DA-199F-45E7-ADCB-1D19A5DB77C5}">
+    <dsp:sp modelId="{A2EFEE31-448F-455C-8C70-CD33577FC4C9}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6579361" y="9335812"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="14080658" y="1429"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12149,12 +12437,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -12166,26 +12454,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>tpl_product_info_display.php</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>also_purchased_products.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6613738" y="9370189"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="14117124" y="37895"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{D7231407-A161-4C9C-BFB9-D651AF1947FD}">
+    <dsp:sp modelId="{3F791B83-8F9D-4AEC-A34E-F3313F38BEB7}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="16596808">
-          <a:off x="5319836" y="5868032"/>
-          <a:ext cx="8152879" cy="10645"/>
+        <a:xfrm>
+          <a:off x="16570750" y="618689"/>
+          <a:ext cx="996036" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12196,10 +12484,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="8152879" y="5322"/>
+                <a:pt x="996036" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12237,7 +12525,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -12248,23 +12536,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9192454" y="5669533"/>
-        <a:ext cx="407643" cy="407643"/>
+        <a:off x="17043867" y="599051"/>
+        <a:ext cx="49801" cy="49801"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{2898F935-43C7-4879-803D-0CF37CADF3CA}">
+    <dsp:sp modelId="{F8A96FFD-FE69-476E-A459-8F49D47314A7}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9865761" y="1237184"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="17566786" y="1429"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12307,12 +12595,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -12324,26 +12612,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>tpl_modules_also_purchased_products.php</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" kern="1200"/>
+            <a:t>var_cache.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9900138" y="1271561"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="17603252" y="37895"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{4CFD6804-8C0F-4F9F-A90E-6BD5AB9C2B8C}">
+    <dsp:sp modelId="{746E57B4-FFA3-4E88-BCD5-9D79BDBD9277}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12213190" y="1818718"/>
-          <a:ext cx="938971" cy="10645"/>
+          <a:off x="20056877" y="618689"/>
+          <a:ext cx="996036" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12354,10 +12642,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="938971" y="5322"/>
+                <a:pt x="996036" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12410,19 +12698,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12659201" y="1800567"/>
-        <a:ext cx="46948" cy="46948"/>
+        <a:off x="20529995" y="599051"/>
+        <a:ext cx="49801" cy="49801"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A2EFEE31-448F-455C-8C70-CD33577FC4C9}">
+    <dsp:sp modelId="{AD4DEA5A-B382-4ADA-86B7-A56A91105758}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13152161" y="1237184"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="21052914" y="1429"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12465,12 +12753,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -12482,26 +12770,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>also_purchased_products.php</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>get_customer_recommend_by_view</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13186538" y="1271561"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="21089380" y="37895"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{3F791B83-8F9D-4AEC-A34E-F3313F38BEB7}">
+    <dsp:sp modelId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="15499590" y="1818718"/>
-          <a:ext cx="938971" cy="10645"/>
+        <a:xfrm rot="16874489">
+          <a:off x="7541845" y="8135653"/>
+          <a:ext cx="5109335" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12512,10 +12800,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="938971" y="5322"/>
+                <a:pt x="5109335" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12553,7 +12841,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -12564,23 +12852,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="15945601" y="1800567"/>
-        <a:ext cx="46948" cy="46948"/>
+        <a:off x="9968779" y="8013182"/>
+        <a:ext cx="255466" cy="255466"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{F8A96FFD-FE69-476E-A459-8F49D47314A7}">
+    <dsp:sp modelId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="16438561" y="1237184"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="10594530" y="5012738"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12623,12 +12911,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -12640,26 +12928,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800" kern="1200"/>
-            <a:t>var_cache.php</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_modules_products_info_head.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="16472938" y="1271561"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="10630996" y="5049204"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{746E57B4-FFA3-4E88-BCD5-9D79BDBD9277}">
+    <dsp:sp modelId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="18785990" y="1818718"/>
-          <a:ext cx="938971" cy="10645"/>
+        <a:xfrm rot="17132988">
+          <a:off x="11724889" y="3840245"/>
+          <a:ext cx="3715501" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12670,10 +12958,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="938971" y="5322"/>
+                <a:pt x="3715501" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12711,7 +12999,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -12722,23 +13010,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="19232001" y="1800567"/>
-        <a:ext cx="46948" cy="46948"/>
+        <a:off x="13489752" y="3752620"/>
+        <a:ext cx="185775" cy="185775"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{AD4DEA5A-B382-4ADA-86B7-A56A91105758}">
+    <dsp:sp modelId="{D47872FA-6671-4924-8700-A6F7228C9CAA}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="19724961" y="1237184"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="14080658" y="1433232"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12781,12 +13069,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -12798,26 +13086,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>get_customer_recommend_by_view</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_modules_main_product_new_image.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="19759338" y="1271561"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="14117124" y="1469698"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{85785D8A-406A-42FB-82F8-FBDEE2B8EE6B}">
+    <dsp:sp modelId="{2773881A-7C67-41C3-9241-6B6F6F2DC387}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="16874489">
-          <a:off x="6987971" y="7555247"/>
-          <a:ext cx="4816610" cy="10645"/>
+        <a:xfrm>
+          <a:off x="16570750" y="2050492"/>
+          <a:ext cx="996036" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12828,10 +13116,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="4816610" y="5322"/>
+                <a:pt x="996036" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12869,7 +13157,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -12880,23 +13168,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9275860" y="7440154"/>
-        <a:ext cx="240830" cy="240830"/>
+        <a:off x="17043867" y="2030854"/>
+        <a:ext cx="49801" cy="49801"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}">
+    <dsp:sp modelId="{13D11EEA-3D74-4FB2-9958-DBA3D51C0BA1}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9865761" y="4611612"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="17566786" y="1433232"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12939,12 +13227,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -12956,26 +13244,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>tpl_modules_products_info_head.php</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>图片</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9900138" y="4645989"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="17603252" y="1469698"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A44BF816-0A2E-4CB8-BFF9-2C38AB61864D}">
+    <dsp:sp modelId="{8783F691-2C30-4412-98D8-FDAC14A8B237}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="17692822">
-          <a:off x="11566779" y="4180818"/>
-          <a:ext cx="2231793" cy="10645"/>
+          <a:off x="12398925" y="4556146"/>
+          <a:ext cx="2367429" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12986,10 +13273,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2231793" y="5322"/>
+                <a:pt x="2367429" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13027,7 +13314,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -13038,23 +13325,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12626881" y="4130346"/>
-        <a:ext cx="111589" cy="111589"/>
+        <a:off x="13523454" y="4502223"/>
+        <a:ext cx="118371" cy="118371"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{D47872FA-6671-4924-8700-A6F7228C9CAA}">
+    <dsp:sp modelId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13152161" y="2586955"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="14080658" y="2865034"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13097,12 +13384,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -13114,26 +13401,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>tpl_modules_main_product_new_image.php</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_modules_products_info_translate_on_title.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13186538" y="2621332"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="14117124" y="2901500"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{8783F691-2C30-4412-98D8-FDAC14A8B237}">
+    <dsp:sp modelId="{34F83C04-7029-48DE-ACD5-E0C6D5D03F12}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="19457599">
-          <a:off x="12104502" y="4855704"/>
-          <a:ext cx="1156346" cy="10645"/>
+        <a:xfrm>
+          <a:off x="16570750" y="3482294"/>
+          <a:ext cx="996036" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13144,10 +13431,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1156346" y="5322"/>
+                <a:pt x="996036" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13200,19 +13487,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12653767" y="4832118"/>
-        <a:ext cx="57817" cy="57817"/>
+        <a:off x="17043867" y="3462656"/>
+        <a:ext cx="49801" cy="49801"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{80E2EBCB-5CE3-4DB2-8D97-0A5F7A7212A6}">
+    <dsp:sp modelId="{084CCA24-32A2-4C98-8E62-16CBB06EBC4B}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13152161" y="3936727"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="17566786" y="2865034"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13255,12 +13542,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -13272,15 +13559,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>tpl_modules_products_info_translate_on_title.php</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>标题</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13186538" y="3971104"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="17603252" y="2901500"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FCEB44E5-7AF6-4EBB-9766-B34343D312FE}">
@@ -13289,9 +13575,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="2142401">
-          <a:off x="12104502" y="5530590"/>
-          <a:ext cx="1156346" cy="10645"/>
+        <a:xfrm rot="19457599">
+          <a:off x="12969329" y="5272048"/>
+          <a:ext cx="1226622" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13302,10 +13588,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1156346" y="5322"/>
+                <a:pt x="1226622" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13358,8 +13644,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12653767" y="5507004"/>
-        <a:ext cx="57817" cy="57817"/>
+        <a:off x="13551974" y="5246645"/>
+        <a:ext cx="61331" cy="61331"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4707F9A1-D761-4EDB-ACAD-70D62191C0C9}">
@@ -13369,8 +13655,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13152161" y="5286498"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="14080658" y="4296837"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13413,12 +13699,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -13430,26 +13716,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
             <a:t>tpl_modules_attributes.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13186538" y="5320875"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="14117124" y="4333303"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{9307F662-7AEC-4FD9-B049-1251B671D585}">
+    <dsp:sp modelId="{D65A6760-26D6-4340-A679-8F6CC3C75790}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="3907178">
-          <a:off x="11566779" y="6205475"/>
-          <a:ext cx="2231793" cy="10645"/>
+        <a:xfrm>
+          <a:off x="16570750" y="4914097"/>
+          <a:ext cx="996036" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13460,10 +13746,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2231793" y="5322"/>
+                <a:pt x="996036" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13501,7 +13787,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -13512,23 +13798,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12626881" y="6155003"/>
-        <a:ext cx="111589" cy="111589"/>
+        <a:off x="17043867" y="4894459"/>
+        <a:ext cx="49801" cy="49801"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1E38A29E-159D-47A6-88BA-C2A8D6EE0DD3}">
+    <dsp:sp modelId="{C13B7917-7DA7-44EE-B89F-CFD2F2B85A0B}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13152161" y="6636270"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="17566786" y="4296837"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13571,12 +13857,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -13588,26 +13874,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>tpl_modules_products_quantity_discounts.php</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>属性产品</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13186538" y="6670647"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="17603252" y="4333303"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}">
+    <dsp:sp modelId="{9307F662-7AEC-4FD9-B049-1251B671D585}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17132988">
-          <a:off x="7644959" y="8230132"/>
-          <a:ext cx="3502632" cy="10645"/>
+        <a:xfrm rot="2142401">
+          <a:off x="12969329" y="5987949"/>
+          <a:ext cx="1226622" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13618,10 +13903,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3502632" y="5322"/>
+                <a:pt x="1226622" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13659,7 +13944,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -13670,23 +13955,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9308710" y="8147889"/>
-        <a:ext cx="175131" cy="175131"/>
+        <a:off x="13551974" y="5962546"/>
+        <a:ext cx="61331" cy="61331"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}">
+    <dsp:sp modelId="{1E38A29E-159D-47A6-88BA-C2A8D6EE0DD3}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9865761" y="5961384"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="14080658" y="5728639"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13729,12 +14014,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -13746,26 +14031,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>column_left.php</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_modules_products_quantity_discounts.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9900138" y="5995761"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="14117124" y="5765105"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{0575102E-0DA6-4AC8-8596-3ABCEB6D6A42}">
+    <dsp:sp modelId="{577B39DF-2870-4285-8784-744381993351}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="3310531">
-          <a:off x="8574152" y="10592232"/>
-          <a:ext cx="1644247" cy="10645"/>
+        <a:xfrm>
+          <a:off x="16570750" y="6345900"/>
+          <a:ext cx="996036" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13776,10 +14061,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1644247" y="5322"/>
+                <a:pt x="996036" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13832,19 +14117,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9355169" y="10556449"/>
-        <a:ext cx="82212" cy="82212"/>
+        <a:off x="17043867" y="6326261"/>
+        <a:ext cx="49801" cy="49801"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7E14C1C1-BC53-4754-92BA-B9751D55335A}">
+    <dsp:sp modelId="{779F46FE-DB83-4F70-94D0-DFBAD82789B1}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9865761" y="10685584"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="17566786" y="5728639"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13887,12 +14172,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -13904,26 +14189,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>tpl_products_page_tab_a.php</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>数量折扣</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9900138" y="10719961"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="17603252" y="5765105"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1F30B705-D4F7-485E-9F36-062F34A99D2A}">
+    <dsp:sp modelId="{6F268978-664C-4B83-A14D-CB66569733B9}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17350740">
-          <a:off x="11253585" y="9917347"/>
-          <a:ext cx="2858181" cy="10645"/>
+        <a:xfrm rot="3907178">
+          <a:off x="12398925" y="6703850"/>
+          <a:ext cx="2367429" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13934,10 +14218,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2858181" y="5322"/>
+                <a:pt x="2367429" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13975,7 +14259,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -13986,23 +14270,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12611221" y="9851215"/>
-        <a:ext cx="142909" cy="142909"/>
+        <a:off x="13523454" y="6649927"/>
+        <a:ext cx="118371" cy="118371"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{634A27FE-F3F3-4A9C-84EC-9561A9A7F6B1}">
+    <dsp:sp modelId="{28541AC7-D3D8-472D-87DC-08015E8EB8AA}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13152161" y="7986041"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="14080658" y="7160442"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14045,12 +14329,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -14062,26 +14346,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>tpl_modules_also_purchased_products.php</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>海外仓</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13186538" y="8020418"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="14117124" y="7196908"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1D0C8CB8-6BD7-481D-A856-4E83066AB9BB}">
+    <dsp:sp modelId="{35D7E0F4-E577-444B-99E4-F8D164E0BCD7}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="18289469">
-          <a:off x="11860552" y="10592232"/>
-          <a:ext cx="1644247" cy="10645"/>
+        <a:xfrm rot="4467012">
+          <a:off x="11724889" y="7419751"/>
+          <a:ext cx="3715501" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14092,10 +14375,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1644247" y="5322"/>
+                <a:pt x="3715501" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14133,7 +14416,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -14144,23 +14427,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12641569" y="10556449"/>
-        <a:ext cx="82212" cy="82212"/>
+        <a:off x="13489752" y="7332126"/>
+        <a:ext cx="185775" cy="185775"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7198C7EC-7623-4A5E-BC87-C3132AB8338A}">
+    <dsp:sp modelId="{A3ECFA88-E9D6-4993-9D26-3B184B0D3C1B}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13152161" y="9335812"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="14080658" y="8592244"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14203,12 +14486,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -14220,26 +14503,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>tpl_modules_products_info_translate.php</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>zen_products_star</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13186538" y="9370189"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="14117124" y="8628710"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{0801DDAF-EEDB-4FB0-9CBD-634BB92409A4}">
+    <dsp:sp modelId="{8951976A-AA8D-4CB5-9269-90020B29C9B9}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12213190" y="11267118"/>
-          <a:ext cx="938971" cy="10645"/>
+          <a:off x="16570750" y="9209505"/>
+          <a:ext cx="996036" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14250,10 +14533,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="938971" y="5322"/>
+                <a:pt x="996036" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14306,19 +14589,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12659201" y="11248967"/>
-        <a:ext cx="46948" cy="46948"/>
+        <a:off x="17043867" y="9189866"/>
+        <a:ext cx="49801" cy="49801"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E1D68129-142E-4A8A-B96C-E43717499CD6}">
+    <dsp:sp modelId="{3318446E-9FA2-4789-9D1C-22F36FD6666C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13152161" y="10685584"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="17566786" y="8592244"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14361,12 +14644,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -14378,26 +14661,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>tpl_modules_products_shipping_delivery.php</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>评论星级</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13186538" y="10719961"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="17603252" y="8628710"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{443D1CFF-1AB4-4A1A-A786-8370C61C29BF}">
+    <dsp:sp modelId="{1311DE0F-2050-4A7D-A921-3CF2A828E484}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="3310531">
-          <a:off x="11860552" y="11942004"/>
-          <a:ext cx="1644247" cy="10645"/>
+        <a:xfrm rot="17132988">
+          <a:off x="8238761" y="8851554"/>
+          <a:ext cx="3715501" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14408,10 +14690,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1644247" y="5322"/>
+                <a:pt x="3715501" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14449,7 +14731,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -14460,23 +14742,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12641569" y="11906220"/>
-        <a:ext cx="82212" cy="82212"/>
+        <a:off x="10003625" y="8763929"/>
+        <a:ext cx="185775" cy="185775"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{C25262C4-ABEB-46B4-B8CF-A0B809264530}">
+    <dsp:sp modelId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13152161" y="12035355"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="10594530" y="6444540"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14519,12 +14801,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -14536,26 +14818,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>tpl_modules_products_forum_listing.php</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>column_left.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13186538" y="12069732"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="10630996" y="6481006"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{343E6E5B-CC3D-4E24-955B-0E5B78CE3991}">
+    <dsp:sp modelId="{0575102E-0DA6-4AC8-8596-3ABCEB6D6A42}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="4249260">
-          <a:off x="11253585" y="12616889"/>
-          <a:ext cx="2858181" cy="10645"/>
+          <a:off x="8580570" y="12073110"/>
+          <a:ext cx="3031884" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14566,10 +14848,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2858181" y="5322"/>
+                <a:pt x="3031884" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14607,7 +14889,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -14618,23 +14900,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12611221" y="12550758"/>
-        <a:ext cx="142909" cy="142909"/>
+        <a:off x="10020715" y="12002575"/>
+        <a:ext cx="151594" cy="151594"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{5775B216-44FE-4F35-B639-AF206C3F76DD}">
+    <dsp:sp modelId="{7E14C1C1-BC53-4754-92BA-B9751D55335A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13152161" y="13385127"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="10594530" y="12887652"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14677,12 +14959,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -14694,26 +14976,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>product_accessories</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_products_page_tab_a.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13186538" y="13419504"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="10630996" y="12924118"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{DF3E950C-F570-40DD-BD47-9C5516CC6FB6}">
+    <dsp:sp modelId="{1F30B705-D4F7-485E-9F36-062F34A99D2A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4808052">
-          <a:off x="6656212" y="12616889"/>
-          <a:ext cx="5480127" cy="10645"/>
+        <a:xfrm rot="17350740">
+          <a:off x="12066698" y="12073110"/>
+          <a:ext cx="3031884" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14724,10 +15006,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="5480127" y="5322"/>
+                <a:pt x="3031884" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14765,7 +15047,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -14776,23 +15058,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9259272" y="12485209"/>
-        <a:ext cx="274006" cy="274006"/>
+        <a:off x="13506843" y="12002575"/>
+        <a:ext cx="151594" cy="151594"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{0E0E136A-8620-44A0-A8CA-199634068733}">
+    <dsp:sp modelId="{634A27FE-F3F3-4A9C-84EC-9561A9A7F6B1}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9865761" y="14734898"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="14080658" y="10024047"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14835,12 +15117,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -14852,26 +15134,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>TEXT_CUSTOMER_IMAGES</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_modules_also_purchased_products.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9900138" y="14769275"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="14117124" y="10060513"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{641D670E-C412-4D0E-A23F-D8989384F4C6}">
+    <dsp:sp modelId="{1D0C8CB8-6BD7-481D-A856-4E83066AB9BB}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="12213190" y="15316432"/>
-          <a:ext cx="938971" cy="10645"/>
+        <a:xfrm rot="18289469">
+          <a:off x="12710552" y="12789011"/>
+          <a:ext cx="1744175" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14882,10 +15164,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="938971" y="5322"/>
+                <a:pt x="1744175" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14923,7 +15205,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -14934,23 +15216,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12659201" y="15298281"/>
-        <a:ext cx="46948" cy="46948"/>
+        <a:off x="13539036" y="12750669"/>
+        <a:ext cx="87208" cy="87208"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{57692DBE-23AB-4CFD-8267-448DDA996315}">
+    <dsp:sp modelId="{7198C7EC-7623-4A5E-BC87-C3132AB8338A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13152161" y="14734898"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="14080658" y="11455849"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14993,12 +15275,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -15010,26 +15292,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>tpl_modules_customer_upload_img.php</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_modules_products_info_translate.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13186538" y="14769275"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="14117124" y="11492315"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{33C553A3-157B-4A7E-A9A2-619C06049D06}">
+    <dsp:sp modelId="{0801DDAF-EEDB-4FB0-9CBD-634BB92409A4}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4924756">
-          <a:off x="5989344" y="13291775"/>
-          <a:ext cx="6813863" cy="10645"/>
+        <a:xfrm>
+          <a:off x="13084622" y="13504912"/>
+          <a:ext cx="996036" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15040,10 +15322,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="6813863" y="5322"/>
+                <a:pt x="996036" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15081,7 +15363,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -15092,23 +15374,23 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9225929" y="13126751"/>
-        <a:ext cx="340693" cy="340693"/>
+        <a:off x="13557739" y="13485274"/>
+        <a:ext cx="49801" cy="49801"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E52019C8-7216-48BA-A1EB-279757EB0574}">
+    <dsp:sp modelId="{E1D68129-142E-4A8A-B96C-E43717499CD6}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9865761" y="16084669"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="14080658" y="12887652"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15151,12 +15433,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -15168,26 +15450,26 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
-            <a:t>TEXT_CUSTOMER_VIDEOS</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_modules_products_shipping_delivery.php</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9900138" y="16119046"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="14117124" y="12924118"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{CA60F4DB-F023-433F-95B2-356A28D29C17}">
+    <dsp:sp modelId="{443D1CFF-1AB4-4A1A-A786-8370C61C29BF}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="5003192">
-          <a:off x="5319836" y="13966661"/>
-          <a:ext cx="8152879" cy="10645"/>
+        <a:xfrm rot="3310531">
+          <a:off x="12710552" y="14220813"/>
+          <a:ext cx="1744175" cy="10524"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15198,10 +15480,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="5322"/>
+                <a:pt x="0" y="5262"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="8152879" y="5322"/>
+                <a:pt x="1744175" y="5262"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15254,19 +15536,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9192454" y="13768162"/>
-        <a:ext cx="407643" cy="407643"/>
+        <a:off x="13539036" y="14182471"/>
+        <a:ext cx="87208" cy="87208"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{430A3F02-1AD7-4B3E-93A4-A48F033178F2}">
+    <dsp:sp modelId="{C25262C4-ABEB-46B4-B8CF-A0B809264530}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9865761" y="17434441"/>
-          <a:ext cx="2347428" cy="1173714"/>
+          <a:off x="14080658" y="14319454"/>
+          <a:ext cx="2490091" cy="1245045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15309,12 +15591,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -15326,15 +15608,805 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" kern="1200"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_modules_products_forum_listing.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="14117124" y="14355920"/>
+        <a:ext cx="2417159" cy="1172113"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{343E6E5B-CC3D-4E24-955B-0E5B78CE3991}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4249260">
+          <a:off x="12066698" y="14936715"/>
+          <a:ext cx="3031884" cy="10524"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5262"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="3031884" y="5262"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="13506843" y="14866180"/>
+        <a:ext cx="151594" cy="151594"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5775B216-44FE-4F35-B639-AF206C3F76DD}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="14080658" y="15751257"/>
+          <a:ext cx="2490091" cy="1245045"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>product_accessories</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="14117124" y="15787723"/>
+        <a:ext cx="2417159" cy="1172113"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{DF3E950C-F570-40DD-BD47-9C5516CC6FB6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4924756">
+          <a:off x="6482527" y="14220813"/>
+          <a:ext cx="7227969" cy="10524"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5262"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="7227969" y="5262"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9915813" y="14045377"/>
+        <a:ext cx="361398" cy="361398"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0E0E136A-8620-44A0-A8CA-199634068733}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="10594530" y="17183059"/>
+          <a:ext cx="2490091" cy="1245045"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>TEXT_CUSTOMER_IMAGES</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="10630996" y="17219525"/>
+        <a:ext cx="2417159" cy="1172113"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{641D670E-C412-4D0E-A23F-D8989384F4C6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="13084622" y="17800320"/>
+          <a:ext cx="996036" cy="10524"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5262"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="996036" y="5262"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="13557739" y="17780681"/>
+        <a:ext cx="49801" cy="49801"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{57692DBE-23AB-4CFD-8267-448DDA996315}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="14080658" y="17183059"/>
+          <a:ext cx="2490091" cy="1245045"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>tpl_modules_customer_upload_img.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="14117124" y="17219525"/>
+        <a:ext cx="2417159" cy="1172113"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{33C553A3-157B-4A7E-A9A2-619C06049D06}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5003192">
+          <a:off x="5772330" y="14936715"/>
+          <a:ext cx="8648363" cy="10524"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5262"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="8648363" y="5262"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9880303" y="14725768"/>
+        <a:ext cx="432418" cy="432418"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E52019C8-7216-48BA-A1EB-279757EB0574}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="10594530" y="18614862"/>
+          <a:ext cx="2490091" cy="1245045"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>TEXT_CUSTOMER_VIDEOS</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="10630996" y="18651328"/>
+        <a:ext cx="2417159" cy="1172113"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CA60F4DB-F023-433F-95B2-356A28D29C17}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5059479">
+          <a:off x="5060518" y="15652616"/>
+          <a:ext cx="10071988" cy="10524"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="5262"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="10071988" y="5262"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9844712" y="15406079"/>
+        <a:ext cx="503599" cy="503599"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{430A3F02-1AD7-4B3E-93A4-A48F033178F2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="10594530" y="20046664"/>
+          <a:ext cx="2490091" cy="1245045"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" kern="1200"/>
             <a:t>TEXT_CUSTOMER_CONSULTING</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9900138" y="17468818"/>
-        <a:ext cx="2278674" cy="1104960"/>
+        <a:off x="10630996" y="20083130"/>
+        <a:ext cx="2417159" cy="1172113"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -19697,15 +20769,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19726,16 +20798,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200023</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>80960</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66672</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>33335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20062,8 +21134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R200" sqref="R200"/>
+    <sheetView tabSelected="1" topLeftCell="F106" workbookViewId="0">
+      <selection activeCell="T80" sqref="T80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/zencart/docs/模块功能划分.xlsx
+++ b/zencart/docs/模块功能划分.xlsx
@@ -7013,10 +7013,24 @@
     <dgm:pt modelId="{2773881A-7C67-41C3-9241-6B6F6F2DC387}" type="pres">
       <dgm:prSet presAssocID="{A05354B3-36D9-4DD8-8B34-EA3AEC452E63}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AE3809D7-5EF4-4D4F-99FA-EA7995C0D07E}" type="pres">
       <dgm:prSet presAssocID="{A05354B3-36D9-4DD8-8B34-EA3AEC452E63}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{93EFAB7F-905B-4CBC-B074-67714B07DFB2}" type="pres">
       <dgm:prSet presAssocID="{D553F2E4-5003-49CE-927E-DB28186447D9}" presName="Name30" presStyleCnt="0"/>
@@ -7025,6 +7039,13 @@
     <dgm:pt modelId="{13D11EEA-3D74-4FB2-9958-DBA3D51C0BA1}" type="pres">
       <dgm:prSet presAssocID="{D553F2E4-5003-49CE-927E-DB28186447D9}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{BFA761AB-8A95-44EE-8DDF-975A7936C360}" type="pres">
       <dgm:prSet presAssocID="{D553F2E4-5003-49CE-927E-DB28186447D9}" presName="hierChild3" presStyleCnt="0"/>
@@ -7074,10 +7095,24 @@
     <dgm:pt modelId="{34F83C04-7029-48DE-ACD5-E0C6D5D03F12}" type="pres">
       <dgm:prSet presAssocID="{117D11F4-DD02-4CCD-BD3D-E9EAEFE0FEF5}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{19EBA475-3303-4B3E-906D-17D283E4C7ED}" type="pres">
       <dgm:prSet presAssocID="{117D11F4-DD02-4CCD-BD3D-E9EAEFE0FEF5}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EA47F5D6-C890-4572-A47D-CA2896540A70}" type="pres">
       <dgm:prSet presAssocID="{93142448-5088-4BE1-9144-2F55C5419AB6}" presName="Name30" presStyleCnt="0"/>
@@ -7086,6 +7121,13 @@
     <dgm:pt modelId="{084CCA24-32A2-4C98-8E62-16CBB06EBC4B}" type="pres">
       <dgm:prSet presAssocID="{93142448-5088-4BE1-9144-2F55C5419AB6}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0BDD21F0-104E-451A-A9DC-988458178FE9}" type="pres">
       <dgm:prSet presAssocID="{93142448-5088-4BE1-9144-2F55C5419AB6}" presName="hierChild3" presStyleCnt="0"/>
@@ -7135,10 +7177,24 @@
     <dgm:pt modelId="{D65A6760-26D6-4340-A679-8F6CC3C75790}" type="pres">
       <dgm:prSet presAssocID="{1BE39D87-2EA5-4308-AFAD-67B00EFA6B10}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6F13F81D-6ABC-4D63-BC7A-10AF3D7A0F96}" type="pres">
       <dgm:prSet presAssocID="{1BE39D87-2EA5-4308-AFAD-67B00EFA6B10}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F65391B9-8CBE-4DB6-9030-033C9C1AC4D1}" type="pres">
       <dgm:prSet presAssocID="{43740451-90B7-46AF-85C2-D616196C550E}" presName="Name30" presStyleCnt="0"/>
@@ -7147,6 +7203,13 @@
     <dgm:pt modelId="{C13B7917-7DA7-44EE-B89F-CFD2F2B85A0B}" type="pres">
       <dgm:prSet presAssocID="{43740451-90B7-46AF-85C2-D616196C550E}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1C35F1D1-EE5D-4EE4-ADCD-E36431DCD931}" type="pres">
       <dgm:prSet presAssocID="{43740451-90B7-46AF-85C2-D616196C550E}" presName="hierChild3" presStyleCnt="0"/>
@@ -7196,10 +7259,24 @@
     <dgm:pt modelId="{577B39DF-2870-4285-8784-744381993351}" type="pres">
       <dgm:prSet presAssocID="{061FB950-AA34-4798-8D26-DC0D3862FCC3}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{38C50D4F-A900-4A44-B8F8-7758498EBFF2}" type="pres">
       <dgm:prSet presAssocID="{061FB950-AA34-4798-8D26-DC0D3862FCC3}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{03B0250C-3D69-431A-B222-0ABD2A544BA6}" type="pres">
       <dgm:prSet presAssocID="{BDA4DFBC-B132-42B5-8F9B-80C4784E13B3}" presName="Name30" presStyleCnt="0"/>
@@ -7208,6 +7285,13 @@
     <dgm:pt modelId="{779F46FE-DB83-4F70-94D0-DFBAD82789B1}" type="pres">
       <dgm:prSet presAssocID="{BDA4DFBC-B132-42B5-8F9B-80C4784E13B3}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{91C1BFB4-766F-4D7A-906A-EA7F72272CF3}" type="pres">
       <dgm:prSet presAssocID="{BDA4DFBC-B132-42B5-8F9B-80C4784E13B3}" presName="hierChild3" presStyleCnt="0"/>
@@ -7216,10 +7300,24 @@
     <dgm:pt modelId="{6F268978-664C-4B83-A14D-CB66569733B9}" type="pres">
       <dgm:prSet presAssocID="{AF4FEF3D-8731-46C4-9C67-4034174C318A}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{21306C94-17B2-4874-97EA-3A85FC13140D}" type="pres">
       <dgm:prSet presAssocID="{AF4FEF3D-8731-46C4-9C67-4034174C318A}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{10579E47-AB0C-4EDF-9D9E-0C8EC97CF74C}" type="pres">
       <dgm:prSet presAssocID="{8BF3371F-37B0-4008-81A3-022828676E90}" presName="Name30" presStyleCnt="0"/>
@@ -7228,6 +7326,13 @@
     <dgm:pt modelId="{28541AC7-D3D8-472D-87DC-08015E8EB8AA}" type="pres">
       <dgm:prSet presAssocID="{8BF3371F-37B0-4008-81A3-022828676E90}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6755EA8F-B5BE-4242-90CD-CF72FF5A47A8}" type="pres">
       <dgm:prSet presAssocID="{8BF3371F-37B0-4008-81A3-022828676E90}" presName="hierChild3" presStyleCnt="0"/>
@@ -7236,10 +7341,24 @@
     <dgm:pt modelId="{35D7E0F4-E577-444B-99E4-F8D164E0BCD7}" type="pres">
       <dgm:prSet presAssocID="{74CB4036-ED90-4ACC-9E85-658981007752}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4066A51B-A27E-42C5-8B6D-2DCF28245809}" type="pres">
       <dgm:prSet presAssocID="{74CB4036-ED90-4ACC-9E85-658981007752}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DCB1662A-0291-4A80-B041-DFA530D86614}" type="pres">
       <dgm:prSet presAssocID="{64A4C501-BF30-4666-BACA-39F77E87B444}" presName="Name30" presStyleCnt="0"/>
@@ -7263,10 +7382,24 @@
     <dgm:pt modelId="{8951976A-AA8D-4CB5-9269-90020B29C9B9}" type="pres">
       <dgm:prSet presAssocID="{C4E2A896-F84E-4EDB-AFCD-4E9BF3C4EFD0}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{20B84707-C7F7-444A-ACB0-96942961ACCB}" type="pres">
       <dgm:prSet presAssocID="{C4E2A896-F84E-4EDB-AFCD-4E9BF3C4EFD0}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CA39FC39-6B47-4A9A-903A-98D33A8FE8F3}" type="pres">
       <dgm:prSet presAssocID="{3A2075E2-D0AD-425D-A1BE-153A57111333}" presName="Name30" presStyleCnt="0"/>
@@ -7275,6 +7408,13 @@
     <dgm:pt modelId="{3318446E-9FA2-4789-9D1C-22F36FD6666C}" type="pres">
       <dgm:prSet presAssocID="{3A2075E2-D0AD-425D-A1BE-153A57111333}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="27"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6BA61DF2-75B0-493C-96C2-EC545E0731C9}" type="pres">
       <dgm:prSet presAssocID="{3A2075E2-D0AD-425D-A1BE-153A57111333}" presName="hierChild3" presStyleCnt="0"/>
@@ -7739,14 +7879,14 @@
   <dgm:cxnLst>
     <dgm:cxn modelId="{6CD41AC0-251D-4922-9575-8B4512ADF8B1}" type="presOf" srcId="{201D2E86-29B5-44CE-B880-84185C4C9696}" destId="{C9AC55F9-27BD-4C07-BCE1-57BCE584CFE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{E9C023D9-FDC1-4DF3-AD45-34AAB9583A36}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{8B2B853F-AAFA-4715-91F0-14EC4F346491}" srcOrd="0" destOrd="0" parTransId="{F0CEDA90-DA89-41A4-A112-D0F71210AD05}" sibTransId="{404732D1-7624-43D5-9F79-CE1ECE11FBE6}"/>
+    <dgm:cxn modelId="{4F859922-60DB-4CFB-8C11-4F8E32C82FFC}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{64A4C501-BF30-4666-BACA-39F77E87B444}" srcOrd="5" destOrd="0" parTransId="{74CB4036-ED90-4ACC-9E85-658981007752}" sibTransId="{2273EB48-B0B9-4991-9E81-2F46B1E05CA1}"/>
     <dgm:cxn modelId="{236E1B5A-7210-4114-9E0F-D4FAB3DEF19C}" type="presOf" srcId="{FAF7D901-90A5-4D63-B540-F0098C05641C}" destId="{5775B216-44FE-4F35-B639-AF206C3F76DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{4F859922-60DB-4CFB-8C11-4F8E32C82FFC}" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{64A4C501-BF30-4666-BACA-39F77E87B444}" srcOrd="5" destOrd="0" parTransId="{74CB4036-ED90-4ACC-9E85-658981007752}" sibTransId="{2273EB48-B0B9-4991-9E81-2F46B1E05CA1}"/>
     <dgm:cxn modelId="{000773AC-81AA-430B-8B01-7E545191E57A}" srcId="{295836EE-9898-4D01-8116-58F01C1A8092}" destId="{7002E401-1A71-48F6-BE66-E03CA9D74B94}" srcOrd="0" destOrd="0" parTransId="{8EA142D3-7323-43A5-87B8-F1214F4A980D}" sibTransId="{B0E45E60-0CFB-4F25-8337-FC54C681585D}"/>
     <dgm:cxn modelId="{1A574872-508E-4A50-89FD-92F1760E8842}" type="presOf" srcId="{C8FBFF21-C81D-4B59-A053-5DC087865D05}" destId="{641D670E-C412-4D0E-A23F-D8989384F4C6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{9BE1E706-B48B-4F02-B830-44DDC8745F02}" type="presOf" srcId="{49D03A51-E8B9-478C-93EE-18CC012808C1}" destId="{8F62B0A0-055B-4267-AC07-31B1EC1A0A7B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{D8387E0F-4CE1-4E67-B37B-2E531F6E5755}" type="presOf" srcId="{A05354B3-36D9-4DD8-8B34-EA3AEC452E63}" destId="{2773881A-7C67-41C3-9241-6B6F6F2DC387}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{065E058B-9BBA-4F70-ABC3-200FAB07429F}" type="presOf" srcId="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" destId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{BC7353E9-901D-4DBC-B847-279B6C2F6697}" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" srcOrd="1" destOrd="0" parTransId="{ECDEDCD0-3FFF-4C90-A9CA-4D3A3CD3E7AE}" sibTransId="{162F667C-216A-4CF4-89D5-AA1A30D1A241}"/>
-    <dgm:cxn modelId="{065E058B-9BBA-4F70-ABC3-200FAB07429F}" type="presOf" srcId="{DAEC59BC-3EA9-4FC5-84C3-110BDF33C3B7}" destId="{C75B48C4-461E-4809-9204-F6A83C0CF97C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{BC949F6E-B84D-470D-AF98-82CAC02390FA}" srcId="{64A4C501-BF30-4666-BACA-39F77E87B444}" destId="{3A2075E2-D0AD-425D-A1BE-153A57111333}" srcOrd="0" destOrd="0" parTransId="{C4E2A896-F84E-4EDB-AFCD-4E9BF3C4EFD0}" sibTransId="{201EEC1F-AD6C-4112-8BC5-E7D65A88C8E4}"/>
     <dgm:cxn modelId="{23EB6930-CC5E-4ED7-BA3F-7E07AB8DC708}" type="presOf" srcId="{0E5904D3-88FD-4CBB-8980-B1AF0D921F2A}" destId="{B512A0DA-199F-45E7-ADCB-1D19A5DB77C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{10BFBC44-72A7-4EAB-9DDB-FF2FD8CCB687}" type="presOf" srcId="{EE1A2468-3288-4E2A-9579-D9E012C0657D}" destId="{7198C7EC-7623-4A5E-BC87-C3132AB8338A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
@@ -7797,8 +7937,8 @@
     <dgm:cxn modelId="{BAB31805-CE2E-4372-BB96-F6AEDDD43412}" type="presOf" srcId="{0457C430-96D0-4DA7-8BA2-48A6707275F4}" destId="{4CFD6804-8C0F-4F9F-A90E-6BD5AB9C2B8C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{FBCE7963-7FD4-4165-8CE3-5E5E665971A4}" type="presOf" srcId="{1FBDE864-F9DE-41DA-B292-5DC28959A9B3}" destId="{B40D749F-EAAC-47DA-BB9F-4E368D95F9B2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{5FF686C6-17E5-4A59-9952-E07C0DE58854}" type="presOf" srcId="{CA122700-3CB7-4094-8D40-298220BCF9CE}" destId="{4DA3DE6D-E22A-459F-9C90-25561DC5E2FD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{58F2EF84-28F5-46FF-B3D6-578AC619E88C}" type="presOf" srcId="{117D11F4-DD02-4CCD-BD3D-E9EAEFE0FEF5}" destId="{19EBA475-3303-4B3E-906D-17D283E4C7ED}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{5CD9EB8C-0C1C-4426-B8B3-30D9B7264B57}" type="presOf" srcId="{4AC63CBC-80FC-43CB-882D-3D85E0C55271}" destId="{D47872FA-6671-4924-8700-A6F7228C9CAA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{58F2EF84-28F5-46FF-B3D6-578AC619E88C}" type="presOf" srcId="{117D11F4-DD02-4CCD-BD3D-E9EAEFE0FEF5}" destId="{19EBA475-3303-4B3E-906D-17D283E4C7ED}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{F1AF9E78-287F-4722-BE1E-D4AFE571662F}" srcId="{0C98E791-B2D5-46E8-A2DC-EF2B0563B341}" destId="{B7FB9C49-37C5-44CC-A6E9-1F35367C20AE}" srcOrd="0" destOrd="0" parTransId="{CA4E6B94-855B-43EA-8D34-6B683AFCFFCE}" sibTransId="{C6C2F5B2-F858-4699-B1DF-0A9C787E3A7E}"/>
     <dgm:cxn modelId="{CD957892-5987-4025-983C-B56511782184}" type="presOf" srcId="{AF4FEF3D-8731-46C4-9C67-4034174C318A}" destId="{21306C94-17B2-4874-97EA-3A85FC13140D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{9565190C-FE6F-460C-86F5-AE07E63B29AB}" type="presOf" srcId="{30D03971-7F89-4C3B-92A1-1B293A417E16}" destId="{FB059D17-98E4-4179-8277-4AC6FFE3FD7F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
@@ -21134,7 +21274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L103" workbookViewId="0">
       <selection activeCell="T80" sqref="T80"/>
     </sheetView>
   </sheetViews>
